--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Dropbox\ISC\Sem 06\FRONT\PROJEKT\git\front-projekt\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Dropbox\ISC\Sem 06\FRONT\PROJEKT\git\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AE6707-6E65-411D-9411-28C83CC49018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A01BEF-B1F3-4888-B842-23954E0C50D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,9 +1205,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1216,6 +1213,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1448,8 +1448,8 @@
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="J6" s="28">
         <f>SUM(J10:J74)</f>
-        <v>52.75</v>
+        <v>54.25</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J7" s="28">
         <f t="shared" si="1"/>
-        <v>67.25</v>
+        <v>65.75</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
@@ -1694,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="22">
-        <v>15.25</v>
+        <v>15.5</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
@@ -3300,7 +3300,9 @@
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
+      <c r="J66" s="22">
+        <v>1</v>
+      </c>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
@@ -3326,7 +3328,9 @@
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
+      <c r="J67" s="22">
+        <v>0.25</v>
+      </c>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
     </row>
@@ -3559,141 +3563,141 @@
   <sheetData>
     <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="66" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="66" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="66" t="s">
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="66" t="s">
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="64" t="s">
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="64" t="s">
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="64" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="64" t="s">
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="64" t="s">
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="65"/>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="64" t="s">
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="65"/>
-      <c r="CH1" s="65"/>
-      <c r="CI1" s="65"/>
-      <c r="CJ1" s="65"/>
-      <c r="CK1" s="64" t="s">
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="CL1" s="65"/>
-      <c r="CM1" s="65"/>
-      <c r="CN1" s="65"/>
-      <c r="CO1" s="65"/>
-      <c r="CP1" s="65"/>
-      <c r="CQ1" s="65"/>
-      <c r="CR1" s="64" t="s">
+      <c r="CL1" s="64"/>
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="CS1" s="65"/>
-      <c r="CT1" s="65"/>
-      <c r="CU1" s="65"/>
-      <c r="CV1" s="65"/>
-      <c r="CW1" s="65"/>
-      <c r="CX1" s="65"/>
-      <c r="CY1" s="64" t="s">
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64"/>
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64"/>
+      <c r="CY1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="CZ1" s="65"/>
-      <c r="DA1" s="65"/>
-      <c r="DB1" s="65"/>
-      <c r="DC1" s="65"/>
-      <c r="DD1" s="65"/>
-      <c r="DE1" s="65"/>
+      <c r="CZ1" s="64"/>
+      <c r="DA1" s="64"/>
+      <c r="DB1" s="64"/>
+      <c r="DC1" s="64"/>
+      <c r="DD1" s="64"/>
+      <c r="DE1" s="64"/>
       <c r="DF1" s="2"/>
       <c r="DG1" s="2"/>
       <c r="DH1" s="2"/>
@@ -5168,7 +5172,7 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="67" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -5177,21 +5181,21 @@
     </row>
     <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="63"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="63"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="63"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5201,211 +5205,211 @@
     </row>
     <row r="50" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="63"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="63"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="63"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="63"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="63"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="63"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="63"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="63"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="63"/>
+      <c r="B58" s="67"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B59" s="63"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="63"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="63"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B62" s="63"/>
+      <c r="B62" s="67"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="63"/>
+      <c r="B63" s="67"/>
       <c r="C63" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B64" s="63"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="63"/>
+      <c r="B65" s="67"/>
       <c r="C65" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="63"/>
+      <c r="B66" s="67"/>
       <c r="C66" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="67" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="63"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="63"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B69" s="63"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="63"/>
+      <c r="B70" s="67"/>
       <c r="C70" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B71" s="63"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B72" s="63"/>
+      <c r="B72" s="67"/>
       <c r="C72" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B73" s="63"/>
+      <c r="B73" s="67"/>
       <c r="C73" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="74" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B74" s="63"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B75" s="63"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="63"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="63"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B78" s="63"/>
+      <c r="B78" s="67"/>
       <c r="C78" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA78" s="6"/>
     </row>
     <row r="79" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B79" s="63"/>
+      <c r="B79" s="67"/>
       <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B80" s="63"/>
+      <c r="B80" s="67"/>
       <c r="C80" s="15" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="81" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B81" s="63"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="60" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="82" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="63"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="60" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="83" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="63"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="60" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="63"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="15" t="s">
         <v>258</v>
       </c>
@@ -8160,7 +8164,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="CD1:CJ1"/>
     <mergeCell ref="B79:B84"/>
     <mergeCell ref="B46:B78"/>
     <mergeCell ref="CK1:CQ1"/>
@@ -8177,6 +8180,7 @@
     <mergeCell ref="BI1:BO1"/>
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
+    <mergeCell ref="CD1:CJ1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -8211,194 +8215,194 @@
   <sheetData>
     <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="64" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="64" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="64" t="s">
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="64" t="s">
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="64" t="s">
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="64" t="s">
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="64" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="64" t="s">
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="64" t="s">
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="65"/>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="64" t="s">
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="65"/>
-      <c r="CH1" s="65"/>
-      <c r="CI1" s="65"/>
-      <c r="CJ1" s="65"/>
-      <c r="CK1" s="64" t="s">
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="CL1" s="65"/>
-      <c r="CM1" s="65"/>
-      <c r="CN1" s="65"/>
-      <c r="CO1" s="65"/>
-      <c r="CP1" s="65"/>
-      <c r="CQ1" s="65"/>
-      <c r="CR1" s="64" t="s">
+      <c r="CL1" s="64"/>
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="CS1" s="65"/>
-      <c r="CT1" s="65"/>
-      <c r="CU1" s="65"/>
-      <c r="CV1" s="65"/>
-      <c r="CW1" s="65"/>
-      <c r="CX1" s="65"/>
-      <c r="CY1" s="64" t="s">
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64"/>
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64"/>
+      <c r="CY1" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="CZ1" s="65"/>
-      <c r="DA1" s="65"/>
-      <c r="DB1" s="65"/>
-      <c r="DC1" s="65"/>
-      <c r="DD1" s="65"/>
-      <c r="DE1" s="65"/>
-      <c r="DF1" s="64" t="s">
+      <c r="CZ1" s="64"/>
+      <c r="DA1" s="64"/>
+      <c r="DB1" s="64"/>
+      <c r="DC1" s="64"/>
+      <c r="DD1" s="64"/>
+      <c r="DE1" s="64"/>
+      <c r="DF1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="DG1" s="65"/>
-      <c r="DH1" s="65"/>
-      <c r="DI1" s="65"/>
-      <c r="DJ1" s="65"/>
-      <c r="DK1" s="65"/>
-      <c r="DL1" s="65"/>
-      <c r="DM1" s="64" t="s">
+      <c r="DG1" s="64"/>
+      <c r="DH1" s="64"/>
+      <c r="DI1" s="64"/>
+      <c r="DJ1" s="64"/>
+      <c r="DK1" s="64"/>
+      <c r="DL1" s="64"/>
+      <c r="DM1" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="DN1" s="65"/>
-      <c r="DO1" s="65"/>
-      <c r="DP1" s="65"/>
-      <c r="DQ1" s="65"/>
-      <c r="DR1" s="65"/>
-      <c r="DS1" s="65"/>
-      <c r="DT1" s="64"/>
-      <c r="DU1" s="65"/>
-      <c r="DV1" s="65"/>
-      <c r="DW1" s="65"/>
-      <c r="DX1" s="65"/>
-      <c r="DY1" s="65"/>
-      <c r="DZ1" s="65"/>
-      <c r="EA1" s="64"/>
-      <c r="EB1" s="65"/>
-      <c r="EC1" s="65"/>
-      <c r="ED1" s="65"/>
-      <c r="EE1" s="65"/>
-      <c r="EF1" s="65"/>
-      <c r="EG1" s="65"/>
-      <c r="EH1" s="64"/>
-      <c r="EI1" s="65"/>
-      <c r="EJ1" s="65"/>
-      <c r="EK1" s="65"/>
-      <c r="EL1" s="65"/>
-      <c r="EM1" s="65"/>
-      <c r="EN1" s="65"/>
-      <c r="EO1" s="64"/>
-      <c r="EP1" s="65"/>
-      <c r="EQ1" s="65"/>
-      <c r="ER1" s="65"/>
-      <c r="ES1" s="65"/>
-      <c r="ET1" s="65"/>
-      <c r="EU1" s="65"/>
-      <c r="EV1" s="64"/>
-      <c r="EW1" s="65"/>
-      <c r="EX1" s="65"/>
-      <c r="EY1" s="65"/>
-      <c r="EZ1" s="65"/>
-      <c r="FA1" s="65"/>
-      <c r="FB1" s="65"/>
+      <c r="DN1" s="64"/>
+      <c r="DO1" s="64"/>
+      <c r="DP1" s="64"/>
+      <c r="DQ1" s="64"/>
+      <c r="DR1" s="64"/>
+      <c r="DS1" s="64"/>
+      <c r="DT1" s="63"/>
+      <c r="DU1" s="64"/>
+      <c r="DV1" s="64"/>
+      <c r="DW1" s="64"/>
+      <c r="DX1" s="64"/>
+      <c r="DY1" s="64"/>
+      <c r="DZ1" s="64"/>
+      <c r="EA1" s="63"/>
+      <c r="EB1" s="64"/>
+      <c r="EC1" s="64"/>
+      <c r="ED1" s="64"/>
+      <c r="EE1" s="64"/>
+      <c r="EF1" s="64"/>
+      <c r="EG1" s="64"/>
+      <c r="EH1" s="63"/>
+      <c r="EI1" s="64"/>
+      <c r="EJ1" s="64"/>
+      <c r="EK1" s="64"/>
+      <c r="EL1" s="64"/>
+      <c r="EM1" s="64"/>
+      <c r="EN1" s="64"/>
+      <c r="EO1" s="63"/>
+      <c r="EP1" s="64"/>
+      <c r="EQ1" s="64"/>
+      <c r="ER1" s="64"/>
+      <c r="ES1" s="64"/>
+      <c r="ET1" s="64"/>
+      <c r="EU1" s="64"/>
+      <c r="EV1" s="63"/>
+      <c r="EW1" s="64"/>
+      <c r="EX1" s="64"/>
+      <c r="EY1" s="64"/>
+      <c r="EZ1" s="64"/>
+      <c r="FA1" s="64"/>
+      <c r="FB1" s="64"/>
     </row>
     <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Dropbox\ISC\Sem 06\FRONT\PROJEKT\git\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A01BEF-B1F3-4888-B842-23954E0C50D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7C3F60-5D04-40E7-A9EA-827EE3629B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,6 +1205,9 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1213,9 +1216,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1449,7 +1449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="J6" s="28">
         <f>SUM(J10:J74)</f>
-        <v>54.25</v>
+        <v>55.5</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J7" s="28">
         <f t="shared" si="1"/>
-        <v>65.75</v>
+        <v>64.5</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
@@ -3301,7 +3301,7 @@
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
       <c r="J66" s="22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
@@ -3329,7 +3329,7 @@
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
       <c r="J67" s="22">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
@@ -3563,141 +3563,141 @@
   <sheetData>
     <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="65" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="65" t="s">
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="65" t="s">
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="65" t="s">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="63" t="s">
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="63" t="s">
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="63" t="s">
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="63" t="s">
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="63" t="s">
+      <c r="BJ1" s="65"/>
+      <c r="BK1" s="65"/>
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="63" t="s">
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="65"/>
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="64"/>
-      <c r="BZ1" s="64"/>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64"/>
-      <c r="CD1" s="63" t="s">
+      <c r="BX1" s="65"/>
+      <c r="BY1" s="65"/>
+      <c r="BZ1" s="65"/>
+      <c r="CA1" s="65"/>
+      <c r="CB1" s="65"/>
+      <c r="CC1" s="65"/>
+      <c r="CD1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64"/>
-      <c r="CG1" s="64"/>
-      <c r="CH1" s="64"/>
-      <c r="CI1" s="64"/>
-      <c r="CJ1" s="64"/>
-      <c r="CK1" s="63" t="s">
+      <c r="CE1" s="65"/>
+      <c r="CF1" s="65"/>
+      <c r="CG1" s="65"/>
+      <c r="CH1" s="65"/>
+      <c r="CI1" s="65"/>
+      <c r="CJ1" s="65"/>
+      <c r="CK1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="CL1" s="64"/>
-      <c r="CM1" s="64"/>
-      <c r="CN1" s="64"/>
-      <c r="CO1" s="64"/>
-      <c r="CP1" s="64"/>
-      <c r="CQ1" s="64"/>
-      <c r="CR1" s="63" t="s">
+      <c r="CL1" s="65"/>
+      <c r="CM1" s="65"/>
+      <c r="CN1" s="65"/>
+      <c r="CO1" s="65"/>
+      <c r="CP1" s="65"/>
+      <c r="CQ1" s="65"/>
+      <c r="CR1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="CS1" s="64"/>
-      <c r="CT1" s="64"/>
-      <c r="CU1" s="64"/>
-      <c r="CV1" s="64"/>
-      <c r="CW1" s="64"/>
-      <c r="CX1" s="64"/>
-      <c r="CY1" s="63" t="s">
+      <c r="CS1" s="65"/>
+      <c r="CT1" s="65"/>
+      <c r="CU1" s="65"/>
+      <c r="CV1" s="65"/>
+      <c r="CW1" s="65"/>
+      <c r="CX1" s="65"/>
+      <c r="CY1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="CZ1" s="64"/>
-      <c r="DA1" s="64"/>
-      <c r="DB1" s="64"/>
-      <c r="DC1" s="64"/>
-      <c r="DD1" s="64"/>
-      <c r="DE1" s="64"/>
+      <c r="CZ1" s="65"/>
+      <c r="DA1" s="65"/>
+      <c r="DB1" s="65"/>
+      <c r="DC1" s="65"/>
+      <c r="DD1" s="65"/>
+      <c r="DE1" s="65"/>
       <c r="DF1" s="2"/>
       <c r="DG1" s="2"/>
       <c r="DH1" s="2"/>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="63" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -5181,21 +5181,21 @@
     </row>
     <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="67"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="67"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="67"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5205,211 +5205,211 @@
     </row>
     <row r="50" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="67"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="67"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="67"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="67"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="67"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="67"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="67"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="67"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="67"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B59" s="67"/>
+      <c r="B59" s="63"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="67"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="67"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B62" s="67"/>
+      <c r="B62" s="63"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="67"/>
+      <c r="B63" s="63"/>
       <c r="C63" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B64" s="67"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="67"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="67"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="67" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="67"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="67"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B69" s="67"/>
+      <c r="B69" s="63"/>
       <c r="C69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="67"/>
+      <c r="B70" s="63"/>
       <c r="C70" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B71" s="67"/>
+      <c r="B71" s="63"/>
       <c r="C71" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B72" s="67"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B73" s="67"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="74" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B74" s="67"/>
+      <c r="B74" s="63"/>
       <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B75" s="67"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="67"/>
+      <c r="B76" s="63"/>
       <c r="C76" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="67"/>
+      <c r="B77" s="63"/>
       <c r="C77" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B78" s="67"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA78" s="6"/>
     </row>
     <row r="79" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B79" s="67"/>
+      <c r="B79" s="63"/>
       <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B80" s="67"/>
+      <c r="B80" s="63"/>
       <c r="C80" s="15" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="81" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B81" s="67"/>
+      <c r="B81" s="63"/>
       <c r="C81" s="60" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="82" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="67"/>
+      <c r="B82" s="63"/>
       <c r="C82" s="60" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="83" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="67"/>
+      <c r="B83" s="63"/>
       <c r="C83" s="60" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="67"/>
+      <c r="B84" s="63"/>
       <c r="C84" s="15" t="s">
         <v>258</v>
       </c>
@@ -8164,6 +8164,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="CD1:CJ1"/>
     <mergeCell ref="B79:B84"/>
     <mergeCell ref="B46:B78"/>
     <mergeCell ref="CK1:CQ1"/>
@@ -8180,7 +8181,6 @@
     <mergeCell ref="BI1:BO1"/>
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
-    <mergeCell ref="CD1:CJ1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -8215,194 +8215,194 @@
   <sheetData>
     <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="63" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="63" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="63" t="s">
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="63" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="63" t="s">
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="63" t="s">
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="63" t="s">
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="63" t="s">
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="63" t="s">
+      <c r="BJ1" s="65"/>
+      <c r="BK1" s="65"/>
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="63" t="s">
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="65"/>
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="64"/>
-      <c r="BZ1" s="64"/>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64"/>
-      <c r="CD1" s="63" t="s">
+      <c r="BX1" s="65"/>
+      <c r="BY1" s="65"/>
+      <c r="BZ1" s="65"/>
+      <c r="CA1" s="65"/>
+      <c r="CB1" s="65"/>
+      <c r="CC1" s="65"/>
+      <c r="CD1" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64"/>
-      <c r="CG1" s="64"/>
-      <c r="CH1" s="64"/>
-      <c r="CI1" s="64"/>
-      <c r="CJ1" s="64"/>
-      <c r="CK1" s="63" t="s">
+      <c r="CE1" s="65"/>
+      <c r="CF1" s="65"/>
+      <c r="CG1" s="65"/>
+      <c r="CH1" s="65"/>
+      <c r="CI1" s="65"/>
+      <c r="CJ1" s="65"/>
+      <c r="CK1" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="CL1" s="64"/>
-      <c r="CM1" s="64"/>
-      <c r="CN1" s="64"/>
-      <c r="CO1" s="64"/>
-      <c r="CP1" s="64"/>
-      <c r="CQ1" s="64"/>
-      <c r="CR1" s="63" t="s">
+      <c r="CL1" s="65"/>
+      <c r="CM1" s="65"/>
+      <c r="CN1" s="65"/>
+      <c r="CO1" s="65"/>
+      <c r="CP1" s="65"/>
+      <c r="CQ1" s="65"/>
+      <c r="CR1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="CS1" s="64"/>
-      <c r="CT1" s="64"/>
-      <c r="CU1" s="64"/>
-      <c r="CV1" s="64"/>
-      <c r="CW1" s="64"/>
-      <c r="CX1" s="64"/>
-      <c r="CY1" s="63" t="s">
+      <c r="CS1" s="65"/>
+      <c r="CT1" s="65"/>
+      <c r="CU1" s="65"/>
+      <c r="CV1" s="65"/>
+      <c r="CW1" s="65"/>
+      <c r="CX1" s="65"/>
+      <c r="CY1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="CZ1" s="64"/>
-      <c r="DA1" s="64"/>
-      <c r="DB1" s="64"/>
-      <c r="DC1" s="64"/>
-      <c r="DD1" s="64"/>
-      <c r="DE1" s="64"/>
-      <c r="DF1" s="63" t="s">
+      <c r="CZ1" s="65"/>
+      <c r="DA1" s="65"/>
+      <c r="DB1" s="65"/>
+      <c r="DC1" s="65"/>
+      <c r="DD1" s="65"/>
+      <c r="DE1" s="65"/>
+      <c r="DF1" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="DG1" s="64"/>
-      <c r="DH1" s="64"/>
-      <c r="DI1" s="64"/>
-      <c r="DJ1" s="64"/>
-      <c r="DK1" s="64"/>
-      <c r="DL1" s="64"/>
-      <c r="DM1" s="63" t="s">
+      <c r="DG1" s="65"/>
+      <c r="DH1" s="65"/>
+      <c r="DI1" s="65"/>
+      <c r="DJ1" s="65"/>
+      <c r="DK1" s="65"/>
+      <c r="DL1" s="65"/>
+      <c r="DM1" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="DN1" s="64"/>
-      <c r="DO1" s="64"/>
-      <c r="DP1" s="64"/>
-      <c r="DQ1" s="64"/>
-      <c r="DR1" s="64"/>
-      <c r="DS1" s="64"/>
-      <c r="DT1" s="63"/>
-      <c r="DU1" s="64"/>
-      <c r="DV1" s="64"/>
-      <c r="DW1" s="64"/>
-      <c r="DX1" s="64"/>
-      <c r="DY1" s="64"/>
-      <c r="DZ1" s="64"/>
-      <c r="EA1" s="63"/>
-      <c r="EB1" s="64"/>
-      <c r="EC1" s="64"/>
-      <c r="ED1" s="64"/>
-      <c r="EE1" s="64"/>
-      <c r="EF1" s="64"/>
-      <c r="EG1" s="64"/>
-      <c r="EH1" s="63"/>
-      <c r="EI1" s="64"/>
-      <c r="EJ1" s="64"/>
-      <c r="EK1" s="64"/>
-      <c r="EL1" s="64"/>
-      <c r="EM1" s="64"/>
-      <c r="EN1" s="64"/>
-      <c r="EO1" s="63"/>
-      <c r="EP1" s="64"/>
-      <c r="EQ1" s="64"/>
-      <c r="ER1" s="64"/>
-      <c r="ES1" s="64"/>
-      <c r="ET1" s="64"/>
-      <c r="EU1" s="64"/>
-      <c r="EV1" s="63"/>
-      <c r="EW1" s="64"/>
-      <c r="EX1" s="64"/>
-      <c r="EY1" s="64"/>
-      <c r="EZ1" s="64"/>
-      <c r="FA1" s="64"/>
-      <c r="FB1" s="64"/>
+      <c r="DN1" s="65"/>
+      <c r="DO1" s="65"/>
+      <c r="DP1" s="65"/>
+      <c r="DQ1" s="65"/>
+      <c r="DR1" s="65"/>
+      <c r="DS1" s="65"/>
+      <c r="DT1" s="64"/>
+      <c r="DU1" s="65"/>
+      <c r="DV1" s="65"/>
+      <c r="DW1" s="65"/>
+      <c r="DX1" s="65"/>
+      <c r="DY1" s="65"/>
+      <c r="DZ1" s="65"/>
+      <c r="EA1" s="64"/>
+      <c r="EB1" s="65"/>
+      <c r="EC1" s="65"/>
+      <c r="ED1" s="65"/>
+      <c r="EE1" s="65"/>
+      <c r="EF1" s="65"/>
+      <c r="EG1" s="65"/>
+      <c r="EH1" s="64"/>
+      <c r="EI1" s="65"/>
+      <c r="EJ1" s="65"/>
+      <c r="EK1" s="65"/>
+      <c r="EL1" s="65"/>
+      <c r="EM1" s="65"/>
+      <c r="EN1" s="65"/>
+      <c r="EO1" s="64"/>
+      <c r="EP1" s="65"/>
+      <c r="EQ1" s="65"/>
+      <c r="ER1" s="65"/>
+      <c r="ES1" s="65"/>
+      <c r="ET1" s="65"/>
+      <c r="EU1" s="65"/>
+      <c r="EV1" s="64"/>
+      <c r="EW1" s="65"/>
+      <c r="EX1" s="65"/>
+      <c r="EY1" s="65"/>
+      <c r="EZ1" s="65"/>
+      <c r="FA1" s="65"/>
+      <c r="FB1" s="65"/>
     </row>
     <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
@@ -10108,13 +10108,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="EH1:EN1"/>
     <mergeCell ref="EO1:EU1"/>
     <mergeCell ref="EV1:FB1"/>
@@ -10130,6 +10123,13 @@
     <mergeCell ref="DM1:DS1"/>
     <mergeCell ref="DT1:DZ1"/>
     <mergeCell ref="EA1:EG1"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Dropbox\ISC\Sem 06\FRONT\PROJEKT\git\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7C3F60-5D04-40E7-A9EA-827EE3629B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5B575E-AE88-425A-BDE7-5F048CEBB7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,13 +1205,13 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1448,8 +1448,8 @@
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1584,15 +1584,15 @@
       </c>
       <c r="H6" s="30">
         <f>SUM(H10:H74)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" s="27">
         <f>SUM(I10:I74)</f>
-        <v>58.5</v>
+        <v>59.5</v>
       </c>
       <c r="J6" s="28">
         <f>SUM(J10:J74)</f>
-        <v>55.5</v>
+        <v>56.5</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
@@ -1620,15 +1620,15 @@
       </c>
       <c r="H7" s="30">
         <f t="shared" ref="H7:J7" si="1">H5-H6</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" si="1"/>
-        <v>61.5</v>
+        <v>60.5</v>
       </c>
       <c r="J7" s="28">
         <f t="shared" si="1"/>
-        <v>64.5</v>
+        <v>63.5</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
@@ -1688,13 +1688,13 @@
         <v>115</v>
       </c>
       <c r="H10" s="22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" s="22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="22">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
@@ -3608,96 +3608,96 @@
       <c r="AK1" s="67"/>
       <c r="AL1" s="67"/>
       <c r="AM1" s="67"/>
-      <c r="AN1" s="64" t="s">
+      <c r="AN1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="64" t="s">
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="64" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="64" t="s">
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="64" t="s">
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="65"/>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="64" t="s">
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="65"/>
-      <c r="CH1" s="65"/>
-      <c r="CI1" s="65"/>
-      <c r="CJ1" s="65"/>
-      <c r="CK1" s="64" t="s">
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="CL1" s="65"/>
-      <c r="CM1" s="65"/>
-      <c r="CN1" s="65"/>
-      <c r="CO1" s="65"/>
-      <c r="CP1" s="65"/>
-      <c r="CQ1" s="65"/>
-      <c r="CR1" s="64" t="s">
+      <c r="CL1" s="64"/>
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="CS1" s="65"/>
-      <c r="CT1" s="65"/>
-      <c r="CU1" s="65"/>
-      <c r="CV1" s="65"/>
-      <c r="CW1" s="65"/>
-      <c r="CX1" s="65"/>
-      <c r="CY1" s="64" t="s">
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64"/>
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64"/>
+      <c r="CY1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="CZ1" s="65"/>
-      <c r="DA1" s="65"/>
-      <c r="DB1" s="65"/>
-      <c r="DC1" s="65"/>
-      <c r="DD1" s="65"/>
-      <c r="DE1" s="65"/>
+      <c r="CZ1" s="64"/>
+      <c r="DA1" s="64"/>
+      <c r="DB1" s="64"/>
+      <c r="DC1" s="64"/>
+      <c r="DD1" s="64"/>
+      <c r="DE1" s="64"/>
       <c r="DF1" s="2"/>
       <c r="DG1" s="2"/>
       <c r="DH1" s="2"/>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="65" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -5181,21 +5181,21 @@
     </row>
     <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="63"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="63"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="63"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5205,211 +5205,211 @@
     </row>
     <row r="50" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="63"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="63"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="63"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="63"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="63"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="63"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="63"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="63"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="63"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B59" s="63"/>
+      <c r="B59" s="65"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="63"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="63"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B62" s="63"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="63"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B64" s="63"/>
+      <c r="B64" s="65"/>
       <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="63"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="63"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="67" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="63"/>
+      <c r="B67" s="65"/>
       <c r="C67" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="63"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B69" s="63"/>
+      <c r="B69" s="65"/>
       <c r="C69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="63"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B71" s="63"/>
+      <c r="B71" s="65"/>
       <c r="C71" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B72" s="63"/>
+      <c r="B72" s="65"/>
       <c r="C72" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B73" s="63"/>
+      <c r="B73" s="65"/>
       <c r="C73" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="74" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B74" s="63"/>
+      <c r="B74" s="65"/>
       <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B75" s="63"/>
+      <c r="B75" s="65"/>
       <c r="C75" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="63"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="63"/>
+      <c r="B77" s="65"/>
       <c r="C77" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B78" s="63"/>
+      <c r="B78" s="65"/>
       <c r="C78" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA78" s="6"/>
     </row>
     <row r="79" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B79" s="63"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B80" s="63"/>
+      <c r="B80" s="65"/>
       <c r="C80" s="15" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="81" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B81" s="63"/>
+      <c r="B81" s="65"/>
       <c r="C81" s="60" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="82" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="63"/>
+      <c r="B82" s="65"/>
       <c r="C82" s="60" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="83" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="63"/>
+      <c r="B83" s="65"/>
       <c r="C83" s="60" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="63"/>
+      <c r="B84" s="65"/>
       <c r="C84" s="15" t="s">
         <v>258</v>
       </c>
@@ -8164,11 +8164,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="CD1:CJ1"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B46:B78"/>
-    <mergeCell ref="CK1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
     <mergeCell ref="CY1:DE1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
@@ -8181,6 +8176,11 @@
     <mergeCell ref="BI1:BO1"/>
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
+    <mergeCell ref="CD1:CJ1"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B46:B78"/>
+    <mergeCell ref="CK1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -8215,194 +8215,194 @@
   <sheetData>
     <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="64" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="64" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="64" t="s">
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="64" t="s">
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="64" t="s">
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="64" t="s">
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="64" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="64" t="s">
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="64" t="s">
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="65"/>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="64" t="s">
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="65"/>
-      <c r="CH1" s="65"/>
-      <c r="CI1" s="65"/>
-      <c r="CJ1" s="65"/>
-      <c r="CK1" s="64" t="s">
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="CL1" s="65"/>
-      <c r="CM1" s="65"/>
-      <c r="CN1" s="65"/>
-      <c r="CO1" s="65"/>
-      <c r="CP1" s="65"/>
-      <c r="CQ1" s="65"/>
-      <c r="CR1" s="64" t="s">
+      <c r="CL1" s="64"/>
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="CS1" s="65"/>
-      <c r="CT1" s="65"/>
-      <c r="CU1" s="65"/>
-      <c r="CV1" s="65"/>
-      <c r="CW1" s="65"/>
-      <c r="CX1" s="65"/>
-      <c r="CY1" s="64" t="s">
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64"/>
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64"/>
+      <c r="CY1" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="CZ1" s="65"/>
-      <c r="DA1" s="65"/>
-      <c r="DB1" s="65"/>
-      <c r="DC1" s="65"/>
-      <c r="DD1" s="65"/>
-      <c r="DE1" s="65"/>
-      <c r="DF1" s="64" t="s">
+      <c r="CZ1" s="64"/>
+      <c r="DA1" s="64"/>
+      <c r="DB1" s="64"/>
+      <c r="DC1" s="64"/>
+      <c r="DD1" s="64"/>
+      <c r="DE1" s="64"/>
+      <c r="DF1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="DG1" s="65"/>
-      <c r="DH1" s="65"/>
-      <c r="DI1" s="65"/>
-      <c r="DJ1" s="65"/>
-      <c r="DK1" s="65"/>
-      <c r="DL1" s="65"/>
-      <c r="DM1" s="64" t="s">
+      <c r="DG1" s="64"/>
+      <c r="DH1" s="64"/>
+      <c r="DI1" s="64"/>
+      <c r="DJ1" s="64"/>
+      <c r="DK1" s="64"/>
+      <c r="DL1" s="64"/>
+      <c r="DM1" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="DN1" s="65"/>
-      <c r="DO1" s="65"/>
-      <c r="DP1" s="65"/>
-      <c r="DQ1" s="65"/>
-      <c r="DR1" s="65"/>
-      <c r="DS1" s="65"/>
-      <c r="DT1" s="64"/>
-      <c r="DU1" s="65"/>
-      <c r="DV1" s="65"/>
-      <c r="DW1" s="65"/>
-      <c r="DX1" s="65"/>
-      <c r="DY1" s="65"/>
-      <c r="DZ1" s="65"/>
-      <c r="EA1" s="64"/>
-      <c r="EB1" s="65"/>
-      <c r="EC1" s="65"/>
-      <c r="ED1" s="65"/>
-      <c r="EE1" s="65"/>
-      <c r="EF1" s="65"/>
-      <c r="EG1" s="65"/>
-      <c r="EH1" s="64"/>
-      <c r="EI1" s="65"/>
-      <c r="EJ1" s="65"/>
-      <c r="EK1" s="65"/>
-      <c r="EL1" s="65"/>
-      <c r="EM1" s="65"/>
-      <c r="EN1" s="65"/>
-      <c r="EO1" s="64"/>
-      <c r="EP1" s="65"/>
-      <c r="EQ1" s="65"/>
-      <c r="ER1" s="65"/>
-      <c r="ES1" s="65"/>
-      <c r="ET1" s="65"/>
-      <c r="EU1" s="65"/>
-      <c r="EV1" s="64"/>
-      <c r="EW1" s="65"/>
-      <c r="EX1" s="65"/>
-      <c r="EY1" s="65"/>
-      <c r="EZ1" s="65"/>
-      <c r="FA1" s="65"/>
-      <c r="FB1" s="65"/>
+      <c r="DN1" s="64"/>
+      <c r="DO1" s="64"/>
+      <c r="DP1" s="64"/>
+      <c r="DQ1" s="64"/>
+      <c r="DR1" s="64"/>
+      <c r="DS1" s="64"/>
+      <c r="DT1" s="63"/>
+      <c r="DU1" s="64"/>
+      <c r="DV1" s="64"/>
+      <c r="DW1" s="64"/>
+      <c r="DX1" s="64"/>
+      <c r="DY1" s="64"/>
+      <c r="DZ1" s="64"/>
+      <c r="EA1" s="63"/>
+      <c r="EB1" s="64"/>
+      <c r="EC1" s="64"/>
+      <c r="ED1" s="64"/>
+      <c r="EE1" s="64"/>
+      <c r="EF1" s="64"/>
+      <c r="EG1" s="64"/>
+      <c r="EH1" s="63"/>
+      <c r="EI1" s="64"/>
+      <c r="EJ1" s="64"/>
+      <c r="EK1" s="64"/>
+      <c r="EL1" s="64"/>
+      <c r="EM1" s="64"/>
+      <c r="EN1" s="64"/>
+      <c r="EO1" s="63"/>
+      <c r="EP1" s="64"/>
+      <c r="EQ1" s="64"/>
+      <c r="ER1" s="64"/>
+      <c r="ES1" s="64"/>
+      <c r="ET1" s="64"/>
+      <c r="EU1" s="64"/>
+      <c r="EV1" s="63"/>
+      <c r="EW1" s="64"/>
+      <c r="EX1" s="64"/>
+      <c r="EY1" s="64"/>
+      <c r="EZ1" s="64"/>
+      <c r="FA1" s="64"/>
+      <c r="FB1" s="64"/>
     </row>
     <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
@@ -10108,6 +10108,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="EH1:EN1"/>
     <mergeCell ref="EO1:EU1"/>
     <mergeCell ref="EV1:FB1"/>
@@ -10123,13 +10130,6 @@
     <mergeCell ref="DM1:DS1"/>
     <mergeCell ref="DT1:DZ1"/>
     <mergeCell ref="EA1:EG1"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Dropbox\ISC\Sem 06\FRONT\PROJEKT\git\front-projekt\documents\Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yara\Dropbox\Studium\Semester 6\FRONT\FRONT_Projekt\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5B575E-AE88-425A-BDE7-5F048CEBB7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137A7E3C-1F3B-4022-A716-7D181D812A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitbudget" sheetId="4" r:id="rId1"/>
@@ -1209,13 +1209,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1448,16 +1448,16 @@
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1471,7 +1471,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>102</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1505,7 +1505,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="26" t="s">
@@ -1531,7 +1531,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="29" t="s">
         <v>108</v>
@@ -1561,7 +1561,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="31" t="s">
         <v>109</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="H6" s="30">
         <f>SUM(H10:H74)</f>
-        <v>62</v>
+        <v>65.5</v>
       </c>
       <c r="I6" s="27">
         <f>SUM(I10:I74)</f>
@@ -1597,7 +1597,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="31" t="s">
         <v>111</v>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="H7" s="30">
         <f t="shared" ref="H7:J7" si="1">H5-H6</f>
-        <v>58</v>
+        <v>54.5</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" si="1"/>
@@ -1633,7 +1633,7 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>112</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1667,7 +1667,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>241</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>116</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>118</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>120</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>122</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>126</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>128</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>130</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>132</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>134</v>
       </c>
@@ -2019,7 +2019,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>136</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>180</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>182</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>184</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>138</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>186</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>188</v>
       </c>
@@ -2219,7 +2219,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>184</v>
       </c>
@@ -2251,7 +2251,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>140</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>191</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>192</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>193</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>194</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>195</v>
       </c>
@@ -2431,7 +2431,7 @@
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>238</v>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>142</v>
       </c>
@@ -2495,7 +2495,7 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>144</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>146</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>148</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>180</v>
       </c>
@@ -2605,7 +2605,7 @@
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>182</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>184</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>150</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>186</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>188</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>184</v>
       </c>
@@ -2761,7 +2761,7 @@
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
         <v>152</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>191</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
         <v>192</v>
       </c>
@@ -2833,7 +2833,7 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>193</v>
       </c>
@@ -2861,7 +2861,7 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
         <v>194</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
         <v>195</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
         <v>155</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
         <v>157</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>159</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
         <v>161</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
         <v>163</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
         <v>165</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
         <v>167</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22" t="s">
         <v>169</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="U60" s="22"/>
       <c r="V60" s="22"/>
     </row>
-    <row r="61" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
         <v>171</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="U61" s="22"/>
       <c r="V61" s="22"/>
     </row>
-    <row r="62" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
         <v>101</v>
       </c>
@@ -3194,7 +3194,7 @@
       <c r="U62" s="22"/>
       <c r="V62" s="22"/>
     </row>
-    <row r="63" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
         <v>174</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="U63" s="22"/>
       <c r="V63" s="22"/>
     </row>
-    <row r="64" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
         <v>176</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="U64" s="22"/>
       <c r="V64" s="22"/>
     </row>
-    <row r="65" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
         <v>178</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
     </row>
-    <row r="66" spans="1:12" s="59" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
         <v>245</v>
       </c>
@@ -3298,7 +3298,9 @@
       <c r="G66" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="H66" s="22"/>
+      <c r="H66" s="22">
+        <v>2</v>
+      </c>
       <c r="I66" s="22"/>
       <c r="J66" s="22">
         <v>1.5</v>
@@ -3306,7 +3308,7 @@
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:12" s="59" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>246</v>
       </c>
@@ -3334,7 +3336,7 @@
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:12" s="59" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
         <v>247</v>
       </c>
@@ -3354,13 +3356,15 @@
       <c r="G68" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="H68" s="22"/>
+      <c r="H68" s="22">
+        <v>1.5</v>
+      </c>
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:12" s="59" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
         <v>99</v>
       </c>
@@ -3386,7 +3390,7 @@
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" s="59" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -3400,7 +3404,7 @@
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -3414,7 +3418,7 @@
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="22" t="s">
         <v>242</v>
       </c>
@@ -3430,7 +3434,7 @@
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
     </row>
-    <row r="73" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -3444,7 +3448,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="57" t="s">
         <v>243</v>
       </c>
@@ -3476,7 +3480,7 @@
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
     </row>
-    <row r="75" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
       <c r="B75" s="47"/>
       <c r="C75" s="22"/>
@@ -3490,7 +3494,7 @@
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="57" t="s">
         <v>244</v>
       </c>
@@ -3506,7 +3510,7 @@
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
     </row>
-    <row r="77" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -3518,7 +3522,7 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
     </row>
-    <row r="78" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -3550,64 +3554,64 @@
       <selection pane="bottomRight" activeCell="C80" sqref="C80:C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.88671875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" customWidth="1"/>
-    <col min="5" max="101" width="3.88671875" customWidth="1"/>
-    <col min="102" max="102" width="7.44140625" customWidth="1"/>
-    <col min="103" max="200" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="101" width="3.85546875" customWidth="1"/>
+    <col min="102" max="102" width="7.42578125" customWidth="1"/>
+    <col min="103" max="200" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="66" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="66" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="66" t="s">
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="66" t="s">
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
       <c r="AN1" s="63" t="s">
         <v>5</v>
       </c>
@@ -3756,7 +3760,7 @@
       <c r="FI1" s="3"/>
       <c r="FJ1" s="4"/>
     </row>
-    <row r="2" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="E2" s="37" t="s">
         <v>15</v>
@@ -4074,7 +4078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -4089,7 +4093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -4097,7 +4101,7 @@
       <c r="C4" s="1"/>
       <c r="CX4" s="5"/>
     </row>
-    <row r="5" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -4107,7 +4111,7 @@
       </c>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
@@ -4126,7 +4130,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4139,7 +4143,7 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -4148,20 +4152,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="AP9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -4169,7 +4173,7 @@
       </c>
       <c r="E11" s="45"/>
     </row>
-    <row r="12" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -4177,7 +4181,7 @@
       </c>
       <c r="E12" s="45"/>
     </row>
-    <row r="13" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
@@ -4189,7 +4193,7 @@
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
     </row>
-    <row r="14" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
@@ -4197,7 +4201,7 @@
       </c>
       <c r="R14" s="36"/>
     </row>
-    <row r="15" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
@@ -4301,20 +4305,20 @@
       <c r="CV15" s="41"/>
       <c r="CW15" s="41"/>
     </row>
-    <row r="16" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -4332,7 +4336,7 @@
       <c r="CT19" s="41"/>
       <c r="CU19" s="41"/>
     </row>
-    <row r="20" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -4342,20 +4346,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
@@ -4371,7 +4375,7 @@
       <c r="AT24" s="41"/>
       <c r="AU24" s="41"/>
     </row>
-    <row r="25" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
@@ -4461,7 +4465,7 @@
       <c r="CV25" s="41"/>
       <c r="CW25" s="41"/>
     </row>
-    <row r="26" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>212</v>
@@ -4474,7 +4478,7 @@
       <c r="AS26" s="41"/>
       <c r="AT26" s="41"/>
     </row>
-    <row r="27" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>213</v>
@@ -4501,7 +4505,7 @@
       <c r="BG27" s="41"/>
       <c r="BH27" s="41"/>
     </row>
-    <row r="28" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="C28" s="1" t="s">
         <v>214</v>
@@ -4528,7 +4532,7 @@
       <c r="BG28" s="41"/>
       <c r="BH28" s="41"/>
     </row>
-    <row r="29" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
@@ -4618,7 +4622,7 @@
       <c r="CV29" s="41"/>
       <c r="CW29" s="41"/>
     </row>
-    <row r="30" spans="1:102" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:102" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="C30" s="1" t="s">
         <v>215</v>
@@ -4673,7 +4677,7 @@
       <c r="CI30" s="41"/>
       <c r="CJ30" s="41"/>
     </row>
-    <row r="31" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>216</v>
       </c>
@@ -4713,7 +4717,7 @@
       <c r="CI31" s="41"/>
       <c r="CJ31" s="41"/>
     </row>
-    <row r="32" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>217</v>
       </c>
@@ -4753,7 +4757,7 @@
       <c r="CI32" s="41"/>
       <c r="CJ32" s="41"/>
     </row>
-    <row r="33" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
@@ -4843,7 +4847,7 @@
       <c r="CV33" s="41"/>
       <c r="CW33" s="41"/>
     </row>
-    <row r="34" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
@@ -4869,7 +4873,7 @@
       <c r="BN34" s="41"/>
       <c r="BO34" s="41"/>
     </row>
-    <row r="35" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
@@ -4902,7 +4906,7 @@
       <c r="BU35" s="41"/>
       <c r="BV35" s="41"/>
     </row>
-    <row r="36" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
@@ -4944,7 +4948,7 @@
       <c r="CI36" s="41"/>
       <c r="CJ36" s="41"/>
     </row>
-    <row r="37" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>221</v>
@@ -4978,7 +4982,7 @@
       <c r="CI37" s="41"/>
       <c r="CJ37" s="41"/>
     </row>
-    <row r="38" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="C38" s="1" t="s">
         <v>222</v>
@@ -5012,7 +5016,7 @@
       <c r="CI38" s="41"/>
       <c r="CJ38" s="41"/>
     </row>
-    <row r="39" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="C39" s="1" t="s">
         <v>239</v>
@@ -5067,7 +5071,7 @@
       <c r="CI39" s="41"/>
       <c r="CJ39" s="41"/>
     </row>
-    <row r="40" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="C40" s="1" t="s">
         <v>50</v>
@@ -5104,7 +5108,7 @@
       <c r="BU40" s="41"/>
       <c r="BV40" s="41"/>
     </row>
-    <row r="41" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="33"/>
       <c r="C41" s="1" t="s">
         <v>51</v>
@@ -5144,7 +5148,7 @@
       <c r="CV41" s="41"/>
       <c r="CW41" s="41"/>
     </row>
-    <row r="42" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="33"/>
       <c r="C42" s="35" t="s">
         <v>52</v>
@@ -5153,49 +5157,49 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="33"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="33"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="48"/>
       <c r="C45" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="67" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
-      <c r="B47" s="65"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
-      <c r="B48" s="65"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
-      <c r="B49" s="65"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5203,2967 +5207,2971 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
-      <c r="B50" s="65"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
-      <c r="B51" s="65"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="65"/>
+    <row r="52" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="67"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="65"/>
+    <row r="53" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B53" s="67"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
-      <c r="B54" s="65"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
-      <c r="B55" s="65"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
-      <c r="B56" s="65"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
-      <c r="B57" s="65"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="65"/>
+    <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="67"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B59" s="65"/>
+    <row r="59" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="67"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="65"/>
+    <row r="60" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B60" s="67"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="65"/>
+    <row r="61" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="67"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B62" s="65"/>
+    <row r="62" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B62" s="67"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="65"/>
+    <row r="63" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="67"/>
       <c r="C63" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B64" s="65"/>
+    <row r="64" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B64" s="67"/>
       <c r="C64" s="15"/>
     </row>
-    <row r="65" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="65"/>
+    <row r="65" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="67"/>
       <c r="C65" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="65"/>
+    <row r="66" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="67"/>
       <c r="C66" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="65"/>
+    <row r="67" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="67"/>
       <c r="C67" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="65"/>
+    <row r="68" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="67"/>
       <c r="C68" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B69" s="65"/>
+    <row r="69" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B69" s="67"/>
       <c r="C69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="65"/>
+    <row r="70" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="67"/>
       <c r="C70" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B71" s="65"/>
+    <row r="71" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="67"/>
       <c r="C71" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B72" s="65"/>
+    <row r="72" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="67"/>
       <c r="C72" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B73" s="65"/>
+    <row r="73" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="67"/>
       <c r="C73" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B74" s="65"/>
+    <row r="74" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="67"/>
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B75" s="65"/>
+    <row r="75" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B75" s="67"/>
       <c r="C75" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="65"/>
+    <row r="76" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B76" s="67"/>
       <c r="C76" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="65"/>
+    <row r="77" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="67"/>
       <c r="C77" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B78" s="65"/>
+    <row r="78" spans="2:53" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B78" s="67"/>
       <c r="C78" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA78" s="6"/>
     </row>
-    <row r="79" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B79" s="65"/>
+    <row r="79" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B79" s="67"/>
       <c r="C79" s="16"/>
     </row>
-    <row r="80" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B80" s="65"/>
+    <row r="80" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B80" s="67"/>
       <c r="C80" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B81" s="65"/>
+    <row r="81" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="67"/>
       <c r="C81" s="60" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="65"/>
+    <row r="82" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B82" s="67"/>
       <c r="C82" s="60" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="65"/>
+    <row r="83" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="67"/>
       <c r="C83" s="60" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="65"/>
+    <row r="84" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="67"/>
       <c r="C84" s="15" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C85" s="1"/>
       <c r="BW85" s="46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C375" s="1"/>
     </row>
-    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C376" s="1"/>
     </row>
-    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C417" s="1"/>
     </row>
-    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C422" s="1"/>
     </row>
-    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C423" s="1"/>
     </row>
-    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C424" s="1"/>
     </row>
-    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C425" s="1"/>
     </row>
-    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C426" s="1"/>
     </row>
-    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C427" s="1"/>
     </row>
-    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C428" s="1"/>
     </row>
-    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C429" s="1"/>
     </row>
-    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C430" s="1"/>
     </row>
-    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C431" s="1"/>
     </row>
-    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C432" s="1"/>
     </row>
-    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C433" s="1"/>
     </row>
-    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C434" s="1"/>
     </row>
-    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C436" s="1"/>
     </row>
-    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C437" s="1"/>
     </row>
-    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C438" s="1"/>
     </row>
-    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C439" s="1"/>
     </row>
-    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C440" s="1"/>
     </row>
-    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C441" s="1"/>
     </row>
-    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C442" s="1"/>
     </row>
-    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C443" s="1"/>
     </row>
-    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C444" s="1"/>
     </row>
-    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C446" s="1"/>
     </row>
-    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C447" s="1"/>
     </row>
-    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C448" s="1"/>
     </row>
-    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C449" s="1"/>
     </row>
-    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C450" s="1"/>
     </row>
-    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C451" s="1"/>
     </row>
-    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C452" s="1"/>
     </row>
-    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C453" s="1"/>
     </row>
-    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C454" s="1"/>
     </row>
-    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C455" s="1"/>
     </row>
-    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C456" s="1"/>
     </row>
-    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C457" s="1"/>
     </row>
-    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C458" s="1"/>
     </row>
-    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C459" s="1"/>
     </row>
-    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C460" s="1"/>
     </row>
-    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C461" s="1"/>
     </row>
-    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C462" s="1"/>
     </row>
-    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C463" s="1"/>
     </row>
-    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C464" s="1"/>
     </row>
-    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C465" s="1"/>
     </row>
-    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C466" s="1"/>
     </row>
-    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C467" s="1"/>
     </row>
-    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C468" s="1"/>
     </row>
-    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C469" s="1"/>
     </row>
-    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C470" s="1"/>
     </row>
-    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C471" s="1"/>
     </row>
-    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C472" s="1"/>
     </row>
-    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C473" s="1"/>
     </row>
-    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C474" s="1"/>
     </row>
-    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C475" s="1"/>
     </row>
-    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C476" s="1"/>
     </row>
-    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C477" s="1"/>
     </row>
-    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C478" s="1"/>
     </row>
-    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C479" s="1"/>
     </row>
-    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C480" s="1"/>
     </row>
-    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C481" s="1"/>
     </row>
-    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C482" s="1"/>
     </row>
-    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C483" s="1"/>
     </row>
-    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C484" s="1"/>
     </row>
-    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C485" s="1"/>
     </row>
-    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C486" s="1"/>
     </row>
-    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C487" s="1"/>
     </row>
-    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C488" s="1"/>
     </row>
-    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C489" s="1"/>
     </row>
-    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C490" s="1"/>
     </row>
-    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C491" s="1"/>
     </row>
-    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C492" s="1"/>
     </row>
-    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C493" s="1"/>
     </row>
-    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C494" s="1"/>
     </row>
-    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C495" s="1"/>
     </row>
-    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C496" s="1"/>
     </row>
-    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C497" s="1"/>
     </row>
-    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C498" s="1"/>
     </row>
-    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C499" s="1"/>
     </row>
-    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C500" s="1"/>
     </row>
-    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C501" s="1"/>
     </row>
-    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C502" s="1"/>
     </row>
-    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C503" s="1"/>
     </row>
-    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C505" s="1"/>
     </row>
-    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C506" s="1"/>
     </row>
-    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C507" s="1"/>
     </row>
-    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C508" s="1"/>
     </row>
-    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C509" s="1"/>
     </row>
-    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C510" s="1"/>
     </row>
-    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C511" s="1"/>
     </row>
-    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C512" s="1"/>
     </row>
-    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C513" s="1"/>
     </row>
-    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C514" s="1"/>
     </row>
-    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C515" s="1"/>
     </row>
-    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C517" s="1"/>
     </row>
-    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C518" s="1"/>
     </row>
-    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C519" s="1"/>
     </row>
-    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C520" s="1"/>
     </row>
-    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C521" s="1"/>
     </row>
-    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C522" s="1"/>
     </row>
-    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C523" s="1"/>
     </row>
-    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C524" s="1"/>
     </row>
-    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C525" s="1"/>
     </row>
-    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C526" s="1"/>
     </row>
-    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C527" s="1"/>
     </row>
-    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C528" s="1"/>
     </row>
-    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C529" s="1"/>
     </row>
-    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C530" s="1"/>
     </row>
-    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C531" s="1"/>
     </row>
-    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C532" s="1"/>
     </row>
-    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C533" s="1"/>
     </row>
-    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C534" s="1"/>
     </row>
-    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C535" s="1"/>
     </row>
-    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C536" s="1"/>
     </row>
-    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C537" s="1"/>
     </row>
-    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C538" s="1"/>
     </row>
-    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C539" s="1"/>
     </row>
-    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C540" s="1"/>
     </row>
-    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C541" s="1"/>
     </row>
-    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C542" s="1"/>
     </row>
-    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C543" s="1"/>
     </row>
-    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C544" s="1"/>
     </row>
-    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C545" s="1"/>
     </row>
-    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C546" s="1"/>
     </row>
-    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C547" s="1"/>
     </row>
-    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C548" s="1"/>
     </row>
-    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C549" s="1"/>
     </row>
-    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C550" s="1"/>
     </row>
-    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C551" s="1"/>
     </row>
-    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C552" s="1"/>
     </row>
-    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C553" s="1"/>
     </row>
-    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C554" s="1"/>
     </row>
-    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C555" s="1"/>
     </row>
-    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C556" s="1"/>
     </row>
-    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C557" s="1"/>
     </row>
-    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C558" s="1"/>
     </row>
-    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C559" s="1"/>
     </row>
-    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C560" s="1"/>
     </row>
-    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C561" s="1"/>
     </row>
-    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C562" s="1"/>
     </row>
-    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C563" s="1"/>
     </row>
-    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C564" s="1"/>
     </row>
-    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C565" s="1"/>
     </row>
-    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C566" s="1"/>
     </row>
-    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C567" s="1"/>
     </row>
-    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C568" s="1"/>
     </row>
-    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C569" s="1"/>
     </row>
-    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C570" s="1"/>
     </row>
-    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C571" s="1"/>
     </row>
-    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C572" s="1"/>
     </row>
-    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C573" s="1"/>
     </row>
-    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C574" s="1"/>
     </row>
-    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C575" s="1"/>
     </row>
-    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C576" s="1"/>
     </row>
-    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C577" s="1"/>
     </row>
-    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C578" s="1"/>
     </row>
-    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C579" s="1"/>
     </row>
-    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C580" s="1"/>
     </row>
-    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C581" s="1"/>
     </row>
-    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C582" s="1"/>
     </row>
-    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C583" s="1"/>
     </row>
-    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C584" s="1"/>
     </row>
-    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C585" s="1"/>
     </row>
-    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C586" s="1"/>
     </row>
-    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C587" s="1"/>
     </row>
-    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C588" s="1"/>
     </row>
-    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C589" s="1"/>
     </row>
-    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C590" s="1"/>
     </row>
-    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C591" s="1"/>
     </row>
-    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C592" s="1"/>
     </row>
-    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C593" s="1"/>
     </row>
-    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C594" s="1"/>
     </row>
-    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C595" s="1"/>
     </row>
-    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C596" s="1"/>
     </row>
-    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C597" s="1"/>
     </row>
-    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C598" s="1"/>
     </row>
-    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C599" s="1"/>
     </row>
-    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C600" s="1"/>
     </row>
-    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C601" s="1"/>
     </row>
-    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C602" s="1"/>
     </row>
-    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C603" s="1"/>
     </row>
-    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C604" s="1"/>
     </row>
-    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C605" s="1"/>
     </row>
-    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C606" s="1"/>
     </row>
-    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C607" s="1"/>
     </row>
-    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C608" s="1"/>
     </row>
-    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C609" s="1"/>
     </row>
-    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C610" s="1"/>
     </row>
-    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C611" s="1"/>
     </row>
-    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C612" s="1"/>
     </row>
-    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C613" s="1"/>
     </row>
-    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C614" s="1"/>
     </row>
-    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C615" s="1"/>
     </row>
-    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C616" s="1"/>
     </row>
-    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C617" s="1"/>
     </row>
-    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C618" s="1"/>
     </row>
-    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C619" s="1"/>
     </row>
-    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C620" s="1"/>
     </row>
-    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C621" s="1"/>
     </row>
-    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C622" s="1"/>
     </row>
-    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C623" s="1"/>
     </row>
-    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C624" s="1"/>
     </row>
-    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C625" s="1"/>
     </row>
-    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C626" s="1"/>
     </row>
-    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C627" s="1"/>
     </row>
-    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C628" s="1"/>
     </row>
-    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C629" s="1"/>
     </row>
-    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C630" s="1"/>
     </row>
-    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C631" s="1"/>
     </row>
-    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C632" s="1"/>
     </row>
-    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C633" s="1"/>
     </row>
-    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C634" s="1"/>
     </row>
-    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C635" s="1"/>
     </row>
-    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C636" s="1"/>
     </row>
-    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C637" s="1"/>
     </row>
-    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C638" s="1"/>
     </row>
-    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C639" s="1"/>
     </row>
-    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C640" s="1"/>
     </row>
-    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C641" s="1"/>
     </row>
-    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C642" s="1"/>
     </row>
-    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C643" s="1"/>
     </row>
-    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C644" s="1"/>
     </row>
-    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C645" s="1"/>
     </row>
-    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C646" s="1"/>
     </row>
-    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C647" s="1"/>
     </row>
-    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C648" s="1"/>
     </row>
-    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C649" s="1"/>
     </row>
-    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C650" s="1"/>
     </row>
-    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C651" s="1"/>
     </row>
-    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C652" s="1"/>
     </row>
-    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C653" s="1"/>
     </row>
-    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C654" s="1"/>
     </row>
-    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C655" s="1"/>
     </row>
-    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C656" s="1"/>
     </row>
-    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C657" s="1"/>
     </row>
-    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C658" s="1"/>
     </row>
-    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C659" s="1"/>
     </row>
-    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C660" s="1"/>
     </row>
-    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C661" s="1"/>
     </row>
-    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C662" s="1"/>
     </row>
-    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C663" s="1"/>
     </row>
-    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C664" s="1"/>
     </row>
-    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C665" s="1"/>
     </row>
-    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C666" s="1"/>
     </row>
-    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C667" s="1"/>
     </row>
-    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C668" s="1"/>
     </row>
-    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C669" s="1"/>
     </row>
-    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C670" s="1"/>
     </row>
-    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C671" s="1"/>
     </row>
-    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C672" s="1"/>
     </row>
-    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C673" s="1"/>
     </row>
-    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C674" s="1"/>
     </row>
-    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C675" s="1"/>
     </row>
-    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C676" s="1"/>
     </row>
-    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C677" s="1"/>
     </row>
-    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C678" s="1"/>
     </row>
-    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C679" s="1"/>
     </row>
-    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C680" s="1"/>
     </row>
-    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C681" s="1"/>
     </row>
-    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C682" s="1"/>
     </row>
-    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C683" s="1"/>
     </row>
-    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C684" s="1"/>
     </row>
-    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C685" s="1"/>
     </row>
-    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C686" s="1"/>
     </row>
-    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C687" s="1"/>
     </row>
-    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C688" s="1"/>
     </row>
-    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C689" s="1"/>
     </row>
-    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C690" s="1"/>
     </row>
-    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C691" s="1"/>
     </row>
-    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C692" s="1"/>
     </row>
-    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C693" s="1"/>
     </row>
-    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C694" s="1"/>
     </row>
-    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C695" s="1"/>
     </row>
-    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C696" s="1"/>
     </row>
-    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C697" s="1"/>
     </row>
-    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C698" s="1"/>
     </row>
-    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C699" s="1"/>
     </row>
-    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C700" s="1"/>
     </row>
-    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C701" s="1"/>
     </row>
-    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C702" s="1"/>
     </row>
-    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C703" s="1"/>
     </row>
-    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C704" s="1"/>
     </row>
-    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C705" s="1"/>
     </row>
-    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C706" s="1"/>
     </row>
-    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C707" s="1"/>
     </row>
-    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C708" s="1"/>
     </row>
-    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C709" s="1"/>
     </row>
-    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C710" s="1"/>
     </row>
-    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C711" s="1"/>
     </row>
-    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C712" s="1"/>
     </row>
-    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C713" s="1"/>
     </row>
-    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C714" s="1"/>
     </row>
-    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C715" s="1"/>
     </row>
-    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C716" s="1"/>
     </row>
-    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C717" s="1"/>
     </row>
-    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C718" s="1"/>
     </row>
-    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C719" s="1"/>
     </row>
-    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C720" s="1"/>
     </row>
-    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C721" s="1"/>
     </row>
-    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C722" s="1"/>
     </row>
-    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C723" s="1"/>
     </row>
-    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C724" s="1"/>
     </row>
-    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C725" s="1"/>
     </row>
-    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C726" s="1"/>
     </row>
-    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C727" s="1"/>
     </row>
-    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C728" s="1"/>
     </row>
-    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C729" s="1"/>
     </row>
-    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C730" s="1"/>
     </row>
-    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C731" s="1"/>
     </row>
-    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C732" s="1"/>
     </row>
-    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C733" s="1"/>
     </row>
-    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C734" s="1"/>
     </row>
-    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C735" s="1"/>
     </row>
-    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C736" s="1"/>
     </row>
-    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C737" s="1"/>
     </row>
-    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C738" s="1"/>
     </row>
-    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C739" s="1"/>
     </row>
-    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C740" s="1"/>
     </row>
-    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C741" s="1"/>
     </row>
-    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C742" s="1"/>
     </row>
-    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C743" s="1"/>
     </row>
-    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C744" s="1"/>
     </row>
-    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C745" s="1"/>
     </row>
-    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C746" s="1"/>
     </row>
-    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C747" s="1"/>
     </row>
-    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C748" s="1"/>
     </row>
-    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C749" s="1"/>
     </row>
-    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C750" s="1"/>
     </row>
-    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C751" s="1"/>
     </row>
-    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C752" s="1"/>
     </row>
-    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C753" s="1"/>
     </row>
-    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C754" s="1"/>
     </row>
-    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C755" s="1"/>
     </row>
-    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C756" s="1"/>
     </row>
-    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C757" s="1"/>
     </row>
-    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C758" s="1"/>
     </row>
-    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C759" s="1"/>
     </row>
-    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C760" s="1"/>
     </row>
-    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C761" s="1"/>
     </row>
-    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C762" s="1"/>
     </row>
-    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C763" s="1"/>
     </row>
-    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C764" s="1"/>
     </row>
-    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C765" s="1"/>
     </row>
-    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C766" s="1"/>
     </row>
-    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C767" s="1"/>
     </row>
-    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C768" s="1"/>
     </row>
-    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C769" s="1"/>
     </row>
-    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C770" s="1"/>
     </row>
-    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C771" s="1"/>
     </row>
-    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C772" s="1"/>
     </row>
-    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C773" s="1"/>
     </row>
-    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C774" s="1"/>
     </row>
-    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C775" s="1"/>
     </row>
-    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C776" s="1"/>
     </row>
-    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C777" s="1"/>
     </row>
-    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C778" s="1"/>
     </row>
-    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C779" s="1"/>
     </row>
-    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C780" s="1"/>
     </row>
-    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C781" s="1"/>
     </row>
-    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C782" s="1"/>
     </row>
-    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C783" s="1"/>
     </row>
-    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C784" s="1"/>
     </row>
-    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C785" s="1"/>
     </row>
-    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C786" s="1"/>
     </row>
-    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C787" s="1"/>
     </row>
-    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C788" s="1"/>
     </row>
-    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C789" s="1"/>
     </row>
-    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C790" s="1"/>
     </row>
-    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C791" s="1"/>
     </row>
-    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C792" s="1"/>
     </row>
-    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C793" s="1"/>
     </row>
-    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C794" s="1"/>
     </row>
-    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C795" s="1"/>
     </row>
-    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C796" s="1"/>
     </row>
-    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C797" s="1"/>
     </row>
-    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C798" s="1"/>
     </row>
-    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C799" s="1"/>
     </row>
-    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C800" s="1"/>
     </row>
-    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C801" s="1"/>
     </row>
-    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C802" s="1"/>
     </row>
-    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C803" s="1"/>
     </row>
-    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C804" s="1"/>
     </row>
-    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C805" s="1"/>
     </row>
-    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C806" s="1"/>
     </row>
-    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C807" s="1"/>
     </row>
-    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C808" s="1"/>
     </row>
-    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C809" s="1"/>
     </row>
-    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C810" s="1"/>
     </row>
-    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C811" s="1"/>
     </row>
-    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C812" s="1"/>
     </row>
-    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C813" s="1"/>
     </row>
-    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C814" s="1"/>
     </row>
-    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C815" s="1"/>
     </row>
-    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C816" s="1"/>
     </row>
-    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C817" s="1"/>
     </row>
-    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C818" s="1"/>
     </row>
-    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C819" s="1"/>
     </row>
-    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C820" s="1"/>
     </row>
-    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C821" s="1"/>
     </row>
-    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C822" s="1"/>
     </row>
-    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C823" s="1"/>
     </row>
-    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C824" s="1"/>
     </row>
-    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C825" s="1"/>
     </row>
-    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C826" s="1"/>
     </row>
-    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C827" s="1"/>
     </row>
-    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C828" s="1"/>
     </row>
-    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C829" s="1"/>
     </row>
-    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C830" s="1"/>
     </row>
-    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C831" s="1"/>
     </row>
-    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C832" s="1"/>
     </row>
-    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C833" s="1"/>
     </row>
-    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C834" s="1"/>
     </row>
-    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C835" s="1"/>
     </row>
-    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C836" s="1"/>
     </row>
-    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C837" s="1"/>
     </row>
-    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C838" s="1"/>
     </row>
-    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C839" s="1"/>
     </row>
-    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C840" s="1"/>
     </row>
-    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C841" s="1"/>
     </row>
-    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C842" s="1"/>
     </row>
-    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C843" s="1"/>
     </row>
-    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C844" s="1"/>
     </row>
-    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C845" s="1"/>
     </row>
-    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C846" s="1"/>
     </row>
-    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C847" s="1"/>
     </row>
-    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C848" s="1"/>
     </row>
-    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C849" s="1"/>
     </row>
-    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C850" s="1"/>
     </row>
-    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C851" s="1"/>
     </row>
-    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C852" s="1"/>
     </row>
-    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C853" s="1"/>
     </row>
-    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C854" s="1"/>
     </row>
-    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C855" s="1"/>
     </row>
-    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C856" s="1"/>
     </row>
-    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C857" s="1"/>
     </row>
-    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C858" s="1"/>
     </row>
-    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C859" s="1"/>
     </row>
-    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C860" s="1"/>
     </row>
-    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C861" s="1"/>
     </row>
-    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C862" s="1"/>
     </row>
-    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C863" s="1"/>
     </row>
-    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C864" s="1"/>
     </row>
-    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C865" s="1"/>
     </row>
-    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C866" s="1"/>
     </row>
-    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C867" s="1"/>
     </row>
-    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C868" s="1"/>
     </row>
-    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C869" s="1"/>
     </row>
-    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C870" s="1"/>
     </row>
-    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C871" s="1"/>
     </row>
-    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C872" s="1"/>
     </row>
-    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C873" s="1"/>
     </row>
-    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C874" s="1"/>
     </row>
-    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C875" s="1"/>
     </row>
-    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C876" s="1"/>
     </row>
-    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C877" s="1"/>
     </row>
-    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C878" s="1"/>
     </row>
-    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C879" s="1"/>
     </row>
-    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C880" s="1"/>
     </row>
-    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C881" s="1"/>
     </row>
-    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C882" s="1"/>
     </row>
-    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C883" s="1"/>
     </row>
-    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C884" s="1"/>
     </row>
-    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C885" s="1"/>
     </row>
-    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C886" s="1"/>
     </row>
-    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C887" s="1"/>
     </row>
-    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C888" s="1"/>
     </row>
-    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C889" s="1"/>
     </row>
-    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C890" s="1"/>
     </row>
-    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C891" s="1"/>
     </row>
-    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C892" s="1"/>
     </row>
-    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C893" s="1"/>
     </row>
-    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C894" s="1"/>
     </row>
-    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C895" s="1"/>
     </row>
-    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C896" s="1"/>
     </row>
-    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C897" s="1"/>
     </row>
-    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C898" s="1"/>
     </row>
-    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C899" s="1"/>
     </row>
-    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C900" s="1"/>
     </row>
-    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C901" s="1"/>
     </row>
-    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C902" s="1"/>
     </row>
-    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C903" s="1"/>
     </row>
-    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C904" s="1"/>
     </row>
-    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C905" s="1"/>
     </row>
-    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C906" s="1"/>
     </row>
-    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C907" s="1"/>
     </row>
-    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C908" s="1"/>
     </row>
-    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C909" s="1"/>
     </row>
-    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C910" s="1"/>
     </row>
-    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C911" s="1"/>
     </row>
-    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C912" s="1"/>
     </row>
-    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C913" s="1"/>
     </row>
-    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C914" s="1"/>
     </row>
-    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C915" s="1"/>
     </row>
-    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C916" s="1"/>
     </row>
-    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C917" s="1"/>
     </row>
-    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C918" s="1"/>
     </row>
-    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C919" s="1"/>
     </row>
-    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C920" s="1"/>
     </row>
-    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C921" s="1"/>
     </row>
-    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C922" s="1"/>
     </row>
-    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C923" s="1"/>
     </row>
-    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C924" s="1"/>
     </row>
-    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C925" s="1"/>
     </row>
-    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C926" s="1"/>
     </row>
-    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C927" s="1"/>
     </row>
-    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C928" s="1"/>
     </row>
-    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C929" s="1"/>
     </row>
-    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C930" s="1"/>
     </row>
-    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C931" s="1"/>
     </row>
-    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C932" s="1"/>
     </row>
-    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C933" s="1"/>
     </row>
-    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C934" s="1"/>
     </row>
-    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C935" s="1"/>
     </row>
-    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C936" s="1"/>
     </row>
-    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C937" s="1"/>
     </row>
-    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C938" s="1"/>
     </row>
-    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C939" s="1"/>
     </row>
-    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C940" s="1"/>
     </row>
-    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C941" s="1"/>
     </row>
-    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C942" s="1"/>
     </row>
-    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C943" s="1"/>
     </row>
-    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C944" s="1"/>
     </row>
-    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C945" s="1"/>
     </row>
-    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C946" s="1"/>
     </row>
-    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C947" s="1"/>
     </row>
-    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C948" s="1"/>
     </row>
-    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C949" s="1"/>
     </row>
-    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C950" s="1"/>
     </row>
-    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C951" s="1"/>
     </row>
-    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C952" s="1"/>
     </row>
-    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C953" s="1"/>
     </row>
-    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C954" s="1"/>
     </row>
-    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C955" s="1"/>
     </row>
-    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C956" s="1"/>
     </row>
-    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C957" s="1"/>
     </row>
-    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C958" s="1"/>
     </row>
-    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C959" s="1"/>
     </row>
-    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C960" s="1"/>
     </row>
-    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C961" s="1"/>
     </row>
-    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C962" s="1"/>
     </row>
-    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C963" s="1"/>
     </row>
-    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C964" s="1"/>
     </row>
-    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C965" s="1"/>
     </row>
-    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C966" s="1"/>
     </row>
-    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C967" s="1"/>
     </row>
-    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C968" s="1"/>
     </row>
-    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C969" s="1"/>
     </row>
-    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C970" s="1"/>
     </row>
-    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C971" s="1"/>
     </row>
-    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C972" s="1"/>
     </row>
-    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C973" s="1"/>
     </row>
-    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C974" s="1"/>
     </row>
-    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C975" s="1"/>
     </row>
-    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C976" s="1"/>
     </row>
-    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C977" s="1"/>
     </row>
-    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C978" s="1"/>
     </row>
-    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C979" s="1"/>
     </row>
-    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C980" s="1"/>
     </row>
-    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C981" s="1"/>
     </row>
-    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C982" s="1"/>
     </row>
-    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C983" s="1"/>
     </row>
-    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C984" s="1"/>
     </row>
-    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C985" s="1"/>
     </row>
-    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C986" s="1"/>
     </row>
-    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C987" s="1"/>
     </row>
-    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C988" s="1"/>
     </row>
-    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C989" s="1"/>
     </row>
-    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C990" s="1"/>
     </row>
-    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C991" s="1"/>
     </row>
-    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C992" s="1"/>
     </row>
-    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C993" s="1"/>
     </row>
-    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C994" s="1"/>
     </row>
-    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C995" s="1"/>
     </row>
-    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C996" s="1"/>
     </row>
-    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C997" s="1"/>
     </row>
-    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C998" s="1"/>
     </row>
-    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C999" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B46:B78"/>
+    <mergeCell ref="CK1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
     <mergeCell ref="CY1:DE1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
@@ -8177,10 +8185,6 @@
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
     <mergeCell ref="CD1:CJ1"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B46:B78"/>
-    <mergeCell ref="CK1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -8205,15 +8209,15 @@
       <selection pane="bottomRight" activeCell="AV36" sqref="AV36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.88671875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="158" width="3.88671875" customWidth="1"/>
+    <col min="4" max="158" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
       <c r="E1" s="63" t="s">
         <v>73</v>
@@ -8404,7 +8408,7 @@
       <c r="FA1" s="64"/>
       <c r="FB1" s="64"/>
     </row>
-    <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="E2" s="5" t="s">
         <v>15</v>
@@ -8799,7 +8803,7 @@
       <c r="FA2" s="5"/>
       <c r="FB2" s="5"/>
     </row>
-    <row r="3" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
@@ -8808,12 +8812,12 @@
       <c r="K3" s="5"/>
       <c r="CX3" s="6"/>
     </row>
-    <row r="4" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>26</v>
       </c>
@@ -8929,7 +8933,7 @@
       <c r="DG5" s="39"/>
       <c r="DH5" s="39"/>
     </row>
-    <row r="6" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
@@ -8937,7 +8941,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
@@ -9053,24 +9057,24 @@
       <c r="DG7" s="39"/>
       <c r="DH7" s="39"/>
     </row>
-    <row r="8" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
@@ -9183,22 +9187,22 @@
       <c r="DG11" s="39"/>
       <c r="DH11" s="39"/>
     </row>
-    <row r="12" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
@@ -9311,32 +9315,32 @@
       <c r="DG15" s="39"/>
       <c r="DH15" s="39"/>
     </row>
-    <row r="16" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
@@ -9449,7 +9453,7 @@
       <c r="DG21" s="39"/>
       <c r="DH21" s="39"/>
     </row>
-    <row r="22" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="34" t="s">
         <v>60</v>
       </c>
@@ -9458,10 +9462,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>61</v>
       </c>
@@ -9560,7 +9564,7 @@
       <c r="DG24" s="39"/>
       <c r="DH24" s="39"/>
     </row>
-    <row r="25" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>62</v>
       </c>
@@ -9589,7 +9593,7 @@
       <c r="DG25" s="39"/>
       <c r="DH25" s="39"/>
     </row>
-    <row r="26" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>63</v>
       </c>
@@ -9618,7 +9622,7 @@
       <c r="DG26" s="39"/>
       <c r="DH26" s="39"/>
     </row>
-    <row r="27" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>64</v>
       </c>
@@ -9717,7 +9721,7 @@
       <c r="DG27" s="39"/>
       <c r="DH27" s="39"/>
     </row>
-    <row r="28" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="5" t="s">
         <v>65</v>
       </c>
@@ -9746,7 +9750,7 @@
       <c r="DG28" s="39"/>
       <c r="DH28" s="39"/>
     </row>
-    <row r="29" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>66</v>
       </c>
@@ -9845,21 +9849,21 @@
       <c r="DG29" s="39"/>
       <c r="DH29" s="39"/>
     </row>
-    <row r="30" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="DG30" s="39"/>
       <c r="DH30" s="39"/>
     </row>
-    <row r="31" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>68</v>
       </c>
       <c r="DG31" s="39"/>
       <c r="DH31" s="39"/>
     </row>
-    <row r="32" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="34" t="s">
         <v>100</v>
       </c>
@@ -9868,10 +9872,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="34" t="s">
         <v>69</v>
       </c>
@@ -9893,7 +9897,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>70</v>
       </c>
@@ -9908,7 +9912,7 @@
       <c r="DG35" s="39"/>
       <c r="DH35" s="39"/>
     </row>
-    <row r="36" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>71</v>
       </c>
@@ -9923,7 +9927,7 @@
       <c r="DG36" s="39"/>
       <c r="DH36" s="39"/>
     </row>
-    <row r="37" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>72</v>
       </c>
@@ -9938,12 +9942,12 @@
       <c r="DK37" s="39"/>
       <c r="DL37" s="39"/>
     </row>
-    <row r="39" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="61" t="s">
         <v>255</v>
       </c>
@@ -9983,7 +9987,7 @@
       <c r="CI40" s="39"/>
       <c r="CJ40" s="39"/>
     </row>
-    <row r="41" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="61" t="s">
         <v>256</v>
       </c>
@@ -10023,7 +10027,7 @@
       <c r="CI41" s="39"/>
       <c r="CJ41" s="39"/>
     </row>
-    <row r="42" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="61" t="s">
         <v>257</v>
       </c>
@@ -10063,7 +10067,7 @@
       <c r="CI42" s="39"/>
       <c r="CJ42" s="39"/>
     </row>
-    <row r="43" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="62" t="s">
         <v>259</v>
       </c>
@@ -10108,13 +10112,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="EH1:EN1"/>
     <mergeCell ref="EO1:EU1"/>
     <mergeCell ref="EV1:FB1"/>
@@ -10130,6 +10127,13 @@
     <mergeCell ref="DM1:DS1"/>
     <mergeCell ref="DT1:DZ1"/>
     <mergeCell ref="EA1:EG1"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10146,24 +10150,24 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.88671875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
         <v>90</v>
       </c>
@@ -10177,7 +10181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -10194,7 +10198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -10211,7 +10215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>53</v>
       </c>
@@ -10228,7 +10232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>95</v>
       </c>
@@ -10243,7 +10247,7 @@
       </c>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>97</v>
       </c>
@@ -10257,7 +10261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>98</v>
       </c>
@@ -10271,7 +10275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>248</v>
       </c>
@@ -10285,2962 +10289,2962 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
     </row>
-    <row r="33" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="4"/>
     </row>
-    <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="4"/>
     </row>
-    <row r="125" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="4"/>
     </row>
-    <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B126" s="4"/>
     </row>
-    <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="4"/>
     </row>
-    <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="4"/>
     </row>
-    <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B130" s="4"/>
     </row>
-    <row r="131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="4"/>
     </row>
-    <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B132" s="4"/>
     </row>
-    <row r="133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B133" s="4"/>
     </row>
-    <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B134" s="4"/>
     </row>
-    <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B135" s="4"/>
     </row>
-    <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B136" s="4"/>
     </row>
-    <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B137" s="4"/>
     </row>
-    <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="4"/>
     </row>
-    <row r="139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="4"/>
     </row>
-    <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="4"/>
     </row>
-    <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="4"/>
     </row>
-    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B142" s="4"/>
     </row>
-    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B143" s="4"/>
     </row>
-    <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="4"/>
     </row>
-    <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B145" s="4"/>
     </row>
-    <row r="146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="4"/>
     </row>
-    <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="4"/>
     </row>
-    <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="4"/>
     </row>
-    <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="4"/>
     </row>
-    <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B162" s="4"/>
     </row>
-    <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="4"/>
     </row>
-    <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="4"/>
     </row>
-    <row r="166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="4"/>
     </row>
-    <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B168" s="4"/>
     </row>
-    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B169" s="4"/>
     </row>
-    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="4"/>
     </row>
-    <row r="171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="4"/>
     </row>
-    <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B177" s="4"/>
     </row>
-    <row r="178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="4"/>
     </row>
-    <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B179" s="4"/>
     </row>
-    <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B180" s="4"/>
     </row>
-    <row r="181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="4"/>
     </row>
-    <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="4"/>
     </row>
-    <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="4"/>
     </row>
-    <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B184" s="4"/>
     </row>
-    <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="4"/>
     </row>
-    <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="4"/>
     </row>
-    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="4"/>
     </row>
-    <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="4"/>
     </row>
-    <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="4"/>
     </row>
-    <row r="192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="4"/>
     </row>
-    <row r="193" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="4"/>
     </row>
-    <row r="194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="4"/>
     </row>
-    <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B195" s="4"/>
     </row>
-    <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="4"/>
     </row>
-    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="4"/>
     </row>
-    <row r="200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B200" s="4"/>
     </row>
-    <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B201" s="4"/>
     </row>
-    <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="4"/>
     </row>
-    <row r="203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B205" s="4"/>
     </row>
-    <row r="206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B206" s="4"/>
     </row>
-    <row r="207" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B207" s="4"/>
     </row>
-    <row r="208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="4"/>
     </row>
-    <row r="209" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="4"/>
     </row>
-    <row r="210" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="4"/>
     </row>
-    <row r="211" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B211" s="4"/>
     </row>
-    <row r="212" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B212" s="4"/>
     </row>
-    <row r="213" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B213" s="4"/>
     </row>
-    <row r="214" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B214" s="4"/>
     </row>
-    <row r="215" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B215" s="4"/>
     </row>
-    <row r="216" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B216" s="4"/>
     </row>
-    <row r="217" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B217" s="4"/>
     </row>
-    <row r="218" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B218" s="4"/>
     </row>
-    <row r="219" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B219" s="4"/>
     </row>
-    <row r="220" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B221" s="4"/>
     </row>
-    <row r="222" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B222" s="4"/>
     </row>
-    <row r="223" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B223" s="4"/>
     </row>
-    <row r="224" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B224" s="4"/>
     </row>
-    <row r="225" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B225" s="4"/>
     </row>
-    <row r="226" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B226" s="4"/>
     </row>
-    <row r="227" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B227" s="4"/>
     </row>
-    <row r="228" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B228" s="4"/>
     </row>
-    <row r="229" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B229" s="4"/>
     </row>
-    <row r="230" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B230" s="4"/>
     </row>
-    <row r="231" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B231" s="4"/>
     </row>
-    <row r="232" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B232" s="4"/>
     </row>
-    <row r="233" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B233" s="4"/>
     </row>
-    <row r="234" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B234" s="4"/>
     </row>
-    <row r="235" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B235" s="4"/>
     </row>
-    <row r="236" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B238" s="4"/>
     </row>
-    <row r="239" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B239" s="4"/>
     </row>
-    <row r="240" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="4"/>
     </row>
-    <row r="241" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="4"/>
     </row>
-    <row r="242" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B242" s="4"/>
     </row>
-    <row r="243" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B243" s="4"/>
     </row>
-    <row r="244" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B244" s="4"/>
     </row>
-    <row r="245" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B245" s="4"/>
     </row>
-    <row r="246" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B246" s="4"/>
     </row>
-    <row r="247" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B247" s="4"/>
     </row>
-    <row r="248" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B248" s="4"/>
     </row>
-    <row r="249" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B249" s="4"/>
     </row>
-    <row r="250" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B250" s="4"/>
     </row>
-    <row r="251" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B251" s="4"/>
     </row>
-    <row r="252" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B252" s="4"/>
     </row>
-    <row r="253" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B254" s="4"/>
     </row>
-    <row r="255" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="4"/>
     </row>
-    <row r="256" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="4"/>
     </row>
-    <row r="257" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="4"/>
     </row>
-    <row r="258" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="4"/>
     </row>
-    <row r="259" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="4"/>
     </row>
-    <row r="260" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="4"/>
     </row>
-    <row r="261" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="4"/>
     </row>
-    <row r="262" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="4"/>
     </row>
-    <row r="263" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="4"/>
     </row>
-    <row r="264" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="4"/>
     </row>
-    <row r="265" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="4"/>
     </row>
-    <row r="266" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="4"/>
     </row>
-    <row r="267" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="4"/>
     </row>
-    <row r="268" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="4"/>
     </row>
-    <row r="269" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="4"/>
     </row>
-    <row r="272" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="4"/>
     </row>
-    <row r="273" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="4"/>
     </row>
-    <row r="274" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="4"/>
     </row>
-    <row r="275" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="4"/>
     </row>
-    <row r="276" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="4"/>
     </row>
-    <row r="277" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="4"/>
     </row>
-    <row r="278" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="4"/>
     </row>
-    <row r="279" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="4"/>
     </row>
-    <row r="280" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="4"/>
     </row>
-    <row r="281" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="4"/>
     </row>
-    <row r="282" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="4"/>
     </row>
-    <row r="283" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="4"/>
     </row>
-    <row r="284" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="4"/>
     </row>
-    <row r="285" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="4"/>
     </row>
-    <row r="286" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="4"/>
     </row>
-    <row r="287" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="4"/>
     </row>
-    <row r="288" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="4"/>
     </row>
-    <row r="289" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="4"/>
     </row>
-    <row r="290" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="4"/>
     </row>
-    <row r="291" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="4"/>
     </row>
-    <row r="292" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="4"/>
     </row>
-    <row r="293" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="4"/>
     </row>
-    <row r="294" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="4"/>
     </row>
-    <row r="295" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="4"/>
     </row>
-    <row r="296" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="4"/>
     </row>
-    <row r="297" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="4"/>
     </row>
-    <row r="298" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="4"/>
     </row>
-    <row r="299" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="4"/>
     </row>
-    <row r="300" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="4"/>
     </row>
-    <row r="301" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="4"/>
     </row>
-    <row r="302" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="4"/>
     </row>
-    <row r="304" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="4"/>
     </row>
-    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="4"/>
     </row>
-    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="4"/>
     </row>
-    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="4"/>
     </row>
-    <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="4"/>
     </row>
-    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="4"/>
     </row>
-    <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="4"/>
     </row>
-    <row r="311" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="4"/>
     </row>
-    <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="4"/>
     </row>
-    <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="4"/>
     </row>
-    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="4"/>
     </row>
-    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="4"/>
     </row>
-    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="4"/>
     </row>
-    <row r="317" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="4"/>
     </row>
-    <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="4"/>
     </row>
-    <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="4"/>
     </row>
-    <row r="320" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="4"/>
     </row>
-    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="4"/>
     </row>
-    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="4"/>
     </row>
-    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="4"/>
     </row>
-    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="4"/>
     </row>
-    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="4"/>
     </row>
-    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="4"/>
     </row>
-    <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="4"/>
     </row>
-    <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="4"/>
     </row>
-    <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="4"/>
     </row>
-    <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="4"/>
     </row>
-    <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="4"/>
     </row>
-    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="4"/>
     </row>
-    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="4"/>
     </row>
-    <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="4"/>
     </row>
-    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="4"/>
     </row>
-    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="4"/>
     </row>
-    <row r="337" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="4"/>
     </row>
-    <row r="338" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="4"/>
     </row>
-    <row r="339" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="4"/>
     </row>
-    <row r="340" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="4"/>
     </row>
-    <row r="341" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="4"/>
     </row>
-    <row r="342" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="4"/>
     </row>
-    <row r="343" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="4"/>
     </row>
-    <row r="344" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="4"/>
     </row>
-    <row r="345" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="4"/>
     </row>
-    <row r="346" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="4"/>
     </row>
-    <row r="347" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="4"/>
     </row>
-    <row r="348" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="4"/>
     </row>
-    <row r="349" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="4"/>
     </row>
-    <row r="350" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="4"/>
     </row>
-    <row r="351" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="4"/>
     </row>
-    <row r="352" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="4"/>
     </row>
-    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="4"/>
     </row>
-    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="4"/>
     </row>
-    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="4"/>
     </row>
-    <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="4"/>
     </row>
-    <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="4"/>
     </row>
-    <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="4"/>
     </row>
-    <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="4"/>
     </row>
-    <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="4"/>
     </row>
-    <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="4"/>
     </row>
-    <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="4"/>
     </row>
-    <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="4"/>
     </row>
-    <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="4"/>
     </row>
-    <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="4"/>
     </row>
-    <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="4"/>
     </row>
-    <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="4"/>
     </row>
-    <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="4"/>
     </row>
-    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="4"/>
     </row>
-    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="4"/>
     </row>
-    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="4"/>
     </row>
-    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="4"/>
     </row>
-    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="4"/>
     </row>
-    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="4"/>
     </row>
-    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="4"/>
     </row>
-    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="4"/>
     </row>
-    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="4"/>
     </row>
-    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="4"/>
     </row>
-    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="4"/>
     </row>
-    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="4"/>
     </row>
-    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="4"/>
     </row>
-    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="4"/>
     </row>
-    <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="4"/>
     </row>
-    <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="4"/>
     </row>
-    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="4"/>
     </row>
-    <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="4"/>
     </row>
-    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="4"/>
     </row>
-    <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="4"/>
     </row>
-    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="4"/>
     </row>
-    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="4"/>
     </row>
-    <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="4"/>
     </row>
-    <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="4"/>
     </row>
-    <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="4"/>
     </row>
-    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="4"/>
     </row>
-    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="4"/>
     </row>
-    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="4"/>
     </row>
-    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="4"/>
     </row>
-    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="4"/>
     </row>
-    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="4"/>
     </row>
-    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="4"/>
     </row>
-    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="4"/>
     </row>
-    <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="4"/>
     </row>
-    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="4"/>
     </row>
-    <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="4"/>
     </row>
-    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="4"/>
     </row>
-    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="4"/>
     </row>
-    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="4"/>
     </row>
-    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="4"/>
     </row>
-    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="4"/>
     </row>
-    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="4"/>
     </row>
-    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="4"/>
     </row>
-    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="4"/>
     </row>
-    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="4"/>
     </row>
-    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="4"/>
     </row>
-    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="4"/>
     </row>
-    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="4"/>
     </row>
-    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="4"/>
     </row>
-    <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="4"/>
     </row>
-    <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="4"/>
     </row>
-    <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="4"/>
     </row>
-    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="4"/>
     </row>
-    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="4"/>
     </row>
-    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="4"/>
     </row>
-    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="4"/>
     </row>
-    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="4"/>
     </row>
-    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="4"/>
     </row>
-    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="4"/>
     </row>
-    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="4"/>
     </row>
-    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="4"/>
     </row>
-    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="4"/>
     </row>
-    <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="4"/>
     </row>
-    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="4"/>
     </row>
-    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="4"/>
     </row>
-    <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="4"/>
     </row>
-    <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="4"/>
     </row>
-    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="4"/>
     </row>
-    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="4"/>
     </row>
-    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="4"/>
     </row>
-    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="4"/>
     </row>
-    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="4"/>
     </row>
-    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="4"/>
     </row>
-    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="4"/>
     </row>
-    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="4"/>
     </row>
-    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="4"/>
     </row>
-    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="4"/>
     </row>
-    <row r="450" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="4"/>
     </row>
-    <row r="451" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="4"/>
     </row>
-    <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="4"/>
     </row>
-    <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="4"/>
     </row>
-    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="4"/>
     </row>
-    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="4"/>
     </row>
-    <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="4"/>
     </row>
-    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="4"/>
     </row>
-    <row r="458" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="4"/>
     </row>
-    <row r="459" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="4"/>
     </row>
-    <row r="460" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="4"/>
     </row>
-    <row r="461" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="4"/>
     </row>
-    <row r="462" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="4"/>
     </row>
-    <row r="463" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="4"/>
     </row>
-    <row r="464" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="4"/>
     </row>
-    <row r="465" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="4"/>
     </row>
-    <row r="466" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="4"/>
     </row>
-    <row r="467" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="4"/>
     </row>
-    <row r="468" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="4"/>
     </row>
-    <row r="469" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="4"/>
     </row>
-    <row r="470" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="4"/>
     </row>
-    <row r="471" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="4"/>
     </row>
-    <row r="472" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="4"/>
     </row>
-    <row r="473" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="4"/>
     </row>
-    <row r="474" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="4"/>
     </row>
-    <row r="475" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="4"/>
     </row>
-    <row r="476" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="4"/>
     </row>
-    <row r="477" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="4"/>
     </row>
-    <row r="478" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="4"/>
     </row>
-    <row r="479" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="4"/>
     </row>
-    <row r="480" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="4"/>
     </row>
-    <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="4"/>
     </row>
-    <row r="482" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="4"/>
     </row>
-    <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="4"/>
     </row>
-    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="4"/>
     </row>
-    <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="4"/>
     </row>
-    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="4"/>
     </row>
-    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="4"/>
     </row>
-    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="4"/>
     </row>
-    <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="4"/>
     </row>
-    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="4"/>
     </row>
-    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="4"/>
     </row>
-    <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="4"/>
     </row>
-    <row r="493" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="4"/>
     </row>
-    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="4"/>
     </row>
-    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="4"/>
     </row>
-    <row r="496" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="4"/>
     </row>
-    <row r="497" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="4"/>
     </row>
-    <row r="498" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="4"/>
     </row>
-    <row r="499" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="4"/>
     </row>
-    <row r="500" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="4"/>
     </row>
-    <row r="501" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="4"/>
     </row>
-    <row r="502" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="4"/>
     </row>
-    <row r="503" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="4"/>
     </row>
-    <row r="504" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="4"/>
     </row>
-    <row r="505" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="4"/>
     </row>
-    <row r="506" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="4"/>
     </row>
-    <row r="507" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="4"/>
     </row>
-    <row r="508" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="4"/>
     </row>
-    <row r="509" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="4"/>
     </row>
-    <row r="510" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="4"/>
     </row>
-    <row r="511" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="4"/>
     </row>
-    <row r="512" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="4"/>
     </row>
-    <row r="513" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="4"/>
     </row>
-    <row r="514" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="4"/>
     </row>
-    <row r="515" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="4"/>
     </row>
-    <row r="516" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="4"/>
     </row>
-    <row r="517" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="4"/>
     </row>
-    <row r="518" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="4"/>
     </row>
-    <row r="519" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="4"/>
     </row>
-    <row r="520" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="4"/>
     </row>
-    <row r="521" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="4"/>
     </row>
-    <row r="522" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="4"/>
     </row>
-    <row r="523" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="4"/>
     </row>
-    <row r="524" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="4"/>
     </row>
-    <row r="525" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="4"/>
     </row>
-    <row r="526" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="4"/>
     </row>
-    <row r="527" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="4"/>
     </row>
-    <row r="528" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="4"/>
     </row>
-    <row r="529" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="4"/>
     </row>
-    <row r="530" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="4"/>
     </row>
-    <row r="531" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="4"/>
     </row>
-    <row r="532" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="4"/>
     </row>
-    <row r="533" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="4"/>
     </row>
-    <row r="534" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="4"/>
     </row>
-    <row r="535" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="4"/>
     </row>
-    <row r="536" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="4"/>
     </row>
-    <row r="537" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="4"/>
     </row>
-    <row r="538" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="4"/>
     </row>
-    <row r="539" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="4"/>
     </row>
-    <row r="540" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="4"/>
     </row>
-    <row r="541" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="4"/>
     </row>
-    <row r="542" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="4"/>
     </row>
-    <row r="543" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="4"/>
     </row>
-    <row r="544" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="4"/>
     </row>
-    <row r="545" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="4"/>
     </row>
-    <row r="546" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="4"/>
     </row>
-    <row r="547" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="4"/>
     </row>
-    <row r="548" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="4"/>
     </row>
-    <row r="549" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="4"/>
     </row>
-    <row r="550" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="4"/>
     </row>
-    <row r="551" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="4"/>
     </row>
-    <row r="552" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="4"/>
     </row>
-    <row r="553" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="4"/>
     </row>
-    <row r="554" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="4"/>
     </row>
-    <row r="555" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="4"/>
     </row>
-    <row r="556" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="4"/>
     </row>
-    <row r="557" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="4"/>
     </row>
-    <row r="558" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="4"/>
     </row>
-    <row r="559" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="4"/>
     </row>
-    <row r="560" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="4"/>
     </row>
-    <row r="561" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="4"/>
     </row>
-    <row r="562" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="4"/>
     </row>
-    <row r="563" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="4"/>
     </row>
-    <row r="564" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="4"/>
     </row>
-    <row r="565" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="4"/>
     </row>
-    <row r="566" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="4"/>
     </row>
-    <row r="567" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="4"/>
     </row>
-    <row r="568" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="4"/>
     </row>
-    <row r="569" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="4"/>
     </row>
-    <row r="570" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="4"/>
     </row>
-    <row r="571" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="4"/>
     </row>
-    <row r="572" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="4"/>
     </row>
-    <row r="573" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="4"/>
     </row>
-    <row r="574" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="4"/>
     </row>
-    <row r="575" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="4"/>
     </row>
-    <row r="576" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="4"/>
     </row>
-    <row r="577" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="4"/>
     </row>
-    <row r="578" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="4"/>
     </row>
-    <row r="579" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="4"/>
     </row>
-    <row r="580" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="4"/>
     </row>
-    <row r="581" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="4"/>
     </row>
-    <row r="582" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="4"/>
     </row>
-    <row r="583" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="4"/>
     </row>
-    <row r="584" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="4"/>
     </row>
-    <row r="585" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="4"/>
     </row>
-    <row r="586" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="4"/>
     </row>
-    <row r="587" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="4"/>
     </row>
-    <row r="588" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="4"/>
     </row>
-    <row r="589" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="4"/>
     </row>
-    <row r="590" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="4"/>
     </row>
-    <row r="591" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="4"/>
     </row>
-    <row r="592" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="4"/>
     </row>
-    <row r="593" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="4"/>
     </row>
-    <row r="594" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="4"/>
     </row>
-    <row r="595" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="4"/>
     </row>
-    <row r="596" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="4"/>
     </row>
-    <row r="597" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="4"/>
     </row>
-    <row r="598" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="4"/>
     </row>
-    <row r="599" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="4"/>
     </row>
-    <row r="600" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="4"/>
     </row>
-    <row r="601" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="4"/>
     </row>
-    <row r="602" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="4"/>
     </row>
-    <row r="603" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="4"/>
     </row>
-    <row r="604" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="4"/>
     </row>
-    <row r="605" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="4"/>
     </row>
-    <row r="606" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="4"/>
     </row>
-    <row r="607" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="4"/>
     </row>
-    <row r="608" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="4"/>
     </row>
-    <row r="609" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="4"/>
     </row>
-    <row r="610" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="4"/>
     </row>
-    <row r="611" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="4"/>
     </row>
-    <row r="612" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="4"/>
     </row>
-    <row r="613" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="4"/>
     </row>
-    <row r="614" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="4"/>
     </row>
-    <row r="615" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="4"/>
     </row>
-    <row r="616" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="4"/>
     </row>
-    <row r="617" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="4"/>
     </row>
-    <row r="618" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="4"/>
     </row>
-    <row r="619" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="4"/>
     </row>
-    <row r="620" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="4"/>
     </row>
-    <row r="621" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="4"/>
     </row>
-    <row r="622" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="4"/>
     </row>
-    <row r="623" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="4"/>
     </row>
-    <row r="624" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="4"/>
     </row>
-    <row r="625" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="4"/>
     </row>
-    <row r="626" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="4"/>
     </row>
-    <row r="627" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="4"/>
     </row>
-    <row r="628" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="4"/>
     </row>
-    <row r="629" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="4"/>
     </row>
-    <row r="630" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="4"/>
     </row>
-    <row r="631" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="4"/>
     </row>
-    <row r="632" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="4"/>
     </row>
-    <row r="633" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="4"/>
     </row>
-    <row r="634" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="4"/>
     </row>
-    <row r="635" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="4"/>
     </row>
-    <row r="636" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="4"/>
     </row>
-    <row r="637" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="4"/>
     </row>
-    <row r="638" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="4"/>
     </row>
-    <row r="639" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="4"/>
     </row>
-    <row r="640" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="4"/>
     </row>
-    <row r="641" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="4"/>
     </row>
-    <row r="642" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="4"/>
     </row>
-    <row r="643" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="4"/>
     </row>
-    <row r="644" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="4"/>
     </row>
-    <row r="645" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="4"/>
     </row>
-    <row r="646" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="4"/>
     </row>
-    <row r="647" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="4"/>
     </row>
-    <row r="648" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="4"/>
     </row>
-    <row r="649" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="4"/>
     </row>
-    <row r="650" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="4"/>
     </row>
-    <row r="651" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="4"/>
     </row>
-    <row r="652" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="4"/>
     </row>
-    <row r="653" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="4"/>
     </row>
-    <row r="654" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="4"/>
     </row>
-    <row r="655" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="4"/>
     </row>
-    <row r="656" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="4"/>
     </row>
-    <row r="657" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="4"/>
     </row>
-    <row r="658" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="4"/>
     </row>
-    <row r="659" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="4"/>
     </row>
-    <row r="660" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="4"/>
     </row>
-    <row r="661" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="4"/>
     </row>
-    <row r="662" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="4"/>
     </row>
-    <row r="663" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="4"/>
     </row>
-    <row r="664" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="4"/>
     </row>
-    <row r="665" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="4"/>
     </row>
-    <row r="666" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="4"/>
     </row>
-    <row r="667" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="4"/>
     </row>
-    <row r="668" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="4"/>
     </row>
-    <row r="669" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="4"/>
     </row>
-    <row r="670" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="4"/>
     </row>
-    <row r="671" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="4"/>
     </row>
-    <row r="672" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="4"/>
     </row>
-    <row r="673" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="4"/>
     </row>
-    <row r="674" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="4"/>
     </row>
-    <row r="675" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="4"/>
     </row>
-    <row r="676" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="4"/>
     </row>
-    <row r="677" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="4"/>
     </row>
-    <row r="678" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="4"/>
     </row>
-    <row r="679" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="4"/>
     </row>
-    <row r="680" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="4"/>
     </row>
-    <row r="681" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="4"/>
     </row>
-    <row r="682" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="4"/>
     </row>
-    <row r="683" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="4"/>
     </row>
-    <row r="684" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="4"/>
     </row>
-    <row r="685" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="4"/>
     </row>
-    <row r="686" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="4"/>
     </row>
-    <row r="687" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="4"/>
     </row>
-    <row r="688" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="4"/>
     </row>
-    <row r="689" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="4"/>
     </row>
-    <row r="690" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="4"/>
     </row>
-    <row r="691" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="4"/>
     </row>
-    <row r="692" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="4"/>
     </row>
-    <row r="693" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="4"/>
     </row>
-    <row r="694" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="4"/>
     </row>
-    <row r="695" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="4"/>
     </row>
-    <row r="696" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="4"/>
     </row>
-    <row r="697" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="4"/>
     </row>
-    <row r="698" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="4"/>
     </row>
-    <row r="699" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="4"/>
     </row>
-    <row r="700" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="4"/>
     </row>
-    <row r="701" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="4"/>
     </row>
-    <row r="702" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="4"/>
     </row>
-    <row r="703" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="4"/>
     </row>
-    <row r="704" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="4"/>
     </row>
-    <row r="705" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="4"/>
     </row>
-    <row r="706" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="4"/>
     </row>
-    <row r="707" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="4"/>
     </row>
-    <row r="708" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="4"/>
     </row>
-    <row r="709" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="4"/>
     </row>
-    <row r="710" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="4"/>
     </row>
-    <row r="711" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="4"/>
     </row>
-    <row r="712" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="4"/>
     </row>
-    <row r="713" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="4"/>
     </row>
-    <row r="714" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="4"/>
     </row>
-    <row r="715" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="4"/>
     </row>
-    <row r="716" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="4"/>
     </row>
-    <row r="717" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="4"/>
     </row>
-    <row r="718" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="4"/>
     </row>
-    <row r="719" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="4"/>
     </row>
-    <row r="720" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="4"/>
     </row>
-    <row r="721" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="4"/>
     </row>
-    <row r="722" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="4"/>
     </row>
-    <row r="723" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="4"/>
     </row>
-    <row r="724" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="4"/>
     </row>
-    <row r="725" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="4"/>
     </row>
-    <row r="726" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="4"/>
     </row>
-    <row r="727" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="4"/>
     </row>
-    <row r="728" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="4"/>
     </row>
-    <row r="729" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="4"/>
     </row>
-    <row r="730" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="4"/>
     </row>
-    <row r="731" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="4"/>
     </row>
-    <row r="732" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="4"/>
     </row>
-    <row r="733" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="4"/>
     </row>
-    <row r="734" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="4"/>
     </row>
-    <row r="735" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="4"/>
     </row>
-    <row r="736" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="4"/>
     </row>
-    <row r="737" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="4"/>
     </row>
-    <row r="738" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="4"/>
     </row>
-    <row r="739" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="4"/>
     </row>
-    <row r="740" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="4"/>
     </row>
-    <row r="741" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="4"/>
     </row>
-    <row r="742" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="4"/>
     </row>
-    <row r="743" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="4"/>
     </row>
-    <row r="744" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="4"/>
     </row>
-    <row r="745" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="4"/>
     </row>
-    <row r="746" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="4"/>
     </row>
-    <row r="747" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="4"/>
     </row>
-    <row r="748" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="4"/>
     </row>
-    <row r="749" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="4"/>
     </row>
-    <row r="750" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="4"/>
     </row>
-    <row r="751" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="4"/>
     </row>
-    <row r="752" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="4"/>
     </row>
-    <row r="753" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="4"/>
     </row>
-    <row r="754" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="4"/>
     </row>
-    <row r="755" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="4"/>
     </row>
-    <row r="756" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="4"/>
     </row>
-    <row r="757" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="4"/>
     </row>
-    <row r="758" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="4"/>
     </row>
-    <row r="759" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="4"/>
     </row>
-    <row r="760" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="4"/>
     </row>
-    <row r="761" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="4"/>
     </row>
-    <row r="762" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="4"/>
     </row>
-    <row r="763" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="4"/>
     </row>
-    <row r="764" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="4"/>
     </row>
-    <row r="765" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="4"/>
     </row>
-    <row r="766" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="4"/>
     </row>
-    <row r="767" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="4"/>
     </row>
-    <row r="768" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="4"/>
     </row>
-    <row r="769" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="4"/>
     </row>
-    <row r="770" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="4"/>
     </row>
-    <row r="771" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="4"/>
     </row>
-    <row r="772" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="4"/>
     </row>
-    <row r="773" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="4"/>
     </row>
-    <row r="774" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="4"/>
     </row>
-    <row r="775" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="4"/>
     </row>
-    <row r="776" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="4"/>
     </row>
-    <row r="777" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="4"/>
     </row>
-    <row r="778" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="4"/>
     </row>
-    <row r="779" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="4"/>
     </row>
-    <row r="780" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="4"/>
     </row>
-    <row r="781" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="4"/>
     </row>
-    <row r="782" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="4"/>
     </row>
-    <row r="783" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="4"/>
     </row>
-    <row r="784" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="4"/>
     </row>
-    <row r="785" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="4"/>
     </row>
-    <row r="786" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="4"/>
     </row>
-    <row r="787" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="4"/>
     </row>
-    <row r="788" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="4"/>
     </row>
-    <row r="789" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="4"/>
     </row>
-    <row r="790" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="4"/>
     </row>
-    <row r="791" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="4"/>
     </row>
-    <row r="792" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="4"/>
     </row>
-    <row r="793" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="4"/>
     </row>
-    <row r="794" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="4"/>
     </row>
-    <row r="795" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="4"/>
     </row>
-    <row r="796" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="4"/>
     </row>
-    <row r="797" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="4"/>
     </row>
-    <row r="798" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="4"/>
     </row>
-    <row r="799" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="4"/>
     </row>
-    <row r="800" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="4"/>
     </row>
-    <row r="801" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="4"/>
     </row>
-    <row r="802" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="4"/>
     </row>
-    <row r="803" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="4"/>
     </row>
-    <row r="804" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="4"/>
     </row>
-    <row r="805" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="4"/>
     </row>
-    <row r="806" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="4"/>
     </row>
-    <row r="807" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="4"/>
     </row>
-    <row r="808" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="4"/>
     </row>
-    <row r="809" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="4"/>
     </row>
-    <row r="810" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="4"/>
     </row>
-    <row r="811" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="4"/>
     </row>
-    <row r="812" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="4"/>
     </row>
-    <row r="813" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="4"/>
     </row>
-    <row r="814" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="4"/>
     </row>
-    <row r="815" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="4"/>
     </row>
-    <row r="816" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="4"/>
     </row>
-    <row r="817" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="4"/>
     </row>
-    <row r="818" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="4"/>
     </row>
-    <row r="819" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="4"/>
     </row>
-    <row r="820" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="4"/>
     </row>
-    <row r="821" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="4"/>
     </row>
-    <row r="822" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="4"/>
     </row>
-    <row r="823" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="4"/>
     </row>
-    <row r="824" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="4"/>
     </row>
-    <row r="825" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="4"/>
     </row>
-    <row r="826" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="4"/>
     </row>
-    <row r="827" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="4"/>
     </row>
-    <row r="828" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="4"/>
     </row>
-    <row r="829" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="4"/>
     </row>
-    <row r="830" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="4"/>
     </row>
-    <row r="831" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="4"/>
     </row>
-    <row r="832" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="4"/>
     </row>
-    <row r="833" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="4"/>
     </row>
-    <row r="834" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="4"/>
     </row>
-    <row r="835" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="4"/>
     </row>
-    <row r="836" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="4"/>
     </row>
-    <row r="837" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="4"/>
     </row>
-    <row r="838" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="4"/>
     </row>
-    <row r="839" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="4"/>
     </row>
-    <row r="840" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="4"/>
     </row>
-    <row r="841" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="4"/>
     </row>
-    <row r="842" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="4"/>
     </row>
-    <row r="843" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="4"/>
     </row>
-    <row r="844" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="4"/>
     </row>
-    <row r="845" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="4"/>
     </row>
-    <row r="846" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="4"/>
     </row>
-    <row r="847" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="4"/>
     </row>
-    <row r="848" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="4"/>
     </row>
-    <row r="849" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="4"/>
     </row>
-    <row r="850" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="4"/>
     </row>
-    <row r="851" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="4"/>
     </row>
-    <row r="852" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="4"/>
     </row>
-    <row r="853" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="4"/>
     </row>
-    <row r="854" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="4"/>
     </row>
-    <row r="855" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="4"/>
     </row>
-    <row r="856" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="4"/>
     </row>
-    <row r="857" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="4"/>
     </row>
-    <row r="858" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="4"/>
     </row>
-    <row r="859" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="4"/>
     </row>
-    <row r="860" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="4"/>
     </row>
-    <row r="861" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="4"/>
     </row>
-    <row r="862" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="4"/>
     </row>
-    <row r="863" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="4"/>
     </row>
-    <row r="864" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="4"/>
     </row>
-    <row r="865" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="4"/>
     </row>
-    <row r="866" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="4"/>
     </row>
-    <row r="867" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="4"/>
     </row>
-    <row r="868" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="4"/>
     </row>
-    <row r="869" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="4"/>
     </row>
-    <row r="870" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="4"/>
     </row>
-    <row r="871" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="4"/>
     </row>
-    <row r="872" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="4"/>
     </row>
-    <row r="873" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="4"/>
     </row>
-    <row r="874" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="4"/>
     </row>
-    <row r="875" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="4"/>
     </row>
-    <row r="876" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="4"/>
     </row>
-    <row r="877" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="4"/>
     </row>
-    <row r="878" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="4"/>
     </row>
-    <row r="879" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="4"/>
     </row>
-    <row r="880" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="4"/>
     </row>
-    <row r="881" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="4"/>
     </row>
-    <row r="882" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="4"/>
     </row>
-    <row r="883" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="4"/>
     </row>
-    <row r="884" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="4"/>
     </row>
-    <row r="885" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="4"/>
     </row>
-    <row r="886" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="4"/>
     </row>
-    <row r="887" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="4"/>
     </row>
-    <row r="888" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="4"/>
     </row>
-    <row r="889" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="4"/>
     </row>
-    <row r="890" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="4"/>
     </row>
-    <row r="891" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="4"/>
     </row>
-    <row r="892" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="4"/>
     </row>
-    <row r="893" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="4"/>
     </row>
-    <row r="894" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="4"/>
     </row>
-    <row r="895" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="4"/>
     </row>
-    <row r="896" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="4"/>
     </row>
-    <row r="897" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="4"/>
     </row>
-    <row r="898" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="4"/>
     </row>
-    <row r="899" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="4"/>
     </row>
-    <row r="900" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="4"/>
     </row>
-    <row r="901" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="4"/>
     </row>
-    <row r="902" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="4"/>
     </row>
-    <row r="903" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="4"/>
     </row>
-    <row r="904" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="4"/>
     </row>
-    <row r="905" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="4"/>
     </row>
-    <row r="906" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="4"/>
     </row>
-    <row r="907" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="4"/>
     </row>
-    <row r="908" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="4"/>
     </row>
-    <row r="909" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="4"/>
     </row>
-    <row r="910" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="4"/>
     </row>
-    <row r="911" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="4"/>
     </row>
-    <row r="912" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="4"/>
     </row>
-    <row r="913" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="4"/>
     </row>
-    <row r="914" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="4"/>
     </row>
-    <row r="915" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="4"/>
     </row>
-    <row r="916" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="4"/>
     </row>
-    <row r="917" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="4"/>
     </row>
-    <row r="918" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="4"/>
     </row>
-    <row r="919" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="4"/>
     </row>
-    <row r="920" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="4"/>
     </row>
-    <row r="921" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="4"/>
     </row>
-    <row r="922" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="4"/>
     </row>
-    <row r="923" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="4"/>
     </row>
-    <row r="924" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="4"/>
     </row>
-    <row r="925" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="4"/>
     </row>
-    <row r="926" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="4"/>
     </row>
-    <row r="927" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="4"/>
     </row>
-    <row r="928" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="4"/>
     </row>
-    <row r="929" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="4"/>
     </row>
-    <row r="930" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="4"/>
     </row>
-    <row r="931" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="4"/>
     </row>
-    <row r="932" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="4"/>
     </row>
-    <row r="933" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="4"/>
     </row>
-    <row r="934" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="4"/>
     </row>
-    <row r="935" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="4"/>
     </row>
-    <row r="936" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="4"/>
     </row>
-    <row r="937" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="4"/>
     </row>
-    <row r="938" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="4"/>
     </row>
-    <row r="939" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="4"/>
     </row>
-    <row r="940" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="4"/>
     </row>
-    <row r="941" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="4"/>
     </row>
-    <row r="942" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="4"/>
     </row>
-    <row r="943" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="4"/>
     </row>
-    <row r="944" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="4"/>
     </row>
-    <row r="945" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="4"/>
     </row>
-    <row r="946" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="4"/>
     </row>
-    <row r="947" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="4"/>
     </row>
-    <row r="948" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="4"/>
     </row>
-    <row r="949" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="4"/>
     </row>
-    <row r="950" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="4"/>
     </row>
-    <row r="951" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="4"/>
     </row>
-    <row r="952" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="4"/>
     </row>
-    <row r="953" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="4"/>
     </row>
-    <row r="954" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="4"/>
     </row>
-    <row r="955" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="4"/>
     </row>
-    <row r="956" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="4"/>
     </row>
-    <row r="957" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="4"/>
     </row>
-    <row r="958" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="4"/>
     </row>
-    <row r="959" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="4"/>
     </row>
-    <row r="960" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="4"/>
     </row>
-    <row r="961" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="4"/>
     </row>
-    <row r="962" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="4"/>
     </row>
-    <row r="963" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="4"/>
     </row>
-    <row r="964" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="4"/>
     </row>
-    <row r="965" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="4"/>
     </row>
-    <row r="966" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="4"/>
     </row>
-    <row r="967" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="4"/>
     </row>
-    <row r="968" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="4"/>
     </row>
-    <row r="969" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="4"/>
     </row>
-    <row r="970" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="4"/>
     </row>
-    <row r="971" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="4"/>
     </row>
-    <row r="972" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="4"/>
     </row>
-    <row r="973" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="4"/>
     </row>
-    <row r="974" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="4"/>
     </row>
-    <row r="975" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="4"/>
     </row>
-    <row r="976" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="4"/>
     </row>
-    <row r="977" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="4"/>
     </row>
-    <row r="978" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="4"/>
     </row>
-    <row r="979" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B979" s="4"/>
     </row>
-    <row r="980" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B980" s="4"/>
     </row>
-    <row r="981" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B981" s="4"/>
     </row>
-    <row r="982" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B982" s="4"/>
     </row>
-    <row r="983" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B983" s="4"/>
     </row>
-    <row r="984" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B984" s="4"/>
     </row>
-    <row r="985" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B985" s="4"/>
     </row>
-    <row r="986" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B986" s="4"/>
     </row>
-    <row r="987" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B987" s="4"/>
     </row>
-    <row r="988" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B988" s="4"/>
     </row>
-    <row r="989" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B989" s="4"/>
     </row>
-    <row r="990" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B990" s="4"/>
     </row>
-    <row r="991" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B991" s="4"/>
     </row>
-    <row r="992" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B992" s="4"/>
     </row>
-    <row r="993" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B993" s="4"/>
     </row>
-    <row r="994" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B994" s="4"/>
     </row>
-    <row r="995" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B995" s="4"/>
     </row>
-    <row r="996" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B996" s="4"/>
     </row>
-    <row r="997" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B997" s="4"/>
     </row>
-    <row r="998" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B998" s="4"/>
     </row>
-    <row r="999" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B999" s="4"/>
     </row>
-    <row r="1000" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1000" s="4"/>
     </row>
-    <row r="1001" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1001" s="4"/>
     </row>
   </sheetData>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yara\Dropbox\Studium\Semester 6\FRONT\FRONT_Projekt\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137A7E3C-1F3B-4022-A716-7D181D812A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA59273-C51B-4BE8-8F37-00C7A2379D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,6 +1205,9 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1213,9 +1216,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="H6" s="30">
         <f>SUM(H10:H74)</f>
-        <v>65.5</v>
+        <v>66.5</v>
       </c>
       <c r="I6" s="27">
         <f>SUM(I10:I74)</f>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="H7" s="30">
         <f t="shared" ref="H7:J7" si="1">H5-H6</f>
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" si="1"/>
@@ -3328,7 +3328,9 @@
       <c r="G67" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="H67" s="22"/>
+      <c r="H67" s="22">
+        <v>1</v>
+      </c>
       <c r="I67" s="22"/>
       <c r="J67" s="22">
         <v>1</v>
@@ -3567,141 +3569,141 @@
   <sheetData>
     <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="65" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="65" t="s">
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="65" t="s">
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="65" t="s">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="63" t="s">
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="63" t="s">
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="63" t="s">
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="63" t="s">
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="63" t="s">
+      <c r="BJ1" s="65"/>
+      <c r="BK1" s="65"/>
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="63" t="s">
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="65"/>
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="64"/>
-      <c r="BZ1" s="64"/>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64"/>
-      <c r="CD1" s="63" t="s">
+      <c r="BX1" s="65"/>
+      <c r="BY1" s="65"/>
+      <c r="BZ1" s="65"/>
+      <c r="CA1" s="65"/>
+      <c r="CB1" s="65"/>
+      <c r="CC1" s="65"/>
+      <c r="CD1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64"/>
-      <c r="CG1" s="64"/>
-      <c r="CH1" s="64"/>
-      <c r="CI1" s="64"/>
-      <c r="CJ1" s="64"/>
-      <c r="CK1" s="63" t="s">
+      <c r="CE1" s="65"/>
+      <c r="CF1" s="65"/>
+      <c r="CG1" s="65"/>
+      <c r="CH1" s="65"/>
+      <c r="CI1" s="65"/>
+      <c r="CJ1" s="65"/>
+      <c r="CK1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="CL1" s="64"/>
-      <c r="CM1" s="64"/>
-      <c r="CN1" s="64"/>
-      <c r="CO1" s="64"/>
-      <c r="CP1" s="64"/>
-      <c r="CQ1" s="64"/>
-      <c r="CR1" s="63" t="s">
+      <c r="CL1" s="65"/>
+      <c r="CM1" s="65"/>
+      <c r="CN1" s="65"/>
+      <c r="CO1" s="65"/>
+      <c r="CP1" s="65"/>
+      <c r="CQ1" s="65"/>
+      <c r="CR1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="CS1" s="64"/>
-      <c r="CT1" s="64"/>
-      <c r="CU1" s="64"/>
-      <c r="CV1" s="64"/>
-      <c r="CW1" s="64"/>
-      <c r="CX1" s="64"/>
-      <c r="CY1" s="63" t="s">
+      <c r="CS1" s="65"/>
+      <c r="CT1" s="65"/>
+      <c r="CU1" s="65"/>
+      <c r="CV1" s="65"/>
+      <c r="CW1" s="65"/>
+      <c r="CX1" s="65"/>
+      <c r="CY1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="CZ1" s="64"/>
-      <c r="DA1" s="64"/>
-      <c r="DB1" s="64"/>
-      <c r="DC1" s="64"/>
-      <c r="DD1" s="64"/>
-      <c r="DE1" s="64"/>
+      <c r="CZ1" s="65"/>
+      <c r="DA1" s="65"/>
+      <c r="DB1" s="65"/>
+      <c r="DC1" s="65"/>
+      <c r="DD1" s="65"/>
+      <c r="DE1" s="65"/>
       <c r="DF1" s="2"/>
       <c r="DG1" s="2"/>
       <c r="DH1" s="2"/>
@@ -5176,7 +5178,7 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="63" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -5185,21 +5187,21 @@
     </row>
     <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
-      <c r="B47" s="67"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
-      <c r="B48" s="67"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
-      <c r="B49" s="67"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5209,211 +5211,211 @@
     </row>
     <row r="50" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
-      <c r="B50" s="67"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
-      <c r="B51" s="67"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="67"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B53" s="67"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
-      <c r="B54" s="67"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
-      <c r="B55" s="67"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
-      <c r="B56" s="67"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
-      <c r="B57" s="67"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="67"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B59" s="67"/>
+      <c r="B59" s="63"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B60" s="67"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B61" s="67"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B62" s="67"/>
+      <c r="B62" s="63"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B63" s="67"/>
+      <c r="B63" s="63"/>
       <c r="C63" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="67"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="67"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="67"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="67" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="67"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="67"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B69" s="67"/>
+      <c r="B69" s="63"/>
       <c r="C69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B70" s="67"/>
+      <c r="B70" s="63"/>
       <c r="C70" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B71" s="67"/>
+      <c r="B71" s="63"/>
       <c r="C71" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B72" s="67"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B73" s="67"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="74" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B74" s="67"/>
+      <c r="B74" s="63"/>
       <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B75" s="67"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B76" s="67"/>
+      <c r="B76" s="63"/>
       <c r="C76" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B77" s="67"/>
+      <c r="B77" s="63"/>
       <c r="C77" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="2:53" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B78" s="67"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA78" s="6"/>
     </row>
     <row r="79" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B79" s="67"/>
+      <c r="B79" s="63"/>
       <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="67"/>
+      <c r="B80" s="63"/>
       <c r="C80" s="15" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="81" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="67"/>
+      <c r="B81" s="63"/>
       <c r="C81" s="60" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="82" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B82" s="67"/>
+      <c r="B82" s="63"/>
       <c r="C82" s="60" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="83" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="67"/>
+      <c r="B83" s="63"/>
       <c r="C83" s="60" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B84" s="67"/>
+      <c r="B84" s="63"/>
       <c r="C84" s="15" t="s">
         <v>258</v>
       </c>
@@ -8168,6 +8170,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="CD1:CJ1"/>
     <mergeCell ref="B79:B84"/>
     <mergeCell ref="B46:B78"/>
     <mergeCell ref="CK1:CQ1"/>
@@ -8184,7 +8187,6 @@
     <mergeCell ref="BI1:BO1"/>
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
-    <mergeCell ref="CD1:CJ1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -8219,194 +8221,194 @@
   <sheetData>
     <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="63" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="63" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="63" t="s">
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="63" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="63" t="s">
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="63" t="s">
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="63" t="s">
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="63" t="s">
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="63" t="s">
+      <c r="BJ1" s="65"/>
+      <c r="BK1" s="65"/>
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="63" t="s">
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="65"/>
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="64"/>
-      <c r="BZ1" s="64"/>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64"/>
-      <c r="CD1" s="63" t="s">
+      <c r="BX1" s="65"/>
+      <c r="BY1" s="65"/>
+      <c r="BZ1" s="65"/>
+      <c r="CA1" s="65"/>
+      <c r="CB1" s="65"/>
+      <c r="CC1" s="65"/>
+      <c r="CD1" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64"/>
-      <c r="CG1" s="64"/>
-      <c r="CH1" s="64"/>
-      <c r="CI1" s="64"/>
-      <c r="CJ1" s="64"/>
-      <c r="CK1" s="63" t="s">
+      <c r="CE1" s="65"/>
+      <c r="CF1" s="65"/>
+      <c r="CG1" s="65"/>
+      <c r="CH1" s="65"/>
+      <c r="CI1" s="65"/>
+      <c r="CJ1" s="65"/>
+      <c r="CK1" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="CL1" s="64"/>
-      <c r="CM1" s="64"/>
-      <c r="CN1" s="64"/>
-      <c r="CO1" s="64"/>
-      <c r="CP1" s="64"/>
-      <c r="CQ1" s="64"/>
-      <c r="CR1" s="63" t="s">
+      <c r="CL1" s="65"/>
+      <c r="CM1" s="65"/>
+      <c r="CN1" s="65"/>
+      <c r="CO1" s="65"/>
+      <c r="CP1" s="65"/>
+      <c r="CQ1" s="65"/>
+      <c r="CR1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="CS1" s="64"/>
-      <c r="CT1" s="64"/>
-      <c r="CU1" s="64"/>
-      <c r="CV1" s="64"/>
-      <c r="CW1" s="64"/>
-      <c r="CX1" s="64"/>
-      <c r="CY1" s="63" t="s">
+      <c r="CS1" s="65"/>
+      <c r="CT1" s="65"/>
+      <c r="CU1" s="65"/>
+      <c r="CV1" s="65"/>
+      <c r="CW1" s="65"/>
+      <c r="CX1" s="65"/>
+      <c r="CY1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="CZ1" s="64"/>
-      <c r="DA1" s="64"/>
-      <c r="DB1" s="64"/>
-      <c r="DC1" s="64"/>
-      <c r="DD1" s="64"/>
-      <c r="DE1" s="64"/>
-      <c r="DF1" s="63" t="s">
+      <c r="CZ1" s="65"/>
+      <c r="DA1" s="65"/>
+      <c r="DB1" s="65"/>
+      <c r="DC1" s="65"/>
+      <c r="DD1" s="65"/>
+      <c r="DE1" s="65"/>
+      <c r="DF1" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="DG1" s="64"/>
-      <c r="DH1" s="64"/>
-      <c r="DI1" s="64"/>
-      <c r="DJ1" s="64"/>
-      <c r="DK1" s="64"/>
-      <c r="DL1" s="64"/>
-      <c r="DM1" s="63" t="s">
+      <c r="DG1" s="65"/>
+      <c r="DH1" s="65"/>
+      <c r="DI1" s="65"/>
+      <c r="DJ1" s="65"/>
+      <c r="DK1" s="65"/>
+      <c r="DL1" s="65"/>
+      <c r="DM1" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="DN1" s="64"/>
-      <c r="DO1" s="64"/>
-      <c r="DP1" s="64"/>
-      <c r="DQ1" s="64"/>
-      <c r="DR1" s="64"/>
-      <c r="DS1" s="64"/>
-      <c r="DT1" s="63"/>
-      <c r="DU1" s="64"/>
-      <c r="DV1" s="64"/>
-      <c r="DW1" s="64"/>
-      <c r="DX1" s="64"/>
-      <c r="DY1" s="64"/>
-      <c r="DZ1" s="64"/>
-      <c r="EA1" s="63"/>
-      <c r="EB1" s="64"/>
-      <c r="EC1" s="64"/>
-      <c r="ED1" s="64"/>
-      <c r="EE1" s="64"/>
-      <c r="EF1" s="64"/>
-      <c r="EG1" s="64"/>
-      <c r="EH1" s="63"/>
-      <c r="EI1" s="64"/>
-      <c r="EJ1" s="64"/>
-      <c r="EK1" s="64"/>
-      <c r="EL1" s="64"/>
-      <c r="EM1" s="64"/>
-      <c r="EN1" s="64"/>
-      <c r="EO1" s="63"/>
-      <c r="EP1" s="64"/>
-      <c r="EQ1" s="64"/>
-      <c r="ER1" s="64"/>
-      <c r="ES1" s="64"/>
-      <c r="ET1" s="64"/>
-      <c r="EU1" s="64"/>
-      <c r="EV1" s="63"/>
-      <c r="EW1" s="64"/>
-      <c r="EX1" s="64"/>
-      <c r="EY1" s="64"/>
-      <c r="EZ1" s="64"/>
-      <c r="FA1" s="64"/>
-      <c r="FB1" s="64"/>
+      <c r="DN1" s="65"/>
+      <c r="DO1" s="65"/>
+      <c r="DP1" s="65"/>
+      <c r="DQ1" s="65"/>
+      <c r="DR1" s="65"/>
+      <c r="DS1" s="65"/>
+      <c r="DT1" s="64"/>
+      <c r="DU1" s="65"/>
+      <c r="DV1" s="65"/>
+      <c r="DW1" s="65"/>
+      <c r="DX1" s="65"/>
+      <c r="DY1" s="65"/>
+      <c r="DZ1" s="65"/>
+      <c r="EA1" s="64"/>
+      <c r="EB1" s="65"/>
+      <c r="EC1" s="65"/>
+      <c r="ED1" s="65"/>
+      <c r="EE1" s="65"/>
+      <c r="EF1" s="65"/>
+      <c r="EG1" s="65"/>
+      <c r="EH1" s="64"/>
+      <c r="EI1" s="65"/>
+      <c r="EJ1" s="65"/>
+      <c r="EK1" s="65"/>
+      <c r="EL1" s="65"/>
+      <c r="EM1" s="65"/>
+      <c r="EN1" s="65"/>
+      <c r="EO1" s="64"/>
+      <c r="EP1" s="65"/>
+      <c r="EQ1" s="65"/>
+      <c r="ER1" s="65"/>
+      <c r="ES1" s="65"/>
+      <c r="ET1" s="65"/>
+      <c r="EU1" s="65"/>
+      <c r="EV1" s="64"/>
+      <c r="EW1" s="65"/>
+      <c r="EX1" s="65"/>
+      <c r="EY1" s="65"/>
+      <c r="EZ1" s="65"/>
+      <c r="FA1" s="65"/>
+      <c r="FB1" s="65"/>
     </row>
     <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
@@ -10112,6 +10114,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="EH1:EN1"/>
     <mergeCell ref="EO1:EU1"/>
     <mergeCell ref="EV1:FB1"/>
@@ -10127,13 +10136,6 @@
     <mergeCell ref="DM1:DS1"/>
     <mergeCell ref="DT1:DZ1"/>
     <mergeCell ref="EA1:EG1"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yara\Dropbox\Studium\Semester 6\FRONT\FRONT_Projekt\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA59273-C51B-4BE8-8F37-00C7A2379D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757C826E-AB07-4BEF-ACD8-5FA040663AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,13 +1205,13 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1449,7 +1449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="H6" s="30">
         <f>SUM(H10:H74)</f>
-        <v>66.5</v>
+        <v>67.25</v>
       </c>
       <c r="I6" s="27">
         <f>SUM(I10:I74)</f>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="H7" s="30">
         <f t="shared" ref="H7:J7" si="1">H5-H6</f>
-        <v>53.5</v>
+        <v>52.75</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" si="1"/>
@@ -3299,7 +3299,7 @@
         <v>250</v>
       </c>
       <c r="H66" s="22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I66" s="22"/>
       <c r="J66" s="22">
@@ -3329,7 +3329,7 @@
         <v>251</v>
       </c>
       <c r="H67" s="22">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I67" s="22"/>
       <c r="J67" s="22">
@@ -3614,96 +3614,96 @@
       <c r="AK1" s="67"/>
       <c r="AL1" s="67"/>
       <c r="AM1" s="67"/>
-      <c r="AN1" s="64" t="s">
+      <c r="AN1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="64" t="s">
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="64" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="64" t="s">
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="64" t="s">
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="65"/>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="64" t="s">
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="65"/>
-      <c r="CH1" s="65"/>
-      <c r="CI1" s="65"/>
-      <c r="CJ1" s="65"/>
-      <c r="CK1" s="64" t="s">
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="CL1" s="65"/>
-      <c r="CM1" s="65"/>
-      <c r="CN1" s="65"/>
-      <c r="CO1" s="65"/>
-      <c r="CP1" s="65"/>
-      <c r="CQ1" s="65"/>
-      <c r="CR1" s="64" t="s">
+      <c r="CL1" s="64"/>
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="CS1" s="65"/>
-      <c r="CT1" s="65"/>
-      <c r="CU1" s="65"/>
-      <c r="CV1" s="65"/>
-      <c r="CW1" s="65"/>
-      <c r="CX1" s="65"/>
-      <c r="CY1" s="64" t="s">
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64"/>
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64"/>
+      <c r="CY1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="CZ1" s="65"/>
-      <c r="DA1" s="65"/>
-      <c r="DB1" s="65"/>
-      <c r="DC1" s="65"/>
-      <c r="DD1" s="65"/>
-      <c r="DE1" s="65"/>
+      <c r="CZ1" s="64"/>
+      <c r="DA1" s="64"/>
+      <c r="DB1" s="64"/>
+      <c r="DC1" s="64"/>
+      <c r="DD1" s="64"/>
+      <c r="DE1" s="64"/>
       <c r="DF1" s="2"/>
       <c r="DG1" s="2"/>
       <c r="DH1" s="2"/>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="65" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -5187,21 +5187,21 @@
     </row>
     <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
-      <c r="B47" s="63"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
-      <c r="B48" s="63"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
-      <c r="B49" s="63"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5211,211 +5211,211 @@
     </row>
     <row r="50" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
-      <c r="B50" s="63"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
-      <c r="B51" s="63"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="63"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B53" s="63"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
-      <c r="B54" s="63"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
-      <c r="B55" s="63"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
-      <c r="B56" s="63"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
-      <c r="B57" s="63"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="63"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B59" s="63"/>
+      <c r="B59" s="65"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B60" s="63"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B61" s="63"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B62" s="63"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B63" s="63"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="63"/>
+      <c r="B64" s="65"/>
       <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="63"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="63"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="67" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="63"/>
+      <c r="B67" s="65"/>
       <c r="C67" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="63"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B69" s="63"/>
+      <c r="B69" s="65"/>
       <c r="C69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B70" s="63"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B71" s="63"/>
+      <c r="B71" s="65"/>
       <c r="C71" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B72" s="63"/>
+      <c r="B72" s="65"/>
       <c r="C72" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B73" s="63"/>
+      <c r="B73" s="65"/>
       <c r="C73" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="74" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B74" s="63"/>
+      <c r="B74" s="65"/>
       <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B75" s="63"/>
+      <c r="B75" s="65"/>
       <c r="C75" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B76" s="63"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B77" s="63"/>
+      <c r="B77" s="65"/>
       <c r="C77" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="2:53" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B78" s="63"/>
+      <c r="B78" s="65"/>
       <c r="C78" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA78" s="6"/>
     </row>
     <row r="79" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B79" s="63"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="63"/>
+      <c r="B80" s="65"/>
       <c r="C80" s="15" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="81" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="63"/>
+      <c r="B81" s="65"/>
       <c r="C81" s="60" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="82" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B82" s="63"/>
+      <c r="B82" s="65"/>
       <c r="C82" s="60" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="83" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="63"/>
+      <c r="B83" s="65"/>
       <c r="C83" s="60" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B84" s="63"/>
+      <c r="B84" s="65"/>
       <c r="C84" s="15" t="s">
         <v>258</v>
       </c>
@@ -8170,11 +8170,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="CD1:CJ1"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B46:B78"/>
-    <mergeCell ref="CK1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
     <mergeCell ref="CY1:DE1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
@@ -8187,6 +8182,11 @@
     <mergeCell ref="BI1:BO1"/>
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
+    <mergeCell ref="CD1:CJ1"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B46:B78"/>
+    <mergeCell ref="CK1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -8221,194 +8221,194 @@
   <sheetData>
     <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="64" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="64" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="64" t="s">
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="64" t="s">
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="64" t="s">
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="64" t="s">
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="64" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="64" t="s">
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="64" t="s">
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="65"/>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="64" t="s">
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="65"/>
-      <c r="CH1" s="65"/>
-      <c r="CI1" s="65"/>
-      <c r="CJ1" s="65"/>
-      <c r="CK1" s="64" t="s">
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="CL1" s="65"/>
-      <c r="CM1" s="65"/>
-      <c r="CN1" s="65"/>
-      <c r="CO1" s="65"/>
-      <c r="CP1" s="65"/>
-      <c r="CQ1" s="65"/>
-      <c r="CR1" s="64" t="s">
+      <c r="CL1" s="64"/>
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="CS1" s="65"/>
-      <c r="CT1" s="65"/>
-      <c r="CU1" s="65"/>
-      <c r="CV1" s="65"/>
-      <c r="CW1" s="65"/>
-      <c r="CX1" s="65"/>
-      <c r="CY1" s="64" t="s">
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64"/>
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64"/>
+      <c r="CY1" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="CZ1" s="65"/>
-      <c r="DA1" s="65"/>
-      <c r="DB1" s="65"/>
-      <c r="DC1" s="65"/>
-      <c r="DD1" s="65"/>
-      <c r="DE1" s="65"/>
-      <c r="DF1" s="64" t="s">
+      <c r="CZ1" s="64"/>
+      <c r="DA1" s="64"/>
+      <c r="DB1" s="64"/>
+      <c r="DC1" s="64"/>
+      <c r="DD1" s="64"/>
+      <c r="DE1" s="64"/>
+      <c r="DF1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="DG1" s="65"/>
-      <c r="DH1" s="65"/>
-      <c r="DI1" s="65"/>
-      <c r="DJ1" s="65"/>
-      <c r="DK1" s="65"/>
-      <c r="DL1" s="65"/>
-      <c r="DM1" s="64" t="s">
+      <c r="DG1" s="64"/>
+      <c r="DH1" s="64"/>
+      <c r="DI1" s="64"/>
+      <c r="DJ1" s="64"/>
+      <c r="DK1" s="64"/>
+      <c r="DL1" s="64"/>
+      <c r="DM1" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="DN1" s="65"/>
-      <c r="DO1" s="65"/>
-      <c r="DP1" s="65"/>
-      <c r="DQ1" s="65"/>
-      <c r="DR1" s="65"/>
-      <c r="DS1" s="65"/>
-      <c r="DT1" s="64"/>
-      <c r="DU1" s="65"/>
-      <c r="DV1" s="65"/>
-      <c r="DW1" s="65"/>
-      <c r="DX1" s="65"/>
-      <c r="DY1" s="65"/>
-      <c r="DZ1" s="65"/>
-      <c r="EA1" s="64"/>
-      <c r="EB1" s="65"/>
-      <c r="EC1" s="65"/>
-      <c r="ED1" s="65"/>
-      <c r="EE1" s="65"/>
-      <c r="EF1" s="65"/>
-      <c r="EG1" s="65"/>
-      <c r="EH1" s="64"/>
-      <c r="EI1" s="65"/>
-      <c r="EJ1" s="65"/>
-      <c r="EK1" s="65"/>
-      <c r="EL1" s="65"/>
-      <c r="EM1" s="65"/>
-      <c r="EN1" s="65"/>
-      <c r="EO1" s="64"/>
-      <c r="EP1" s="65"/>
-      <c r="EQ1" s="65"/>
-      <c r="ER1" s="65"/>
-      <c r="ES1" s="65"/>
-      <c r="ET1" s="65"/>
-      <c r="EU1" s="65"/>
-      <c r="EV1" s="64"/>
-      <c r="EW1" s="65"/>
-      <c r="EX1" s="65"/>
-      <c r="EY1" s="65"/>
-      <c r="EZ1" s="65"/>
-      <c r="FA1" s="65"/>
-      <c r="FB1" s="65"/>
+      <c r="DN1" s="64"/>
+      <c r="DO1" s="64"/>
+      <c r="DP1" s="64"/>
+      <c r="DQ1" s="64"/>
+      <c r="DR1" s="64"/>
+      <c r="DS1" s="64"/>
+      <c r="DT1" s="63"/>
+      <c r="DU1" s="64"/>
+      <c r="DV1" s="64"/>
+      <c r="DW1" s="64"/>
+      <c r="DX1" s="64"/>
+      <c r="DY1" s="64"/>
+      <c r="DZ1" s="64"/>
+      <c r="EA1" s="63"/>
+      <c r="EB1" s="64"/>
+      <c r="EC1" s="64"/>
+      <c r="ED1" s="64"/>
+      <c r="EE1" s="64"/>
+      <c r="EF1" s="64"/>
+      <c r="EG1" s="64"/>
+      <c r="EH1" s="63"/>
+      <c r="EI1" s="64"/>
+      <c r="EJ1" s="64"/>
+      <c r="EK1" s="64"/>
+      <c r="EL1" s="64"/>
+      <c r="EM1" s="64"/>
+      <c r="EN1" s="64"/>
+      <c r="EO1" s="63"/>
+      <c r="EP1" s="64"/>
+      <c r="EQ1" s="64"/>
+      <c r="ER1" s="64"/>
+      <c r="ES1" s="64"/>
+      <c r="ET1" s="64"/>
+      <c r="EU1" s="64"/>
+      <c r="EV1" s="63"/>
+      <c r="EW1" s="64"/>
+      <c r="EX1" s="64"/>
+      <c r="EY1" s="64"/>
+      <c r="EZ1" s="64"/>
+      <c r="FA1" s="64"/>
+      <c r="FB1" s="64"/>
     </row>
     <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
@@ -10114,13 +10114,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="EH1:EN1"/>
     <mergeCell ref="EO1:EU1"/>
     <mergeCell ref="EV1:FB1"/>
@@ -10136,6 +10129,13 @@
     <mergeCell ref="DM1:DS1"/>
     <mergeCell ref="DT1:DZ1"/>
     <mergeCell ref="EA1:EG1"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yara\Dropbox\Studium\Semester 6\FRONT\FRONT_Projekt\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757C826E-AB07-4BEF-ACD8-5FA040663AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB604981-B83D-440E-A136-FD2AACE46CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1209,13 +1209,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1449,7 +1449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="H6" s="30">
         <f>SUM(H10:H74)</f>
-        <v>67.25</v>
+        <v>67.5</v>
       </c>
       <c r="I6" s="27">
         <f>SUM(I10:I74)</f>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="H7" s="30">
         <f t="shared" ref="H7:J7" si="1">H5-H6</f>
-        <v>52.75</v>
+        <v>52.5</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" si="1"/>
@@ -3329,7 +3329,7 @@
         <v>251</v>
       </c>
       <c r="H67" s="22">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="I67" s="22"/>
       <c r="J67" s="22">
@@ -3569,51 +3569,51 @@
   <sheetData>
     <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="66" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="66" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="66" t="s">
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="66" t="s">
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
       <c r="AN1" s="63" t="s">
         <v>5</v>
       </c>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="67" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -5187,21 +5187,21 @@
     </row>
     <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
-      <c r="B47" s="65"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
-      <c r="B48" s="65"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
-      <c r="B49" s="65"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5211,211 +5211,211 @@
     </row>
     <row r="50" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
-      <c r="B50" s="65"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
-      <c r="B51" s="65"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="65"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B53" s="65"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
-      <c r="B54" s="65"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
-      <c r="B55" s="65"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
-      <c r="B56" s="65"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
-      <c r="B57" s="65"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="65"/>
+      <c r="B58" s="67"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B59" s="65"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B60" s="65"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B61" s="65"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B62" s="65"/>
+      <c r="B62" s="67"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B63" s="65"/>
+      <c r="B63" s="67"/>
       <c r="C63" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="65"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="65"/>
+      <c r="B65" s="67"/>
       <c r="C65" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="65"/>
+      <c r="B66" s="67"/>
       <c r="C66" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="67" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="65"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="65"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B69" s="65"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B70" s="65"/>
+      <c r="B70" s="67"/>
       <c r="C70" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B71" s="65"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B72" s="65"/>
+      <c r="B72" s="67"/>
       <c r="C72" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B73" s="65"/>
+      <c r="B73" s="67"/>
       <c r="C73" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="74" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B74" s="65"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B75" s="65"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B76" s="65"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B77" s="65"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="2:53" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B78" s="65"/>
+      <c r="B78" s="67"/>
       <c r="C78" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA78" s="6"/>
     </row>
     <row r="79" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B79" s="65"/>
+      <c r="B79" s="67"/>
       <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="65"/>
+      <c r="B80" s="67"/>
       <c r="C80" s="15" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="81" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="65"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="60" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="82" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B82" s="65"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="60" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="83" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="65"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="60" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B84" s="65"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="15" t="s">
         <v>258</v>
       </c>
@@ -8170,6 +8170,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B46:B78"/>
+    <mergeCell ref="CK1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
     <mergeCell ref="CY1:DE1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
@@ -8183,10 +8187,6 @@
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
     <mergeCell ref="CD1:CJ1"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B46:B78"/>
-    <mergeCell ref="CK1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -10114,6 +10114,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="EH1:EN1"/>
     <mergeCell ref="EO1:EU1"/>
     <mergeCell ref="EV1:FB1"/>
@@ -10129,13 +10136,6 @@
     <mergeCell ref="DM1:DS1"/>
     <mergeCell ref="DT1:DZ1"/>
     <mergeCell ref="EA1:EG1"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Dropbox\ISC\Sem 06\FRONT\PROJEKT\git\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DBE96D-3F76-483E-A5A5-7F2819FA5295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E95CEC-12A2-402B-998F-6D643FFA4F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,13 +1205,13 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1448,7 +1448,7 @@
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="J6" s="28">
         <f>SUM(J10:J74)</f>
-        <v>58.5</v>
+        <v>60.5</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J7" s="28">
         <f t="shared" si="1"/>
-        <v>61.5</v>
+        <v>59.5</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
@@ -2655,7 +2655,9 @@
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="J42" s="22">
+        <v>0.5</v>
+      </c>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
     </row>
@@ -2703,7 +2705,9 @@
         <v>2.25</v>
       </c>
       <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="J44" s="22">
+        <v>0.5</v>
+      </c>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
@@ -2830,7 +2834,7 @@
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
       <c r="J49" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
@@ -3616,96 +3620,96 @@
       <c r="AK1" s="67"/>
       <c r="AL1" s="67"/>
       <c r="AM1" s="67"/>
-      <c r="AN1" s="64" t="s">
+      <c r="AN1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="64" t="s">
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="64" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="64" t="s">
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="64" t="s">
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="65"/>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="64" t="s">
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="65"/>
-      <c r="CH1" s="65"/>
-      <c r="CI1" s="65"/>
-      <c r="CJ1" s="65"/>
-      <c r="CK1" s="64" t="s">
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="CL1" s="65"/>
-      <c r="CM1" s="65"/>
-      <c r="CN1" s="65"/>
-      <c r="CO1" s="65"/>
-      <c r="CP1" s="65"/>
-      <c r="CQ1" s="65"/>
-      <c r="CR1" s="64" t="s">
+      <c r="CL1" s="64"/>
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="CS1" s="65"/>
-      <c r="CT1" s="65"/>
-      <c r="CU1" s="65"/>
-      <c r="CV1" s="65"/>
-      <c r="CW1" s="65"/>
-      <c r="CX1" s="65"/>
-      <c r="CY1" s="64" t="s">
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64"/>
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64"/>
+      <c r="CY1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="CZ1" s="65"/>
-      <c r="DA1" s="65"/>
-      <c r="DB1" s="65"/>
-      <c r="DC1" s="65"/>
-      <c r="DD1" s="65"/>
-      <c r="DE1" s="65"/>
+      <c r="CZ1" s="64"/>
+      <c r="DA1" s="64"/>
+      <c r="DB1" s="64"/>
+      <c r="DC1" s="64"/>
+      <c r="DD1" s="64"/>
+      <c r="DE1" s="64"/>
       <c r="DF1" s="2"/>
       <c r="DG1" s="2"/>
       <c r="DH1" s="2"/>
@@ -5180,7 +5184,7 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="65" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -5189,21 +5193,21 @@
     </row>
     <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="63"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="63"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="63"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5213,211 +5217,211 @@
     </row>
     <row r="50" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="63"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="63"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="63"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="63"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="63"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="63"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="63"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="63"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="63"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B59" s="63"/>
+      <c r="B59" s="65"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="63"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="63"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B62" s="63"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="63"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B64" s="63"/>
+      <c r="B64" s="65"/>
       <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="63"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="63"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="67" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="63"/>
+      <c r="B67" s="65"/>
       <c r="C67" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="63"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B69" s="63"/>
+      <c r="B69" s="65"/>
       <c r="C69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="63"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B71" s="63"/>
+      <c r="B71" s="65"/>
       <c r="C71" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B72" s="63"/>
+      <c r="B72" s="65"/>
       <c r="C72" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B73" s="63"/>
+      <c r="B73" s="65"/>
       <c r="C73" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="74" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B74" s="63"/>
+      <c r="B74" s="65"/>
       <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B75" s="63"/>
+      <c r="B75" s="65"/>
       <c r="C75" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="63"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="63"/>
+      <c r="B77" s="65"/>
       <c r="C77" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B78" s="63"/>
+      <c r="B78" s="65"/>
       <c r="C78" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA78" s="6"/>
     </row>
     <row r="79" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B79" s="63"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B80" s="63"/>
+      <c r="B80" s="65"/>
       <c r="C80" s="15" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="81" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B81" s="63"/>
+      <c r="B81" s="65"/>
       <c r="C81" s="60" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="82" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="63"/>
+      <c r="B82" s="65"/>
       <c r="C82" s="60" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="83" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="63"/>
+      <c r="B83" s="65"/>
       <c r="C83" s="60" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="63"/>
+      <c r="B84" s="65"/>
       <c r="C84" s="15" t="s">
         <v>258</v>
       </c>
@@ -8172,11 +8176,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="CD1:CJ1"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B46:B78"/>
-    <mergeCell ref="CK1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
     <mergeCell ref="CY1:DE1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
@@ -8189,6 +8188,11 @@
     <mergeCell ref="BI1:BO1"/>
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
+    <mergeCell ref="CD1:CJ1"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B46:B78"/>
+    <mergeCell ref="CK1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -8223,194 +8227,194 @@
   <sheetData>
     <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="64" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="64" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="64" t="s">
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="64" t="s">
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="64" t="s">
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="64" t="s">
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="64" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="64" t="s">
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="64" t="s">
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="65"/>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="64" t="s">
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="65"/>
-      <c r="CH1" s="65"/>
-      <c r="CI1" s="65"/>
-      <c r="CJ1" s="65"/>
-      <c r="CK1" s="64" t="s">
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="CL1" s="65"/>
-      <c r="CM1" s="65"/>
-      <c r="CN1" s="65"/>
-      <c r="CO1" s="65"/>
-      <c r="CP1" s="65"/>
-      <c r="CQ1" s="65"/>
-      <c r="CR1" s="64" t="s">
+      <c r="CL1" s="64"/>
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="CS1" s="65"/>
-      <c r="CT1" s="65"/>
-      <c r="CU1" s="65"/>
-      <c r="CV1" s="65"/>
-      <c r="CW1" s="65"/>
-      <c r="CX1" s="65"/>
-      <c r="CY1" s="64" t="s">
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64"/>
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64"/>
+      <c r="CY1" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="CZ1" s="65"/>
-      <c r="DA1" s="65"/>
-      <c r="DB1" s="65"/>
-      <c r="DC1" s="65"/>
-      <c r="DD1" s="65"/>
-      <c r="DE1" s="65"/>
-      <c r="DF1" s="64" t="s">
+      <c r="CZ1" s="64"/>
+      <c r="DA1" s="64"/>
+      <c r="DB1" s="64"/>
+      <c r="DC1" s="64"/>
+      <c r="DD1" s="64"/>
+      <c r="DE1" s="64"/>
+      <c r="DF1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="DG1" s="65"/>
-      <c r="DH1" s="65"/>
-      <c r="DI1" s="65"/>
-      <c r="DJ1" s="65"/>
-      <c r="DK1" s="65"/>
-      <c r="DL1" s="65"/>
-      <c r="DM1" s="64" t="s">
+      <c r="DG1" s="64"/>
+      <c r="DH1" s="64"/>
+      <c r="DI1" s="64"/>
+      <c r="DJ1" s="64"/>
+      <c r="DK1" s="64"/>
+      <c r="DL1" s="64"/>
+      <c r="DM1" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="DN1" s="65"/>
-      <c r="DO1" s="65"/>
-      <c r="DP1" s="65"/>
-      <c r="DQ1" s="65"/>
-      <c r="DR1" s="65"/>
-      <c r="DS1" s="65"/>
-      <c r="DT1" s="64"/>
-      <c r="DU1" s="65"/>
-      <c r="DV1" s="65"/>
-      <c r="DW1" s="65"/>
-      <c r="DX1" s="65"/>
-      <c r="DY1" s="65"/>
-      <c r="DZ1" s="65"/>
-      <c r="EA1" s="64"/>
-      <c r="EB1" s="65"/>
-      <c r="EC1" s="65"/>
-      <c r="ED1" s="65"/>
-      <c r="EE1" s="65"/>
-      <c r="EF1" s="65"/>
-      <c r="EG1" s="65"/>
-      <c r="EH1" s="64"/>
-      <c r="EI1" s="65"/>
-      <c r="EJ1" s="65"/>
-      <c r="EK1" s="65"/>
-      <c r="EL1" s="65"/>
-      <c r="EM1" s="65"/>
-      <c r="EN1" s="65"/>
-      <c r="EO1" s="64"/>
-      <c r="EP1" s="65"/>
-      <c r="EQ1" s="65"/>
-      <c r="ER1" s="65"/>
-      <c r="ES1" s="65"/>
-      <c r="ET1" s="65"/>
-      <c r="EU1" s="65"/>
-      <c r="EV1" s="64"/>
-      <c r="EW1" s="65"/>
-      <c r="EX1" s="65"/>
-      <c r="EY1" s="65"/>
-      <c r="EZ1" s="65"/>
-      <c r="FA1" s="65"/>
-      <c r="FB1" s="65"/>
+      <c r="DN1" s="64"/>
+      <c r="DO1" s="64"/>
+      <c r="DP1" s="64"/>
+      <c r="DQ1" s="64"/>
+      <c r="DR1" s="64"/>
+      <c r="DS1" s="64"/>
+      <c r="DT1" s="63"/>
+      <c r="DU1" s="64"/>
+      <c r="DV1" s="64"/>
+      <c r="DW1" s="64"/>
+      <c r="DX1" s="64"/>
+      <c r="DY1" s="64"/>
+      <c r="DZ1" s="64"/>
+      <c r="EA1" s="63"/>
+      <c r="EB1" s="64"/>
+      <c r="EC1" s="64"/>
+      <c r="ED1" s="64"/>
+      <c r="EE1" s="64"/>
+      <c r="EF1" s="64"/>
+      <c r="EG1" s="64"/>
+      <c r="EH1" s="63"/>
+      <c r="EI1" s="64"/>
+      <c r="EJ1" s="64"/>
+      <c r="EK1" s="64"/>
+      <c r="EL1" s="64"/>
+      <c r="EM1" s="64"/>
+      <c r="EN1" s="64"/>
+      <c r="EO1" s="63"/>
+      <c r="EP1" s="64"/>
+      <c r="EQ1" s="64"/>
+      <c r="ER1" s="64"/>
+      <c r="ES1" s="64"/>
+      <c r="ET1" s="64"/>
+      <c r="EU1" s="64"/>
+      <c r="EV1" s="63"/>
+      <c r="EW1" s="64"/>
+      <c r="EX1" s="64"/>
+      <c r="EY1" s="64"/>
+      <c r="EZ1" s="64"/>
+      <c r="FA1" s="64"/>
+      <c r="FB1" s="64"/>
     </row>
     <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
@@ -10116,6 +10120,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="EH1:EN1"/>
     <mergeCell ref="EO1:EU1"/>
     <mergeCell ref="EV1:FB1"/>
@@ -10131,13 +10142,6 @@
     <mergeCell ref="DM1:DS1"/>
     <mergeCell ref="DT1:DZ1"/>
     <mergeCell ref="EA1:EG1"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annastaub/Library/Mobile Documents/com~apple~CloudDocs/FHGR/23 FS/Frontend Development 2/Frontend Development 1/front-projekt/documents/Projektmanagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32FD5DF-9476-CF44-9627-39BE48471169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF34CA-3B70-8A4B-BA77-DE0ED0676335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22160" yWindow="500" windowWidth="29040" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="40200" windowHeight="25140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitbudget" sheetId="4" r:id="rId1"/>
@@ -1208,13 +1208,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1447,8 +1447,8 @@
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
+      <pane ySplit="7" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1583,15 +1583,15 @@
       </c>
       <c r="H6" s="30">
         <f>SUM(H10:H74)</f>
-        <v>67.5</v>
+        <v>69.5</v>
       </c>
       <c r="I6" s="27">
         <f>SUM(I10:I74)</f>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J6" s="28">
         <f>SUM(J10:J74)</f>
-        <v>60.5</v>
+        <v>62.5</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
@@ -1619,15 +1619,15 @@
       </c>
       <c r="H7" s="30">
         <f t="shared" ref="H7:J7" si="1">H5-H6</f>
-        <v>52.5</v>
+        <v>50.5</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J7" s="28">
         <f t="shared" si="1"/>
-        <v>59.5</v>
+        <v>57.5</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
@@ -2861,10 +2861,14 @@
         <v>209</v>
       </c>
       <c r="H50" s="22">
-        <v>2</v>
-      </c>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="I50" s="22">
+        <v>4</v>
+      </c>
+      <c r="J50" s="22">
+        <v>1</v>
+      </c>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
     </row>
@@ -3336,11 +3340,13 @@
         <v>251</v>
       </c>
       <c r="H67" s="22">
+        <v>2</v>
+      </c>
+      <c r="I67" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="J67" s="22">
         <v>1.5</v>
-      </c>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22">
-        <v>1</v>
       </c>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
@@ -3366,10 +3372,14 @@
         <v>252</v>
       </c>
       <c r="H68" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="I68" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="J68" s="22">
+        <v>0.5</v>
+      </c>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
@@ -3576,51 +3586,51 @@
   <sheetData>
     <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="1"/>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="64" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="64" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="64" t="s">
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="64" t="s">
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
       <c r="AN1" s="62" t="s">
         <v>5</v>
       </c>
@@ -5185,7 +5195,7 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="64" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -5194,21 +5204,21 @@
     </row>
     <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
-      <c r="B47" s="66"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
-      <c r="B48" s="66"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
-      <c r="B49" s="66"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5218,211 +5228,211 @@
     </row>
     <row r="50" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
-      <c r="B50" s="66"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
-      <c r="B51" s="66"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B52" s="66"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B53" s="66"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
-      <c r="B54" s="66"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
-      <c r="B55" s="66"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
-      <c r="B56" s="66"/>
+      <c r="B56" s="64"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
-      <c r="B57" s="66"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="66"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B59" s="66"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B60" s="66"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B61" s="66"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B62" s="66"/>
+      <c r="B62" s="64"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B63" s="66"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B64" s="66"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B65" s="66"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B66" s="66"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="67" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B67" s="66"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B68" s="66"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B69" s="66"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B70" s="66"/>
+      <c r="B70" s="64"/>
       <c r="C70" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B71" s="66"/>
+      <c r="B71" s="64"/>
       <c r="C71" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B72" s="66"/>
+      <c r="B72" s="64"/>
       <c r="C72" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B73" s="66"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="74" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B74" s="66"/>
+      <c r="B74" s="64"/>
       <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B75" s="66"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B76" s="66"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B77" s="66"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="2:53" ht="14" x14ac:dyDescent="0.15">
-      <c r="B78" s="66"/>
+      <c r="B78" s="64"/>
       <c r="C78" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA78" s="6"/>
     </row>
     <row r="79" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B79" s="66"/>
+      <c r="B79" s="64"/>
       <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B80" s="66"/>
+      <c r="B80" s="64"/>
       <c r="C80" s="15" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="81" spans="2:75" ht="13" x14ac:dyDescent="0.15">
-      <c r="B81" s="66"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="59" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="82" spans="2:75" ht="13" x14ac:dyDescent="0.15">
-      <c r="B82" s="66"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="59" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="83" spans="2:75" ht="13" x14ac:dyDescent="0.15">
-      <c r="B83" s="66"/>
+      <c r="B83" s="64"/>
       <c r="C83" s="59" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="2:75" ht="13" x14ac:dyDescent="0.15">
-      <c r="B84" s="66"/>
+      <c r="B84" s="64"/>
       <c r="C84" s="15" t="s">
         <v>258</v>
       </c>
@@ -8177,10 +8187,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B46:B78"/>
-    <mergeCell ref="CK1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
     <mergeCell ref="CY1:DE1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
@@ -8194,6 +8200,10 @@
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
     <mergeCell ref="CD1:CJ1"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B46:B78"/>
+    <mergeCell ref="CK1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annastaub/Library/Mobile Documents/com~apple~CloudDocs/FHGR/23 FS/Frontend Development 2/Frontend Development 1/front-projekt/documents/Projektmanagement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besitzer\Dropbox\Studium\Semester 6\FRONT\FRONT_Projekt\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF34CA-3B70-8A4B-BA77-DE0ED0676335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAA2072-EE14-43C3-BC00-F5EF107ECB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="40200" windowHeight="25140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="4605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitbudget" sheetId="4" r:id="rId1"/>
@@ -1208,13 +1208,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1447,16 +1447,16 @@
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1470,7 +1470,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A2" s="23" t="s">
         <v>102</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1504,7 +1504,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="26" t="s">
@@ -1530,7 +1530,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="29" t="s">
         <v>108</v>
@@ -1560,7 +1560,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="31" t="s">
         <v>109</v>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="H6" s="30">
         <f>SUM(H10:H74)</f>
-        <v>69.5</v>
+        <v>70.25</v>
       </c>
       <c r="I6" s="27">
         <f>SUM(I10:I74)</f>
@@ -1596,7 +1596,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="31" t="s">
         <v>111</v>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H7" s="30">
         <f t="shared" ref="H7:J7" si="1">H5-H6</f>
-        <v>50.5</v>
+        <v>49.75</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" si="1"/>
@@ -1632,7 +1632,7 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>112</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1666,7 +1666,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>241</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>116</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>118</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>120</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>122</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>126</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>128</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>130</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>132</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>134</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>136</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
         <v>180</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>182</v>
       </c>
@@ -2102,7 +2102,7 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
         <v>184</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>138</v>
       </c>
@@ -2154,7 +2154,7 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
         <v>186</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
         <v>188</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>184</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
         <v>140</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
         <v>191</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
         <v>192</v>
       </c>
@@ -2334,7 +2334,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
         <v>193</v>
       </c>
@@ -2366,7 +2366,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
         <v>194</v>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A34" s="22" t="s">
         <v>195</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A35" s="22" t="s">
         <v>238</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
         <v>142</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
         <v>144</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>146</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A39" s="22" t="s">
         <v>148</v>
       </c>
@@ -2578,7 +2578,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
         <v>180</v>
       </c>
@@ -2598,13 +2598,15 @@
       <c r="G40" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="H40" s="22"/>
+      <c r="H40" s="22">
+        <v>0.75</v>
+      </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A41" s="22" t="s">
         <v>182</v>
       </c>
@@ -2632,7 +2634,7 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A42" s="22" t="s">
         <v>184</v>
       </c>
@@ -2660,7 +2662,7 @@
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A43" s="22" t="s">
         <v>150</v>
       </c>
@@ -2680,7 +2682,7 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A44" s="22" t="s">
         <v>186</v>
       </c>
@@ -2710,7 +2712,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>188</v>
       </c>
@@ -2736,7 +2738,7 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
         <v>184</v>
       </c>
@@ -2764,7 +2766,7 @@
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A47" s="22" t="s">
         <v>152</v>
       </c>
@@ -2784,7 +2786,7 @@
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A48" s="22" t="s">
         <v>191</v>
       </c>
@@ -2810,7 +2812,7 @@
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A49" s="22" t="s">
         <v>192</v>
       </c>
@@ -2840,7 +2842,7 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A50" s="22" t="s">
         <v>193</v>
       </c>
@@ -2872,7 +2874,7 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A51" s="22" t="s">
         <v>194</v>
       </c>
@@ -2898,7 +2900,7 @@
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A52" s="22" t="s">
         <v>195</v>
       </c>
@@ -2924,7 +2926,7 @@
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A53" s="22" t="s">
         <v>155</v>
       </c>
@@ -2950,7 +2952,7 @@
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A54" s="22" t="s">
         <v>157</v>
       </c>
@@ -2976,7 +2978,7 @@
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A55" s="22" t="s">
         <v>159</v>
       </c>
@@ -3004,7 +3006,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A56" s="22" t="s">
         <v>161</v>
       </c>
@@ -3032,7 +3034,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A57" s="22" t="s">
         <v>163</v>
       </c>
@@ -3060,7 +3062,7 @@
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A58" s="22" t="s">
         <v>165</v>
       </c>
@@ -3086,7 +3088,7 @@
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A59" s="22" t="s">
         <v>167</v>
       </c>
@@ -3112,7 +3114,7 @@
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A60" s="22" t="s">
         <v>169</v>
       </c>
@@ -3141,7 +3143,7 @@
       <c r="U60" s="22"/>
       <c r="V60" s="22"/>
     </row>
-    <row r="61" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>171</v>
       </c>
@@ -3176,7 +3178,7 @@
       <c r="U61" s="22"/>
       <c r="V61" s="22"/>
     </row>
-    <row r="62" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A62" s="22" t="s">
         <v>101</v>
       </c>
@@ -3205,7 +3207,7 @@
       <c r="U62" s="22"/>
       <c r="V62" s="22"/>
     </row>
-    <row r="63" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A63" s="22" t="s">
         <v>174</v>
       </c>
@@ -3234,7 +3236,7 @@
       <c r="U63" s="22"/>
       <c r="V63" s="22"/>
     </row>
-    <row r="64" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A64" s="22" t="s">
         <v>176</v>
       </c>
@@ -3263,7 +3265,7 @@
       <c r="U64" s="22"/>
       <c r="V64" s="22"/>
     </row>
-    <row r="65" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
         <v>178</v>
       </c>
@@ -3289,7 +3291,7 @@
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
     </row>
-    <row r="66" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A66" s="22" t="s">
         <v>245</v>
       </c>
@@ -3319,7 +3321,7 @@
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A67" s="22" t="s">
         <v>246</v>
       </c>
@@ -3351,7 +3353,7 @@
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A68" s="22" t="s">
         <v>247</v>
       </c>
@@ -3383,7 +3385,7 @@
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A69" s="22" t="s">
         <v>99</v>
       </c>
@@ -3409,7 +3411,7 @@
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -3423,7 +3425,7 @@
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -3437,7 +3439,7 @@
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A72" s="22" t="s">
         <v>242</v>
       </c>
@@ -3453,7 +3455,7 @@
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
     </row>
-    <row r="73" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -3467,7 +3469,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A74" s="57" t="s">
         <v>243</v>
       </c>
@@ -3499,7 +3501,7 @@
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
     </row>
-    <row r="75" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A75" s="22"/>
       <c r="B75" s="47"/>
       <c r="C75" s="22"/>
@@ -3513,7 +3515,7 @@
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A76" s="57" t="s">
         <v>244</v>
       </c>
@@ -3529,7 +3531,7 @@
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
     </row>
-    <row r="77" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -3541,7 +3543,7 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
     </row>
-    <row r="78" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -3573,64 +3575,64 @@
       <selection pane="bottomRight" activeCell="C80" sqref="C80:C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" customWidth="1"/>
-    <col min="5" max="101" width="3.83203125" customWidth="1"/>
-    <col min="102" max="102" width="7.5" customWidth="1"/>
-    <col min="103" max="200" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" customWidth="1"/>
+    <col min="2" max="2" width="4.1328125" customWidth="1"/>
+    <col min="3" max="3" width="30.1328125" customWidth="1"/>
+    <col min="4" max="4" width="2.796875" customWidth="1"/>
+    <col min="5" max="101" width="3.796875" customWidth="1"/>
+    <col min="102" max="102" width="7.46484375" customWidth="1"/>
+    <col min="103" max="200" width="3.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1" s="1"/>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="65" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="65" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="65" t="s">
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="65" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
       <c r="AN1" s="62" t="s">
         <v>5</v>
       </c>
@@ -3779,7 +3781,7 @@
       <c r="FI1" s="3"/>
       <c r="FJ1" s="4"/>
     </row>
-    <row r="2" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1"/>
       <c r="E2" s="37" t="s">
         <v>15</v>
@@ -4097,7 +4099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -4120,7 +4122,7 @@
       <c r="C4" s="1"/>
       <c r="CX4" s="5"/>
     </row>
-    <row r="5" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -4130,7 +4132,7 @@
       </c>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
@@ -4149,7 +4151,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4162,7 +4164,7 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -4171,20 +4173,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
       <c r="AP9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -4192,7 +4194,7 @@
       </c>
       <c r="E11" s="45"/>
     </row>
-    <row r="12" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -4200,7 +4202,7 @@
       </c>
       <c r="E12" s="45"/>
     </row>
-    <row r="13" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
@@ -4212,7 +4214,7 @@
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
     </row>
-    <row r="14" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
@@ -4220,7 +4222,7 @@
       </c>
       <c r="R14" s="36"/>
     </row>
-    <row r="15" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
@@ -4324,20 +4326,20 @@
       <c r="CV15" s="41"/>
       <c r="CW15" s="41"/>
     </row>
-    <row r="16" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -4355,7 +4357,7 @@
       <c r="CT19" s="41"/>
       <c r="CU19" s="41"/>
     </row>
-    <row r="20" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -4365,20 +4367,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
@@ -4394,7 +4396,7 @@
       <c r="AT24" s="41"/>
       <c r="AU24" s="41"/>
     </row>
-    <row r="25" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
@@ -4484,7 +4486,7 @@
       <c r="CV25" s="41"/>
       <c r="CW25" s="41"/>
     </row>
-    <row r="26" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>212</v>
@@ -4497,7 +4499,7 @@
       <c r="AS26" s="41"/>
       <c r="AT26" s="41"/>
     </row>
-    <row r="27" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>213</v>
@@ -4524,7 +4526,7 @@
       <c r="BG27" s="41"/>
       <c r="BH27" s="41"/>
     </row>
-    <row r="28" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="C28" s="1" t="s">
         <v>214</v>
@@ -4551,7 +4553,7 @@
       <c r="BG28" s="41"/>
       <c r="BH28" s="41"/>
     </row>
-    <row r="29" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
@@ -4641,7 +4643,7 @@
       <c r="CV29" s="41"/>
       <c r="CW29" s="41"/>
     </row>
-    <row r="30" spans="1:102" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:102" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="C30" s="1" t="s">
         <v>215</v>
@@ -4696,7 +4698,7 @@
       <c r="CI30" s="41"/>
       <c r="CJ30" s="41"/>
     </row>
-    <row r="31" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
         <v>216</v>
       </c>
@@ -4736,7 +4738,7 @@
       <c r="CI31" s="41"/>
       <c r="CJ31" s="41"/>
     </row>
-    <row r="32" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C32" s="1" t="s">
         <v>217</v>
       </c>
@@ -4776,7 +4778,7 @@
       <c r="CI32" s="41"/>
       <c r="CJ32" s="41"/>
     </row>
-    <row r="33" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
@@ -4866,7 +4868,7 @@
       <c r="CV33" s="41"/>
       <c r="CW33" s="41"/>
     </row>
-    <row r="34" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
@@ -4892,7 +4894,7 @@
       <c r="BN34" s="41"/>
       <c r="BO34" s="41"/>
     </row>
-    <row r="35" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
@@ -4925,7 +4927,7 @@
       <c r="BU35" s="41"/>
       <c r="BV35" s="41"/>
     </row>
-    <row r="36" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
@@ -4967,7 +4969,7 @@
       <c r="CI36" s="41"/>
       <c r="CJ36" s="41"/>
     </row>
-    <row r="37" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>221</v>
@@ -5001,7 +5003,7 @@
       <c r="CI37" s="41"/>
       <c r="CJ37" s="41"/>
     </row>
-    <row r="38" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="C38" s="1" t="s">
         <v>222</v>
@@ -5035,7 +5037,7 @@
       <c r="CI38" s="41"/>
       <c r="CJ38" s="41"/>
     </row>
-    <row r="39" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="C39" s="1" t="s">
         <v>239</v>
@@ -5090,7 +5092,7 @@
       <c r="CI39" s="41"/>
       <c r="CJ39" s="41"/>
     </row>
-    <row r="40" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="C40" s="1" t="s">
         <v>50</v>
@@ -5127,7 +5129,7 @@
       <c r="BU40" s="41"/>
       <c r="BV40" s="41"/>
     </row>
-    <row r="41" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="33"/>
       <c r="C41" s="1" t="s">
         <v>51</v>
@@ -5167,7 +5169,7 @@
       <c r="CV41" s="41"/>
       <c r="CW41" s="41"/>
     </row>
-    <row r="42" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="33"/>
       <c r="C42" s="35" t="s">
         <v>52</v>
@@ -5176,49 +5178,49 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="33"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="33"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="48"/>
       <c r="C45" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="66" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
-      <c r="B47" s="64"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
-      <c r="B48" s="64"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:71" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
-      <c r="B49" s="64"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5226,2967 +5228,2971 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:71" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
-      <c r="B50" s="64"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:71" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
-      <c r="B51" s="64"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B52" s="64"/>
+    <row r="52" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B52" s="66"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B53" s="64"/>
+    <row r="53" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B53" s="66"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:71" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
-      <c r="B54" s="64"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:71" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
-      <c r="B55" s="64"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:71" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
-      <c r="B56" s="64"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:71" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
-      <c r="B57" s="64"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="64"/>
+    <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="66"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B59" s="64"/>
+    <row r="59" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B59" s="66"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B60" s="64"/>
+    <row r="60" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B60" s="66"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B61" s="64"/>
+    <row r="61" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B61" s="66"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B62" s="64"/>
+    <row r="62" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B62" s="66"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B63" s="64"/>
+    <row r="63" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B63" s="66"/>
       <c r="C63" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B64" s="64"/>
+    <row r="64" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B64" s="66"/>
       <c r="C64" s="15"/>
     </row>
-    <row r="65" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B65" s="64"/>
+    <row r="65" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B65" s="66"/>
       <c r="C65" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B66" s="64"/>
+    <row r="66" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B66" s="66"/>
       <c r="C66" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B67" s="64"/>
+    <row r="67" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B67" s="66"/>
       <c r="C67" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B68" s="64"/>
+    <row r="68" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B68" s="66"/>
       <c r="C68" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B69" s="64"/>
+    <row r="69" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B69" s="66"/>
       <c r="C69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B70" s="64"/>
+    <row r="70" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B70" s="66"/>
       <c r="C70" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B71" s="64"/>
+    <row r="71" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B71" s="66"/>
       <c r="C71" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B72" s="64"/>
+    <row r="72" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B72" s="66"/>
       <c r="C72" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B73" s="64"/>
+    <row r="73" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B73" s="66"/>
       <c r="C73" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B74" s="64"/>
+    <row r="74" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B74" s="66"/>
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B75" s="64"/>
+    <row r="75" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B75" s="66"/>
       <c r="C75" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B76" s="64"/>
+    <row r="76" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B76" s="66"/>
       <c r="C76" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B77" s="64"/>
+    <row r="77" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B77" s="66"/>
       <c r="C77" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="2:53" ht="14" x14ac:dyDescent="0.15">
-      <c r="B78" s="64"/>
+    <row r="78" spans="2:53" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B78" s="66"/>
       <c r="C78" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA78" s="6"/>
     </row>
-    <row r="79" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B79" s="64"/>
+    <row r="79" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B79" s="66"/>
       <c r="C79" s="16"/>
     </row>
-    <row r="80" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B80" s="64"/>
+    <row r="80" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B80" s="66"/>
       <c r="C80" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="2:75" ht="13" x14ac:dyDescent="0.15">
-      <c r="B81" s="64"/>
+    <row r="81" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B81" s="66"/>
       <c r="C81" s="59" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="2:75" ht="13" x14ac:dyDescent="0.15">
-      <c r="B82" s="64"/>
+    <row r="82" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B82" s="66"/>
       <c r="C82" s="59" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="2:75" ht="13" x14ac:dyDescent="0.15">
-      <c r="B83" s="64"/>
+    <row r="83" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B83" s="66"/>
       <c r="C83" s="59" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="2:75" ht="13" x14ac:dyDescent="0.15">
-      <c r="B84" s="64"/>
+    <row r="84" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B84" s="66"/>
       <c r="C84" s="15" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="2:75" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C85" s="1"/>
       <c r="BW85" s="46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="2:75" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:75" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:75" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:75" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:75" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:75" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:75" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:75" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:75" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:75" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:75" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C375" s="1"/>
     </row>
-    <row r="376" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C376" s="1"/>
     </row>
-    <row r="377" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C417" s="1"/>
     </row>
-    <row r="418" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C422" s="1"/>
     </row>
-    <row r="423" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C423" s="1"/>
     </row>
-    <row r="424" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C424" s="1"/>
     </row>
-    <row r="425" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C425" s="1"/>
     </row>
-    <row r="426" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C426" s="1"/>
     </row>
-    <row r="427" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C427" s="1"/>
     </row>
-    <row r="428" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C428" s="1"/>
     </row>
-    <row r="429" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C429" s="1"/>
     </row>
-    <row r="430" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C430" s="1"/>
     </row>
-    <row r="431" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C431" s="1"/>
     </row>
-    <row r="432" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C432" s="1"/>
     </row>
-    <row r="433" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C433" s="1"/>
     </row>
-    <row r="434" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C434" s="1"/>
     </row>
-    <row r="435" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C436" s="1"/>
     </row>
-    <row r="437" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C437" s="1"/>
     </row>
-    <row r="438" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C438" s="1"/>
     </row>
-    <row r="439" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C439" s="1"/>
     </row>
-    <row r="440" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C440" s="1"/>
     </row>
-    <row r="441" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C441" s="1"/>
     </row>
-    <row r="442" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C442" s="1"/>
     </row>
-    <row r="443" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C443" s="1"/>
     </row>
-    <row r="444" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C444" s="1"/>
     </row>
-    <row r="445" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C446" s="1"/>
     </row>
-    <row r="447" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C447" s="1"/>
     </row>
-    <row r="448" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C448" s="1"/>
     </row>
-    <row r="449" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C449" s="1"/>
     </row>
-    <row r="450" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C450" s="1"/>
     </row>
-    <row r="451" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C451" s="1"/>
     </row>
-    <row r="452" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C452" s="1"/>
     </row>
-    <row r="453" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C453" s="1"/>
     </row>
-    <row r="454" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C454" s="1"/>
     </row>
-    <row r="455" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C455" s="1"/>
     </row>
-    <row r="456" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C456" s="1"/>
     </row>
-    <row r="457" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C457" s="1"/>
     </row>
-    <row r="458" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C458" s="1"/>
     </row>
-    <row r="459" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C459" s="1"/>
     </row>
-    <row r="460" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C460" s="1"/>
     </row>
-    <row r="461" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C461" s="1"/>
     </row>
-    <row r="462" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C462" s="1"/>
     </row>
-    <row r="463" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C463" s="1"/>
     </row>
-    <row r="464" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C464" s="1"/>
     </row>
-    <row r="465" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C465" s="1"/>
     </row>
-    <row r="466" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C466" s="1"/>
     </row>
-    <row r="467" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C467" s="1"/>
     </row>
-    <row r="468" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C468" s="1"/>
     </row>
-    <row r="469" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C469" s="1"/>
     </row>
-    <row r="470" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C470" s="1"/>
     </row>
-    <row r="471" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C471" s="1"/>
     </row>
-    <row r="472" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C472" s="1"/>
     </row>
-    <row r="473" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C473" s="1"/>
     </row>
-    <row r="474" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C474" s="1"/>
     </row>
-    <row r="475" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C475" s="1"/>
     </row>
-    <row r="476" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C476" s="1"/>
     </row>
-    <row r="477" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C477" s="1"/>
     </row>
-    <row r="478" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C478" s="1"/>
     </row>
-    <row r="479" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C479" s="1"/>
     </row>
-    <row r="480" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C480" s="1"/>
     </row>
-    <row r="481" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C481" s="1"/>
     </row>
-    <row r="482" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C482" s="1"/>
     </row>
-    <row r="483" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C483" s="1"/>
     </row>
-    <row r="484" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C484" s="1"/>
     </row>
-    <row r="485" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C485" s="1"/>
     </row>
-    <row r="486" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C486" s="1"/>
     </row>
-    <row r="487" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C487" s="1"/>
     </row>
-    <row r="488" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C488" s="1"/>
     </row>
-    <row r="489" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C489" s="1"/>
     </row>
-    <row r="490" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C490" s="1"/>
     </row>
-    <row r="491" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C491" s="1"/>
     </row>
-    <row r="492" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C492" s="1"/>
     </row>
-    <row r="493" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C493" s="1"/>
     </row>
-    <row r="494" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C494" s="1"/>
     </row>
-    <row r="495" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C495" s="1"/>
     </row>
-    <row r="496" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C496" s="1"/>
     </row>
-    <row r="497" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C497" s="1"/>
     </row>
-    <row r="498" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C498" s="1"/>
     </row>
-    <row r="499" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C499" s="1"/>
     </row>
-    <row r="500" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C500" s="1"/>
     </row>
-    <row r="501" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C501" s="1"/>
     </row>
-    <row r="502" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C502" s="1"/>
     </row>
-    <row r="503" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C503" s="1"/>
     </row>
-    <row r="504" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C505" s="1"/>
     </row>
-    <row r="506" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C506" s="1"/>
     </row>
-    <row r="507" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C507" s="1"/>
     </row>
-    <row r="508" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C508" s="1"/>
     </row>
-    <row r="509" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C509" s="1"/>
     </row>
-    <row r="510" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C510" s="1"/>
     </row>
-    <row r="511" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C511" s="1"/>
     </row>
-    <row r="512" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C512" s="1"/>
     </row>
-    <row r="513" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C513" s="1"/>
     </row>
-    <row r="514" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C514" s="1"/>
     </row>
-    <row r="515" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C515" s="1"/>
     </row>
-    <row r="516" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C517" s="1"/>
     </row>
-    <row r="518" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C518" s="1"/>
     </row>
-    <row r="519" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C519" s="1"/>
     </row>
-    <row r="520" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C520" s="1"/>
     </row>
-    <row r="521" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C521" s="1"/>
     </row>
-    <row r="522" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C522" s="1"/>
     </row>
-    <row r="523" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C523" s="1"/>
     </row>
-    <row r="524" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C524" s="1"/>
     </row>
-    <row r="525" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C525" s="1"/>
     </row>
-    <row r="526" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C526" s="1"/>
     </row>
-    <row r="527" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C527" s="1"/>
     </row>
-    <row r="528" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C528" s="1"/>
     </row>
-    <row r="529" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C529" s="1"/>
     </row>
-    <row r="530" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C530" s="1"/>
     </row>
-    <row r="531" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C531" s="1"/>
     </row>
-    <row r="532" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C532" s="1"/>
     </row>
-    <row r="533" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C533" s="1"/>
     </row>
-    <row r="534" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C534" s="1"/>
     </row>
-    <row r="535" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C535" s="1"/>
     </row>
-    <row r="536" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C536" s="1"/>
     </row>
-    <row r="537" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C537" s="1"/>
     </row>
-    <row r="538" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C538" s="1"/>
     </row>
-    <row r="539" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C539" s="1"/>
     </row>
-    <row r="540" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C540" s="1"/>
     </row>
-    <row r="541" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C541" s="1"/>
     </row>
-    <row r="542" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C542" s="1"/>
     </row>
-    <row r="543" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C543" s="1"/>
     </row>
-    <row r="544" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C544" s="1"/>
     </row>
-    <row r="545" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C545" s="1"/>
     </row>
-    <row r="546" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C546" s="1"/>
     </row>
-    <row r="547" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C547" s="1"/>
     </row>
-    <row r="548" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C548" s="1"/>
     </row>
-    <row r="549" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C549" s="1"/>
     </row>
-    <row r="550" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C550" s="1"/>
     </row>
-    <row r="551" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C551" s="1"/>
     </row>
-    <row r="552" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C552" s="1"/>
     </row>
-    <row r="553" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C553" s="1"/>
     </row>
-    <row r="554" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C554" s="1"/>
     </row>
-    <row r="555" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C555" s="1"/>
     </row>
-    <row r="556" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C556" s="1"/>
     </row>
-    <row r="557" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C557" s="1"/>
     </row>
-    <row r="558" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C558" s="1"/>
     </row>
-    <row r="559" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C559" s="1"/>
     </row>
-    <row r="560" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C560" s="1"/>
     </row>
-    <row r="561" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C561" s="1"/>
     </row>
-    <row r="562" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C562" s="1"/>
     </row>
-    <row r="563" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C563" s="1"/>
     </row>
-    <row r="564" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C564" s="1"/>
     </row>
-    <row r="565" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C565" s="1"/>
     </row>
-    <row r="566" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C566" s="1"/>
     </row>
-    <row r="567" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C567" s="1"/>
     </row>
-    <row r="568" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C568" s="1"/>
     </row>
-    <row r="569" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C569" s="1"/>
     </row>
-    <row r="570" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C570" s="1"/>
     </row>
-    <row r="571" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C571" s="1"/>
     </row>
-    <row r="572" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C572" s="1"/>
     </row>
-    <row r="573" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C573" s="1"/>
     </row>
-    <row r="574" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C574" s="1"/>
     </row>
-    <row r="575" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C575" s="1"/>
     </row>
-    <row r="576" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C576" s="1"/>
     </row>
-    <row r="577" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C577" s="1"/>
     </row>
-    <row r="578" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C578" s="1"/>
     </row>
-    <row r="579" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C579" s="1"/>
     </row>
-    <row r="580" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C580" s="1"/>
     </row>
-    <row r="581" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C581" s="1"/>
     </row>
-    <row r="582" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C582" s="1"/>
     </row>
-    <row r="583" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C583" s="1"/>
     </row>
-    <row r="584" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C584" s="1"/>
     </row>
-    <row r="585" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C585" s="1"/>
     </row>
-    <row r="586" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C586" s="1"/>
     </row>
-    <row r="587" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C587" s="1"/>
     </row>
-    <row r="588" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C588" s="1"/>
     </row>
-    <row r="589" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C589" s="1"/>
     </row>
-    <row r="590" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C590" s="1"/>
     </row>
-    <row r="591" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C591" s="1"/>
     </row>
-    <row r="592" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C592" s="1"/>
     </row>
-    <row r="593" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C593" s="1"/>
     </row>
-    <row r="594" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C594" s="1"/>
     </row>
-    <row r="595" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C595" s="1"/>
     </row>
-    <row r="596" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C596" s="1"/>
     </row>
-    <row r="597" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C597" s="1"/>
     </row>
-    <row r="598" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C598" s="1"/>
     </row>
-    <row r="599" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C599" s="1"/>
     </row>
-    <row r="600" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C600" s="1"/>
     </row>
-    <row r="601" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C601" s="1"/>
     </row>
-    <row r="602" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C602" s="1"/>
     </row>
-    <row r="603" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C603" s="1"/>
     </row>
-    <row r="604" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C604" s="1"/>
     </row>
-    <row r="605" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C605" s="1"/>
     </row>
-    <row r="606" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C606" s="1"/>
     </row>
-    <row r="607" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C607" s="1"/>
     </row>
-    <row r="608" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C608" s="1"/>
     </row>
-    <row r="609" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C609" s="1"/>
     </row>
-    <row r="610" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C610" s="1"/>
     </row>
-    <row r="611" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C611" s="1"/>
     </row>
-    <row r="612" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C612" s="1"/>
     </row>
-    <row r="613" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C613" s="1"/>
     </row>
-    <row r="614" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C614" s="1"/>
     </row>
-    <row r="615" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C615" s="1"/>
     </row>
-    <row r="616" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C616" s="1"/>
     </row>
-    <row r="617" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C617" s="1"/>
     </row>
-    <row r="618" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C618" s="1"/>
     </row>
-    <row r="619" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C619" s="1"/>
     </row>
-    <row r="620" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C620" s="1"/>
     </row>
-    <row r="621" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C621" s="1"/>
     </row>
-    <row r="622" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C622" s="1"/>
     </row>
-    <row r="623" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C623" s="1"/>
     </row>
-    <row r="624" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C624" s="1"/>
     </row>
-    <row r="625" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C625" s="1"/>
     </row>
-    <row r="626" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C626" s="1"/>
     </row>
-    <row r="627" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C627" s="1"/>
     </row>
-    <row r="628" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C628" s="1"/>
     </row>
-    <row r="629" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C629" s="1"/>
     </row>
-    <row r="630" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C630" s="1"/>
     </row>
-    <row r="631" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C631" s="1"/>
     </row>
-    <row r="632" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C632" s="1"/>
     </row>
-    <row r="633" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C633" s="1"/>
     </row>
-    <row r="634" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C634" s="1"/>
     </row>
-    <row r="635" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C635" s="1"/>
     </row>
-    <row r="636" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C636" s="1"/>
     </row>
-    <row r="637" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C637" s="1"/>
     </row>
-    <row r="638" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C638" s="1"/>
     </row>
-    <row r="639" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C639" s="1"/>
     </row>
-    <row r="640" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C640" s="1"/>
     </row>
-    <row r="641" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C641" s="1"/>
     </row>
-    <row r="642" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C642" s="1"/>
     </row>
-    <row r="643" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C643" s="1"/>
     </row>
-    <row r="644" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C644" s="1"/>
     </row>
-    <row r="645" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C645" s="1"/>
     </row>
-    <row r="646" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C646" s="1"/>
     </row>
-    <row r="647" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C647" s="1"/>
     </row>
-    <row r="648" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C648" s="1"/>
     </row>
-    <row r="649" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C649" s="1"/>
     </row>
-    <row r="650" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C650" s="1"/>
     </row>
-    <row r="651" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C651" s="1"/>
     </row>
-    <row r="652" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C652" s="1"/>
     </row>
-    <row r="653" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C653" s="1"/>
     </row>
-    <row r="654" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C654" s="1"/>
     </row>
-    <row r="655" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C655" s="1"/>
     </row>
-    <row r="656" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C656" s="1"/>
     </row>
-    <row r="657" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C657" s="1"/>
     </row>
-    <row r="658" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C658" s="1"/>
     </row>
-    <row r="659" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C659" s="1"/>
     </row>
-    <row r="660" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C660" s="1"/>
     </row>
-    <row r="661" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C661" s="1"/>
     </row>
-    <row r="662" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C662" s="1"/>
     </row>
-    <row r="663" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C663" s="1"/>
     </row>
-    <row r="664" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C664" s="1"/>
     </row>
-    <row r="665" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C665" s="1"/>
     </row>
-    <row r="666" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C666" s="1"/>
     </row>
-    <row r="667" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C667" s="1"/>
     </row>
-    <row r="668" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C668" s="1"/>
     </row>
-    <row r="669" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C669" s="1"/>
     </row>
-    <row r="670" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C670" s="1"/>
     </row>
-    <row r="671" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C671" s="1"/>
     </row>
-    <row r="672" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C672" s="1"/>
     </row>
-    <row r="673" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C673" s="1"/>
     </row>
-    <row r="674" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C674" s="1"/>
     </row>
-    <row r="675" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C675" s="1"/>
     </row>
-    <row r="676" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C676" s="1"/>
     </row>
-    <row r="677" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C677" s="1"/>
     </row>
-    <row r="678" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C678" s="1"/>
     </row>
-    <row r="679" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C679" s="1"/>
     </row>
-    <row r="680" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C680" s="1"/>
     </row>
-    <row r="681" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C681" s="1"/>
     </row>
-    <row r="682" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C682" s="1"/>
     </row>
-    <row r="683" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C683" s="1"/>
     </row>
-    <row r="684" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C684" s="1"/>
     </row>
-    <row r="685" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C685" s="1"/>
     </row>
-    <row r="686" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C686" s="1"/>
     </row>
-    <row r="687" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C687" s="1"/>
     </row>
-    <row r="688" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C688" s="1"/>
     </row>
-    <row r="689" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C689" s="1"/>
     </row>
-    <row r="690" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C690" s="1"/>
     </row>
-    <row r="691" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C691" s="1"/>
     </row>
-    <row r="692" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C692" s="1"/>
     </row>
-    <row r="693" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C693" s="1"/>
     </row>
-    <row r="694" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C694" s="1"/>
     </row>
-    <row r="695" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C695" s="1"/>
     </row>
-    <row r="696" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C696" s="1"/>
     </row>
-    <row r="697" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C697" s="1"/>
     </row>
-    <row r="698" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C698" s="1"/>
     </row>
-    <row r="699" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C699" s="1"/>
     </row>
-    <row r="700" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C700" s="1"/>
     </row>
-    <row r="701" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C701" s="1"/>
     </row>
-    <row r="702" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C702" s="1"/>
     </row>
-    <row r="703" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C703" s="1"/>
     </row>
-    <row r="704" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C704" s="1"/>
     </row>
-    <row r="705" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C705" s="1"/>
     </row>
-    <row r="706" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C706" s="1"/>
     </row>
-    <row r="707" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C707" s="1"/>
     </row>
-    <row r="708" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C708" s="1"/>
     </row>
-    <row r="709" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C709" s="1"/>
     </row>
-    <row r="710" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C710" s="1"/>
     </row>
-    <row r="711" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C711" s="1"/>
     </row>
-    <row r="712" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C712" s="1"/>
     </row>
-    <row r="713" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C713" s="1"/>
     </row>
-    <row r="714" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C714" s="1"/>
     </row>
-    <row r="715" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C715" s="1"/>
     </row>
-    <row r="716" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C716" s="1"/>
     </row>
-    <row r="717" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C717" s="1"/>
     </row>
-    <row r="718" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C718" s="1"/>
     </row>
-    <row r="719" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C719" s="1"/>
     </row>
-    <row r="720" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C720" s="1"/>
     </row>
-    <row r="721" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C721" s="1"/>
     </row>
-    <row r="722" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C722" s="1"/>
     </row>
-    <row r="723" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C723" s="1"/>
     </row>
-    <row r="724" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C724" s="1"/>
     </row>
-    <row r="725" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C725" s="1"/>
     </row>
-    <row r="726" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C726" s="1"/>
     </row>
-    <row r="727" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C727" s="1"/>
     </row>
-    <row r="728" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C728" s="1"/>
     </row>
-    <row r="729" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C729" s="1"/>
     </row>
-    <row r="730" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C730" s="1"/>
     </row>
-    <row r="731" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C731" s="1"/>
     </row>
-    <row r="732" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C732" s="1"/>
     </row>
-    <row r="733" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C733" s="1"/>
     </row>
-    <row r="734" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C734" s="1"/>
     </row>
-    <row r="735" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C735" s="1"/>
     </row>
-    <row r="736" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C736" s="1"/>
     </row>
-    <row r="737" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C737" s="1"/>
     </row>
-    <row r="738" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C738" s="1"/>
     </row>
-    <row r="739" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C739" s="1"/>
     </row>
-    <row r="740" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C740" s="1"/>
     </row>
-    <row r="741" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C741" s="1"/>
     </row>
-    <row r="742" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C742" s="1"/>
     </row>
-    <row r="743" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C743" s="1"/>
     </row>
-    <row r="744" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C744" s="1"/>
     </row>
-    <row r="745" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C745" s="1"/>
     </row>
-    <row r="746" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C746" s="1"/>
     </row>
-    <row r="747" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C747" s="1"/>
     </row>
-    <row r="748" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C748" s="1"/>
     </row>
-    <row r="749" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C749" s="1"/>
     </row>
-    <row r="750" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C750" s="1"/>
     </row>
-    <row r="751" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C751" s="1"/>
     </row>
-    <row r="752" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C752" s="1"/>
     </row>
-    <row r="753" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C753" s="1"/>
     </row>
-    <row r="754" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C754" s="1"/>
     </row>
-    <row r="755" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C755" s="1"/>
     </row>
-    <row r="756" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C756" s="1"/>
     </row>
-    <row r="757" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C757" s="1"/>
     </row>
-    <row r="758" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C758" s="1"/>
     </row>
-    <row r="759" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C759" s="1"/>
     </row>
-    <row r="760" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C760" s="1"/>
     </row>
-    <row r="761" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C761" s="1"/>
     </row>
-    <row r="762" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C762" s="1"/>
     </row>
-    <row r="763" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C763" s="1"/>
     </row>
-    <row r="764" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C764" s="1"/>
     </row>
-    <row r="765" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C765" s="1"/>
     </row>
-    <row r="766" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C766" s="1"/>
     </row>
-    <row r="767" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C767" s="1"/>
     </row>
-    <row r="768" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C768" s="1"/>
     </row>
-    <row r="769" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C769" s="1"/>
     </row>
-    <row r="770" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C770" s="1"/>
     </row>
-    <row r="771" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C771" s="1"/>
     </row>
-    <row r="772" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C772" s="1"/>
     </row>
-    <row r="773" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C773" s="1"/>
     </row>
-    <row r="774" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C774" s="1"/>
     </row>
-    <row r="775" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C775" s="1"/>
     </row>
-    <row r="776" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C776" s="1"/>
     </row>
-    <row r="777" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C777" s="1"/>
     </row>
-    <row r="778" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C778" s="1"/>
     </row>
-    <row r="779" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C779" s="1"/>
     </row>
-    <row r="780" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C780" s="1"/>
     </row>
-    <row r="781" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C781" s="1"/>
     </row>
-    <row r="782" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C782" s="1"/>
     </row>
-    <row r="783" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C783" s="1"/>
     </row>
-    <row r="784" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C784" s="1"/>
     </row>
-    <row r="785" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C785" s="1"/>
     </row>
-    <row r="786" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C786" s="1"/>
     </row>
-    <row r="787" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C787" s="1"/>
     </row>
-    <row r="788" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C788" s="1"/>
     </row>
-    <row r="789" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C789" s="1"/>
     </row>
-    <row r="790" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C790" s="1"/>
     </row>
-    <row r="791" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C791" s="1"/>
     </row>
-    <row r="792" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C792" s="1"/>
     </row>
-    <row r="793" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C793" s="1"/>
     </row>
-    <row r="794" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C794" s="1"/>
     </row>
-    <row r="795" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C795" s="1"/>
     </row>
-    <row r="796" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C796" s="1"/>
     </row>
-    <row r="797" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C797" s="1"/>
     </row>
-    <row r="798" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C798" s="1"/>
     </row>
-    <row r="799" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C799" s="1"/>
     </row>
-    <row r="800" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C800" s="1"/>
     </row>
-    <row r="801" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C801" s="1"/>
     </row>
-    <row r="802" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C802" s="1"/>
     </row>
-    <row r="803" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C803" s="1"/>
     </row>
-    <row r="804" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C804" s="1"/>
     </row>
-    <row r="805" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C805" s="1"/>
     </row>
-    <row r="806" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C806" s="1"/>
     </row>
-    <row r="807" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C807" s="1"/>
     </row>
-    <row r="808" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C808" s="1"/>
     </row>
-    <row r="809" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C809" s="1"/>
     </row>
-    <row r="810" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C810" s="1"/>
     </row>
-    <row r="811" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C811" s="1"/>
     </row>
-    <row r="812" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C812" s="1"/>
     </row>
-    <row r="813" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C813" s="1"/>
     </row>
-    <row r="814" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C814" s="1"/>
     </row>
-    <row r="815" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C815" s="1"/>
     </row>
-    <row r="816" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C816" s="1"/>
     </row>
-    <row r="817" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C817" s="1"/>
     </row>
-    <row r="818" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C818" s="1"/>
     </row>
-    <row r="819" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C819" s="1"/>
     </row>
-    <row r="820" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C820" s="1"/>
     </row>
-    <row r="821" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C821" s="1"/>
     </row>
-    <row r="822" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C822" s="1"/>
     </row>
-    <row r="823" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C823" s="1"/>
     </row>
-    <row r="824" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C824" s="1"/>
     </row>
-    <row r="825" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C825" s="1"/>
     </row>
-    <row r="826" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C826" s="1"/>
     </row>
-    <row r="827" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C827" s="1"/>
     </row>
-    <row r="828" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C828" s="1"/>
     </row>
-    <row r="829" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C829" s="1"/>
     </row>
-    <row r="830" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C830" s="1"/>
     </row>
-    <row r="831" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C831" s="1"/>
     </row>
-    <row r="832" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C832" s="1"/>
     </row>
-    <row r="833" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C833" s="1"/>
     </row>
-    <row r="834" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C834" s="1"/>
     </row>
-    <row r="835" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C835" s="1"/>
     </row>
-    <row r="836" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="836" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C836" s="1"/>
     </row>
-    <row r="837" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="837" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C837" s="1"/>
     </row>
-    <row r="838" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="838" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C838" s="1"/>
     </row>
-    <row r="839" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="839" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C839" s="1"/>
     </row>
-    <row r="840" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="840" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C840" s="1"/>
     </row>
-    <row r="841" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="841" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C841" s="1"/>
     </row>
-    <row r="842" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="842" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C842" s="1"/>
     </row>
-    <row r="843" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="843" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C843" s="1"/>
     </row>
-    <row r="844" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="844" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C844" s="1"/>
     </row>
-    <row r="845" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="845" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C845" s="1"/>
     </row>
-    <row r="846" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="846" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C846" s="1"/>
     </row>
-    <row r="847" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="847" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C847" s="1"/>
     </row>
-    <row r="848" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="848" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C848" s="1"/>
     </row>
-    <row r="849" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="849" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C849" s="1"/>
     </row>
-    <row r="850" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="850" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C850" s="1"/>
     </row>
-    <row r="851" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="851" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C851" s="1"/>
     </row>
-    <row r="852" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="852" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C852" s="1"/>
     </row>
-    <row r="853" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="853" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C853" s="1"/>
     </row>
-    <row r="854" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="854" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C854" s="1"/>
     </row>
-    <row r="855" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="855" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C855" s="1"/>
     </row>
-    <row r="856" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="856" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C856" s="1"/>
     </row>
-    <row r="857" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="857" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C857" s="1"/>
     </row>
-    <row r="858" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="858" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C858" s="1"/>
     </row>
-    <row r="859" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="859" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C859" s="1"/>
     </row>
-    <row r="860" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="860" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C860" s="1"/>
     </row>
-    <row r="861" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="861" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C861" s="1"/>
     </row>
-    <row r="862" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="862" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C862" s="1"/>
     </row>
-    <row r="863" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="863" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C863" s="1"/>
     </row>
-    <row r="864" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="864" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C864" s="1"/>
     </row>
-    <row r="865" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="865" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C865" s="1"/>
     </row>
-    <row r="866" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="866" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C866" s="1"/>
     </row>
-    <row r="867" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="867" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C867" s="1"/>
     </row>
-    <row r="868" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="868" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C868" s="1"/>
     </row>
-    <row r="869" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="869" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C869" s="1"/>
     </row>
-    <row r="870" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="870" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C870" s="1"/>
     </row>
-    <row r="871" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="871" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C871" s="1"/>
     </row>
-    <row r="872" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="872" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C872" s="1"/>
     </row>
-    <row r="873" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="873" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C873" s="1"/>
     </row>
-    <row r="874" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="874" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C874" s="1"/>
     </row>
-    <row r="875" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="875" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C875" s="1"/>
     </row>
-    <row r="876" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="876" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C876" s="1"/>
     </row>
-    <row r="877" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="877" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C877" s="1"/>
     </row>
-    <row r="878" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="878" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C878" s="1"/>
     </row>
-    <row r="879" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="879" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C879" s="1"/>
     </row>
-    <row r="880" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="880" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C880" s="1"/>
     </row>
-    <row r="881" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="881" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C881" s="1"/>
     </row>
-    <row r="882" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="882" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C882" s="1"/>
     </row>
-    <row r="883" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="883" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C883" s="1"/>
     </row>
-    <row r="884" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="884" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C884" s="1"/>
     </row>
-    <row r="885" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="885" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C885" s="1"/>
     </row>
-    <row r="886" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="886" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C886" s="1"/>
     </row>
-    <row r="887" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="887" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C887" s="1"/>
     </row>
-    <row r="888" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="888" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C888" s="1"/>
     </row>
-    <row r="889" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="889" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C889" s="1"/>
     </row>
-    <row r="890" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="890" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C890" s="1"/>
     </row>
-    <row r="891" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="891" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C891" s="1"/>
     </row>
-    <row r="892" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="892" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C892" s="1"/>
     </row>
-    <row r="893" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="893" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C893" s="1"/>
     </row>
-    <row r="894" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="894" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C894" s="1"/>
     </row>
-    <row r="895" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="895" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C895" s="1"/>
     </row>
-    <row r="896" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="896" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C896" s="1"/>
     </row>
-    <row r="897" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="897" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C897" s="1"/>
     </row>
-    <row r="898" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="898" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C898" s="1"/>
     </row>
-    <row r="899" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="899" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C899" s="1"/>
     </row>
-    <row r="900" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="900" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C900" s="1"/>
     </row>
-    <row r="901" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="901" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C901" s="1"/>
     </row>
-    <row r="902" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="902" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C902" s="1"/>
     </row>
-    <row r="903" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="903" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C903" s="1"/>
     </row>
-    <row r="904" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="904" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C904" s="1"/>
     </row>
-    <row r="905" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="905" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C905" s="1"/>
     </row>
-    <row r="906" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="906" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C906" s="1"/>
     </row>
-    <row r="907" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="907" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C907" s="1"/>
     </row>
-    <row r="908" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="908" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C908" s="1"/>
     </row>
-    <row r="909" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="909" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C909" s="1"/>
     </row>
-    <row r="910" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="910" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C910" s="1"/>
     </row>
-    <row r="911" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="911" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C911" s="1"/>
     </row>
-    <row r="912" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="912" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C912" s="1"/>
     </row>
-    <row r="913" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="913" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C913" s="1"/>
     </row>
-    <row r="914" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="914" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C914" s="1"/>
     </row>
-    <row r="915" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="915" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C915" s="1"/>
     </row>
-    <row r="916" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="916" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C916" s="1"/>
     </row>
-    <row r="917" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="917" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C917" s="1"/>
     </row>
-    <row r="918" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="918" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C918" s="1"/>
     </row>
-    <row r="919" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="919" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C919" s="1"/>
     </row>
-    <row r="920" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="920" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C920" s="1"/>
     </row>
-    <row r="921" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="921" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C921" s="1"/>
     </row>
-    <row r="922" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="922" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C922" s="1"/>
     </row>
-    <row r="923" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="923" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C923" s="1"/>
     </row>
-    <row r="924" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="924" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C924" s="1"/>
     </row>
-    <row r="925" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="925" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C925" s="1"/>
     </row>
-    <row r="926" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="926" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C926" s="1"/>
     </row>
-    <row r="927" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="927" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C927" s="1"/>
     </row>
-    <row r="928" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="928" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C928" s="1"/>
     </row>
-    <row r="929" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="929" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C929" s="1"/>
     </row>
-    <row r="930" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="930" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C930" s="1"/>
     </row>
-    <row r="931" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="931" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C931" s="1"/>
     </row>
-    <row r="932" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C932" s="1"/>
     </row>
-    <row r="933" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="933" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C933" s="1"/>
     </row>
-    <row r="934" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="934" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C934" s="1"/>
     </row>
-    <row r="935" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="935" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C935" s="1"/>
     </row>
-    <row r="936" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="936" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C936" s="1"/>
     </row>
-    <row r="937" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="937" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C937" s="1"/>
     </row>
-    <row r="938" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="938" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C938" s="1"/>
     </row>
-    <row r="939" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="939" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C939" s="1"/>
     </row>
-    <row r="940" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="940" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C940" s="1"/>
     </row>
-    <row r="941" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="941" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C941" s="1"/>
     </row>
-    <row r="942" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="942" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C942" s="1"/>
     </row>
-    <row r="943" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="943" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C943" s="1"/>
     </row>
-    <row r="944" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="944" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C944" s="1"/>
     </row>
-    <row r="945" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="945" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C945" s="1"/>
     </row>
-    <row r="946" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="946" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C946" s="1"/>
     </row>
-    <row r="947" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="947" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C947" s="1"/>
     </row>
-    <row r="948" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="948" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C948" s="1"/>
     </row>
-    <row r="949" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="949" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C949" s="1"/>
     </row>
-    <row r="950" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="950" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C950" s="1"/>
     </row>
-    <row r="951" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="951" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C951" s="1"/>
     </row>
-    <row r="952" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="952" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C952" s="1"/>
     </row>
-    <row r="953" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="953" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C953" s="1"/>
     </row>
-    <row r="954" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="954" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C954" s="1"/>
     </row>
-    <row r="955" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="955" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C955" s="1"/>
     </row>
-    <row r="956" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="956" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C956" s="1"/>
     </row>
-    <row r="957" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="957" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C957" s="1"/>
     </row>
-    <row r="958" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="958" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C958" s="1"/>
     </row>
-    <row r="959" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="959" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C959" s="1"/>
     </row>
-    <row r="960" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="960" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C960" s="1"/>
     </row>
-    <row r="961" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="961" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C961" s="1"/>
     </row>
-    <row r="962" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C962" s="1"/>
     </row>
-    <row r="963" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="963" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C963" s="1"/>
     </row>
-    <row r="964" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="964" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C964" s="1"/>
     </row>
-    <row r="965" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="965" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C965" s="1"/>
     </row>
-    <row r="966" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="966" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C966" s="1"/>
     </row>
-    <row r="967" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="967" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C967" s="1"/>
     </row>
-    <row r="968" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="968" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C968" s="1"/>
     </row>
-    <row r="969" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="969" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C969" s="1"/>
     </row>
-    <row r="970" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="970" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C970" s="1"/>
     </row>
-    <row r="971" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="971" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C971" s="1"/>
     </row>
-    <row r="972" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="972" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C972" s="1"/>
     </row>
-    <row r="973" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="973" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C973" s="1"/>
     </row>
-    <row r="974" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="974" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C974" s="1"/>
     </row>
-    <row r="975" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="975" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C975" s="1"/>
     </row>
-    <row r="976" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="976" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C976" s="1"/>
     </row>
-    <row r="977" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="977" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C977" s="1"/>
     </row>
-    <row r="978" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="978" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C978" s="1"/>
     </row>
-    <row r="979" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="979" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C979" s="1"/>
     </row>
-    <row r="980" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="980" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C980" s="1"/>
     </row>
-    <row r="981" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="981" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C981" s="1"/>
     </row>
-    <row r="982" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="982" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C982" s="1"/>
     </row>
-    <row r="983" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="983" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C983" s="1"/>
     </row>
-    <row r="984" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="984" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C984" s="1"/>
     </row>
-    <row r="985" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="985" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C985" s="1"/>
     </row>
-    <row r="986" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="986" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C986" s="1"/>
     </row>
-    <row r="987" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="987" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C987" s="1"/>
     </row>
-    <row r="988" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="988" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C988" s="1"/>
     </row>
-    <row r="989" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="989" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C989" s="1"/>
     </row>
-    <row r="990" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="990" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C990" s="1"/>
     </row>
-    <row r="991" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="991" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C991" s="1"/>
     </row>
-    <row r="992" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="992" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C992" s="1"/>
     </row>
-    <row r="993" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="993" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C993" s="1"/>
     </row>
-    <row r="994" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="994" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C994" s="1"/>
     </row>
-    <row r="995" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="995" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C995" s="1"/>
     </row>
-    <row r="996" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="996" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C996" s="1"/>
     </row>
-    <row r="997" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="997" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C997" s="1"/>
     </row>
-    <row r="998" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="998" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C998" s="1"/>
     </row>
-    <row r="999" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="999" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C999" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B46:B78"/>
+    <mergeCell ref="CK1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
     <mergeCell ref="CY1:DE1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
@@ -8200,10 +8206,6 @@
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
     <mergeCell ref="CD1:CJ1"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B46:B78"/>
-    <mergeCell ref="CK1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -8228,15 +8230,15 @@
       <selection pane="bottomRight" activeCell="AV36" sqref="AV36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="3.796875" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="158" width="3.83203125" customWidth="1"/>
+    <col min="4" max="158" width="3.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1" s="1"/>
       <c r="E1" s="62" t="s">
         <v>73</v>
@@ -8427,7 +8429,7 @@
       <c r="FA1" s="63"/>
       <c r="FB1" s="63"/>
     </row>
-    <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1"/>
       <c r="E2" s="5" t="s">
         <v>15</v>
@@ -8822,7 +8824,7 @@
       <c r="FA2" s="5"/>
       <c r="FB2" s="5"/>
     </row>
-    <row r="3" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
@@ -8831,12 +8833,12 @@
       <c r="K3" s="5"/>
       <c r="CX3" s="6"/>
     </row>
-    <row r="4" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>26</v>
       </c>
@@ -8952,7 +8954,7 @@
       <c r="DG5" s="39"/>
       <c r="DH5" s="39"/>
     </row>
-    <row r="6" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
@@ -8960,7 +8962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
@@ -9076,24 +9078,24 @@
       <c r="DG7" s="39"/>
       <c r="DH7" s="39"/>
     </row>
-    <row r="8" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
@@ -9206,22 +9208,22 @@
       <c r="DG11" s="39"/>
       <c r="DH11" s="39"/>
     </row>
-    <row r="12" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
@@ -9334,32 +9336,32 @@
       <c r="DG15" s="39"/>
       <c r="DH15" s="39"/>
     </row>
-    <row r="16" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
@@ -9472,7 +9474,7 @@
       <c r="DG21" s="39"/>
       <c r="DH21" s="39"/>
     </row>
-    <row r="22" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="34" t="s">
         <v>60</v>
       </c>
@@ -9481,10 +9483,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
         <v>61</v>
       </c>
@@ -9583,7 +9585,7 @@
       <c r="DG24" s="39"/>
       <c r="DH24" s="39"/>
     </row>
-    <row r="25" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="1" t="s">
         <v>62</v>
       </c>
@@ -9612,7 +9614,7 @@
       <c r="DG25" s="39"/>
       <c r="DH25" s="39"/>
     </row>
-    <row r="26" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C26" s="1" t="s">
         <v>63</v>
       </c>
@@ -9641,7 +9643,7 @@
       <c r="DG26" s="39"/>
       <c r="DH26" s="39"/>
     </row>
-    <row r="27" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="1" t="s">
         <v>64</v>
       </c>
@@ -9740,7 +9742,7 @@
       <c r="DG27" s="39"/>
       <c r="DH27" s="39"/>
     </row>
-    <row r="28" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C28" s="5" t="s">
         <v>65</v>
       </c>
@@ -9769,7 +9771,7 @@
       <c r="DG28" s="39"/>
       <c r="DH28" s="39"/>
     </row>
-    <row r="29" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C29" s="1" t="s">
         <v>66</v>
       </c>
@@ -9868,21 +9870,21 @@
       <c r="DG29" s="39"/>
       <c r="DH29" s="39"/>
     </row>
-    <row r="30" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="DG30" s="39"/>
       <c r="DH30" s="39"/>
     </row>
-    <row r="31" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
         <v>68</v>
       </c>
       <c r="DG31" s="39"/>
       <c r="DH31" s="39"/>
     </row>
-    <row r="32" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C32" s="34" t="s">
         <v>100</v>
       </c>
@@ -9891,10 +9893,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="34" t="s">
         <v>69</v>
       </c>
@@ -9916,7 +9918,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="1" t="s">
         <v>70</v>
       </c>
@@ -9931,7 +9933,7 @@
       <c r="DG35" s="39"/>
       <c r="DH35" s="39"/>
     </row>
-    <row r="36" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="1" t="s">
         <v>71</v>
       </c>
@@ -9946,7 +9948,7 @@
       <c r="DG36" s="39"/>
       <c r="DH36" s="39"/>
     </row>
-    <row r="37" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="1" t="s">
         <v>72</v>
       </c>
@@ -9961,12 +9963,12 @@
       <c r="DK37" s="39"/>
       <c r="DL37" s="39"/>
     </row>
-    <row r="39" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40" s="60" t="s">
         <v>255</v>
       </c>
@@ -10006,7 +10008,7 @@
       <c r="CI40" s="39"/>
       <c r="CJ40" s="39"/>
     </row>
-    <row r="41" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="60" t="s">
         <v>256</v>
       </c>
@@ -10046,7 +10048,7 @@
       <c r="CI41" s="39"/>
       <c r="CJ41" s="39"/>
     </row>
-    <row r="42" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="60" t="s">
         <v>257</v>
       </c>
@@ -10086,7 +10088,7 @@
       <c r="CI42" s="39"/>
       <c r="CJ42" s="39"/>
     </row>
-    <row r="43" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="61" t="s">
         <v>259</v>
       </c>
@@ -10131,6 +10133,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="EH1:EN1"/>
     <mergeCell ref="EO1:EU1"/>
     <mergeCell ref="EV1:FB1"/>
@@ -10146,13 +10155,6 @@
     <mergeCell ref="DM1:DS1"/>
     <mergeCell ref="DT1:DZ1"/>
     <mergeCell ref="EA1:EG1"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10169,24 +10171,24 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1328125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>90</v>
       </c>
@@ -10200,7 +10202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -10217,7 +10219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -10234,7 +10236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>53</v>
       </c>
@@ -10251,7 +10253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>95</v>
       </c>
@@ -10266,7 +10268,7 @@
       </c>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>97</v>
       </c>
@@ -10280,7 +10282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>98</v>
       </c>
@@ -10294,7 +10296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>248</v>
       </c>
@@ -10308,2962 +10310,2962 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
     </row>
-    <row r="33" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B123" s="4"/>
     </row>
-    <row r="124" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B124" s="4"/>
     </row>
-    <row r="125" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B125" s="4"/>
     </row>
-    <row r="126" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B126" s="4"/>
     </row>
-    <row r="127" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B127" s="4"/>
     </row>
-    <row r="128" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B128" s="4"/>
     </row>
-    <row r="129" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B130" s="4"/>
     </row>
-    <row r="131" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B131" s="4"/>
     </row>
-    <row r="132" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B132" s="4"/>
     </row>
-    <row r="133" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B133" s="4"/>
     </row>
-    <row r="134" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B134" s="4"/>
     </row>
-    <row r="135" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B135" s="4"/>
     </row>
-    <row r="136" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B136" s="4"/>
     </row>
-    <row r="137" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B137" s="4"/>
     </row>
-    <row r="138" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B138" s="4"/>
     </row>
-    <row r="139" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B139" s="4"/>
     </row>
-    <row r="140" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B140" s="4"/>
     </row>
-    <row r="141" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B141" s="4"/>
     </row>
-    <row r="142" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B142" s="4"/>
     </row>
-    <row r="143" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B143" s="4"/>
     </row>
-    <row r="144" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B144" s="4"/>
     </row>
-    <row r="145" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B145" s="4"/>
     </row>
-    <row r="146" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B146" s="4"/>
     </row>
-    <row r="147" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B147" s="4"/>
     </row>
-    <row r="148" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B148" s="4"/>
     </row>
-    <row r="149" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B149" s="4"/>
     </row>
-    <row r="150" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B162" s="4"/>
     </row>
-    <row r="163" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B164" s="4"/>
     </row>
-    <row r="165" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B165" s="4"/>
     </row>
-    <row r="166" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B166" s="4"/>
     </row>
-    <row r="167" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B168" s="4"/>
     </row>
-    <row r="169" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B169" s="4"/>
     </row>
-    <row r="170" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B170" s="4"/>
     </row>
-    <row r="171" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B174" s="4"/>
     </row>
-    <row r="175" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B177" s="4"/>
     </row>
-    <row r="178" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B178" s="4"/>
     </row>
-    <row r="179" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B179" s="4"/>
     </row>
-    <row r="180" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B180" s="4"/>
     </row>
-    <row r="181" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B181" s="4"/>
     </row>
-    <row r="182" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B182" s="4"/>
     </row>
-    <row r="183" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B183" s="4"/>
     </row>
-    <row r="184" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B184" s="4"/>
     </row>
-    <row r="185" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B185" s="4"/>
     </row>
-    <row r="186" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B186" s="4"/>
     </row>
-    <row r="187" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B189" s="4"/>
     </row>
-    <row r="190" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B190" s="4"/>
     </row>
-    <row r="191" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B191" s="4"/>
     </row>
-    <row r="192" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B192" s="4"/>
     </row>
-    <row r="193" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B193" s="4"/>
     </row>
-    <row r="194" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B194" s="4"/>
     </row>
-    <row r="195" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B195" s="4"/>
     </row>
-    <row r="196" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B198" s="4"/>
     </row>
-    <row r="199" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B199" s="4"/>
     </row>
-    <row r="200" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B200" s="4"/>
     </row>
-    <row r="201" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B201" s="4"/>
     </row>
-    <row r="202" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B202" s="4"/>
     </row>
-    <row r="203" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B205" s="4"/>
     </row>
-    <row r="206" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B206" s="4"/>
     </row>
-    <row r="207" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B207" s="4"/>
     </row>
-    <row r="208" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B208" s="4"/>
     </row>
-    <row r="209" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B209" s="4"/>
     </row>
-    <row r="210" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B210" s="4"/>
     </row>
-    <row r="211" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B211" s="4"/>
     </row>
-    <row r="212" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B212" s="4"/>
     </row>
-    <row r="213" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B213" s="4"/>
     </row>
-    <row r="214" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B214" s="4"/>
     </row>
-    <row r="215" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B215" s="4"/>
     </row>
-    <row r="216" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B216" s="4"/>
     </row>
-    <row r="217" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B217" s="4"/>
     </row>
-    <row r="218" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B218" s="4"/>
     </row>
-    <row r="219" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B219" s="4"/>
     </row>
-    <row r="220" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B221" s="4"/>
     </row>
-    <row r="222" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B222" s="4"/>
     </row>
-    <row r="223" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B223" s="4"/>
     </row>
-    <row r="224" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B224" s="4"/>
     </row>
-    <row r="225" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B225" s="4"/>
     </row>
-    <row r="226" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B226" s="4"/>
     </row>
-    <row r="227" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B227" s="4"/>
     </row>
-    <row r="228" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B228" s="4"/>
     </row>
-    <row r="229" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B229" s="4"/>
     </row>
-    <row r="230" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B230" s="4"/>
     </row>
-    <row r="231" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B231" s="4"/>
     </row>
-    <row r="232" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B232" s="4"/>
     </row>
-    <row r="233" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B233" s="4"/>
     </row>
-    <row r="234" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B234" s="4"/>
     </row>
-    <row r="235" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B235" s="4"/>
     </row>
-    <row r="236" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B238" s="4"/>
     </row>
-    <row r="239" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B239" s="4"/>
     </row>
-    <row r="240" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B240" s="4"/>
     </row>
-    <row r="241" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B241" s="4"/>
     </row>
-    <row r="242" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B242" s="4"/>
     </row>
-    <row r="243" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B243" s="4"/>
     </row>
-    <row r="244" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B244" s="4"/>
     </row>
-    <row r="245" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B245" s="4"/>
     </row>
-    <row r="246" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B246" s="4"/>
     </row>
-    <row r="247" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B247" s="4"/>
     </row>
-    <row r="248" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B248" s="4"/>
     </row>
-    <row r="249" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B249" s="4"/>
     </row>
-    <row r="250" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B250" s="4"/>
     </row>
-    <row r="251" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B251" s="4"/>
     </row>
-    <row r="252" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B252" s="4"/>
     </row>
-    <row r="253" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B254" s="4"/>
     </row>
-    <row r="255" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B255" s="4"/>
     </row>
-    <row r="256" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B256" s="4"/>
     </row>
-    <row r="257" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B257" s="4"/>
     </row>
-    <row r="258" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B258" s="4"/>
     </row>
-    <row r="259" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B259" s="4"/>
     </row>
-    <row r="260" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B260" s="4"/>
     </row>
-    <row r="261" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B261" s="4"/>
     </row>
-    <row r="262" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B262" s="4"/>
     </row>
-    <row r="263" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B263" s="4"/>
     </row>
-    <row r="264" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B264" s="4"/>
     </row>
-    <row r="265" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B265" s="4"/>
     </row>
-    <row r="266" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B266" s="4"/>
     </row>
-    <row r="267" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B267" s="4"/>
     </row>
-    <row r="268" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B268" s="4"/>
     </row>
-    <row r="269" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B271" s="4"/>
     </row>
-    <row r="272" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B272" s="4"/>
     </row>
-    <row r="273" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B273" s="4"/>
     </row>
-    <row r="274" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B274" s="4"/>
     </row>
-    <row r="275" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B275" s="4"/>
     </row>
-    <row r="276" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B276" s="4"/>
     </row>
-    <row r="277" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B277" s="4"/>
     </row>
-    <row r="278" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B278" s="4"/>
     </row>
-    <row r="279" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B279" s="4"/>
     </row>
-    <row r="280" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B280" s="4"/>
     </row>
-    <row r="281" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B281" s="4"/>
     </row>
-    <row r="282" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B282" s="4"/>
     </row>
-    <row r="283" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B283" s="4"/>
     </row>
-    <row r="284" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B284" s="4"/>
     </row>
-    <row r="285" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B285" s="4"/>
     </row>
-    <row r="286" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B286" s="4"/>
     </row>
-    <row r="287" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B287" s="4"/>
     </row>
-    <row r="288" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B288" s="4"/>
     </row>
-    <row r="289" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B289" s="4"/>
     </row>
-    <row r="290" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B290" s="4"/>
     </row>
-    <row r="291" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B291" s="4"/>
     </row>
-    <row r="292" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B292" s="4"/>
     </row>
-    <row r="293" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B293" s="4"/>
     </row>
-    <row r="294" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B294" s="4"/>
     </row>
-    <row r="295" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B295" s="4"/>
     </row>
-    <row r="296" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B296" s="4"/>
     </row>
-    <row r="297" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B297" s="4"/>
     </row>
-    <row r="298" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B298" s="4"/>
     </row>
-    <row r="299" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B299" s="4"/>
     </row>
-    <row r="300" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B300" s="4"/>
     </row>
-    <row r="301" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B301" s="4"/>
     </row>
-    <row r="302" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B303" s="4"/>
     </row>
-    <row r="304" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B304" s="4"/>
     </row>
-    <row r="305" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B305" s="4"/>
     </row>
-    <row r="306" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B306" s="4"/>
     </row>
-    <row r="307" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B307" s="4"/>
     </row>
-    <row r="308" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B308" s="4"/>
     </row>
-    <row r="309" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B309" s="4"/>
     </row>
-    <row r="310" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B310" s="4"/>
     </row>
-    <row r="311" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B311" s="4"/>
     </row>
-    <row r="312" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B312" s="4"/>
     </row>
-    <row r="313" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B313" s="4"/>
     </row>
-    <row r="314" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B314" s="4"/>
     </row>
-    <row r="315" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B315" s="4"/>
     </row>
-    <row r="316" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B316" s="4"/>
     </row>
-    <row r="317" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B317" s="4"/>
     </row>
-    <row r="318" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B318" s="4"/>
     </row>
-    <row r="319" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B319" s="4"/>
     </row>
-    <row r="320" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B320" s="4"/>
     </row>
-    <row r="321" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B321" s="4"/>
     </row>
-    <row r="322" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B322" s="4"/>
     </row>
-    <row r="323" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B323" s="4"/>
     </row>
-    <row r="324" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B324" s="4"/>
     </row>
-    <row r="325" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B325" s="4"/>
     </row>
-    <row r="326" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B326" s="4"/>
     </row>
-    <row r="327" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B327" s="4"/>
     </row>
-    <row r="328" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B328" s="4"/>
     </row>
-    <row r="329" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B329" s="4"/>
     </row>
-    <row r="330" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B330" s="4"/>
     </row>
-    <row r="331" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B331" s="4"/>
     </row>
-    <row r="332" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B332" s="4"/>
     </row>
-    <row r="333" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B333" s="4"/>
     </row>
-    <row r="334" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B334" s="4"/>
     </row>
-    <row r="335" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B335" s="4"/>
     </row>
-    <row r="336" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B336" s="4"/>
     </row>
-    <row r="337" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B337" s="4"/>
     </row>
-    <row r="338" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B338" s="4"/>
     </row>
-    <row r="339" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B339" s="4"/>
     </row>
-    <row r="340" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B340" s="4"/>
     </row>
-    <row r="341" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B341" s="4"/>
     </row>
-    <row r="342" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B342" s="4"/>
     </row>
-    <row r="343" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B343" s="4"/>
     </row>
-    <row r="344" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B344" s="4"/>
     </row>
-    <row r="345" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B345" s="4"/>
     </row>
-    <row r="346" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B346" s="4"/>
     </row>
-    <row r="347" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B347" s="4"/>
     </row>
-    <row r="348" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B348" s="4"/>
     </row>
-    <row r="349" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B349" s="4"/>
     </row>
-    <row r="350" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B350" s="4"/>
     </row>
-    <row r="351" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B351" s="4"/>
     </row>
-    <row r="352" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B352" s="4"/>
     </row>
-    <row r="353" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B353" s="4"/>
     </row>
-    <row r="354" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B354" s="4"/>
     </row>
-    <row r="355" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B355" s="4"/>
     </row>
-    <row r="356" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B356" s="4"/>
     </row>
-    <row r="357" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B357" s="4"/>
     </row>
-    <row r="358" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B358" s="4"/>
     </row>
-    <row r="359" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B359" s="4"/>
     </row>
-    <row r="360" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B360" s="4"/>
     </row>
-    <row r="361" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B361" s="4"/>
     </row>
-    <row r="362" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B362" s="4"/>
     </row>
-    <row r="363" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B363" s="4"/>
     </row>
-    <row r="364" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B364" s="4"/>
     </row>
-    <row r="365" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B365" s="4"/>
     </row>
-    <row r="366" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B366" s="4"/>
     </row>
-    <row r="367" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B367" s="4"/>
     </row>
-    <row r="368" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B368" s="4"/>
     </row>
-    <row r="369" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B369" s="4"/>
     </row>
-    <row r="370" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B370" s="4"/>
     </row>
-    <row r="371" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B371" s="4"/>
     </row>
-    <row r="372" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B372" s="4"/>
     </row>
-    <row r="373" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B373" s="4"/>
     </row>
-    <row r="374" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B374" s="4"/>
     </row>
-    <row r="375" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B375" s="4"/>
     </row>
-    <row r="376" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B376" s="4"/>
     </row>
-    <row r="377" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B377" s="4"/>
     </row>
-    <row r="378" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B378" s="4"/>
     </row>
-    <row r="379" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B379" s="4"/>
     </row>
-    <row r="380" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B380" s="4"/>
     </row>
-    <row r="381" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B381" s="4"/>
     </row>
-    <row r="382" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B382" s="4"/>
     </row>
-    <row r="383" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B383" s="4"/>
     </row>
-    <row r="384" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B384" s="4"/>
     </row>
-    <row r="385" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B385" s="4"/>
     </row>
-    <row r="386" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B386" s="4"/>
     </row>
-    <row r="387" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B387" s="4"/>
     </row>
-    <row r="388" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B388" s="4"/>
     </row>
-    <row r="389" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B389" s="4"/>
     </row>
-    <row r="390" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B390" s="4"/>
     </row>
-    <row r="391" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B391" s="4"/>
     </row>
-    <row r="392" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B392" s="4"/>
     </row>
-    <row r="393" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B393" s="4"/>
     </row>
-    <row r="394" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B394" s="4"/>
     </row>
-    <row r="395" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B395" s="4"/>
     </row>
-    <row r="396" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B396" s="4"/>
     </row>
-    <row r="397" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B398" s="4"/>
     </row>
-    <row r="399" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B400" s="4"/>
     </row>
-    <row r="401" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B401" s="4"/>
     </row>
-    <row r="402" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B402" s="4"/>
     </row>
-    <row r="403" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B404" s="4"/>
     </row>
-    <row r="405" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B405" s="4"/>
     </row>
-    <row r="406" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B406" s="4"/>
     </row>
-    <row r="407" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B407" s="4"/>
     </row>
-    <row r="408" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B408" s="4"/>
     </row>
-    <row r="409" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B409" s="4"/>
     </row>
-    <row r="410" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B410" s="4"/>
     </row>
-    <row r="411" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B411" s="4"/>
     </row>
-    <row r="412" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B412" s="4"/>
     </row>
-    <row r="413" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B413" s="4"/>
     </row>
-    <row r="414" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B414" s="4"/>
     </row>
-    <row r="415" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B415" s="4"/>
     </row>
-    <row r="416" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B417" s="4"/>
     </row>
-    <row r="418" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B418" s="4"/>
     </row>
-    <row r="419" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B419" s="4"/>
     </row>
-    <row r="420" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B420" s="4"/>
     </row>
-    <row r="421" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B421" s="4"/>
     </row>
-    <row r="422" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B422" s="4"/>
     </row>
-    <row r="423" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B423" s="4"/>
     </row>
-    <row r="424" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B424" s="4"/>
     </row>
-    <row r="425" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B425" s="4"/>
     </row>
-    <row r="426" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B426" s="4"/>
     </row>
-    <row r="427" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B427" s="4"/>
     </row>
-    <row r="428" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B428" s="4"/>
     </row>
-    <row r="429" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B429" s="4"/>
     </row>
-    <row r="430" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B430" s="4"/>
     </row>
-    <row r="431" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B431" s="4"/>
     </row>
-    <row r="432" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B432" s="4"/>
     </row>
-    <row r="433" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B433" s="4"/>
     </row>
-    <row r="434" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B434" s="4"/>
     </row>
-    <row r="435" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B435" s="4"/>
     </row>
-    <row r="436" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B436" s="4"/>
     </row>
-    <row r="437" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B437" s="4"/>
     </row>
-    <row r="438" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B438" s="4"/>
     </row>
-    <row r="439" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B439" s="4"/>
     </row>
-    <row r="440" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B440" s="4"/>
     </row>
-    <row r="441" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B441" s="4"/>
     </row>
-    <row r="442" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B442" s="4"/>
     </row>
-    <row r="443" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B443" s="4"/>
     </row>
-    <row r="444" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B444" s="4"/>
     </row>
-    <row r="445" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B445" s="4"/>
     </row>
-    <row r="446" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B446" s="4"/>
     </row>
-    <row r="447" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B447" s="4"/>
     </row>
-    <row r="448" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B448" s="4"/>
     </row>
-    <row r="449" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B449" s="4"/>
     </row>
-    <row r="450" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B450" s="4"/>
     </row>
-    <row r="451" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B451" s="4"/>
     </row>
-    <row r="452" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B452" s="4"/>
     </row>
-    <row r="453" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B453" s="4"/>
     </row>
-    <row r="454" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B454" s="4"/>
     </row>
-    <row r="455" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B455" s="4"/>
     </row>
-    <row r="456" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B456" s="4"/>
     </row>
-    <row r="457" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B457" s="4"/>
     </row>
-    <row r="458" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B458" s="4"/>
     </row>
-    <row r="459" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B459" s="4"/>
     </row>
-    <row r="460" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B460" s="4"/>
     </row>
-    <row r="461" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B461" s="4"/>
     </row>
-    <row r="462" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B462" s="4"/>
     </row>
-    <row r="463" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B463" s="4"/>
     </row>
-    <row r="464" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B464" s="4"/>
     </row>
-    <row r="465" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B465" s="4"/>
     </row>
-    <row r="466" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B466" s="4"/>
     </row>
-    <row r="467" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B467" s="4"/>
     </row>
-    <row r="468" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B468" s="4"/>
     </row>
-    <row r="469" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B469" s="4"/>
     </row>
-    <row r="470" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B470" s="4"/>
     </row>
-    <row r="471" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B471" s="4"/>
     </row>
-    <row r="472" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B472" s="4"/>
     </row>
-    <row r="473" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B473" s="4"/>
     </row>
-    <row r="474" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B474" s="4"/>
     </row>
-    <row r="475" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B475" s="4"/>
     </row>
-    <row r="476" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B476" s="4"/>
     </row>
-    <row r="477" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B477" s="4"/>
     </row>
-    <row r="478" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B478" s="4"/>
     </row>
-    <row r="479" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B479" s="4"/>
     </row>
-    <row r="480" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B480" s="4"/>
     </row>
-    <row r="481" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B481" s="4"/>
     </row>
-    <row r="482" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B482" s="4"/>
     </row>
-    <row r="483" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B483" s="4"/>
     </row>
-    <row r="484" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B484" s="4"/>
     </row>
-    <row r="485" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B485" s="4"/>
     </row>
-    <row r="486" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B486" s="4"/>
     </row>
-    <row r="487" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B487" s="4"/>
     </row>
-    <row r="488" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B488" s="4"/>
     </row>
-    <row r="489" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B489" s="4"/>
     </row>
-    <row r="490" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B490" s="4"/>
     </row>
-    <row r="491" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B491" s="4"/>
     </row>
-    <row r="492" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B492" s="4"/>
     </row>
-    <row r="493" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B493" s="4"/>
     </row>
-    <row r="494" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B494" s="4"/>
     </row>
-    <row r="495" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B495" s="4"/>
     </row>
-    <row r="496" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B496" s="4"/>
     </row>
-    <row r="497" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B497" s="4"/>
     </row>
-    <row r="498" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B498" s="4"/>
     </row>
-    <row r="499" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B499" s="4"/>
     </row>
-    <row r="500" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B500" s="4"/>
     </row>
-    <row r="501" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B501" s="4"/>
     </row>
-    <row r="502" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B502" s="4"/>
     </row>
-    <row r="503" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B503" s="4"/>
     </row>
-    <row r="504" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B504" s="4"/>
     </row>
-    <row r="505" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B505" s="4"/>
     </row>
-    <row r="506" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B506" s="4"/>
     </row>
-    <row r="507" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B507" s="4"/>
     </row>
-    <row r="508" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B508" s="4"/>
     </row>
-    <row r="509" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B509" s="4"/>
     </row>
-    <row r="510" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B510" s="4"/>
     </row>
-    <row r="511" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B511" s="4"/>
     </row>
-    <row r="512" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B512" s="4"/>
     </row>
-    <row r="513" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B513" s="4"/>
     </row>
-    <row r="514" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B514" s="4"/>
     </row>
-    <row r="515" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B515" s="4"/>
     </row>
-    <row r="516" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B516" s="4"/>
     </row>
-    <row r="517" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B517" s="4"/>
     </row>
-    <row r="518" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B518" s="4"/>
     </row>
-    <row r="519" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B519" s="4"/>
     </row>
-    <row r="520" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B520" s="4"/>
     </row>
-    <row r="521" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B521" s="4"/>
     </row>
-    <row r="522" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B522" s="4"/>
     </row>
-    <row r="523" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B523" s="4"/>
     </row>
-    <row r="524" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B524" s="4"/>
     </row>
-    <row r="525" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B525" s="4"/>
     </row>
-    <row r="526" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B526" s="4"/>
     </row>
-    <row r="527" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B527" s="4"/>
     </row>
-    <row r="528" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B528" s="4"/>
     </row>
-    <row r="529" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B529" s="4"/>
     </row>
-    <row r="530" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B530" s="4"/>
     </row>
-    <row r="531" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B531" s="4"/>
     </row>
-    <row r="532" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B532" s="4"/>
     </row>
-    <row r="533" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B533" s="4"/>
     </row>
-    <row r="534" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B534" s="4"/>
     </row>
-    <row r="535" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B535" s="4"/>
     </row>
-    <row r="536" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B536" s="4"/>
     </row>
-    <row r="537" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B537" s="4"/>
     </row>
-    <row r="538" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B538" s="4"/>
     </row>
-    <row r="539" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B539" s="4"/>
     </row>
-    <row r="540" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B540" s="4"/>
     </row>
-    <row r="541" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B541" s="4"/>
     </row>
-    <row r="542" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B542" s="4"/>
     </row>
-    <row r="543" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B543" s="4"/>
     </row>
-    <row r="544" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B544" s="4"/>
     </row>
-    <row r="545" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B545" s="4"/>
     </row>
-    <row r="546" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B546" s="4"/>
     </row>
-    <row r="547" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B547" s="4"/>
     </row>
-    <row r="548" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B548" s="4"/>
     </row>
-    <row r="549" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B549" s="4"/>
     </row>
-    <row r="550" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B550" s="4"/>
     </row>
-    <row r="551" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B551" s="4"/>
     </row>
-    <row r="552" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B552" s="4"/>
     </row>
-    <row r="553" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B553" s="4"/>
     </row>
-    <row r="554" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B554" s="4"/>
     </row>
-    <row r="555" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B555" s="4"/>
     </row>
-    <row r="556" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B556" s="4"/>
     </row>
-    <row r="557" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B557" s="4"/>
     </row>
-    <row r="558" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B558" s="4"/>
     </row>
-    <row r="559" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B559" s="4"/>
     </row>
-    <row r="560" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B560" s="4"/>
     </row>
-    <row r="561" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B561" s="4"/>
     </row>
-    <row r="562" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B562" s="4"/>
     </row>
-    <row r="563" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B563" s="4"/>
     </row>
-    <row r="564" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B564" s="4"/>
     </row>
-    <row r="565" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B565" s="4"/>
     </row>
-    <row r="566" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B566" s="4"/>
     </row>
-    <row r="567" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B567" s="4"/>
     </row>
-    <row r="568" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B568" s="4"/>
     </row>
-    <row r="569" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B569" s="4"/>
     </row>
-    <row r="570" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B570" s="4"/>
     </row>
-    <row r="571" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B571" s="4"/>
     </row>
-    <row r="572" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B572" s="4"/>
     </row>
-    <row r="573" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B573" s="4"/>
     </row>
-    <row r="574" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B574" s="4"/>
     </row>
-    <row r="575" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B575" s="4"/>
     </row>
-    <row r="576" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B576" s="4"/>
     </row>
-    <row r="577" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B577" s="4"/>
     </row>
-    <row r="578" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B578" s="4"/>
     </row>
-    <row r="579" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B579" s="4"/>
     </row>
-    <row r="580" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B580" s="4"/>
     </row>
-    <row r="581" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B581" s="4"/>
     </row>
-    <row r="582" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B582" s="4"/>
     </row>
-    <row r="583" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B583" s="4"/>
     </row>
-    <row r="584" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B584" s="4"/>
     </row>
-    <row r="585" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B585" s="4"/>
     </row>
-    <row r="586" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B586" s="4"/>
     </row>
-    <row r="587" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B587" s="4"/>
     </row>
-    <row r="588" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B588" s="4"/>
     </row>
-    <row r="589" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B589" s="4"/>
     </row>
-    <row r="590" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B590" s="4"/>
     </row>
-    <row r="591" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B591" s="4"/>
     </row>
-    <row r="592" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B592" s="4"/>
     </row>
-    <row r="593" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B593" s="4"/>
     </row>
-    <row r="594" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B594" s="4"/>
     </row>
-    <row r="595" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B595" s="4"/>
     </row>
-    <row r="596" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B596" s="4"/>
     </row>
-    <row r="597" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B597" s="4"/>
     </row>
-    <row r="598" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B598" s="4"/>
     </row>
-    <row r="599" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B599" s="4"/>
     </row>
-    <row r="600" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B600" s="4"/>
     </row>
-    <row r="601" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B601" s="4"/>
     </row>
-    <row r="602" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B602" s="4"/>
     </row>
-    <row r="603" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B603" s="4"/>
     </row>
-    <row r="604" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B604" s="4"/>
     </row>
-    <row r="605" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B605" s="4"/>
     </row>
-    <row r="606" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B606" s="4"/>
     </row>
-    <row r="607" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B607" s="4"/>
     </row>
-    <row r="608" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B608" s="4"/>
     </row>
-    <row r="609" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B609" s="4"/>
     </row>
-    <row r="610" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B610" s="4"/>
     </row>
-    <row r="611" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B611" s="4"/>
     </row>
-    <row r="612" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B612" s="4"/>
     </row>
-    <row r="613" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B613" s="4"/>
     </row>
-    <row r="614" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B614" s="4"/>
     </row>
-    <row r="615" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B615" s="4"/>
     </row>
-    <row r="616" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B616" s="4"/>
     </row>
-    <row r="617" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B617" s="4"/>
     </row>
-    <row r="618" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B618" s="4"/>
     </row>
-    <row r="619" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B619" s="4"/>
     </row>
-    <row r="620" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B620" s="4"/>
     </row>
-    <row r="621" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B621" s="4"/>
     </row>
-    <row r="622" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B622" s="4"/>
     </row>
-    <row r="623" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B623" s="4"/>
     </row>
-    <row r="624" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B624" s="4"/>
     </row>
-    <row r="625" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B625" s="4"/>
     </row>
-    <row r="626" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B626" s="4"/>
     </row>
-    <row r="627" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B627" s="4"/>
     </row>
-    <row r="628" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B628" s="4"/>
     </row>
-    <row r="629" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B629" s="4"/>
     </row>
-    <row r="630" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B630" s="4"/>
     </row>
-    <row r="631" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B631" s="4"/>
     </row>
-    <row r="632" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B632" s="4"/>
     </row>
-    <row r="633" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B633" s="4"/>
     </row>
-    <row r="634" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B634" s="4"/>
     </row>
-    <row r="635" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B635" s="4"/>
     </row>
-    <row r="636" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B636" s="4"/>
     </row>
-    <row r="637" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B637" s="4"/>
     </row>
-    <row r="638" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B638" s="4"/>
     </row>
-    <row r="639" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B639" s="4"/>
     </row>
-    <row r="640" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B640" s="4"/>
     </row>
-    <row r="641" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B641" s="4"/>
     </row>
-    <row r="642" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B642" s="4"/>
     </row>
-    <row r="643" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B643" s="4"/>
     </row>
-    <row r="644" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B644" s="4"/>
     </row>
-    <row r="645" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B645" s="4"/>
     </row>
-    <row r="646" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B646" s="4"/>
     </row>
-    <row r="647" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B647" s="4"/>
     </row>
-    <row r="648" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B648" s="4"/>
     </row>
-    <row r="649" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B649" s="4"/>
     </row>
-    <row r="650" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B650" s="4"/>
     </row>
-    <row r="651" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B651" s="4"/>
     </row>
-    <row r="652" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B652" s="4"/>
     </row>
-    <row r="653" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B653" s="4"/>
     </row>
-    <row r="654" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B654" s="4"/>
     </row>
-    <row r="655" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B655" s="4"/>
     </row>
-    <row r="656" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B656" s="4"/>
     </row>
-    <row r="657" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B657" s="4"/>
     </row>
-    <row r="658" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B658" s="4"/>
     </row>
-    <row r="659" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B659" s="4"/>
     </row>
-    <row r="660" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B660" s="4"/>
     </row>
-    <row r="661" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B661" s="4"/>
     </row>
-    <row r="662" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B662" s="4"/>
     </row>
-    <row r="663" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B663" s="4"/>
     </row>
-    <row r="664" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B664" s="4"/>
     </row>
-    <row r="665" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B665" s="4"/>
     </row>
-    <row r="666" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B666" s="4"/>
     </row>
-    <row r="667" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B667" s="4"/>
     </row>
-    <row r="668" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B668" s="4"/>
     </row>
-    <row r="669" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B669" s="4"/>
     </row>
-    <row r="670" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B670" s="4"/>
     </row>
-    <row r="671" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B671" s="4"/>
     </row>
-    <row r="672" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B672" s="4"/>
     </row>
-    <row r="673" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B673" s="4"/>
     </row>
-    <row r="674" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B674" s="4"/>
     </row>
-    <row r="675" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B675" s="4"/>
     </row>
-    <row r="676" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B676" s="4"/>
     </row>
-    <row r="677" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B677" s="4"/>
     </row>
-    <row r="678" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B678" s="4"/>
     </row>
-    <row r="679" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B679" s="4"/>
     </row>
-    <row r="680" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B680" s="4"/>
     </row>
-    <row r="681" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B681" s="4"/>
     </row>
-    <row r="682" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B682" s="4"/>
     </row>
-    <row r="683" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B683" s="4"/>
     </row>
-    <row r="684" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B684" s="4"/>
     </row>
-    <row r="685" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B685" s="4"/>
     </row>
-    <row r="686" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B686" s="4"/>
     </row>
-    <row r="687" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B687" s="4"/>
     </row>
-    <row r="688" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B688" s="4"/>
     </row>
-    <row r="689" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B689" s="4"/>
     </row>
-    <row r="690" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B690" s="4"/>
     </row>
-    <row r="691" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B691" s="4"/>
     </row>
-    <row r="692" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B692" s="4"/>
     </row>
-    <row r="693" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B693" s="4"/>
     </row>
-    <row r="694" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B694" s="4"/>
     </row>
-    <row r="695" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B695" s="4"/>
     </row>
-    <row r="696" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B696" s="4"/>
     </row>
-    <row r="697" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B697" s="4"/>
     </row>
-    <row r="698" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B698" s="4"/>
     </row>
-    <row r="699" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B699" s="4"/>
     </row>
-    <row r="700" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B700" s="4"/>
     </row>
-    <row r="701" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B701" s="4"/>
     </row>
-    <row r="702" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B702" s="4"/>
     </row>
-    <row r="703" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B703" s="4"/>
     </row>
-    <row r="704" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B704" s="4"/>
     </row>
-    <row r="705" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B705" s="4"/>
     </row>
-    <row r="706" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B706" s="4"/>
     </row>
-    <row r="707" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B707" s="4"/>
     </row>
-    <row r="708" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B708" s="4"/>
     </row>
-    <row r="709" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B709" s="4"/>
     </row>
-    <row r="710" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B710" s="4"/>
     </row>
-    <row r="711" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B711" s="4"/>
     </row>
-    <row r="712" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B712" s="4"/>
     </row>
-    <row r="713" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B713" s="4"/>
     </row>
-    <row r="714" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B714" s="4"/>
     </row>
-    <row r="715" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B715" s="4"/>
     </row>
-    <row r="716" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B716" s="4"/>
     </row>
-    <row r="717" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B717" s="4"/>
     </row>
-    <row r="718" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B718" s="4"/>
     </row>
-    <row r="719" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B719" s="4"/>
     </row>
-    <row r="720" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B720" s="4"/>
     </row>
-    <row r="721" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B721" s="4"/>
     </row>
-    <row r="722" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B722" s="4"/>
     </row>
-    <row r="723" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B723" s="4"/>
     </row>
-    <row r="724" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B724" s="4"/>
     </row>
-    <row r="725" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B725" s="4"/>
     </row>
-    <row r="726" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B726" s="4"/>
     </row>
-    <row r="727" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B727" s="4"/>
     </row>
-    <row r="728" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B728" s="4"/>
     </row>
-    <row r="729" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B729" s="4"/>
     </row>
-    <row r="730" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B730" s="4"/>
     </row>
-    <row r="731" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B731" s="4"/>
     </row>
-    <row r="732" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B732" s="4"/>
     </row>
-    <row r="733" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B733" s="4"/>
     </row>
-    <row r="734" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B734" s="4"/>
     </row>
-    <row r="735" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B735" s="4"/>
     </row>
-    <row r="736" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B736" s="4"/>
     </row>
-    <row r="737" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B737" s="4"/>
     </row>
-    <row r="738" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B738" s="4"/>
     </row>
-    <row r="739" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B739" s="4"/>
     </row>
-    <row r="740" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B740" s="4"/>
     </row>
-    <row r="741" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B741" s="4"/>
     </row>
-    <row r="742" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B742" s="4"/>
     </row>
-    <row r="743" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B743" s="4"/>
     </row>
-    <row r="744" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B744" s="4"/>
     </row>
-    <row r="745" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B745" s="4"/>
     </row>
-    <row r="746" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B746" s="4"/>
     </row>
-    <row r="747" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B747" s="4"/>
     </row>
-    <row r="748" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B748" s="4"/>
     </row>
-    <row r="749" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B749" s="4"/>
     </row>
-    <row r="750" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B750" s="4"/>
     </row>
-    <row r="751" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B751" s="4"/>
     </row>
-    <row r="752" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B752" s="4"/>
     </row>
-    <row r="753" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B753" s="4"/>
     </row>
-    <row r="754" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B754" s="4"/>
     </row>
-    <row r="755" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B755" s="4"/>
     </row>
-    <row r="756" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B756" s="4"/>
     </row>
-    <row r="757" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B757" s="4"/>
     </row>
-    <row r="758" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B758" s="4"/>
     </row>
-    <row r="759" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B759" s="4"/>
     </row>
-    <row r="760" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B760" s="4"/>
     </row>
-    <row r="761" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B761" s="4"/>
     </row>
-    <row r="762" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B762" s="4"/>
     </row>
-    <row r="763" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B763" s="4"/>
     </row>
-    <row r="764" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B764" s="4"/>
     </row>
-    <row r="765" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B765" s="4"/>
     </row>
-    <row r="766" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B766" s="4"/>
     </row>
-    <row r="767" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B767" s="4"/>
     </row>
-    <row r="768" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B768" s="4"/>
     </row>
-    <row r="769" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B769" s="4"/>
     </row>
-    <row r="770" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B770" s="4"/>
     </row>
-    <row r="771" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B771" s="4"/>
     </row>
-    <row r="772" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B772" s="4"/>
     </row>
-    <row r="773" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B773" s="4"/>
     </row>
-    <row r="774" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B774" s="4"/>
     </row>
-    <row r="775" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B775" s="4"/>
     </row>
-    <row r="776" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B776" s="4"/>
     </row>
-    <row r="777" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B777" s="4"/>
     </row>
-    <row r="778" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B778" s="4"/>
     </row>
-    <row r="779" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B779" s="4"/>
     </row>
-    <row r="780" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B780" s="4"/>
     </row>
-    <row r="781" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B781" s="4"/>
     </row>
-    <row r="782" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B782" s="4"/>
     </row>
-    <row r="783" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B783" s="4"/>
     </row>
-    <row r="784" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B784" s="4"/>
     </row>
-    <row r="785" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B785" s="4"/>
     </row>
-    <row r="786" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B786" s="4"/>
     </row>
-    <row r="787" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B787" s="4"/>
     </row>
-    <row r="788" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B788" s="4"/>
     </row>
-    <row r="789" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B789" s="4"/>
     </row>
-    <row r="790" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B790" s="4"/>
     </row>
-    <row r="791" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B791" s="4"/>
     </row>
-    <row r="792" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B792" s="4"/>
     </row>
-    <row r="793" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B793" s="4"/>
     </row>
-    <row r="794" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B794" s="4"/>
     </row>
-    <row r="795" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B795" s="4"/>
     </row>
-    <row r="796" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B796" s="4"/>
     </row>
-    <row r="797" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B797" s="4"/>
     </row>
-    <row r="798" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B798" s="4"/>
     </row>
-    <row r="799" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B799" s="4"/>
     </row>
-    <row r="800" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B800" s="4"/>
     </row>
-    <row r="801" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B801" s="4"/>
     </row>
-    <row r="802" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B802" s="4"/>
     </row>
-    <row r="803" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B803" s="4"/>
     </row>
-    <row r="804" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B804" s="4"/>
     </row>
-    <row r="805" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B805" s="4"/>
     </row>
-    <row r="806" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B806" s="4"/>
     </row>
-    <row r="807" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B807" s="4"/>
     </row>
-    <row r="808" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B808" s="4"/>
     </row>
-    <row r="809" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B809" s="4"/>
     </row>
-    <row r="810" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B810" s="4"/>
     </row>
-    <row r="811" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B811" s="4"/>
     </row>
-    <row r="812" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B812" s="4"/>
     </row>
-    <row r="813" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B813" s="4"/>
     </row>
-    <row r="814" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B814" s="4"/>
     </row>
-    <row r="815" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B815" s="4"/>
     </row>
-    <row r="816" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B816" s="4"/>
     </row>
-    <row r="817" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B817" s="4"/>
     </row>
-    <row r="818" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B818" s="4"/>
     </row>
-    <row r="819" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B819" s="4"/>
     </row>
-    <row r="820" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B820" s="4"/>
     </row>
-    <row r="821" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B821" s="4"/>
     </row>
-    <row r="822" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B822" s="4"/>
     </row>
-    <row r="823" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B823" s="4"/>
     </row>
-    <row r="824" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B824" s="4"/>
     </row>
-    <row r="825" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B825" s="4"/>
     </row>
-    <row r="826" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B826" s="4"/>
     </row>
-    <row r="827" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B827" s="4"/>
     </row>
-    <row r="828" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B828" s="4"/>
     </row>
-    <row r="829" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B829" s="4"/>
     </row>
-    <row r="830" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B830" s="4"/>
     </row>
-    <row r="831" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B831" s="4"/>
     </row>
-    <row r="832" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B832" s="4"/>
     </row>
-    <row r="833" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B833" s="4"/>
     </row>
-    <row r="834" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B834" s="4"/>
     </row>
-    <row r="835" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B835" s="4"/>
     </row>
-    <row r="836" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B836" s="4"/>
     </row>
-    <row r="837" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B837" s="4"/>
     </row>
-    <row r="838" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B838" s="4"/>
     </row>
-    <row r="839" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B839" s="4"/>
     </row>
-    <row r="840" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B840" s="4"/>
     </row>
-    <row r="841" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B841" s="4"/>
     </row>
-    <row r="842" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B842" s="4"/>
     </row>
-    <row r="843" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B843" s="4"/>
     </row>
-    <row r="844" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B844" s="4"/>
     </row>
-    <row r="845" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B845" s="4"/>
     </row>
-    <row r="846" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B846" s="4"/>
     </row>
-    <row r="847" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B847" s="4"/>
     </row>
-    <row r="848" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B848" s="4"/>
     </row>
-    <row r="849" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B849" s="4"/>
     </row>
-    <row r="850" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B850" s="4"/>
     </row>
-    <row r="851" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B851" s="4"/>
     </row>
-    <row r="852" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B852" s="4"/>
     </row>
-    <row r="853" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B853" s="4"/>
     </row>
-    <row r="854" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B854" s="4"/>
     </row>
-    <row r="855" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B855" s="4"/>
     </row>
-    <row r="856" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B856" s="4"/>
     </row>
-    <row r="857" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B857" s="4"/>
     </row>
-    <row r="858" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B858" s="4"/>
     </row>
-    <row r="859" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B859" s="4"/>
     </row>
-    <row r="860" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B860" s="4"/>
     </row>
-    <row r="861" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B861" s="4"/>
     </row>
-    <row r="862" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B862" s="4"/>
     </row>
-    <row r="863" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B863" s="4"/>
     </row>
-    <row r="864" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B864" s="4"/>
     </row>
-    <row r="865" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B865" s="4"/>
     </row>
-    <row r="866" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B866" s="4"/>
     </row>
-    <row r="867" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B867" s="4"/>
     </row>
-    <row r="868" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B868" s="4"/>
     </row>
-    <row r="869" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B869" s="4"/>
     </row>
-    <row r="870" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B870" s="4"/>
     </row>
-    <row r="871" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B871" s="4"/>
     </row>
-    <row r="872" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B872" s="4"/>
     </row>
-    <row r="873" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B873" s="4"/>
     </row>
-    <row r="874" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B874" s="4"/>
     </row>
-    <row r="875" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B875" s="4"/>
     </row>
-    <row r="876" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B876" s="4"/>
     </row>
-    <row r="877" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B877" s="4"/>
     </row>
-    <row r="878" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B878" s="4"/>
     </row>
-    <row r="879" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B879" s="4"/>
     </row>
-    <row r="880" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B880" s="4"/>
     </row>
-    <row r="881" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B881" s="4"/>
     </row>
-    <row r="882" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B882" s="4"/>
     </row>
-    <row r="883" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B883" s="4"/>
     </row>
-    <row r="884" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B884" s="4"/>
     </row>
-    <row r="885" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B885" s="4"/>
     </row>
-    <row r="886" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B886" s="4"/>
     </row>
-    <row r="887" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B887" s="4"/>
     </row>
-    <row r="888" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B888" s="4"/>
     </row>
-    <row r="889" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B889" s="4"/>
     </row>
-    <row r="890" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B890" s="4"/>
     </row>
-    <row r="891" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B891" s="4"/>
     </row>
-    <row r="892" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B892" s="4"/>
     </row>
-    <row r="893" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B893" s="4"/>
     </row>
-    <row r="894" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B894" s="4"/>
     </row>
-    <row r="895" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B895" s="4"/>
     </row>
-    <row r="896" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B896" s="4"/>
     </row>
-    <row r="897" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B897" s="4"/>
     </row>
-    <row r="898" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B898" s="4"/>
     </row>
-    <row r="899" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B899" s="4"/>
     </row>
-    <row r="900" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B900" s="4"/>
     </row>
-    <row r="901" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B901" s="4"/>
     </row>
-    <row r="902" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B902" s="4"/>
     </row>
-    <row r="903" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B903" s="4"/>
     </row>
-    <row r="904" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B904" s="4"/>
     </row>
-    <row r="905" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B905" s="4"/>
     </row>
-    <row r="906" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B906" s="4"/>
     </row>
-    <row r="907" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B907" s="4"/>
     </row>
-    <row r="908" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B908" s="4"/>
     </row>
-    <row r="909" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B909" s="4"/>
     </row>
-    <row r="910" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B910" s="4"/>
     </row>
-    <row r="911" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B911" s="4"/>
     </row>
-    <row r="912" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B912" s="4"/>
     </row>
-    <row r="913" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B913" s="4"/>
     </row>
-    <row r="914" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B914" s="4"/>
     </row>
-    <row r="915" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B915" s="4"/>
     </row>
-    <row r="916" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B916" s="4"/>
     </row>
-    <row r="917" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B917" s="4"/>
     </row>
-    <row r="918" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B918" s="4"/>
     </row>
-    <row r="919" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B919" s="4"/>
     </row>
-    <row r="920" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B920" s="4"/>
     </row>
-    <row r="921" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B921" s="4"/>
     </row>
-    <row r="922" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B922" s="4"/>
     </row>
-    <row r="923" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B923" s="4"/>
     </row>
-    <row r="924" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B924" s="4"/>
     </row>
-    <row r="925" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B925" s="4"/>
     </row>
-    <row r="926" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B926" s="4"/>
     </row>
-    <row r="927" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B927" s="4"/>
     </row>
-    <row r="928" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B928" s="4"/>
     </row>
-    <row r="929" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B929" s="4"/>
     </row>
-    <row r="930" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B930" s="4"/>
     </row>
-    <row r="931" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B931" s="4"/>
     </row>
-    <row r="932" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B932" s="4"/>
     </row>
-    <row r="933" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B933" s="4"/>
     </row>
-    <row r="934" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B934" s="4"/>
     </row>
-    <row r="935" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B935" s="4"/>
     </row>
-    <row r="936" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B936" s="4"/>
     </row>
-    <row r="937" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B937" s="4"/>
     </row>
-    <row r="938" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B938" s="4"/>
     </row>
-    <row r="939" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B939" s="4"/>
     </row>
-    <row r="940" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B940" s="4"/>
     </row>
-    <row r="941" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B941" s="4"/>
     </row>
-    <row r="942" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B942" s="4"/>
     </row>
-    <row r="943" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B943" s="4"/>
     </row>
-    <row r="944" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B944" s="4"/>
     </row>
-    <row r="945" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B945" s="4"/>
     </row>
-    <row r="946" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B946" s="4"/>
     </row>
-    <row r="947" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B947" s="4"/>
     </row>
-    <row r="948" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B948" s="4"/>
     </row>
-    <row r="949" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B949" s="4"/>
     </row>
-    <row r="950" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B950" s="4"/>
     </row>
-    <row r="951" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B951" s="4"/>
     </row>
-    <row r="952" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B952" s="4"/>
     </row>
-    <row r="953" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B953" s="4"/>
     </row>
-    <row r="954" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B954" s="4"/>
     </row>
-    <row r="955" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B955" s="4"/>
     </row>
-    <row r="956" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B956" s="4"/>
     </row>
-    <row r="957" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B957" s="4"/>
     </row>
-    <row r="958" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B958" s="4"/>
     </row>
-    <row r="959" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B959" s="4"/>
     </row>
-    <row r="960" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B960" s="4"/>
     </row>
-    <row r="961" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B961" s="4"/>
     </row>
-    <row r="962" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B962" s="4"/>
     </row>
-    <row r="963" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B963" s="4"/>
     </row>
-    <row r="964" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B964" s="4"/>
     </row>
-    <row r="965" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B965" s="4"/>
     </row>
-    <row r="966" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B966" s="4"/>
     </row>
-    <row r="967" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B967" s="4"/>
     </row>
-    <row r="968" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B968" s="4"/>
     </row>
-    <row r="969" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B969" s="4"/>
     </row>
-    <row r="970" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B970" s="4"/>
     </row>
-    <row r="971" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B971" s="4"/>
     </row>
-    <row r="972" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B972" s="4"/>
     </row>
-    <row r="973" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B973" s="4"/>
     </row>
-    <row r="974" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B974" s="4"/>
     </row>
-    <row r="975" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B975" s="4"/>
     </row>
-    <row r="976" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B976" s="4"/>
     </row>
-    <row r="977" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B977" s="4"/>
     </row>
-    <row r="978" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B978" s="4"/>
     </row>
-    <row r="979" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="979" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B979" s="4"/>
     </row>
-    <row r="980" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="980" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B980" s="4"/>
     </row>
-    <row r="981" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="981" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B981" s="4"/>
     </row>
-    <row r="982" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="982" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B982" s="4"/>
     </row>
-    <row r="983" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="983" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B983" s="4"/>
     </row>
-    <row r="984" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="984" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B984" s="4"/>
     </row>
-    <row r="985" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="985" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B985" s="4"/>
     </row>
-    <row r="986" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="986" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B986" s="4"/>
     </row>
-    <row r="987" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="987" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B987" s="4"/>
     </row>
-    <row r="988" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="988" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B988" s="4"/>
     </row>
-    <row r="989" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="989" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B989" s="4"/>
     </row>
-    <row r="990" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="990" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B990" s="4"/>
     </row>
-    <row r="991" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="991" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B991" s="4"/>
     </row>
-    <row r="992" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="992" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B992" s="4"/>
     </row>
-    <row r="993" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="993" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B993" s="4"/>
     </row>
-    <row r="994" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="994" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B994" s="4"/>
     </row>
-    <row r="995" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="995" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B995" s="4"/>
     </row>
-    <row r="996" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="996" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B996" s="4"/>
     </row>
-    <row r="997" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="997" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B997" s="4"/>
     </row>
-    <row r="998" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="998" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B998" s="4"/>
     </row>
-    <row r="999" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="999" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B999" s="4"/>
     </row>
-    <row r="1000" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="1000" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B1000" s="4"/>
     </row>
-    <row r="1001" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="1001" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B1001" s="4"/>
     </row>
   </sheetData>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besitzer\Dropbox\Studium\Semester 6\FRONT\FRONT_Projekt\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAA2072-EE14-43C3-BC00-F5EF107ECB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B578B5-B204-4091-873B-726D2C92E1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="263">
   <si>
     <t>17. Oktober 2022</t>
   </si>
@@ -814,6 +814,15 @@
   </si>
   <si>
     <t>8.4 Präsentation</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>5.4.4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        5.4.4 Storage</t>
   </si>
 </sst>
 </file>
@@ -1204,6 +1213,9 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1212,9 +1224,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1444,11 +1453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6C6EE-1E63-4549-8E9D-BCD03E80ADE4}">
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD40"/>
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1566,31 +1575,31 @@
         <v>109</v>
       </c>
       <c r="C6" s="30">
-        <f>SUM(C10:C69)</f>
-        <v>117.5</v>
+        <f>SUM(C10:C70)</f>
+        <v>118.5</v>
       </c>
       <c r="D6" s="27">
-        <f>SUM(D10:D69)</f>
-        <v>117</v>
+        <f>SUM(D10:D70)</f>
+        <v>118</v>
       </c>
       <c r="E6" s="28">
-        <f>SUM(E10:E69)</f>
-        <v>118</v>
+        <f>SUM(E10:E70)</f>
+        <v>119</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="31" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="30">
-        <f>SUM(H10:H74)</f>
-        <v>70.25</v>
+        <f>SUM(H10:H75)</f>
+        <v>71.5</v>
       </c>
       <c r="I6" s="27">
-        <f>SUM(I10:I74)</f>
+        <f>SUM(I10:I75)</f>
         <v>66</v>
       </c>
       <c r="J6" s="28">
-        <f>SUM(J10:J74)</f>
+        <f>SUM(J10:J75)</f>
         <v>62.5</v>
       </c>
       <c r="K6" s="22"/>
@@ -1603,15 +1612,15 @@
       </c>
       <c r="C7" s="30">
         <f t="shared" ref="C7:E7" si="0">C5-C6</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="31" t="s">
@@ -1619,7 +1628,7 @@
       </c>
       <c r="H7" s="30">
         <f t="shared" ref="H7:J7" si="1">H5-H6</f>
-        <v>49.75</v>
+        <v>48.5</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" si="1"/>
@@ -2599,7 +2608,7 @@
         <v>201</v>
       </c>
       <c r="H40" s="22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
@@ -2806,7 +2815,9 @@
       <c r="G48" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="H48" s="22"/>
+      <c r="H48" s="22">
+        <v>0.5</v>
+      </c>
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
@@ -2928,25 +2939,27 @@
     </row>
     <row r="53" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A53" s="22" t="s">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="C53" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H53" s="22"/>
+        <v>261</v>
+      </c>
+      <c r="H53" s="22">
+        <v>0.5</v>
+      </c>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
@@ -2954,23 +2967,23 @@
     </row>
     <row r="54" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A54" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C54" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
@@ -2980,66 +2993,64 @@
     </row>
     <row r="55" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A55" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C55" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
-      <c r="J55" s="22">
-        <v>0.5</v>
-      </c>
+      <c r="J55" s="22"/>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
     </row>
     <row r="56" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A56" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C56" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H56" s="22">
-        <v>0.25</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H56" s="22"/>
       <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
+      <c r="J56" s="22">
+        <v>0.5</v>
+      </c>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
     </row>
     <row r="57" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A57" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C57" s="22">
         <v>2</v>
@@ -3052,61 +3063,63 @@
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="H57" s="22"/>
+        <v>162</v>
+      </c>
+      <c r="H57" s="22">
+        <v>0.25</v>
+      </c>
       <c r="I57" s="22"/>
-      <c r="J57" s="22">
-        <v>0.25</v>
-      </c>
+      <c r="J57" s="22"/>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
     </row>
     <row r="58" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A58" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C58" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
+      <c r="J58" s="22">
+        <v>0.25</v>
+      </c>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
     </row>
     <row r="59" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A59" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C59" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -3116,42 +3129,39 @@
     </row>
     <row r="60" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A60" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C60" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D60" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E60" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
     </row>
     <row r="61" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C61" s="22">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D61" s="22">
         <v>0</v>
@@ -3161,17 +3171,11 @@
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H61" s="22">
-        <v>0</v>
-      </c>
-      <c r="I61" s="22">
-        <v>0</v>
-      </c>
-      <c r="J61" s="22">
-        <v>0.25</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
       <c r="T61" s="22"/>
@@ -3180,13 +3184,13 @@
     </row>
     <row r="62" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A62" s="22" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C62" s="22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D62" s="22">
         <v>0</v>
@@ -3196,11 +3200,17 @@
       </c>
       <c r="F62" s="22"/>
       <c r="G62" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+        <v>172</v>
+      </c>
+      <c r="H62" s="22">
+        <v>0</v>
+      </c>
+      <c r="I62" s="22">
+        <v>0</v>
+      </c>
+      <c r="J62" s="22">
+        <v>0.25</v>
+      </c>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
       <c r="T62" s="22"/>
@@ -3209,10 +3219,10 @@
     </row>
     <row r="63" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A63" s="22" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C63" s="22">
         <v>0</v>
@@ -3221,11 +3231,11 @@
         <v>0</v>
       </c>
       <c r="E63" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
@@ -3238,23 +3248,23 @@
     </row>
     <row r="64" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A64" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C64" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="22"/>
       <c r="G64" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
@@ -3265,12 +3275,12 @@
       <c r="U64" s="22"/>
       <c r="V64" s="22"/>
     </row>
-    <row r="65" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C65" s="22">
         <v>1</v>
@@ -3283,50 +3293,49 @@
       </c>
       <c r="F65" s="22"/>
       <c r="G65" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
-    </row>
-    <row r="66" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="T65" s="22"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+    </row>
+    <row r="66" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A66" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B66" s="47" t="s">
-        <v>250</v>
+        <v>178</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="C66" s="22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D66" s="22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E66" s="22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F66" s="22"/>
-      <c r="G66" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="H66" s="22">
-        <v>2.5</v>
-      </c>
+      <c r="G66" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" s="22"/>
       <c r="I66" s="22"/>
-      <c r="J66" s="22">
-        <v>1.5</v>
-      </c>
+      <c r="J66" s="22"/>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A67" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
+      </c>
+      <c r="B67" s="47" t="s">
+        <v>250</v>
       </c>
       <c r="C67" s="22">
         <v>1.5</v>
@@ -3338,40 +3347,38 @@
         <v>1.5</v>
       </c>
       <c r="F67" s="22"/>
-      <c r="G67" s="22" t="s">
-        <v>251</v>
+      <c r="G67" s="47" t="s">
+        <v>250</v>
       </c>
       <c r="H67" s="22">
-        <v>2</v>
-      </c>
-      <c r="I67" s="22">
-        <v>0.5</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="I67" s="22"/>
       <c r="J67" s="22">
         <v>1.5</v>
       </c>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A68" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C68" s="22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D68" s="22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E68" s="22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H68" s="22">
         <v>2</v>
@@ -3380,17 +3387,17 @@
         <v>0.5</v>
       </c>
       <c r="J68" s="22">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A69" s="22" t="s">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C69" s="22">
         <v>2</v>
@@ -3403,29 +3410,47 @@
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
+        <v>252</v>
+      </c>
+      <c r="H69" s="22">
+        <v>2</v>
+      </c>
+      <c r="I69" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="J69" s="22">
+        <v>0.5</v>
+      </c>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
+    <row r="70" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" s="22">
+        <v>2</v>
+      </c>
+      <c r="D70" s="22">
+        <v>2</v>
+      </c>
+      <c r="E70" s="22">
+        <v>2</v>
+      </c>
       <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
+      <c r="G70" s="22" t="s">
+        <v>253</v>
+      </c>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -3439,10 +3464,8 @@
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="22" t="s">
-        <v>242</v>
-      </c>
+    <row r="72" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
@@ -3455,8 +3478,10 @@
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
     </row>
-    <row r="73" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="22"/>
+    <row r="73" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="22" t="s">
+        <v>242</v>
+      </c>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
@@ -3469,57 +3494,55 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="B74" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" s="57">
-        <v>7</v>
-      </c>
-      <c r="D74" s="57">
-        <v>7</v>
-      </c>
-      <c r="E74" s="57">
-        <v>7</v>
-      </c>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="H74" s="57">
-        <v>5.5</v>
-      </c>
-      <c r="I74" s="57">
-        <v>3.25</v>
-      </c>
-      <c r="J74" s="57">
-        <v>3.5</v>
-      </c>
+    <row r="74" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
     </row>
-    <row r="75" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="22"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
+    <row r="75" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="57">
+        <v>7</v>
+      </c>
+      <c r="D75" s="57">
+        <v>7</v>
+      </c>
+      <c r="E75" s="57">
+        <v>7</v>
+      </c>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="H75" s="57">
+        <v>5.5</v>
+      </c>
+      <c r="I75" s="57">
+        <v>3.25</v>
+      </c>
+      <c r="J75" s="57">
+        <v>3.5</v>
+      </c>
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="B76" s="22"/>
+    <row r="76" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="22"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
@@ -3531,8 +3554,10 @@
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
     </row>
-    <row r="77" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="22"/>
+    <row r="77" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="57" t="s">
+        <v>244</v>
+      </c>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
@@ -3542,8 +3567,10 @@
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
-    </row>
-    <row r="78" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+    </row>
+    <row r="78" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -3554,6 +3581,18 @@
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
+    </row>
+    <row r="79" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3566,13 +3605,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:FJ999"/>
+  <dimension ref="A1:FJ1000"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="BV17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="BV38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C80" sqref="C80:C84"/>
+      <selection pane="bottomRight" activeCell="BZ63" sqref="BZ63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3588,141 +3627,141 @@
   <sheetData>
     <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1" s="1"/>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="64" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="64" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="64" t="s">
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="64" t="s">
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="62" t="s">
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="62" t="s">
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="63"/>
-      <c r="BA1" s="63"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="63"/>
-      <c r="BG1" s="63"/>
-      <c r="BH1" s="63"/>
-      <c r="BI1" s="62" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="BJ1" s="63"/>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="63"/>
-      <c r="BM1" s="63"/>
-      <c r="BN1" s="63"/>
-      <c r="BO1" s="63"/>
-      <c r="BP1" s="62" t="s">
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="BQ1" s="63"/>
-      <c r="BR1" s="63"/>
-      <c r="BS1" s="63"/>
-      <c r="BT1" s="63"/>
-      <c r="BU1" s="63"/>
-      <c r="BV1" s="63"/>
-      <c r="BW1" s="62" t="s">
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="BX1" s="63"/>
-      <c r="BY1" s="63"/>
-      <c r="BZ1" s="63"/>
-      <c r="CA1" s="63"/>
-      <c r="CB1" s="63"/>
-      <c r="CC1" s="63"/>
-      <c r="CD1" s="62" t="s">
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="CE1" s="63"/>
-      <c r="CF1" s="63"/>
-      <c r="CG1" s="63"/>
-      <c r="CH1" s="63"/>
-      <c r="CI1" s="63"/>
-      <c r="CJ1" s="63"/>
-      <c r="CK1" s="62" t="s">
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="CL1" s="63"/>
-      <c r="CM1" s="63"/>
-      <c r="CN1" s="63"/>
-      <c r="CO1" s="63"/>
-      <c r="CP1" s="63"/>
-      <c r="CQ1" s="63"/>
-      <c r="CR1" s="62" t="s">
+      <c r="CL1" s="64"/>
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="CS1" s="63"/>
-      <c r="CT1" s="63"/>
-      <c r="CU1" s="63"/>
-      <c r="CV1" s="63"/>
-      <c r="CW1" s="63"/>
-      <c r="CX1" s="63"/>
-      <c r="CY1" s="62" t="s">
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64"/>
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64"/>
+      <c r="CY1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="CZ1" s="63"/>
-      <c r="DA1" s="63"/>
-      <c r="DB1" s="63"/>
-      <c r="DC1" s="63"/>
-      <c r="DD1" s="63"/>
-      <c r="DE1" s="63"/>
+      <c r="CZ1" s="64"/>
+      <c r="DA1" s="64"/>
+      <c r="DB1" s="64"/>
+      <c r="DC1" s="64"/>
+      <c r="DD1" s="64"/>
+      <c r="DE1" s="64"/>
       <c r="DF1" s="2"/>
       <c r="DG1" s="2"/>
       <c r="DH1" s="2"/>
@@ -5197,7 +5236,7 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="62" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -5206,21 +5245,21 @@
     </row>
     <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
-      <c r="B47" s="66"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
-      <c r="B48" s="66"/>
+      <c r="B48" s="62"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
-      <c r="B49" s="66"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5230,223 +5269,226 @@
     </row>
     <row r="50" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
-      <c r="B50" s="66"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
-      <c r="B51" s="66"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B52" s="66"/>
+      <c r="B52" s="62"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B53" s="66"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
-      <c r="B54" s="66"/>
+      <c r="B54" s="62"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
-      <c r="B55" s="66"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
-      <c r="B56" s="66"/>
+      <c r="B56" s="62"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
-      <c r="B57" s="66"/>
+      <c r="B57" s="62"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="66"/>
+      <c r="B58" s="62"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B59" s="66"/>
+      <c r="B59" s="62"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B60" s="66"/>
+      <c r="B60" s="62"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B61" s="66"/>
+      <c r="B61" s="62"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B62" s="66"/>
+      <c r="B62" s="62"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B63" s="66"/>
+      <c r="B63" s="62"/>
       <c r="C63" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B64" s="62"/>
+      <c r="C64" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B64" s="66"/>
-      <c r="C64" s="15"/>
-    </row>
     <row r="65" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B65" s="66"/>
-      <c r="C65" s="15" t="s">
+      <c r="B65" s="62"/>
+      <c r="C65" s="15"/>
+    </row>
+    <row r="66" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B66" s="62"/>
+      <c r="C66" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B66" s="66"/>
-      <c r="C66" s="15" t="s">
+    <row r="67" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B67" s="62"/>
+      <c r="C67" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B67" s="66"/>
-      <c r="C67" s="15" t="s">
+    <row r="68" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B68" s="62"/>
+      <c r="C68" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B68" s="66"/>
-      <c r="C68" s="15" t="s">
+    <row r="69" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B69" s="62"/>
+      <c r="C69" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B69" s="66"/>
-      <c r="C69" s="16" t="s">
+    <row r="70" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B70" s="62"/>
+      <c r="C70" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B70" s="66"/>
-      <c r="C70" s="15" t="s">
+    <row r="71" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B71" s="62"/>
+      <c r="C71" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B71" s="66"/>
-      <c r="C71" s="15" t="s">
+    <row r="72" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B72" s="62"/>
+      <c r="C72" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B72" s="66"/>
-      <c r="C72" s="15" t="s">
+    <row r="73" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B73" s="62"/>
+      <c r="C73" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B73" s="66"/>
-      <c r="C73" s="15" t="s">
+    <row r="74" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B74" s="62"/>
+      <c r="C74" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B74" s="66"/>
-      <c r="C74" s="16"/>
-    </row>
     <row r="75" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B75" s="66"/>
-      <c r="C75" s="15" t="s">
+      <c r="B75" s="62"/>
+      <c r="C75" s="16"/>
+    </row>
+    <row r="76" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B76" s="62"/>
+      <c r="C76" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B76" s="66"/>
-      <c r="C76" s="15" t="s">
+    <row r="77" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B77" s="62"/>
+      <c r="C77" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B77" s="66"/>
-      <c r="C77" s="15" t="s">
+    <row r="78" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B78" s="62"/>
+      <c r="C78" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="2:53" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B78" s="66"/>
-      <c r="C78" s="15" t="s">
+    <row r="79" spans="2:53" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B79" s="62"/>
+      <c r="C79" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="BA78" s="6"/>
-    </row>
-    <row r="79" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B79" s="66"/>
-      <c r="C79" s="16"/>
+      <c r="BA79" s="6"/>
     </row>
     <row r="80" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B80" s="66"/>
-      <c r="C80" s="15" t="s">
+      <c r="B80" s="62"/>
+      <c r="C80" s="16"/>
+    </row>
+    <row r="81" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B81" s="62"/>
+      <c r="C81" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B81" s="66"/>
-      <c r="C81" s="59" t="s">
+    <row r="82" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B82" s="62"/>
+      <c r="C82" s="59" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B82" s="66"/>
-      <c r="C82" s="59" t="s">
+    <row r="83" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B83" s="62"/>
+      <c r="C83" s="59" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B83" s="66"/>
-      <c r="C83" s="59" t="s">
+    <row r="84" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B84" s="62"/>
+      <c r="C84" s="59" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B84" s="66"/>
-      <c r="C84" s="15" t="s">
+    <row r="85" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B85" s="62"/>
+      <c r="C85" s="15" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="85" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="C85" s="1"/>
-      <c r="BW85" s="46" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="86" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C86" s="1"/>
+      <c r="BW86" s="46" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="87" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C87" s="1"/>
@@ -8187,10 +8229,14 @@
     <row r="999" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C999" s="1"/>
     </row>
+    <row r="1000" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="C1000" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B46:B78"/>
+    <mergeCell ref="CD1:CJ1"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B46:B79"/>
     <mergeCell ref="CK1:CQ1"/>
     <mergeCell ref="CR1:CX1"/>
     <mergeCell ref="CY1:DE1"/>
@@ -8205,7 +8251,6 @@
     <mergeCell ref="BI1:BO1"/>
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
-    <mergeCell ref="CD1:CJ1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -8221,13 +8266,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:FB43"/>
+  <dimension ref="A1:FB44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="AR5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="AL5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AV36" sqref="AV36"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8240,194 +8285,194 @@
   <sheetData>
     <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1" s="1"/>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="62" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="62" t="s">
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="62" t="s">
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="62" t="s">
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="62" t="s">
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="63"/>
-      <c r="BA1" s="63"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="63"/>
-      <c r="BG1" s="63"/>
-      <c r="BH1" s="63"/>
-      <c r="BI1" s="62" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="BJ1" s="63"/>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="63"/>
-      <c r="BM1" s="63"/>
-      <c r="BN1" s="63"/>
-      <c r="BO1" s="63"/>
-      <c r="BP1" s="62" t="s">
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="BQ1" s="63"/>
-      <c r="BR1" s="63"/>
-      <c r="BS1" s="63"/>
-      <c r="BT1" s="63"/>
-      <c r="BU1" s="63"/>
-      <c r="BV1" s="63"/>
-      <c r="BW1" s="62" t="s">
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="BX1" s="63"/>
-      <c r="BY1" s="63"/>
-      <c r="BZ1" s="63"/>
-      <c r="CA1" s="63"/>
-      <c r="CB1" s="63"/>
-      <c r="CC1" s="63"/>
-      <c r="CD1" s="62" t="s">
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="CE1" s="63"/>
-      <c r="CF1" s="63"/>
-      <c r="CG1" s="63"/>
-      <c r="CH1" s="63"/>
-      <c r="CI1" s="63"/>
-      <c r="CJ1" s="63"/>
-      <c r="CK1" s="62" t="s">
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="CL1" s="63"/>
-      <c r="CM1" s="63"/>
-      <c r="CN1" s="63"/>
-      <c r="CO1" s="63"/>
-      <c r="CP1" s="63"/>
-      <c r="CQ1" s="63"/>
-      <c r="CR1" s="62" t="s">
+      <c r="CL1" s="64"/>
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="CS1" s="63"/>
-      <c r="CT1" s="63"/>
-      <c r="CU1" s="63"/>
-      <c r="CV1" s="63"/>
-      <c r="CW1" s="63"/>
-      <c r="CX1" s="63"/>
-      <c r="CY1" s="62" t="s">
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64"/>
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64"/>
+      <c r="CY1" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="CZ1" s="63"/>
-      <c r="DA1" s="63"/>
-      <c r="DB1" s="63"/>
-      <c r="DC1" s="63"/>
-      <c r="DD1" s="63"/>
-      <c r="DE1" s="63"/>
-      <c r="DF1" s="62" t="s">
+      <c r="CZ1" s="64"/>
+      <c r="DA1" s="64"/>
+      <c r="DB1" s="64"/>
+      <c r="DC1" s="64"/>
+      <c r="DD1" s="64"/>
+      <c r="DE1" s="64"/>
+      <c r="DF1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="DG1" s="63"/>
-      <c r="DH1" s="63"/>
-      <c r="DI1" s="63"/>
-      <c r="DJ1" s="63"/>
-      <c r="DK1" s="63"/>
-      <c r="DL1" s="63"/>
-      <c r="DM1" s="62" t="s">
+      <c r="DG1" s="64"/>
+      <c r="DH1" s="64"/>
+      <c r="DI1" s="64"/>
+      <c r="DJ1" s="64"/>
+      <c r="DK1" s="64"/>
+      <c r="DL1" s="64"/>
+      <c r="DM1" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="DN1" s="63"/>
-      <c r="DO1" s="63"/>
-      <c r="DP1" s="63"/>
-      <c r="DQ1" s="63"/>
-      <c r="DR1" s="63"/>
-      <c r="DS1" s="63"/>
-      <c r="DT1" s="62"/>
-      <c r="DU1" s="63"/>
-      <c r="DV1" s="63"/>
-      <c r="DW1" s="63"/>
-      <c r="DX1" s="63"/>
-      <c r="DY1" s="63"/>
-      <c r="DZ1" s="63"/>
-      <c r="EA1" s="62"/>
-      <c r="EB1" s="63"/>
-      <c r="EC1" s="63"/>
-      <c r="ED1" s="63"/>
-      <c r="EE1" s="63"/>
-      <c r="EF1" s="63"/>
-      <c r="EG1" s="63"/>
-      <c r="EH1" s="62"/>
-      <c r="EI1" s="63"/>
-      <c r="EJ1" s="63"/>
-      <c r="EK1" s="63"/>
-      <c r="EL1" s="63"/>
-      <c r="EM1" s="63"/>
-      <c r="EN1" s="63"/>
-      <c r="EO1" s="62"/>
-      <c r="EP1" s="63"/>
-      <c r="EQ1" s="63"/>
-      <c r="ER1" s="63"/>
-      <c r="ES1" s="63"/>
-      <c r="ET1" s="63"/>
-      <c r="EU1" s="63"/>
-      <c r="EV1" s="62"/>
-      <c r="EW1" s="63"/>
-      <c r="EX1" s="63"/>
-      <c r="EY1" s="63"/>
-      <c r="EZ1" s="63"/>
-      <c r="FA1" s="63"/>
-      <c r="FB1" s="63"/>
+      <c r="DN1" s="64"/>
+      <c r="DO1" s="64"/>
+      <c r="DP1" s="64"/>
+      <c r="DQ1" s="64"/>
+      <c r="DR1" s="64"/>
+      <c r="DS1" s="64"/>
+      <c r="DT1" s="63"/>
+      <c r="DU1" s="64"/>
+      <c r="DV1" s="64"/>
+      <c r="DW1" s="64"/>
+      <c r="DX1" s="64"/>
+      <c r="DY1" s="64"/>
+      <c r="DZ1" s="64"/>
+      <c r="EA1" s="63"/>
+      <c r="EB1" s="64"/>
+      <c r="EC1" s="64"/>
+      <c r="ED1" s="64"/>
+      <c r="EE1" s="64"/>
+      <c r="EF1" s="64"/>
+      <c r="EG1" s="64"/>
+      <c r="EH1" s="63"/>
+      <c r="EI1" s="64"/>
+      <c r="EJ1" s="64"/>
+      <c r="EK1" s="64"/>
+      <c r="EL1" s="64"/>
+      <c r="EM1" s="64"/>
+      <c r="EN1" s="64"/>
+      <c r="EO1" s="63"/>
+      <c r="EP1" s="64"/>
+      <c r="EQ1" s="64"/>
+      <c r="ER1" s="64"/>
+      <c r="ES1" s="64"/>
+      <c r="ET1" s="64"/>
+      <c r="EU1" s="64"/>
+      <c r="EV1" s="63"/>
+      <c r="EW1" s="64"/>
+      <c r="EX1" s="64"/>
+      <c r="EY1" s="64"/>
+      <c r="EZ1" s="64"/>
+      <c r="FA1" s="64"/>
+      <c r="FB1" s="64"/>
     </row>
     <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1"/>
@@ -9363,22 +9408,8 @@
     </row>
     <row r="21" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
+        <v>262</v>
+      </c>
       <c r="S21" s="39"/>
       <c r="T21" s="39"/>
       <c r="U21" s="39"/>
@@ -9475,120 +9506,204 @@
       <c r="DH21" s="39"/>
     </row>
     <row r="22" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="39"/>
+      <c r="AW22" s="39"/>
+      <c r="AX22" s="39"/>
+      <c r="AY22" s="39"/>
+      <c r="AZ22" s="39"/>
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="39"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="39"/>
+      <c r="BF22" s="39"/>
+      <c r="BG22" s="39"/>
+      <c r="BH22" s="39"/>
+      <c r="BI22" s="39"/>
+      <c r="BJ22" s="39"/>
+      <c r="BK22" s="39"/>
+      <c r="BL22" s="39"/>
+      <c r="BM22" s="39"/>
+      <c r="BN22" s="39"/>
+      <c r="BO22" s="39"/>
+      <c r="BP22" s="39"/>
+      <c r="BQ22" s="39"/>
+      <c r="BR22" s="39"/>
+      <c r="BS22" s="39"/>
+      <c r="BT22" s="39"/>
+      <c r="BU22" s="39"/>
+      <c r="BV22" s="39"/>
+      <c r="BW22" s="39"/>
+      <c r="BX22" s="39"/>
+      <c r="BY22" s="39"/>
+      <c r="BZ22" s="39"/>
+      <c r="CA22" s="39"/>
+      <c r="CB22" s="39"/>
+      <c r="CC22" s="39"/>
+      <c r="CD22" s="39"/>
+      <c r="CE22" s="39"/>
+      <c r="CF22" s="39"/>
+      <c r="CG22" s="39"/>
+      <c r="CH22" s="39"/>
+      <c r="CI22" s="39"/>
+      <c r="CJ22" s="39"/>
+      <c r="CK22" s="39"/>
+      <c r="CL22" s="39"/>
+      <c r="CM22" s="39"/>
+      <c r="CN22" s="39"/>
+      <c r="CO22" s="39"/>
+      <c r="CP22" s="39"/>
+      <c r="CQ22" s="39"/>
+      <c r="CR22" s="39"/>
+      <c r="CS22" s="39"/>
+      <c r="CT22" s="39"/>
+      <c r="CU22" s="39"/>
+      <c r="CV22" s="39"/>
+      <c r="CW22" s="39"/>
+      <c r="CX22" s="39"/>
+      <c r="CY22" s="39"/>
+      <c r="CZ22" s="39"/>
+      <c r="DA22" s="39"/>
+      <c r="DB22" s="39"/>
+      <c r="DC22" s="39"/>
+      <c r="DD22" s="39"/>
+      <c r="DE22" s="39"/>
+      <c r="DF22" s="39"/>
+      <c r="DG22" s="39"/>
+      <c r="DH22" s="39"/>
+    </row>
+    <row r="23" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="DG22" s="39"/>
-      <c r="DH22" s="52" t="s">
+      <c r="DG23" s="39"/>
+      <c r="DH23" s="52" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="1"/>
-    </row>
     <row r="24" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="39"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="39"/>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="39"/>
-      <c r="AS24" s="39"/>
-      <c r="AT24" s="39"/>
-      <c r="AU24" s="39"/>
-      <c r="AV24" s="39"/>
-      <c r="AW24" s="39"/>
-      <c r="AX24" s="39"/>
-      <c r="AY24" s="39"/>
-      <c r="AZ24" s="39"/>
-      <c r="BA24" s="39"/>
-      <c r="BB24" s="39"/>
-      <c r="BC24" s="39"/>
-      <c r="BD24" s="39"/>
-      <c r="BE24" s="39"/>
-      <c r="BF24" s="39"/>
-      <c r="BG24" s="39"/>
-      <c r="BH24" s="39"/>
-      <c r="BI24" s="39"/>
-      <c r="BJ24" s="39"/>
-      <c r="BK24" s="39"/>
-      <c r="BL24" s="39"/>
-      <c r="BM24" s="39"/>
-      <c r="BN24" s="39"/>
-      <c r="BO24" s="39"/>
-      <c r="BP24" s="39"/>
-      <c r="BQ24" s="39"/>
-      <c r="BR24" s="39"/>
-      <c r="BS24" s="39"/>
-      <c r="BT24" s="39"/>
-      <c r="BU24" s="39"/>
-      <c r="BV24" s="39"/>
-      <c r="BW24" s="39"/>
-      <c r="BX24" s="39"/>
-      <c r="BY24" s="39"/>
-      <c r="BZ24" s="39"/>
-      <c r="CA24" s="39"/>
-      <c r="CB24" s="39"/>
-      <c r="CC24" s="39"/>
-      <c r="CD24" s="39"/>
-      <c r="CE24" s="39"/>
-      <c r="CF24" s="39"/>
-      <c r="CG24" s="39"/>
-      <c r="CH24" s="39"/>
-      <c r="CI24" s="39"/>
-      <c r="CJ24" s="39"/>
-      <c r="CK24" s="39"/>
-      <c r="CL24" s="39"/>
-      <c r="CM24" s="39"/>
-      <c r="CN24" s="39"/>
-      <c r="CO24" s="39"/>
-      <c r="CP24" s="39"/>
-      <c r="CQ24" s="39"/>
-      <c r="CR24" s="39"/>
-      <c r="CS24" s="39"/>
-      <c r="CT24" s="39"/>
-      <c r="CU24" s="39"/>
-      <c r="CV24" s="39"/>
-      <c r="CW24" s="39"/>
-      <c r="CX24" s="39"/>
-      <c r="CY24" s="39"/>
-      <c r="CZ24" s="39"/>
-      <c r="DA24" s="39"/>
-      <c r="DB24" s="39"/>
-      <c r="DC24" s="39"/>
-      <c r="DD24" s="39"/>
-      <c r="DE24" s="39"/>
-      <c r="DF24" s="39"/>
-      <c r="DG24" s="39"/>
-      <c r="DH24" s="39"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
+      <c r="BA25" s="39"/>
+      <c r="BB25" s="39"/>
+      <c r="BC25" s="39"/>
+      <c r="BD25" s="39"/>
+      <c r="BE25" s="39"/>
+      <c r="BF25" s="39"/>
+      <c r="BG25" s="39"/>
+      <c r="BH25" s="39"/>
+      <c r="BI25" s="39"/>
+      <c r="BJ25" s="39"/>
+      <c r="BK25" s="39"/>
+      <c r="BL25" s="39"/>
+      <c r="BM25" s="39"/>
+      <c r="BN25" s="39"/>
+      <c r="BO25" s="39"/>
+      <c r="BP25" s="39"/>
+      <c r="BQ25" s="39"/>
+      <c r="BR25" s="39"/>
+      <c r="BS25" s="39"/>
+      <c r="BT25" s="39"/>
+      <c r="BU25" s="39"/>
+      <c r="BV25" s="39"/>
+      <c r="BW25" s="39"/>
+      <c r="BX25" s="39"/>
+      <c r="BY25" s="39"/>
+      <c r="BZ25" s="39"/>
+      <c r="CA25" s="39"/>
+      <c r="CB25" s="39"/>
+      <c r="CC25" s="39"/>
+      <c r="CD25" s="39"/>
+      <c r="CE25" s="39"/>
+      <c r="CF25" s="39"/>
+      <c r="CG25" s="39"/>
+      <c r="CH25" s="39"/>
+      <c r="CI25" s="39"/>
+      <c r="CJ25" s="39"/>
       <c r="CK25" s="39"/>
       <c r="CL25" s="39"/>
       <c r="CM25" s="39"/>
@@ -9616,7 +9731,7 @@
     </row>
     <row r="26" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CK26" s="39"/>
       <c r="CL26" s="39"/>
@@ -9645,78 +9760,8 @@
     </row>
     <row r="27" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="39"/>
-      <c r="AX27" s="39"/>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="39"/>
-      <c r="BA27" s="39"/>
-      <c r="BB27" s="39"/>
-      <c r="BC27" s="39"/>
-      <c r="BD27" s="39"/>
-      <c r="BE27" s="39"/>
-      <c r="BF27" s="39"/>
-      <c r="BG27" s="39"/>
-      <c r="BH27" s="39"/>
-      <c r="BI27" s="39"/>
-      <c r="BJ27" s="39"/>
-      <c r="BK27" s="39"/>
-      <c r="BL27" s="39"/>
-      <c r="BM27" s="39"/>
-      <c r="BN27" s="39"/>
-      <c r="BO27" s="39"/>
-      <c r="BP27" s="39"/>
-      <c r="BQ27" s="39"/>
-      <c r="BR27" s="39"/>
-      <c r="BS27" s="39"/>
-      <c r="BT27" s="39"/>
-      <c r="BU27" s="39"/>
-      <c r="BV27" s="39"/>
-      <c r="BW27" s="39"/>
-      <c r="BX27" s="39"/>
-      <c r="BY27" s="39"/>
-      <c r="BZ27" s="39"/>
-      <c r="CA27" s="39"/>
-      <c r="CB27" s="39"/>
-      <c r="CC27" s="39"/>
-      <c r="CD27" s="39"/>
-      <c r="CE27" s="39"/>
-      <c r="CF27" s="39"/>
-      <c r="CG27" s="39"/>
-      <c r="CH27" s="39"/>
-      <c r="CI27" s="39"/>
-      <c r="CJ27" s="39"/>
+        <v>63</v>
+      </c>
       <c r="CK27" s="39"/>
       <c r="CL27" s="39"/>
       <c r="CM27" s="39"/>
@@ -9743,9 +9788,79 @@
       <c r="DH27" s="39"/>
     </row>
     <row r="28" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="39"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="39"/>
+      <c r="AU28" s="39"/>
+      <c r="AV28" s="39"/>
+      <c r="AW28" s="39"/>
+      <c r="AX28" s="39"/>
+      <c r="AY28" s="39"/>
+      <c r="AZ28" s="39"/>
+      <c r="BA28" s="39"/>
+      <c r="BB28" s="39"/>
+      <c r="BC28" s="39"/>
+      <c r="BD28" s="39"/>
+      <c r="BE28" s="39"/>
+      <c r="BF28" s="39"/>
+      <c r="BG28" s="39"/>
+      <c r="BH28" s="39"/>
+      <c r="BI28" s="39"/>
+      <c r="BJ28" s="39"/>
+      <c r="BK28" s="39"/>
+      <c r="BL28" s="39"/>
+      <c r="BM28" s="39"/>
+      <c r="BN28" s="39"/>
+      <c r="BO28" s="39"/>
+      <c r="BP28" s="39"/>
+      <c r="BQ28" s="39"/>
+      <c r="BR28" s="39"/>
+      <c r="BS28" s="39"/>
+      <c r="BT28" s="39"/>
+      <c r="BU28" s="39"/>
+      <c r="BV28" s="39"/>
+      <c r="BW28" s="39"/>
+      <c r="BX28" s="39"/>
+      <c r="BY28" s="39"/>
+      <c r="BZ28" s="39"/>
+      <c r="CA28" s="39"/>
+      <c r="CB28" s="39"/>
+      <c r="CC28" s="39"/>
+      <c r="CD28" s="39"/>
+      <c r="CE28" s="39"/>
+      <c r="CF28" s="39"/>
+      <c r="CG28" s="39"/>
+      <c r="CH28" s="39"/>
+      <c r="CI28" s="39"/>
+      <c r="CJ28" s="39"/>
       <c r="CK28" s="39"/>
       <c r="CL28" s="39"/>
       <c r="CM28" s="39"/>
@@ -9772,79 +9887,9 @@
       <c r="DH28" s="39"/>
     </row>
     <row r="29" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="39"/>
-      <c r="AE29" s="39"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="39"/>
-      <c r="AH29" s="39"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="39"/>
-      <c r="AL29" s="39"/>
-      <c r="AM29" s="39"/>
-      <c r="AN29" s="39"/>
-      <c r="AO29" s="39"/>
-      <c r="AP29" s="39"/>
-      <c r="AQ29" s="39"/>
-      <c r="AR29" s="39"/>
-      <c r="AS29" s="39"/>
-      <c r="AT29" s="39"/>
-      <c r="AU29" s="39"/>
-      <c r="AV29" s="39"/>
-      <c r="AW29" s="39"/>
-      <c r="AX29" s="39"/>
-      <c r="AY29" s="39"/>
-      <c r="AZ29" s="39"/>
-      <c r="BA29" s="39"/>
-      <c r="BB29" s="39"/>
-      <c r="BC29" s="39"/>
-      <c r="BD29" s="39"/>
-      <c r="BE29" s="39"/>
-      <c r="BF29" s="39"/>
-      <c r="BG29" s="39"/>
-      <c r="BH29" s="39"/>
-      <c r="BI29" s="39"/>
-      <c r="BJ29" s="39"/>
-      <c r="BK29" s="39"/>
-      <c r="BL29" s="39"/>
-      <c r="BM29" s="39"/>
-      <c r="BN29" s="39"/>
-      <c r="BO29" s="39"/>
-      <c r="BP29" s="39"/>
-      <c r="BQ29" s="39"/>
-      <c r="BR29" s="39"/>
-      <c r="BS29" s="39"/>
-      <c r="BT29" s="39"/>
-      <c r="BU29" s="39"/>
-      <c r="BV29" s="39"/>
-      <c r="BW29" s="39"/>
-      <c r="BX29" s="39"/>
-      <c r="BY29" s="39"/>
-      <c r="BZ29" s="39"/>
-      <c r="CA29" s="39"/>
-      <c r="CB29" s="39"/>
-      <c r="CC29" s="39"/>
-      <c r="CD29" s="39"/>
-      <c r="CE29" s="39"/>
-      <c r="CF29" s="39"/>
-      <c r="CG29" s="39"/>
-      <c r="CH29" s="39"/>
-      <c r="CI29" s="39"/>
-      <c r="CJ29" s="39"/>
+      <c r="C29" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="CK29" s="39"/>
       <c r="CL29" s="39"/>
       <c r="CM29" s="39"/>
@@ -9872,55 +9917,132 @@
     </row>
     <row r="30" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="39"/>
+      <c r="AM30" s="39"/>
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="39"/>
+      <c r="AP30" s="39"/>
+      <c r="AQ30" s="39"/>
+      <c r="AR30" s="39"/>
+      <c r="AS30" s="39"/>
+      <c r="AT30" s="39"/>
+      <c r="AU30" s="39"/>
+      <c r="AV30" s="39"/>
+      <c r="AW30" s="39"/>
+      <c r="AX30" s="39"/>
+      <c r="AY30" s="39"/>
+      <c r="AZ30" s="39"/>
+      <c r="BA30" s="39"/>
+      <c r="BB30" s="39"/>
+      <c r="BC30" s="39"/>
+      <c r="BD30" s="39"/>
+      <c r="BE30" s="39"/>
+      <c r="BF30" s="39"/>
+      <c r="BG30" s="39"/>
+      <c r="BH30" s="39"/>
+      <c r="BI30" s="39"/>
+      <c r="BJ30" s="39"/>
+      <c r="BK30" s="39"/>
+      <c r="BL30" s="39"/>
+      <c r="BM30" s="39"/>
+      <c r="BN30" s="39"/>
+      <c r="BO30" s="39"/>
+      <c r="BP30" s="39"/>
+      <c r="BQ30" s="39"/>
+      <c r="BR30" s="39"/>
+      <c r="BS30" s="39"/>
+      <c r="BT30" s="39"/>
+      <c r="BU30" s="39"/>
+      <c r="BV30" s="39"/>
+      <c r="BW30" s="39"/>
+      <c r="BX30" s="39"/>
+      <c r="BY30" s="39"/>
+      <c r="BZ30" s="39"/>
+      <c r="CA30" s="39"/>
+      <c r="CB30" s="39"/>
+      <c r="CC30" s="39"/>
+      <c r="CD30" s="39"/>
+      <c r="CE30" s="39"/>
+      <c r="CF30" s="39"/>
+      <c r="CG30" s="39"/>
+      <c r="CH30" s="39"/>
+      <c r="CI30" s="39"/>
+      <c r="CJ30" s="39"/>
+      <c r="CK30" s="39"/>
+      <c r="CL30" s="39"/>
+      <c r="CM30" s="39"/>
+      <c r="CN30" s="39"/>
+      <c r="CO30" s="39"/>
+      <c r="CP30" s="39"/>
+      <c r="CQ30" s="39"/>
+      <c r="CR30" s="39"/>
+      <c r="CS30" s="39"/>
+      <c r="CT30" s="39"/>
+      <c r="CU30" s="39"/>
+      <c r="CV30" s="39"/>
+      <c r="CW30" s="39"/>
+      <c r="CX30" s="39"/>
+      <c r="CY30" s="39"/>
+      <c r="CZ30" s="39"/>
+      <c r="DA30" s="39"/>
+      <c r="DB30" s="39"/>
+      <c r="DC30" s="39"/>
+      <c r="DD30" s="39"/>
+      <c r="DE30" s="39"/>
+      <c r="DF30" s="39"/>
       <c r="DG30" s="39"/>
       <c r="DH30" s="39"/>
     </row>
     <row r="31" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="DG31" s="39"/>
       <c r="DH31" s="39"/>
     </row>
     <row r="32" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="DG32" s="39"/>
+      <c r="DH32" s="39"/>
+    </row>
+    <row r="33" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="DG32" s="39"/>
-      <c r="DH32" s="52" t="s">
+      <c r="DG33" s="39"/>
+      <c r="DH33" s="52" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="5"/>
-    </row>
     <row r="34" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="34" t="s">
         <v>69</v>
-      </c>
-      <c r="CY34" s="39"/>
-      <c r="CZ34" s="39"/>
-      <c r="DA34" s="39"/>
-      <c r="DB34" s="39"/>
-      <c r="DC34" s="39"/>
-      <c r="DD34" s="39"/>
-      <c r="DE34" s="39"/>
-      <c r="DF34" s="39"/>
-      <c r="DG34" s="39"/>
-      <c r="DH34" s="39"/>
-      <c r="DI34" s="39"/>
-      <c r="DJ34" s="39"/>
-      <c r="DK34" s="39"/>
-      <c r="DL34" s="39"/>
-      <c r="DM34" s="58" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="CY35" s="39"/>
       <c r="CZ35" s="39"/>
@@ -9932,10 +10054,17 @@
       <c r="DF35" s="39"/>
       <c r="DG35" s="39"/>
       <c r="DH35" s="39"/>
+      <c r="DI35" s="39"/>
+      <c r="DJ35" s="39"/>
+      <c r="DK35" s="39"/>
+      <c r="DL35" s="39"/>
+      <c r="DM35" s="58" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="36" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="CY36" s="39"/>
       <c r="CZ36" s="39"/>
@@ -9950,67 +10079,42 @@
     </row>
     <row r="37" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="CY37" s="39"/>
+      <c r="CZ37" s="39"/>
+      <c r="DA37" s="39"/>
+      <c r="DB37" s="39"/>
       <c r="DC37" s="39"/>
       <c r="DD37" s="39"/>
       <c r="DE37" s="39"/>
       <c r="DF37" s="39"/>
       <c r="DG37" s="39"/>
       <c r="DH37" s="39"/>
-      <c r="DI37" s="39"/>
-      <c r="DJ37" s="39"/>
-      <c r="DK37" s="39"/>
-      <c r="DL37" s="39"/>
-    </row>
-    <row r="39" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="5" t="s">
+    </row>
+    <row r="38" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DC38" s="39"/>
+      <c r="DD38" s="39"/>
+      <c r="DE38" s="39"/>
+      <c r="DF38" s="39"/>
+      <c r="DG38" s="39"/>
+      <c r="DH38" s="39"/>
+      <c r="DI38" s="39"/>
+      <c r="DJ38" s="39"/>
+      <c r="DK38" s="39"/>
+      <c r="DL38" s="39"/>
+    </row>
+    <row r="40" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="40" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="60" t="s">
-        <v>255</v>
-      </c>
-      <c r="BB40" s="39"/>
-      <c r="BC40" s="39"/>
-      <c r="BD40" s="39"/>
-      <c r="BE40" s="39"/>
-      <c r="BF40" s="39"/>
-      <c r="BG40" s="39"/>
-      <c r="BH40" s="39"/>
-      <c r="BI40" s="39"/>
-      <c r="BJ40" s="39"/>
-      <c r="BK40" s="39"/>
-      <c r="BL40" s="39"/>
-      <c r="BM40" s="39"/>
-      <c r="BN40" s="39"/>
-      <c r="BO40" s="39"/>
-      <c r="BP40" s="39"/>
-      <c r="BQ40" s="39"/>
-      <c r="BR40" s="39"/>
-      <c r="BS40" s="39"/>
-      <c r="BT40" s="39"/>
-      <c r="BU40" s="39"/>
-      <c r="BV40" s="39"/>
-      <c r="BW40" s="39"/>
-      <c r="BX40" s="39"/>
-      <c r="BY40" s="39"/>
-      <c r="BZ40" s="39"/>
-      <c r="CA40" s="39"/>
-      <c r="CB40" s="39"/>
-      <c r="CC40" s="39"/>
-      <c r="CD40" s="39"/>
-      <c r="CE40" s="39"/>
-      <c r="CF40" s="39"/>
-      <c r="CG40" s="39"/>
-      <c r="CH40" s="39"/>
-      <c r="CI40" s="39"/>
-      <c r="CJ40" s="39"/>
     </row>
     <row r="41" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB41" s="39"/>
       <c r="BC41" s="39"/>
@@ -10050,7 +10154,7 @@
     </row>
     <row r="42" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BB42" s="39"/>
       <c r="BC42" s="39"/>
@@ -10089,8 +10193,8 @@
       <c r="CJ42" s="39"/>
     </row>
     <row r="43" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="61" t="s">
-        <v>259</v>
+      <c r="C43" s="60" t="s">
+        <v>257</v>
       </c>
       <c r="BB43" s="39"/>
       <c r="BC43" s="39"/>
@@ -10127,19 +10231,52 @@
       <c r="CH43" s="39"/>
       <c r="CI43" s="39"/>
       <c r="CJ43" s="39"/>
-      <c r="CK43" s="52" t="s">
+    </row>
+    <row r="44" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB44" s="39"/>
+      <c r="BC44" s="39"/>
+      <c r="BD44" s="39"/>
+      <c r="BE44" s="39"/>
+      <c r="BF44" s="39"/>
+      <c r="BG44" s="39"/>
+      <c r="BH44" s="39"/>
+      <c r="BI44" s="39"/>
+      <c r="BJ44" s="39"/>
+      <c r="BK44" s="39"/>
+      <c r="BL44" s="39"/>
+      <c r="BM44" s="39"/>
+      <c r="BN44" s="39"/>
+      <c r="BO44" s="39"/>
+      <c r="BP44" s="39"/>
+      <c r="BQ44" s="39"/>
+      <c r="BR44" s="39"/>
+      <c r="BS44" s="39"/>
+      <c r="BT44" s="39"/>
+      <c r="BU44" s="39"/>
+      <c r="BV44" s="39"/>
+      <c r="BW44" s="39"/>
+      <c r="BX44" s="39"/>
+      <c r="BY44" s="39"/>
+      <c r="BZ44" s="39"/>
+      <c r="CA44" s="39"/>
+      <c r="CB44" s="39"/>
+      <c r="CC44" s="39"/>
+      <c r="CD44" s="39"/>
+      <c r="CE44" s="39"/>
+      <c r="CF44" s="39"/>
+      <c r="CG44" s="39"/>
+      <c r="CH44" s="39"/>
+      <c r="CI44" s="39"/>
+      <c r="CJ44" s="39"/>
+      <c r="CK44" s="52" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="EH1:EN1"/>
     <mergeCell ref="EO1:EU1"/>
     <mergeCell ref="EV1:FB1"/>
@@ -10155,6 +10292,13 @@
     <mergeCell ref="DM1:DS1"/>
     <mergeCell ref="DT1:DZ1"/>
     <mergeCell ref="EA1:EG1"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besitzer\Dropbox\Studium\Semester 6\FRONT\FRONT_Projekt\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B578B5-B204-4091-873B-726D2C92E1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4130689B-A481-4BDD-9ABC-848B23AD8956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1213,13 +1213,13 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1456,8 +1456,8 @@
   <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="H6" s="30">
         <f>SUM(H10:H75)</f>
-        <v>71.5</v>
+        <v>72.25</v>
       </c>
       <c r="I6" s="27">
         <f>SUM(I10:I75)</f>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="H7" s="30">
         <f t="shared" ref="H7:J7" si="1">H5-H6</f>
-        <v>48.5</v>
+        <v>47.75</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" si="1"/>
@@ -2608,7 +2608,7 @@
         <v>201</v>
       </c>
       <c r="H40" s="22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
@@ -2663,7 +2663,9 @@
       <c r="G42" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="H42" s="22"/>
+      <c r="H42" s="22">
+        <v>0.25</v>
+      </c>
       <c r="I42" s="22"/>
       <c r="J42" s="22">
         <v>0.5</v>
@@ -3672,96 +3674,96 @@
       <c r="AK1" s="66"/>
       <c r="AL1" s="66"/>
       <c r="AM1" s="66"/>
-      <c r="AN1" s="63" t="s">
+      <c r="AN1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="63" t="s">
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="63" t="s">
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="63" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="63" t="s">
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63"/>
+      <c r="BO1" s="63"/>
+      <c r="BP1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="63" t="s">
+      <c r="BQ1" s="63"/>
+      <c r="BR1" s="63"/>
+      <c r="BS1" s="63"/>
+      <c r="BT1" s="63"/>
+      <c r="BU1" s="63"/>
+      <c r="BV1" s="63"/>
+      <c r="BW1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="64"/>
-      <c r="BZ1" s="64"/>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64"/>
-      <c r="CD1" s="63" t="s">
+      <c r="BX1" s="63"/>
+      <c r="BY1" s="63"/>
+      <c r="BZ1" s="63"/>
+      <c r="CA1" s="63"/>
+      <c r="CB1" s="63"/>
+      <c r="CC1" s="63"/>
+      <c r="CD1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64"/>
-      <c r="CG1" s="64"/>
-      <c r="CH1" s="64"/>
-      <c r="CI1" s="64"/>
-      <c r="CJ1" s="64"/>
-      <c r="CK1" s="63" t="s">
+      <c r="CE1" s="63"/>
+      <c r="CF1" s="63"/>
+      <c r="CG1" s="63"/>
+      <c r="CH1" s="63"/>
+      <c r="CI1" s="63"/>
+      <c r="CJ1" s="63"/>
+      <c r="CK1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="CL1" s="64"/>
-      <c r="CM1" s="64"/>
-      <c r="CN1" s="64"/>
-      <c r="CO1" s="64"/>
-      <c r="CP1" s="64"/>
-      <c r="CQ1" s="64"/>
-      <c r="CR1" s="63" t="s">
+      <c r="CL1" s="63"/>
+      <c r="CM1" s="63"/>
+      <c r="CN1" s="63"/>
+      <c r="CO1" s="63"/>
+      <c r="CP1" s="63"/>
+      <c r="CQ1" s="63"/>
+      <c r="CR1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="CS1" s="64"/>
-      <c r="CT1" s="64"/>
-      <c r="CU1" s="64"/>
-      <c r="CV1" s="64"/>
-      <c r="CW1" s="64"/>
-      <c r="CX1" s="64"/>
-      <c r="CY1" s="63" t="s">
+      <c r="CS1" s="63"/>
+      <c r="CT1" s="63"/>
+      <c r="CU1" s="63"/>
+      <c r="CV1" s="63"/>
+      <c r="CW1" s="63"/>
+      <c r="CX1" s="63"/>
+      <c r="CY1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="CZ1" s="64"/>
-      <c r="DA1" s="64"/>
-      <c r="DB1" s="64"/>
-      <c r="DC1" s="64"/>
-      <c r="DD1" s="64"/>
-      <c r="DE1" s="64"/>
+      <c r="CZ1" s="63"/>
+      <c r="DA1" s="63"/>
+      <c r="DB1" s="63"/>
+      <c r="DC1" s="63"/>
+      <c r="DD1" s="63"/>
+      <c r="DE1" s="63"/>
       <c r="DF1" s="2"/>
       <c r="DG1" s="2"/>
       <c r="DH1" s="2"/>
@@ -5236,7 +5238,7 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="64" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -5245,21 +5247,21 @@
     </row>
     <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
-      <c r="B47" s="62"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
-      <c r="B48" s="62"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
-      <c r="B49" s="62"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5269,217 +5271,217 @@
     </row>
     <row r="50" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
-      <c r="B50" s="62"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
-      <c r="B51" s="62"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B52" s="62"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B53" s="62"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
-      <c r="B54" s="62"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
-      <c r="B55" s="62"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
-      <c r="B56" s="62"/>
+      <c r="B56" s="64"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
-      <c r="B57" s="62"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="62"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B59" s="62"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B60" s="62"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B61" s="62"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B62" s="62"/>
+      <c r="B62" s="64"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B63" s="62"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="15" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B64" s="62"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="65" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B65" s="62"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="15"/>
     </row>
     <row r="66" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B66" s="62"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B67" s="62"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="68" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B68" s="62"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="69" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B69" s="62"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="70" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B70" s="62"/>
+      <c r="B70" s="64"/>
       <c r="C70" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="71" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B71" s="62"/>
+      <c r="B71" s="64"/>
       <c r="C71" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="72" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B72" s="62"/>
+      <c r="B72" s="64"/>
       <c r="C72" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="73" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B73" s="62"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B74" s="62"/>
+      <c r="B74" s="64"/>
       <c r="C74" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="75" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B75" s="62"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="16"/>
     </row>
     <row r="76" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B76" s="62"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="77" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B77" s="62"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="78" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B78" s="62"/>
+      <c r="B78" s="64"/>
       <c r="C78" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="79" spans="2:53" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B79" s="62"/>
+      <c r="B79" s="64"/>
       <c r="C79" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA79" s="6"/>
     </row>
     <row r="80" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B80" s="62"/>
+      <c r="B80" s="64"/>
       <c r="C80" s="16"/>
     </row>
     <row r="81" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B81" s="62"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="15" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="82" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B82" s="62"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="59" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="83" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B83" s="62"/>
+      <c r="B83" s="64"/>
       <c r="C83" s="59" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="84" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B84" s="62"/>
+      <c r="B84" s="64"/>
       <c r="C84" s="59" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="85" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B85" s="62"/>
+      <c r="B85" s="64"/>
       <c r="C85" s="15" t="s">
         <v>258</v>
       </c>
@@ -8234,11 +8236,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="CD1:CJ1"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B46:B79"/>
-    <mergeCell ref="CK1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
     <mergeCell ref="CY1:DE1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
@@ -8251,6 +8248,11 @@
     <mergeCell ref="BI1:BO1"/>
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
+    <mergeCell ref="CD1:CJ1"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B46:B79"/>
+    <mergeCell ref="CK1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -8285,194 +8287,194 @@
   <sheetData>
     <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1" s="1"/>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="63" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="63" t="s">
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="63" t="s">
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="63" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="63" t="s">
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="63" t="s">
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="63" t="s">
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="63" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="63" t="s">
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63"/>
+      <c r="BO1" s="63"/>
+      <c r="BP1" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="63" t="s">
+      <c r="BQ1" s="63"/>
+      <c r="BR1" s="63"/>
+      <c r="BS1" s="63"/>
+      <c r="BT1" s="63"/>
+      <c r="BU1" s="63"/>
+      <c r="BV1" s="63"/>
+      <c r="BW1" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="64"/>
-      <c r="BZ1" s="64"/>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64"/>
-      <c r="CD1" s="63" t="s">
+      <c r="BX1" s="63"/>
+      <c r="BY1" s="63"/>
+      <c r="BZ1" s="63"/>
+      <c r="CA1" s="63"/>
+      <c r="CB1" s="63"/>
+      <c r="CC1" s="63"/>
+      <c r="CD1" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64"/>
-      <c r="CG1" s="64"/>
-      <c r="CH1" s="64"/>
-      <c r="CI1" s="64"/>
-      <c r="CJ1" s="64"/>
-      <c r="CK1" s="63" t="s">
+      <c r="CE1" s="63"/>
+      <c r="CF1" s="63"/>
+      <c r="CG1" s="63"/>
+      <c r="CH1" s="63"/>
+      <c r="CI1" s="63"/>
+      <c r="CJ1" s="63"/>
+      <c r="CK1" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="CL1" s="64"/>
-      <c r="CM1" s="64"/>
-      <c r="CN1" s="64"/>
-      <c r="CO1" s="64"/>
-      <c r="CP1" s="64"/>
-      <c r="CQ1" s="64"/>
-      <c r="CR1" s="63" t="s">
+      <c r="CL1" s="63"/>
+      <c r="CM1" s="63"/>
+      <c r="CN1" s="63"/>
+      <c r="CO1" s="63"/>
+      <c r="CP1" s="63"/>
+      <c r="CQ1" s="63"/>
+      <c r="CR1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="CS1" s="64"/>
-      <c r="CT1" s="64"/>
-      <c r="CU1" s="64"/>
-      <c r="CV1" s="64"/>
-      <c r="CW1" s="64"/>
-      <c r="CX1" s="64"/>
-      <c r="CY1" s="63" t="s">
+      <c r="CS1" s="63"/>
+      <c r="CT1" s="63"/>
+      <c r="CU1" s="63"/>
+      <c r="CV1" s="63"/>
+      <c r="CW1" s="63"/>
+      <c r="CX1" s="63"/>
+      <c r="CY1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="CZ1" s="64"/>
-      <c r="DA1" s="64"/>
-      <c r="DB1" s="64"/>
-      <c r="DC1" s="64"/>
-      <c r="DD1" s="64"/>
-      <c r="DE1" s="64"/>
-      <c r="DF1" s="63" t="s">
+      <c r="CZ1" s="63"/>
+      <c r="DA1" s="63"/>
+      <c r="DB1" s="63"/>
+      <c r="DC1" s="63"/>
+      <c r="DD1" s="63"/>
+      <c r="DE1" s="63"/>
+      <c r="DF1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="DG1" s="64"/>
-      <c r="DH1" s="64"/>
-      <c r="DI1" s="64"/>
-      <c r="DJ1" s="64"/>
-      <c r="DK1" s="64"/>
-      <c r="DL1" s="64"/>
-      <c r="DM1" s="63" t="s">
+      <c r="DG1" s="63"/>
+      <c r="DH1" s="63"/>
+      <c r="DI1" s="63"/>
+      <c r="DJ1" s="63"/>
+      <c r="DK1" s="63"/>
+      <c r="DL1" s="63"/>
+      <c r="DM1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="DN1" s="64"/>
-      <c r="DO1" s="64"/>
-      <c r="DP1" s="64"/>
-      <c r="DQ1" s="64"/>
-      <c r="DR1" s="64"/>
-      <c r="DS1" s="64"/>
-      <c r="DT1" s="63"/>
-      <c r="DU1" s="64"/>
-      <c r="DV1" s="64"/>
-      <c r="DW1" s="64"/>
-      <c r="DX1" s="64"/>
-      <c r="DY1" s="64"/>
-      <c r="DZ1" s="64"/>
-      <c r="EA1" s="63"/>
-      <c r="EB1" s="64"/>
-      <c r="EC1" s="64"/>
-      <c r="ED1" s="64"/>
-      <c r="EE1" s="64"/>
-      <c r="EF1" s="64"/>
-      <c r="EG1" s="64"/>
-      <c r="EH1" s="63"/>
-      <c r="EI1" s="64"/>
-      <c r="EJ1" s="64"/>
-      <c r="EK1" s="64"/>
-      <c r="EL1" s="64"/>
-      <c r="EM1" s="64"/>
-      <c r="EN1" s="64"/>
-      <c r="EO1" s="63"/>
-      <c r="EP1" s="64"/>
-      <c r="EQ1" s="64"/>
-      <c r="ER1" s="64"/>
-      <c r="ES1" s="64"/>
-      <c r="ET1" s="64"/>
-      <c r="EU1" s="64"/>
-      <c r="EV1" s="63"/>
-      <c r="EW1" s="64"/>
-      <c r="EX1" s="64"/>
-      <c r="EY1" s="64"/>
-      <c r="EZ1" s="64"/>
-      <c r="FA1" s="64"/>
-      <c r="FB1" s="64"/>
+      <c r="DN1" s="63"/>
+      <c r="DO1" s="63"/>
+      <c r="DP1" s="63"/>
+      <c r="DQ1" s="63"/>
+      <c r="DR1" s="63"/>
+      <c r="DS1" s="63"/>
+      <c r="DT1" s="62"/>
+      <c r="DU1" s="63"/>
+      <c r="DV1" s="63"/>
+      <c r="DW1" s="63"/>
+      <c r="DX1" s="63"/>
+      <c r="DY1" s="63"/>
+      <c r="DZ1" s="63"/>
+      <c r="EA1" s="62"/>
+      <c r="EB1" s="63"/>
+      <c r="EC1" s="63"/>
+      <c r="ED1" s="63"/>
+      <c r="EE1" s="63"/>
+      <c r="EF1" s="63"/>
+      <c r="EG1" s="63"/>
+      <c r="EH1" s="62"/>
+      <c r="EI1" s="63"/>
+      <c r="EJ1" s="63"/>
+      <c r="EK1" s="63"/>
+      <c r="EL1" s="63"/>
+      <c r="EM1" s="63"/>
+      <c r="EN1" s="63"/>
+      <c r="EO1" s="62"/>
+      <c r="EP1" s="63"/>
+      <c r="EQ1" s="63"/>
+      <c r="ER1" s="63"/>
+      <c r="ES1" s="63"/>
+      <c r="ET1" s="63"/>
+      <c r="EU1" s="63"/>
+      <c r="EV1" s="62"/>
+      <c r="EW1" s="63"/>
+      <c r="EX1" s="63"/>
+      <c r="EY1" s="63"/>
+      <c r="EZ1" s="63"/>
+      <c r="FA1" s="63"/>
+      <c r="FB1" s="63"/>
     </row>
     <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1"/>
@@ -10277,6 +10279,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="EH1:EN1"/>
     <mergeCell ref="EO1:EU1"/>
     <mergeCell ref="EV1:FB1"/>
@@ -10292,13 +10301,6 @@
     <mergeCell ref="DM1:DS1"/>
     <mergeCell ref="DT1:DZ1"/>
     <mergeCell ref="EA1:EG1"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besitzer\Dropbox\Studium\Semester 6\FRONT\FRONT_Projekt\front-projekt\documents\Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Dropbox\ISC\Sem 06\FRONT\PROJEKT\git\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4130689B-A481-4BDD-9ABC-848B23AD8956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDFD681-7DF3-4884-87B3-7CACC687FF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitbudget" sheetId="4" r:id="rId1"/>
@@ -1217,13 +1217,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1456,16 +1456,16 @@
   <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1479,7 +1479,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>102</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1513,7 +1513,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="26" t="s">
@@ -1539,7 +1539,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="29" t="s">
         <v>108</v>
@@ -1569,7 +1569,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="31" t="s">
         <v>109</v>
@@ -1600,12 +1600,12 @@
       </c>
       <c r="J6" s="28">
         <f>SUM(J10:J75)</f>
-        <v>62.5</v>
+        <v>63.5</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="31" t="s">
         <v>111</v>
@@ -1636,12 +1636,12 @@
       </c>
       <c r="J7" s="28">
         <f t="shared" si="1"/>
-        <v>57.5</v>
+        <v>56.5</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>112</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1675,7 +1675,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>241</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>116</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>118</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>120</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>122</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>126</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>128</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>130</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>132</v>
       </c>
@@ -1995,7 +1995,7 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>134</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>136</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>180</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>182</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>184</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>138</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>186</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>188</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>184</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>140</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>191</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>192</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>193</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>194</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>195</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>238</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>142</v>
       </c>
@@ -2503,7 +2503,7 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>144</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>146</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>148</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>180</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>182</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>184</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>150</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>186</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>188</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>184</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>152</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>191</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>192</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>193</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>194</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>195</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>260</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>155</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>157</v>
       </c>
@@ -3019,7 +3019,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>159</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>161</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>163</v>
       </c>
@@ -3103,7 +3103,7 @@
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>165</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>167</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>169</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="U61" s="22"/>
       <c r="V61" s="22"/>
     </row>
-    <row r="62" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>171</v>
       </c>
@@ -3219,7 +3219,7 @@
       <c r="U62" s="22"/>
       <c r="V62" s="22"/>
     </row>
-    <row r="63" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>101</v>
       </c>
@@ -3248,7 +3248,7 @@
       <c r="U63" s="22"/>
       <c r="V63" s="22"/>
     </row>
-    <row r="64" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>174</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="U64" s="22"/>
       <c r="V64" s="22"/>
     </row>
-    <row r="65" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>176</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="U65" s="22"/>
       <c r="V65" s="22"/>
     </row>
-    <row r="66" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>178</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>245</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>246</v>
       </c>
@@ -3389,12 +3389,12 @@
         <v>0.5</v>
       </c>
       <c r="J68" s="22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>247</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>99</v>
       </c>
@@ -3448,11 +3448,13 @@
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
+      <c r="J70" s="22">
+        <v>0.5</v>
+      </c>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -3466,7 +3468,7 @@
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -3480,7 +3482,7 @@
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
     </row>
-    <row r="73" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>242</v>
       </c>
@@ -3496,7 +3498,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -3510,7 +3512,7 @@
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
     </row>
-    <row r="75" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="57" t="s">
         <v>243</v>
       </c>
@@ -3542,7 +3544,7 @@
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="47"/>
       <c r="C76" s="22"/>
@@ -3556,7 +3558,7 @@
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
     </row>
-    <row r="77" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="57" t="s">
         <v>244</v>
       </c>
@@ -3572,7 +3574,7 @@
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
     </row>
-    <row r="78" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -3584,7 +3586,7 @@
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
     </row>
-    <row r="79" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -3616,64 +3618,64 @@
       <selection pane="bottomRight" activeCell="BZ63" sqref="BZ63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" customWidth="1"/>
-    <col min="2" max="2" width="4.1328125" customWidth="1"/>
-    <col min="3" max="3" width="30.1328125" customWidth="1"/>
-    <col min="4" max="4" width="2.796875" customWidth="1"/>
-    <col min="5" max="101" width="3.796875" customWidth="1"/>
-    <col min="102" max="102" width="7.46484375" customWidth="1"/>
-    <col min="103" max="200" width="3.796875" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" customWidth="1"/>
+    <col min="5" max="101" width="3.77734375" customWidth="1"/>
+    <col min="102" max="102" width="7.44140625" customWidth="1"/>
+    <col min="103" max="200" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="65" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="65" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="65" t="s">
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="65" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
       <c r="AN1" s="62" t="s">
         <v>5</v>
       </c>
@@ -3822,7 +3824,7 @@
       <c r="FI1" s="3"/>
       <c r="FJ1" s="4"/>
     </row>
-    <row r="2" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="E2" s="37" t="s">
         <v>15</v>
@@ -4140,7 +4142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -4155,7 +4157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -4163,7 +4165,7 @@
       <c r="C4" s="1"/>
       <c r="CX4" s="5"/>
     </row>
-    <row r="5" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -4173,7 +4175,7 @@
       </c>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
@@ -4192,7 +4194,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4205,7 +4207,7 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -4214,20 +4216,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="AP9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -4235,7 +4237,7 @@
       </c>
       <c r="E11" s="45"/>
     </row>
-    <row r="12" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -4243,7 +4245,7 @@
       </c>
       <c r="E12" s="45"/>
     </row>
-    <row r="13" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
@@ -4255,7 +4257,7 @@
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
     </row>
-    <row r="14" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
@@ -4263,7 +4265,7 @@
       </c>
       <c r="R14" s="36"/>
     </row>
-    <row r="15" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
@@ -4367,20 +4369,20 @@
       <c r="CV15" s="41"/>
       <c r="CW15" s="41"/>
     </row>
-    <row r="16" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -4398,7 +4400,7 @@
       <c r="CT19" s="41"/>
       <c r="CU19" s="41"/>
     </row>
-    <row r="20" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -4408,20 +4410,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
@@ -4437,7 +4439,7 @@
       <c r="AT24" s="41"/>
       <c r="AU24" s="41"/>
     </row>
-    <row r="25" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
@@ -4527,7 +4529,7 @@
       <c r="CV25" s="41"/>
       <c r="CW25" s="41"/>
     </row>
-    <row r="26" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>212</v>
@@ -4540,7 +4542,7 @@
       <c r="AS26" s="41"/>
       <c r="AT26" s="41"/>
     </row>
-    <row r="27" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>213</v>
@@ -4567,7 +4569,7 @@
       <c r="BG27" s="41"/>
       <c r="BH27" s="41"/>
     </row>
-    <row r="28" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="C28" s="1" t="s">
         <v>214</v>
@@ -4594,7 +4596,7 @@
       <c r="BG28" s="41"/>
       <c r="BH28" s="41"/>
     </row>
-    <row r="29" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
@@ -4684,7 +4686,7 @@
       <c r="CV29" s="41"/>
       <c r="CW29" s="41"/>
     </row>
-    <row r="30" spans="1:102" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:102" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="C30" s="1" t="s">
         <v>215</v>
@@ -4739,7 +4741,7 @@
       <c r="CI30" s="41"/>
       <c r="CJ30" s="41"/>
     </row>
-    <row r="31" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>216</v>
       </c>
@@ -4779,7 +4781,7 @@
       <c r="CI31" s="41"/>
       <c r="CJ31" s="41"/>
     </row>
-    <row r="32" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>217</v>
       </c>
@@ -4819,7 +4821,7 @@
       <c r="CI32" s="41"/>
       <c r="CJ32" s="41"/>
     </row>
-    <row r="33" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
@@ -4909,7 +4911,7 @@
       <c r="CV33" s="41"/>
       <c r="CW33" s="41"/>
     </row>
-    <row r="34" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
@@ -4935,7 +4937,7 @@
       <c r="BN34" s="41"/>
       <c r="BO34" s="41"/>
     </row>
-    <row r="35" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
@@ -4968,7 +4970,7 @@
       <c r="BU35" s="41"/>
       <c r="BV35" s="41"/>
     </row>
-    <row r="36" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
@@ -5010,7 +5012,7 @@
       <c r="CI36" s="41"/>
       <c r="CJ36" s="41"/>
     </row>
-    <row r="37" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>221</v>
@@ -5044,7 +5046,7 @@
       <c r="CI37" s="41"/>
       <c r="CJ37" s="41"/>
     </row>
-    <row r="38" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="C38" s="1" t="s">
         <v>222</v>
@@ -5078,7 +5080,7 @@
       <c r="CI38" s="41"/>
       <c r="CJ38" s="41"/>
     </row>
-    <row r="39" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="C39" s="1" t="s">
         <v>239</v>
@@ -5133,7 +5135,7 @@
       <c r="CI39" s="41"/>
       <c r="CJ39" s="41"/>
     </row>
-    <row r="40" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="C40" s="1" t="s">
         <v>50</v>
@@ -5170,7 +5172,7 @@
       <c r="BU40" s="41"/>
       <c r="BV40" s="41"/>
     </row>
-    <row r="41" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="33"/>
       <c r="C41" s="1" t="s">
         <v>51</v>
@@ -5210,7 +5212,7 @@
       <c r="CV41" s="41"/>
       <c r="CW41" s="41"/>
     </row>
-    <row r="42" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33"/>
       <c r="C42" s="35" t="s">
         <v>52</v>
@@ -5219,49 +5221,49 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="33"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="33"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="48"/>
       <c r="C45" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="66" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="64"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="64"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="64"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5269,2973 +5271,2977 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="64"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="64"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B52" s="64"/>
+    <row r="52" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B52" s="66"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B53" s="64"/>
+    <row r="53" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B53" s="66"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="64"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="64"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="64"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="64"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="64"/>
+    <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="66"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B59" s="64"/>
+    <row r="59" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B59" s="66"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B60" s="64"/>
+    <row r="60" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B60" s="66"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B61" s="64"/>
+    <row r="61" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B61" s="66"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B62" s="64"/>
+    <row r="62" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B62" s="66"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B63" s="64"/>
+    <row r="63" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B63" s="66"/>
       <c r="C63" s="15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B64" s="64"/>
+    <row r="64" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B64" s="66"/>
       <c r="C64" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B65" s="64"/>
+    <row r="65" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B65" s="66"/>
       <c r="C65" s="15"/>
     </row>
-    <row r="66" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B66" s="64"/>
+    <row r="66" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B66" s="66"/>
       <c r="C66" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B67" s="64"/>
+    <row r="67" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B67" s="66"/>
       <c r="C67" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B68" s="64"/>
+    <row r="68" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B68" s="66"/>
       <c r="C68" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B69" s="64"/>
+    <row r="69" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B69" s="66"/>
       <c r="C69" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B70" s="64"/>
+    <row r="70" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B70" s="66"/>
       <c r="C70" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B71" s="64"/>
+    <row r="71" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B71" s="66"/>
       <c r="C71" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B72" s="64"/>
+    <row r="72" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B72" s="66"/>
       <c r="C72" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B73" s="64"/>
+    <row r="73" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B73" s="66"/>
       <c r="C73" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B74" s="64"/>
+    <row r="74" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B74" s="66"/>
       <c r="C74" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B75" s="64"/>
+    <row r="75" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B75" s="66"/>
       <c r="C75" s="16"/>
     </row>
-    <row r="76" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B76" s="64"/>
+    <row r="76" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B76" s="66"/>
       <c r="C76" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B77" s="64"/>
+    <row r="77" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B77" s="66"/>
       <c r="C77" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B78" s="64"/>
+    <row r="78" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B78" s="66"/>
       <c r="C78" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="2:53" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B79" s="64"/>
+    <row r="79" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B79" s="66"/>
       <c r="C79" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA79" s="6"/>
     </row>
-    <row r="80" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B80" s="64"/>
+    <row r="80" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B80" s="66"/>
       <c r="C80" s="16"/>
     </row>
-    <row r="81" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B81" s="64"/>
+    <row r="81" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B81" s="66"/>
       <c r="C81" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B82" s="64"/>
+    <row r="82" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B82" s="66"/>
       <c r="C82" s="59" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B83" s="64"/>
+    <row r="83" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B83" s="66"/>
       <c r="C83" s="59" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B84" s="64"/>
+    <row r="84" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B84" s="66"/>
       <c r="C84" s="59" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B85" s="64"/>
+    <row r="85" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B85" s="66"/>
       <c r="C85" s="15" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="86" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="BW86" s="46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C375" s="1"/>
     </row>
-    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C376" s="1"/>
     </row>
-    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C417" s="1"/>
     </row>
-    <row r="418" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C422" s="1"/>
     </row>
-    <row r="423" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C423" s="1"/>
     </row>
-    <row r="424" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C424" s="1"/>
     </row>
-    <row r="425" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C425" s="1"/>
     </row>
-    <row r="426" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C426" s="1"/>
     </row>
-    <row r="427" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C427" s="1"/>
     </row>
-    <row r="428" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C428" s="1"/>
     </row>
-    <row r="429" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C429" s="1"/>
     </row>
-    <row r="430" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C430" s="1"/>
     </row>
-    <row r="431" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C431" s="1"/>
     </row>
-    <row r="432" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C432" s="1"/>
     </row>
-    <row r="433" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C433" s="1"/>
     </row>
-    <row r="434" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C434" s="1"/>
     </row>
-    <row r="435" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C436" s="1"/>
     </row>
-    <row r="437" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C437" s="1"/>
     </row>
-    <row r="438" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C438" s="1"/>
     </row>
-    <row r="439" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C439" s="1"/>
     </row>
-    <row r="440" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C440" s="1"/>
     </row>
-    <row r="441" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C441" s="1"/>
     </row>
-    <row r="442" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C442" s="1"/>
     </row>
-    <row r="443" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C443" s="1"/>
     </row>
-    <row r="444" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C444" s="1"/>
     </row>
-    <row r="445" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C446" s="1"/>
     </row>
-    <row r="447" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C447" s="1"/>
     </row>
-    <row r="448" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C448" s="1"/>
     </row>
-    <row r="449" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C449" s="1"/>
     </row>
-    <row r="450" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C450" s="1"/>
     </row>
-    <row r="451" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C451" s="1"/>
     </row>
-    <row r="452" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C452" s="1"/>
     </row>
-    <row r="453" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C453" s="1"/>
     </row>
-    <row r="454" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C454" s="1"/>
     </row>
-    <row r="455" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C455" s="1"/>
     </row>
-    <row r="456" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C456" s="1"/>
     </row>
-    <row r="457" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C457" s="1"/>
     </row>
-    <row r="458" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C458" s="1"/>
     </row>
-    <row r="459" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C459" s="1"/>
     </row>
-    <row r="460" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C460" s="1"/>
     </row>
-    <row r="461" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C461" s="1"/>
     </row>
-    <row r="462" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C462" s="1"/>
     </row>
-    <row r="463" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C463" s="1"/>
     </row>
-    <row r="464" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C464" s="1"/>
     </row>
-    <row r="465" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C465" s="1"/>
     </row>
-    <row r="466" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C466" s="1"/>
     </row>
-    <row r="467" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C467" s="1"/>
     </row>
-    <row r="468" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C468" s="1"/>
     </row>
-    <row r="469" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C469" s="1"/>
     </row>
-    <row r="470" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C470" s="1"/>
     </row>
-    <row r="471" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C471" s="1"/>
     </row>
-    <row r="472" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C472" s="1"/>
     </row>
-    <row r="473" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C473" s="1"/>
     </row>
-    <row r="474" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C474" s="1"/>
     </row>
-    <row r="475" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C475" s="1"/>
     </row>
-    <row r="476" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C476" s="1"/>
     </row>
-    <row r="477" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C477" s="1"/>
     </row>
-    <row r="478" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C478" s="1"/>
     </row>
-    <row r="479" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C479" s="1"/>
     </row>
-    <row r="480" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C480" s="1"/>
     </row>
-    <row r="481" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C481" s="1"/>
     </row>
-    <row r="482" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C482" s="1"/>
     </row>
-    <row r="483" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C483" s="1"/>
     </row>
-    <row r="484" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C484" s="1"/>
     </row>
-    <row r="485" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C485" s="1"/>
     </row>
-    <row r="486" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C486" s="1"/>
     </row>
-    <row r="487" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C487" s="1"/>
     </row>
-    <row r="488" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C488" s="1"/>
     </row>
-    <row r="489" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C489" s="1"/>
     </row>
-    <row r="490" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C490" s="1"/>
     </row>
-    <row r="491" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C491" s="1"/>
     </row>
-    <row r="492" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C492" s="1"/>
     </row>
-    <row r="493" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C493" s="1"/>
     </row>
-    <row r="494" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C494" s="1"/>
     </row>
-    <row r="495" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C495" s="1"/>
     </row>
-    <row r="496" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C496" s="1"/>
     </row>
-    <row r="497" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C497" s="1"/>
     </row>
-    <row r="498" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C498" s="1"/>
     </row>
-    <row r="499" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C499" s="1"/>
     </row>
-    <row r="500" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C500" s="1"/>
     </row>
-    <row r="501" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C501" s="1"/>
     </row>
-    <row r="502" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C502" s="1"/>
     </row>
-    <row r="503" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C503" s="1"/>
     </row>
-    <row r="504" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C505" s="1"/>
     </row>
-    <row r="506" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C506" s="1"/>
     </row>
-    <row r="507" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C507" s="1"/>
     </row>
-    <row r="508" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C508" s="1"/>
     </row>
-    <row r="509" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C509" s="1"/>
     </row>
-    <row r="510" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C510" s="1"/>
     </row>
-    <row r="511" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C511" s="1"/>
     </row>
-    <row r="512" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C512" s="1"/>
     </row>
-    <row r="513" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C513" s="1"/>
     </row>
-    <row r="514" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C514" s="1"/>
     </row>
-    <row r="515" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C515" s="1"/>
     </row>
-    <row r="516" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C517" s="1"/>
     </row>
-    <row r="518" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C518" s="1"/>
     </row>
-    <row r="519" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C519" s="1"/>
     </row>
-    <row r="520" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C520" s="1"/>
     </row>
-    <row r="521" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C521" s="1"/>
     </row>
-    <row r="522" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C522" s="1"/>
     </row>
-    <row r="523" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C523" s="1"/>
     </row>
-    <row r="524" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C524" s="1"/>
     </row>
-    <row r="525" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C525" s="1"/>
     </row>
-    <row r="526" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C526" s="1"/>
     </row>
-    <row r="527" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C527" s="1"/>
     </row>
-    <row r="528" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C528" s="1"/>
     </row>
-    <row r="529" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C529" s="1"/>
     </row>
-    <row r="530" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C530" s="1"/>
     </row>
-    <row r="531" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C531" s="1"/>
     </row>
-    <row r="532" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C532" s="1"/>
     </row>
-    <row r="533" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C533" s="1"/>
     </row>
-    <row r="534" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C534" s="1"/>
     </row>
-    <row r="535" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C535" s="1"/>
     </row>
-    <row r="536" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C536" s="1"/>
     </row>
-    <row r="537" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C537" s="1"/>
     </row>
-    <row r="538" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C538" s="1"/>
     </row>
-    <row r="539" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C539" s="1"/>
     </row>
-    <row r="540" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C540" s="1"/>
     </row>
-    <row r="541" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C541" s="1"/>
     </row>
-    <row r="542" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C542" s="1"/>
     </row>
-    <row r="543" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C543" s="1"/>
     </row>
-    <row r="544" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C544" s="1"/>
     </row>
-    <row r="545" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C545" s="1"/>
     </row>
-    <row r="546" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C546" s="1"/>
     </row>
-    <row r="547" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C547" s="1"/>
     </row>
-    <row r="548" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C548" s="1"/>
     </row>
-    <row r="549" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C549" s="1"/>
     </row>
-    <row r="550" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C550" s="1"/>
     </row>
-    <row r="551" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C551" s="1"/>
     </row>
-    <row r="552" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C552" s="1"/>
     </row>
-    <row r="553" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C553" s="1"/>
     </row>
-    <row r="554" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C554" s="1"/>
     </row>
-    <row r="555" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C555" s="1"/>
     </row>
-    <row r="556" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C556" s="1"/>
     </row>
-    <row r="557" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C557" s="1"/>
     </row>
-    <row r="558" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C558" s="1"/>
     </row>
-    <row r="559" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C559" s="1"/>
     </row>
-    <row r="560" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C560" s="1"/>
     </row>
-    <row r="561" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C561" s="1"/>
     </row>
-    <row r="562" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C562" s="1"/>
     </row>
-    <row r="563" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C563" s="1"/>
     </row>
-    <row r="564" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C564" s="1"/>
     </row>
-    <row r="565" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C565" s="1"/>
     </row>
-    <row r="566" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C566" s="1"/>
     </row>
-    <row r="567" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C567" s="1"/>
     </row>
-    <row r="568" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C568" s="1"/>
     </row>
-    <row r="569" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C569" s="1"/>
     </row>
-    <row r="570" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C570" s="1"/>
     </row>
-    <row r="571" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C571" s="1"/>
     </row>
-    <row r="572" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C572" s="1"/>
     </row>
-    <row r="573" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C573" s="1"/>
     </row>
-    <row r="574" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C574" s="1"/>
     </row>
-    <row r="575" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C575" s="1"/>
     </row>
-    <row r="576" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C576" s="1"/>
     </row>
-    <row r="577" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C577" s="1"/>
     </row>
-    <row r="578" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C578" s="1"/>
     </row>
-    <row r="579" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C579" s="1"/>
     </row>
-    <row r="580" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C580" s="1"/>
     </row>
-    <row r="581" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C581" s="1"/>
     </row>
-    <row r="582" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C582" s="1"/>
     </row>
-    <row r="583" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C583" s="1"/>
     </row>
-    <row r="584" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C584" s="1"/>
     </row>
-    <row r="585" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C585" s="1"/>
     </row>
-    <row r="586" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C586" s="1"/>
     </row>
-    <row r="587" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C587" s="1"/>
     </row>
-    <row r="588" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C588" s="1"/>
     </row>
-    <row r="589" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C589" s="1"/>
     </row>
-    <row r="590" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C590" s="1"/>
     </row>
-    <row r="591" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C591" s="1"/>
     </row>
-    <row r="592" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C592" s="1"/>
     </row>
-    <row r="593" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C593" s="1"/>
     </row>
-    <row r="594" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C594" s="1"/>
     </row>
-    <row r="595" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C595" s="1"/>
     </row>
-    <row r="596" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C596" s="1"/>
     </row>
-    <row r="597" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C597" s="1"/>
     </row>
-    <row r="598" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C598" s="1"/>
     </row>
-    <row r="599" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C599" s="1"/>
     </row>
-    <row r="600" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C600" s="1"/>
     </row>
-    <row r="601" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C601" s="1"/>
     </row>
-    <row r="602" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C602" s="1"/>
     </row>
-    <row r="603" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C603" s="1"/>
     </row>
-    <row r="604" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C604" s="1"/>
     </row>
-    <row r="605" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C605" s="1"/>
     </row>
-    <row r="606" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C606" s="1"/>
     </row>
-    <row r="607" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C607" s="1"/>
     </row>
-    <row r="608" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C608" s="1"/>
     </row>
-    <row r="609" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C609" s="1"/>
     </row>
-    <row r="610" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C610" s="1"/>
     </row>
-    <row r="611" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C611" s="1"/>
     </row>
-    <row r="612" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C612" s="1"/>
     </row>
-    <row r="613" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C613" s="1"/>
     </row>
-    <row r="614" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C614" s="1"/>
     </row>
-    <row r="615" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C615" s="1"/>
     </row>
-    <row r="616" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C616" s="1"/>
     </row>
-    <row r="617" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C617" s="1"/>
     </row>
-    <row r="618" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C618" s="1"/>
     </row>
-    <row r="619" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C619" s="1"/>
     </row>
-    <row r="620" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C620" s="1"/>
     </row>
-    <row r="621" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C621" s="1"/>
     </row>
-    <row r="622" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C622" s="1"/>
     </row>
-    <row r="623" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C623" s="1"/>
     </row>
-    <row r="624" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C624" s="1"/>
     </row>
-    <row r="625" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C625" s="1"/>
     </row>
-    <row r="626" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C626" s="1"/>
     </row>
-    <row r="627" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C627" s="1"/>
     </row>
-    <row r="628" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C628" s="1"/>
     </row>
-    <row r="629" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C629" s="1"/>
     </row>
-    <row r="630" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C630" s="1"/>
     </row>
-    <row r="631" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C631" s="1"/>
     </row>
-    <row r="632" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C632" s="1"/>
     </row>
-    <row r="633" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C633" s="1"/>
     </row>
-    <row r="634" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C634" s="1"/>
     </row>
-    <row r="635" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C635" s="1"/>
     </row>
-    <row r="636" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C636" s="1"/>
     </row>
-    <row r="637" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C637" s="1"/>
     </row>
-    <row r="638" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C638" s="1"/>
     </row>
-    <row r="639" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C639" s="1"/>
     </row>
-    <row r="640" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C640" s="1"/>
     </row>
-    <row r="641" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C641" s="1"/>
     </row>
-    <row r="642" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C642" s="1"/>
     </row>
-    <row r="643" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C643" s="1"/>
     </row>
-    <row r="644" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C644" s="1"/>
     </row>
-    <row r="645" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C645" s="1"/>
     </row>
-    <row r="646" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C646" s="1"/>
     </row>
-    <row r="647" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C647" s="1"/>
     </row>
-    <row r="648" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C648" s="1"/>
     </row>
-    <row r="649" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C649" s="1"/>
     </row>
-    <row r="650" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C650" s="1"/>
     </row>
-    <row r="651" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C651" s="1"/>
     </row>
-    <row r="652" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C652" s="1"/>
     </row>
-    <row r="653" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C653" s="1"/>
     </row>
-    <row r="654" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C654" s="1"/>
     </row>
-    <row r="655" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C655" s="1"/>
     </row>
-    <row r="656" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C656" s="1"/>
     </row>
-    <row r="657" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C657" s="1"/>
     </row>
-    <row r="658" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C658" s="1"/>
     </row>
-    <row r="659" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C659" s="1"/>
     </row>
-    <row r="660" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C660" s="1"/>
     </row>
-    <row r="661" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C661" s="1"/>
     </row>
-    <row r="662" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C662" s="1"/>
     </row>
-    <row r="663" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C663" s="1"/>
     </row>
-    <row r="664" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C664" s="1"/>
     </row>
-    <row r="665" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C665" s="1"/>
     </row>
-    <row r="666" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C666" s="1"/>
     </row>
-    <row r="667" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C667" s="1"/>
     </row>
-    <row r="668" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C668" s="1"/>
     </row>
-    <row r="669" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C669" s="1"/>
     </row>
-    <row r="670" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C670" s="1"/>
     </row>
-    <row r="671" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C671" s="1"/>
     </row>
-    <row r="672" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C672" s="1"/>
     </row>
-    <row r="673" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C673" s="1"/>
     </row>
-    <row r="674" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C674" s="1"/>
     </row>
-    <row r="675" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C675" s="1"/>
     </row>
-    <row r="676" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C676" s="1"/>
     </row>
-    <row r="677" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C677" s="1"/>
     </row>
-    <row r="678" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C678" s="1"/>
     </row>
-    <row r="679" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C679" s="1"/>
     </row>
-    <row r="680" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C680" s="1"/>
     </row>
-    <row r="681" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C681" s="1"/>
     </row>
-    <row r="682" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C682" s="1"/>
     </row>
-    <row r="683" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C683" s="1"/>
     </row>
-    <row r="684" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C684" s="1"/>
     </row>
-    <row r="685" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C685" s="1"/>
     </row>
-    <row r="686" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C686" s="1"/>
     </row>
-    <row r="687" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C687" s="1"/>
     </row>
-    <row r="688" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C688" s="1"/>
     </row>
-    <row r="689" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C689" s="1"/>
     </row>
-    <row r="690" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C690" s="1"/>
     </row>
-    <row r="691" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C691" s="1"/>
     </row>
-    <row r="692" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C692" s="1"/>
     </row>
-    <row r="693" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C693" s="1"/>
     </row>
-    <row r="694" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C694" s="1"/>
     </row>
-    <row r="695" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C695" s="1"/>
     </row>
-    <row r="696" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C696" s="1"/>
     </row>
-    <row r="697" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C697" s="1"/>
     </row>
-    <row r="698" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C698" s="1"/>
     </row>
-    <row r="699" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C699" s="1"/>
     </row>
-    <row r="700" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C700" s="1"/>
     </row>
-    <row r="701" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C701" s="1"/>
     </row>
-    <row r="702" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C702" s="1"/>
     </row>
-    <row r="703" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C703" s="1"/>
     </row>
-    <row r="704" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C704" s="1"/>
     </row>
-    <row r="705" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C705" s="1"/>
     </row>
-    <row r="706" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C706" s="1"/>
     </row>
-    <row r="707" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C707" s="1"/>
     </row>
-    <row r="708" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C708" s="1"/>
     </row>
-    <row r="709" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C709" s="1"/>
     </row>
-    <row r="710" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C710" s="1"/>
     </row>
-    <row r="711" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C711" s="1"/>
     </row>
-    <row r="712" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C712" s="1"/>
     </row>
-    <row r="713" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C713" s="1"/>
     </row>
-    <row r="714" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C714" s="1"/>
     </row>
-    <row r="715" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C715" s="1"/>
     </row>
-    <row r="716" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C716" s="1"/>
     </row>
-    <row r="717" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C717" s="1"/>
     </row>
-    <row r="718" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C718" s="1"/>
     </row>
-    <row r="719" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C719" s="1"/>
     </row>
-    <row r="720" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C720" s="1"/>
     </row>
-    <row r="721" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C721" s="1"/>
     </row>
-    <row r="722" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C722" s="1"/>
     </row>
-    <row r="723" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C723" s="1"/>
     </row>
-    <row r="724" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C724" s="1"/>
     </row>
-    <row r="725" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C725" s="1"/>
     </row>
-    <row r="726" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C726" s="1"/>
     </row>
-    <row r="727" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C727" s="1"/>
     </row>
-    <row r="728" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C728" s="1"/>
     </row>
-    <row r="729" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C729" s="1"/>
     </row>
-    <row r="730" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C730" s="1"/>
     </row>
-    <row r="731" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C731" s="1"/>
     </row>
-    <row r="732" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C732" s="1"/>
     </row>
-    <row r="733" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C733" s="1"/>
     </row>
-    <row r="734" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C734" s="1"/>
     </row>
-    <row r="735" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C735" s="1"/>
     </row>
-    <row r="736" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C736" s="1"/>
     </row>
-    <row r="737" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C737" s="1"/>
     </row>
-    <row r="738" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C738" s="1"/>
     </row>
-    <row r="739" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C739" s="1"/>
     </row>
-    <row r="740" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C740" s="1"/>
     </row>
-    <row r="741" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C741" s="1"/>
     </row>
-    <row r="742" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C742" s="1"/>
     </row>
-    <row r="743" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C743" s="1"/>
     </row>
-    <row r="744" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C744" s="1"/>
     </row>
-    <row r="745" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C745" s="1"/>
     </row>
-    <row r="746" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C746" s="1"/>
     </row>
-    <row r="747" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C747" s="1"/>
     </row>
-    <row r="748" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C748" s="1"/>
     </row>
-    <row r="749" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C749" s="1"/>
     </row>
-    <row r="750" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C750" s="1"/>
     </row>
-    <row r="751" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C751" s="1"/>
     </row>
-    <row r="752" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C752" s="1"/>
     </row>
-    <row r="753" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C753" s="1"/>
     </row>
-    <row r="754" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C754" s="1"/>
     </row>
-    <row r="755" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C755" s="1"/>
     </row>
-    <row r="756" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C756" s="1"/>
     </row>
-    <row r="757" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C757" s="1"/>
     </row>
-    <row r="758" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C758" s="1"/>
     </row>
-    <row r="759" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C759" s="1"/>
     </row>
-    <row r="760" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C760" s="1"/>
     </row>
-    <row r="761" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C761" s="1"/>
     </row>
-    <row r="762" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C762" s="1"/>
     </row>
-    <row r="763" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C763" s="1"/>
     </row>
-    <row r="764" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C764" s="1"/>
     </row>
-    <row r="765" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C765" s="1"/>
     </row>
-    <row r="766" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C766" s="1"/>
     </row>
-    <row r="767" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C767" s="1"/>
     </row>
-    <row r="768" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C768" s="1"/>
     </row>
-    <row r="769" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C769" s="1"/>
     </row>
-    <row r="770" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C770" s="1"/>
     </row>
-    <row r="771" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C771" s="1"/>
     </row>
-    <row r="772" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C772" s="1"/>
     </row>
-    <row r="773" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C773" s="1"/>
     </row>
-    <row r="774" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C774" s="1"/>
     </row>
-    <row r="775" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C775" s="1"/>
     </row>
-    <row r="776" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C776" s="1"/>
     </row>
-    <row r="777" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C777" s="1"/>
     </row>
-    <row r="778" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C778" s="1"/>
     </row>
-    <row r="779" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C779" s="1"/>
     </row>
-    <row r="780" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C780" s="1"/>
     </row>
-    <row r="781" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C781" s="1"/>
     </row>
-    <row r="782" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C782" s="1"/>
     </row>
-    <row r="783" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C783" s="1"/>
     </row>
-    <row r="784" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C784" s="1"/>
     </row>
-    <row r="785" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C785" s="1"/>
     </row>
-    <row r="786" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C786" s="1"/>
     </row>
-    <row r="787" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C787" s="1"/>
     </row>
-    <row r="788" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C788" s="1"/>
     </row>
-    <row r="789" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C789" s="1"/>
     </row>
-    <row r="790" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C790" s="1"/>
     </row>
-    <row r="791" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C791" s="1"/>
     </row>
-    <row r="792" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C792" s="1"/>
     </row>
-    <row r="793" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C793" s="1"/>
     </row>
-    <row r="794" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C794" s="1"/>
     </row>
-    <row r="795" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C795" s="1"/>
     </row>
-    <row r="796" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C796" s="1"/>
     </row>
-    <row r="797" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C797" s="1"/>
     </row>
-    <row r="798" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C798" s="1"/>
     </row>
-    <row r="799" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C799" s="1"/>
     </row>
-    <row r="800" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C800" s="1"/>
     </row>
-    <row r="801" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C801" s="1"/>
     </row>
-    <row r="802" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C802" s="1"/>
     </row>
-    <row r="803" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C803" s="1"/>
     </row>
-    <row r="804" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C804" s="1"/>
     </row>
-    <row r="805" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C805" s="1"/>
     </row>
-    <row r="806" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C806" s="1"/>
     </row>
-    <row r="807" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C807" s="1"/>
     </row>
-    <row r="808" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C808" s="1"/>
     </row>
-    <row r="809" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C809" s="1"/>
     </row>
-    <row r="810" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C810" s="1"/>
     </row>
-    <row r="811" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C811" s="1"/>
     </row>
-    <row r="812" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C812" s="1"/>
     </row>
-    <row r="813" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C813" s="1"/>
     </row>
-    <row r="814" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C814" s="1"/>
     </row>
-    <row r="815" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C815" s="1"/>
     </row>
-    <row r="816" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C816" s="1"/>
     </row>
-    <row r="817" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C817" s="1"/>
     </row>
-    <row r="818" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C818" s="1"/>
     </row>
-    <row r="819" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C819" s="1"/>
     </row>
-    <row r="820" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C820" s="1"/>
     </row>
-    <row r="821" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C821" s="1"/>
     </row>
-    <row r="822" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C822" s="1"/>
     </row>
-    <row r="823" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C823" s="1"/>
     </row>
-    <row r="824" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C824" s="1"/>
     </row>
-    <row r="825" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C825" s="1"/>
     </row>
-    <row r="826" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C826" s="1"/>
     </row>
-    <row r="827" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C827" s="1"/>
     </row>
-    <row r="828" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C828" s="1"/>
     </row>
-    <row r="829" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C829" s="1"/>
     </row>
-    <row r="830" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C830" s="1"/>
     </row>
-    <row r="831" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C831" s="1"/>
     </row>
-    <row r="832" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C832" s="1"/>
     </row>
-    <row r="833" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C833" s="1"/>
     </row>
-    <row r="834" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C834" s="1"/>
     </row>
-    <row r="835" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C835" s="1"/>
     </row>
-    <row r="836" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C836" s="1"/>
     </row>
-    <row r="837" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C837" s="1"/>
     </row>
-    <row r="838" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C838" s="1"/>
     </row>
-    <row r="839" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C839" s="1"/>
     </row>
-    <row r="840" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C840" s="1"/>
     </row>
-    <row r="841" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C841" s="1"/>
     </row>
-    <row r="842" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C842" s="1"/>
     </row>
-    <row r="843" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C843" s="1"/>
     </row>
-    <row r="844" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C844" s="1"/>
     </row>
-    <row r="845" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C845" s="1"/>
     </row>
-    <row r="846" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C846" s="1"/>
     </row>
-    <row r="847" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C847" s="1"/>
     </row>
-    <row r="848" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C848" s="1"/>
     </row>
-    <row r="849" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C849" s="1"/>
     </row>
-    <row r="850" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C850" s="1"/>
     </row>
-    <row r="851" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C851" s="1"/>
     </row>
-    <row r="852" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C852" s="1"/>
     </row>
-    <row r="853" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C853" s="1"/>
     </row>
-    <row r="854" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C854" s="1"/>
     </row>
-    <row r="855" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C855" s="1"/>
     </row>
-    <row r="856" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C856" s="1"/>
     </row>
-    <row r="857" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C857" s="1"/>
     </row>
-    <row r="858" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C858" s="1"/>
     </row>
-    <row r="859" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C859" s="1"/>
     </row>
-    <row r="860" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C860" s="1"/>
     </row>
-    <row r="861" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C861" s="1"/>
     </row>
-    <row r="862" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C862" s="1"/>
     </row>
-    <row r="863" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C863" s="1"/>
     </row>
-    <row r="864" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C864" s="1"/>
     </row>
-    <row r="865" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C865" s="1"/>
     </row>
-    <row r="866" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C866" s="1"/>
     </row>
-    <row r="867" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C867" s="1"/>
     </row>
-    <row r="868" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C868" s="1"/>
     </row>
-    <row r="869" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C869" s="1"/>
     </row>
-    <row r="870" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C870" s="1"/>
     </row>
-    <row r="871" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C871" s="1"/>
     </row>
-    <row r="872" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C872" s="1"/>
     </row>
-    <row r="873" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C873" s="1"/>
     </row>
-    <row r="874" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C874" s="1"/>
     </row>
-    <row r="875" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C875" s="1"/>
     </row>
-    <row r="876" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C876" s="1"/>
     </row>
-    <row r="877" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C877" s="1"/>
     </row>
-    <row r="878" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C878" s="1"/>
     </row>
-    <row r="879" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C879" s="1"/>
     </row>
-    <row r="880" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C880" s="1"/>
     </row>
-    <row r="881" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C881" s="1"/>
     </row>
-    <row r="882" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C882" s="1"/>
     </row>
-    <row r="883" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C883" s="1"/>
     </row>
-    <row r="884" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C884" s="1"/>
     </row>
-    <row r="885" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C885" s="1"/>
     </row>
-    <row r="886" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C886" s="1"/>
     </row>
-    <row r="887" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C887" s="1"/>
     </row>
-    <row r="888" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C888" s="1"/>
     </row>
-    <row r="889" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C889" s="1"/>
     </row>
-    <row r="890" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C890" s="1"/>
     </row>
-    <row r="891" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C891" s="1"/>
     </row>
-    <row r="892" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C892" s="1"/>
     </row>
-    <row r="893" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C893" s="1"/>
     </row>
-    <row r="894" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C894" s="1"/>
     </row>
-    <row r="895" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C895" s="1"/>
     </row>
-    <row r="896" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C896" s="1"/>
     </row>
-    <row r="897" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C897" s="1"/>
     </row>
-    <row r="898" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C898" s="1"/>
     </row>
-    <row r="899" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C899" s="1"/>
     </row>
-    <row r="900" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C900" s="1"/>
     </row>
-    <row r="901" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C901" s="1"/>
     </row>
-    <row r="902" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C902" s="1"/>
     </row>
-    <row r="903" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C903" s="1"/>
     </row>
-    <row r="904" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C904" s="1"/>
     </row>
-    <row r="905" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C905" s="1"/>
     </row>
-    <row r="906" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C906" s="1"/>
     </row>
-    <row r="907" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C907" s="1"/>
     </row>
-    <row r="908" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C908" s="1"/>
     </row>
-    <row r="909" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C909" s="1"/>
     </row>
-    <row r="910" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C910" s="1"/>
     </row>
-    <row r="911" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C911" s="1"/>
     </row>
-    <row r="912" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C912" s="1"/>
     </row>
-    <row r="913" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C913" s="1"/>
     </row>
-    <row r="914" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C914" s="1"/>
     </row>
-    <row r="915" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C915" s="1"/>
     </row>
-    <row r="916" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C916" s="1"/>
     </row>
-    <row r="917" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C917" s="1"/>
     </row>
-    <row r="918" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C918" s="1"/>
     </row>
-    <row r="919" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C919" s="1"/>
     </row>
-    <row r="920" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C920" s="1"/>
     </row>
-    <row r="921" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C921" s="1"/>
     </row>
-    <row r="922" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C922" s="1"/>
     </row>
-    <row r="923" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C923" s="1"/>
     </row>
-    <row r="924" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C924" s="1"/>
     </row>
-    <row r="925" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C925" s="1"/>
     </row>
-    <row r="926" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C926" s="1"/>
     </row>
-    <row r="927" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C927" s="1"/>
     </row>
-    <row r="928" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C928" s="1"/>
     </row>
-    <row r="929" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C929" s="1"/>
     </row>
-    <row r="930" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C930" s="1"/>
     </row>
-    <row r="931" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C931" s="1"/>
     </row>
-    <row r="932" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C932" s="1"/>
     </row>
-    <row r="933" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C933" s="1"/>
     </row>
-    <row r="934" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C934" s="1"/>
     </row>
-    <row r="935" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C935" s="1"/>
     </row>
-    <row r="936" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C936" s="1"/>
     </row>
-    <row r="937" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C937" s="1"/>
     </row>
-    <row r="938" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C938" s="1"/>
     </row>
-    <row r="939" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C939" s="1"/>
     </row>
-    <row r="940" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C940" s="1"/>
     </row>
-    <row r="941" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C941" s="1"/>
     </row>
-    <row r="942" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C942" s="1"/>
     </row>
-    <row r="943" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C943" s="1"/>
     </row>
-    <row r="944" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C944" s="1"/>
     </row>
-    <row r="945" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C945" s="1"/>
     </row>
-    <row r="946" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C946" s="1"/>
     </row>
-    <row r="947" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C947" s="1"/>
     </row>
-    <row r="948" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C948" s="1"/>
     </row>
-    <row r="949" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C949" s="1"/>
     </row>
-    <row r="950" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C950" s="1"/>
     </row>
-    <row r="951" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C951" s="1"/>
     </row>
-    <row r="952" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C952" s="1"/>
     </row>
-    <row r="953" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C953" s="1"/>
     </row>
-    <row r="954" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C954" s="1"/>
     </row>
-    <row r="955" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C955" s="1"/>
     </row>
-    <row r="956" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C956" s="1"/>
     </row>
-    <row r="957" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C957" s="1"/>
     </row>
-    <row r="958" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C958" s="1"/>
     </row>
-    <row r="959" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C959" s="1"/>
     </row>
-    <row r="960" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C960" s="1"/>
     </row>
-    <row r="961" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C961" s="1"/>
     </row>
-    <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C962" s="1"/>
     </row>
-    <row r="963" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C963" s="1"/>
     </row>
-    <row r="964" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C964" s="1"/>
     </row>
-    <row r="965" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C965" s="1"/>
     </row>
-    <row r="966" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C966" s="1"/>
     </row>
-    <row r="967" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C967" s="1"/>
     </row>
-    <row r="968" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C968" s="1"/>
     </row>
-    <row r="969" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C969" s="1"/>
     </row>
-    <row r="970" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C970" s="1"/>
     </row>
-    <row r="971" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C971" s="1"/>
     </row>
-    <row r="972" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C972" s="1"/>
     </row>
-    <row r="973" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C973" s="1"/>
     </row>
-    <row r="974" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C974" s="1"/>
     </row>
-    <row r="975" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C975" s="1"/>
     </row>
-    <row r="976" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C976" s="1"/>
     </row>
-    <row r="977" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C977" s="1"/>
     </row>
-    <row r="978" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C978" s="1"/>
     </row>
-    <row r="979" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C979" s="1"/>
     </row>
-    <row r="980" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C980" s="1"/>
     </row>
-    <row r="981" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C981" s="1"/>
     </row>
-    <row r="982" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C982" s="1"/>
     </row>
-    <row r="983" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C983" s="1"/>
     </row>
-    <row r="984" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C984" s="1"/>
     </row>
-    <row r="985" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C985" s="1"/>
     </row>
-    <row r="986" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C986" s="1"/>
     </row>
-    <row r="987" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C987" s="1"/>
     </row>
-    <row r="988" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C988" s="1"/>
     </row>
-    <row r="989" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C989" s="1"/>
     </row>
-    <row r="990" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C990" s="1"/>
     </row>
-    <row r="991" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C991" s="1"/>
     </row>
-    <row r="992" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C992" s="1"/>
     </row>
-    <row r="993" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C993" s="1"/>
     </row>
-    <row r="994" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C994" s="1"/>
     </row>
-    <row r="995" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C995" s="1"/>
     </row>
-    <row r="996" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C996" s="1"/>
     </row>
-    <row r="997" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C997" s="1"/>
     </row>
-    <row r="998" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C998" s="1"/>
     </row>
-    <row r="999" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C999" s="1"/>
     </row>
-    <row r="1000" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1000" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B46:B79"/>
+    <mergeCell ref="CK1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
     <mergeCell ref="CY1:DE1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
@@ -8249,10 +8255,6 @@
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
     <mergeCell ref="CD1:CJ1"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B46:B79"/>
-    <mergeCell ref="CK1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -8277,15 +8279,15 @@
       <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.796875" customWidth="1"/>
-    <col min="2" max="2" width="3.796875" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="158" width="3.796875" customWidth="1"/>
+    <col min="4" max="158" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
       <c r="E1" s="62" t="s">
         <v>73</v>
@@ -8476,7 +8478,7 @@
       <c r="FA1" s="63"/>
       <c r="FB1" s="63"/>
     </row>
-    <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="E2" s="5" t="s">
         <v>15</v>
@@ -8871,7 +8873,7 @@
       <c r="FA2" s="5"/>
       <c r="FB2" s="5"/>
     </row>
-    <row r="3" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
@@ -8880,12 +8882,12 @@
       <c r="K3" s="5"/>
       <c r="CX3" s="6"/>
     </row>
-    <row r="4" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>26</v>
       </c>
@@ -9001,7 +9003,7 @@
       <c r="DG5" s="39"/>
       <c r="DH5" s="39"/>
     </row>
-    <row r="6" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
@@ -9009,7 +9011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
@@ -9125,24 +9127,24 @@
       <c r="DG7" s="39"/>
       <c r="DH7" s="39"/>
     </row>
-    <row r="8" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
@@ -9255,22 +9257,22 @@
       <c r="DG11" s="39"/>
       <c r="DH11" s="39"/>
     </row>
-    <row r="12" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
@@ -9383,32 +9385,32 @@
       <c r="DG15" s="39"/>
       <c r="DH15" s="39"/>
     </row>
-    <row r="16" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>262</v>
       </c>
@@ -9507,7 +9509,7 @@
       <c r="DG21" s="39"/>
       <c r="DH21" s="39"/>
     </row>
-    <row r="22" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
@@ -9620,7 +9622,7 @@
       <c r="DG22" s="39"/>
       <c r="DH22" s="39"/>
     </row>
-    <row r="23" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="34" t="s">
         <v>60</v>
       </c>
@@ -9629,10 +9631,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>61</v>
       </c>
@@ -9731,7 +9733,7 @@
       <c r="DG25" s="39"/>
       <c r="DH25" s="39"/>
     </row>
-    <row r="26" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>62</v>
       </c>
@@ -9760,7 +9762,7 @@
       <c r="DG26" s="39"/>
       <c r="DH26" s="39"/>
     </row>
-    <row r="27" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>63</v>
       </c>
@@ -9789,7 +9791,7 @@
       <c r="DG27" s="39"/>
       <c r="DH27" s="39"/>
     </row>
-    <row r="28" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>64</v>
       </c>
@@ -9888,7 +9890,7 @@
       <c r="DG28" s="39"/>
       <c r="DH28" s="39"/>
     </row>
-    <row r="29" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>65</v>
       </c>
@@ -9917,7 +9919,7 @@
       <c r="DG29" s="39"/>
       <c r="DH29" s="39"/>
     </row>
-    <row r="30" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>66</v>
       </c>
@@ -10016,21 +10018,21 @@
       <c r="DG30" s="39"/>
       <c r="DH30" s="39"/>
     </row>
-    <row r="31" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>67</v>
       </c>
       <c r="DG31" s="39"/>
       <c r="DH31" s="39"/>
     </row>
-    <row r="32" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
       <c r="DG32" s="39"/>
       <c r="DH32" s="39"/>
     </row>
-    <row r="33" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="34" t="s">
         <v>100</v>
       </c>
@@ -10039,10 +10041,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="34" t="s">
         <v>69</v>
       </c>
@@ -10064,7 +10066,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>70</v>
       </c>
@@ -10079,7 +10081,7 @@
       <c r="DG36" s="39"/>
       <c r="DH36" s="39"/>
     </row>
-    <row r="37" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
@@ -10094,7 +10096,7 @@
       <c r="DG37" s="39"/>
       <c r="DH37" s="39"/>
     </row>
-    <row r="38" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>72</v>
       </c>
@@ -10109,12 +10111,12 @@
       <c r="DK38" s="39"/>
       <c r="DL38" s="39"/>
     </row>
-    <row r="40" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="60" t="s">
         <v>255</v>
       </c>
@@ -10154,7 +10156,7 @@
       <c r="CI41" s="39"/>
       <c r="CJ41" s="39"/>
     </row>
-    <row r="42" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="60" t="s">
         <v>256</v>
       </c>
@@ -10194,7 +10196,7 @@
       <c r="CI42" s="39"/>
       <c r="CJ42" s="39"/>
     </row>
-    <row r="43" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="60" t="s">
         <v>257</v>
       </c>
@@ -10234,7 +10236,7 @@
       <c r="CI43" s="39"/>
       <c r="CJ43" s="39"/>
     </row>
-    <row r="44" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="61" t="s">
         <v>259</v>
       </c>
@@ -10279,13 +10281,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="EH1:EN1"/>
     <mergeCell ref="EO1:EU1"/>
     <mergeCell ref="EV1:FB1"/>
@@ -10301,6 +10296,13 @@
     <mergeCell ref="DM1:DS1"/>
     <mergeCell ref="DT1:DZ1"/>
     <mergeCell ref="EA1:EG1"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10317,24 +10319,24 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.796875" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="37.1328125" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>90</v>
       </c>
@@ -10348,7 +10350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -10365,7 +10367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -10382,7 +10384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>53</v>
       </c>
@@ -10399,7 +10401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>95</v>
       </c>
@@ -10414,7 +10416,7 @@
       </c>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>97</v>
       </c>
@@ -10428,7 +10430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>98</v>
       </c>
@@ -10442,7 +10444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>248</v>
       </c>
@@ -10456,2962 +10458,2962 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
-    <row r="33" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B124" s="4"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B126" s="4"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B127" s="4"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B128" s="4"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B130" s="4"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B131" s="4"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B132" s="4"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B133" s="4"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B134" s="4"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B135" s="4"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B136" s="4"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B137" s="4"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B162" s="4"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B164" s="4"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B165" s="4"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B166" s="4"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B168" s="4"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B169" s="4"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B170" s="4"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B177" s="4"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B178" s="4"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B179" s="4"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B181" s="4"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B182" s="4"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B183" s="4"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B184" s="4"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B185" s="4"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B186" s="4"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B189" s="4"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B190" s="4"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B191" s="4"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B192" s="4"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B193" s="4"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B194" s="4"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B195" s="4"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B198" s="4"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B199" s="4"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B200" s="4"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B201" s="4"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B202" s="4"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B205" s="4"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B206" s="4"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B207" s="4"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B208" s="4"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B209" s="4"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B210" s="4"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B211" s="4"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B212" s="4"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B213" s="4"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B214" s="4"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B215" s="4"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B216" s="4"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B217" s="4"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B218" s="4"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B219" s="4"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B221" s="4"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B222" s="4"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B223" s="4"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B224" s="4"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B225" s="4"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B226" s="4"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B227" s="4"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B228" s="4"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B229" s="4"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B230" s="4"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B231" s="4"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B232" s="4"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B233" s="4"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B234" s="4"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B235" s="4"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B238" s="4"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B239" s="4"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B240" s="4"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B241" s="4"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B242" s="4"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B243" s="4"/>
     </row>
-    <row r="244" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B244" s="4"/>
     </row>
-    <row r="245" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B245" s="4"/>
     </row>
-    <row r="246" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B246" s="4"/>
     </row>
-    <row r="247" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B247" s="4"/>
     </row>
-    <row r="248" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B248" s="4"/>
     </row>
-    <row r="249" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B249" s="4"/>
     </row>
-    <row r="250" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B250" s="4"/>
     </row>
-    <row r="251" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B251" s="4"/>
     </row>
-    <row r="252" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B252" s="4"/>
     </row>
-    <row r="253" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B254" s="4"/>
     </row>
-    <row r="255" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B255" s="4"/>
     </row>
-    <row r="256" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B256" s="4"/>
     </row>
-    <row r="257" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B257" s="4"/>
     </row>
-    <row r="258" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B258" s="4"/>
     </row>
-    <row r="259" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B259" s="4"/>
     </row>
-    <row r="260" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B260" s="4"/>
     </row>
-    <row r="261" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B261" s="4"/>
     </row>
-    <row r="262" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B262" s="4"/>
     </row>
-    <row r="263" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B263" s="4"/>
     </row>
-    <row r="264" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B264" s="4"/>
     </row>
-    <row r="265" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B265" s="4"/>
     </row>
-    <row r="266" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B266" s="4"/>
     </row>
-    <row r="267" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B267" s="4"/>
     </row>
-    <row r="268" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B268" s="4"/>
     </row>
-    <row r="269" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B271" s="4"/>
     </row>
-    <row r="272" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B272" s="4"/>
     </row>
-    <row r="273" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B273" s="4"/>
     </row>
-    <row r="274" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B274" s="4"/>
     </row>
-    <row r="275" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B275" s="4"/>
     </row>
-    <row r="276" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B276" s="4"/>
     </row>
-    <row r="277" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B277" s="4"/>
     </row>
-    <row r="278" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B278" s="4"/>
     </row>
-    <row r="279" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B279" s="4"/>
     </row>
-    <row r="280" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B280" s="4"/>
     </row>
-    <row r="281" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B281" s="4"/>
     </row>
-    <row r="282" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B282" s="4"/>
     </row>
-    <row r="283" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B283" s="4"/>
     </row>
-    <row r="284" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B284" s="4"/>
     </row>
-    <row r="285" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B285" s="4"/>
     </row>
-    <row r="286" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B286" s="4"/>
     </row>
-    <row r="287" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B287" s="4"/>
     </row>
-    <row r="288" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B288" s="4"/>
     </row>
-    <row r="289" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B289" s="4"/>
     </row>
-    <row r="290" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B290" s="4"/>
     </row>
-    <row r="291" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B291" s="4"/>
     </row>
-    <row r="292" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B292" s="4"/>
     </row>
-    <row r="293" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B293" s="4"/>
     </row>
-    <row r="294" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B294" s="4"/>
     </row>
-    <row r="295" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B295" s="4"/>
     </row>
-    <row r="296" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B296" s="4"/>
     </row>
-    <row r="297" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B297" s="4"/>
     </row>
-    <row r="298" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B298" s="4"/>
     </row>
-    <row r="299" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B299" s="4"/>
     </row>
-    <row r="300" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B300" s="4"/>
     </row>
-    <row r="301" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B301" s="4"/>
     </row>
-    <row r="302" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B303" s="4"/>
     </row>
-    <row r="304" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B304" s="4"/>
     </row>
-    <row r="305" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B305" s="4"/>
     </row>
-    <row r="306" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B306" s="4"/>
     </row>
-    <row r="307" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B307" s="4"/>
     </row>
-    <row r="308" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B308" s="4"/>
     </row>
-    <row r="309" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B309" s="4"/>
     </row>
-    <row r="310" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B310" s="4"/>
     </row>
-    <row r="311" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B311" s="4"/>
     </row>
-    <row r="312" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B312" s="4"/>
     </row>
-    <row r="313" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B313" s="4"/>
     </row>
-    <row r="314" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B314" s="4"/>
     </row>
-    <row r="315" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B315" s="4"/>
     </row>
-    <row r="316" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B316" s="4"/>
     </row>
-    <row r="317" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B317" s="4"/>
     </row>
-    <row r="318" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B318" s="4"/>
     </row>
-    <row r="319" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B319" s="4"/>
     </row>
-    <row r="320" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B320" s="4"/>
     </row>
-    <row r="321" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B321" s="4"/>
     </row>
-    <row r="322" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B322" s="4"/>
     </row>
-    <row r="323" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B323" s="4"/>
     </row>
-    <row r="324" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B324" s="4"/>
     </row>
-    <row r="325" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B325" s="4"/>
     </row>
-    <row r="326" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B326" s="4"/>
     </row>
-    <row r="327" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B327" s="4"/>
     </row>
-    <row r="328" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B328" s="4"/>
     </row>
-    <row r="329" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B329" s="4"/>
     </row>
-    <row r="330" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B330" s="4"/>
     </row>
-    <row r="331" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B331" s="4"/>
     </row>
-    <row r="332" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B332" s="4"/>
     </row>
-    <row r="333" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B333" s="4"/>
     </row>
-    <row r="334" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B334" s="4"/>
     </row>
-    <row r="335" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B335" s="4"/>
     </row>
-    <row r="336" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B336" s="4"/>
     </row>
-    <row r="337" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B337" s="4"/>
     </row>
-    <row r="338" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B338" s="4"/>
     </row>
-    <row r="339" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B339" s="4"/>
     </row>
-    <row r="340" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B340" s="4"/>
     </row>
-    <row r="341" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B341" s="4"/>
     </row>
-    <row r="342" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B342" s="4"/>
     </row>
-    <row r="343" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B343" s="4"/>
     </row>
-    <row r="344" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B344" s="4"/>
     </row>
-    <row r="345" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B345" s="4"/>
     </row>
-    <row r="346" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B346" s="4"/>
     </row>
-    <row r="347" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B347" s="4"/>
     </row>
-    <row r="348" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B348" s="4"/>
     </row>
-    <row r="349" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B349" s="4"/>
     </row>
-    <row r="350" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B350" s="4"/>
     </row>
-    <row r="351" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B351" s="4"/>
     </row>
-    <row r="352" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B352" s="4"/>
     </row>
-    <row r="353" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B353" s="4"/>
     </row>
-    <row r="354" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B354" s="4"/>
     </row>
-    <row r="355" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B355" s="4"/>
     </row>
-    <row r="356" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B356" s="4"/>
     </row>
-    <row r="357" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B357" s="4"/>
     </row>
-    <row r="358" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B358" s="4"/>
     </row>
-    <row r="359" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B359" s="4"/>
     </row>
-    <row r="360" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B360" s="4"/>
     </row>
-    <row r="361" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B361" s="4"/>
     </row>
-    <row r="362" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B362" s="4"/>
     </row>
-    <row r="363" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B363" s="4"/>
     </row>
-    <row r="364" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B364" s="4"/>
     </row>
-    <row r="365" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B365" s="4"/>
     </row>
-    <row r="366" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B366" s="4"/>
     </row>
-    <row r="367" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B367" s="4"/>
     </row>
-    <row r="368" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B368" s="4"/>
     </row>
-    <row r="369" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B369" s="4"/>
     </row>
-    <row r="370" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B370" s="4"/>
     </row>
-    <row r="371" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B371" s="4"/>
     </row>
-    <row r="372" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B372" s="4"/>
     </row>
-    <row r="373" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B373" s="4"/>
     </row>
-    <row r="374" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B374" s="4"/>
     </row>
-    <row r="375" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B375" s="4"/>
     </row>
-    <row r="376" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B376" s="4"/>
     </row>
-    <row r="377" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B377" s="4"/>
     </row>
-    <row r="378" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B378" s="4"/>
     </row>
-    <row r="379" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B379" s="4"/>
     </row>
-    <row r="380" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B380" s="4"/>
     </row>
-    <row r="381" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B381" s="4"/>
     </row>
-    <row r="382" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B382" s="4"/>
     </row>
-    <row r="383" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B383" s="4"/>
     </row>
-    <row r="384" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B384" s="4"/>
     </row>
-    <row r="385" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B385" s="4"/>
     </row>
-    <row r="386" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="4"/>
     </row>
-    <row r="387" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="4"/>
     </row>
-    <row r="388" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="4"/>
     </row>
-    <row r="389" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B389" s="4"/>
     </row>
-    <row r="390" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B390" s="4"/>
     </row>
-    <row r="391" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B391" s="4"/>
     </row>
-    <row r="392" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B392" s="4"/>
     </row>
-    <row r="393" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B393" s="4"/>
     </row>
-    <row r="394" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B394" s="4"/>
     </row>
-    <row r="395" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B395" s="4"/>
     </row>
-    <row r="396" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B396" s="4"/>
     </row>
-    <row r="397" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B398" s="4"/>
     </row>
-    <row r="399" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B400" s="4"/>
     </row>
-    <row r="401" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B401" s="4"/>
     </row>
-    <row r="402" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B402" s="4"/>
     </row>
-    <row r="403" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="4"/>
     </row>
-    <row r="405" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="4"/>
     </row>
-    <row r="406" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B406" s="4"/>
     </row>
-    <row r="407" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="4"/>
     </row>
-    <row r="408" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B408" s="4"/>
     </row>
-    <row r="409" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B409" s="4"/>
     </row>
-    <row r="410" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B410" s="4"/>
     </row>
-    <row r="411" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B411" s="4"/>
     </row>
-    <row r="412" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B412" s="4"/>
     </row>
-    <row r="413" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="4"/>
     </row>
-    <row r="414" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B414" s="4"/>
     </row>
-    <row r="415" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B415" s="4"/>
     </row>
-    <row r="416" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B417" s="4"/>
     </row>
-    <row r="418" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B418" s="4"/>
     </row>
-    <row r="419" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B419" s="4"/>
     </row>
-    <row r="420" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B420" s="4"/>
     </row>
-    <row r="421" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B421" s="4"/>
     </row>
-    <row r="422" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="4"/>
     </row>
-    <row r="423" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="4"/>
     </row>
-    <row r="424" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="4"/>
     </row>
-    <row r="425" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B425" s="4"/>
     </row>
-    <row r="426" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B426" s="4"/>
     </row>
-    <row r="427" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B427" s="4"/>
     </row>
-    <row r="428" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B428" s="4"/>
     </row>
-    <row r="429" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B429" s="4"/>
     </row>
-    <row r="430" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B430" s="4"/>
     </row>
-    <row r="431" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B431" s="4"/>
     </row>
-    <row r="432" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B432" s="4"/>
     </row>
-    <row r="433" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="4"/>
     </row>
-    <row r="434" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="4"/>
     </row>
-    <row r="435" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="4"/>
     </row>
-    <row r="436" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B436" s="4"/>
     </row>
-    <row r="437" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B437" s="4"/>
     </row>
-    <row r="438" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="4"/>
     </row>
-    <row r="439" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B439" s="4"/>
     </row>
-    <row r="440" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B440" s="4"/>
     </row>
-    <row r="441" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B441" s="4"/>
     </row>
-    <row r="442" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B442" s="4"/>
     </row>
-    <row r="443" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B443" s="4"/>
     </row>
-    <row r="444" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B444" s="4"/>
     </row>
-    <row r="445" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B445" s="4"/>
     </row>
-    <row r="446" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B446" s="4"/>
     </row>
-    <row r="447" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B447" s="4"/>
     </row>
-    <row r="448" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B448" s="4"/>
     </row>
-    <row r="449" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B449" s="4"/>
     </row>
-    <row r="450" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B450" s="4"/>
     </row>
-    <row r="451" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B451" s="4"/>
     </row>
-    <row r="452" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B452" s="4"/>
     </row>
-    <row r="453" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B453" s="4"/>
     </row>
-    <row r="454" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B454" s="4"/>
     </row>
-    <row r="455" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B455" s="4"/>
     </row>
-    <row r="456" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B456" s="4"/>
     </row>
-    <row r="457" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B457" s="4"/>
     </row>
-    <row r="458" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B458" s="4"/>
     </row>
-    <row r="459" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B459" s="4"/>
     </row>
-    <row r="460" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B460" s="4"/>
     </row>
-    <row r="461" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B461" s="4"/>
     </row>
-    <row r="462" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B462" s="4"/>
     </row>
-    <row r="463" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B463" s="4"/>
     </row>
-    <row r="464" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B464" s="4"/>
     </row>
-    <row r="465" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B465" s="4"/>
     </row>
-    <row r="466" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B466" s="4"/>
     </row>
-    <row r="467" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B467" s="4"/>
     </row>
-    <row r="468" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B468" s="4"/>
     </row>
-    <row r="469" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B469" s="4"/>
     </row>
-    <row r="470" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B470" s="4"/>
     </row>
-    <row r="471" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B471" s="4"/>
     </row>
-    <row r="472" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B472" s="4"/>
     </row>
-    <row r="473" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B473" s="4"/>
     </row>
-    <row r="474" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B474" s="4"/>
     </row>
-    <row r="475" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B475" s="4"/>
     </row>
-    <row r="476" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B476" s="4"/>
     </row>
-    <row r="477" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B477" s="4"/>
     </row>
-    <row r="478" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B478" s="4"/>
     </row>
-    <row r="479" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B479" s="4"/>
     </row>
-    <row r="480" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B480" s="4"/>
     </row>
-    <row r="481" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B481" s="4"/>
     </row>
-    <row r="482" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B482" s="4"/>
     </row>
-    <row r="483" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B483" s="4"/>
     </row>
-    <row r="484" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B484" s="4"/>
     </row>
-    <row r="485" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B485" s="4"/>
     </row>
-    <row r="486" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B486" s="4"/>
     </row>
-    <row r="487" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B487" s="4"/>
     </row>
-    <row r="488" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B488" s="4"/>
     </row>
-    <row r="489" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B489" s="4"/>
     </row>
-    <row r="490" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B490" s="4"/>
     </row>
-    <row r="491" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B491" s="4"/>
     </row>
-    <row r="492" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B492" s="4"/>
     </row>
-    <row r="493" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B493" s="4"/>
     </row>
-    <row r="494" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B494" s="4"/>
     </row>
-    <row r="495" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B495" s="4"/>
     </row>
-    <row r="496" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B496" s="4"/>
     </row>
-    <row r="497" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B497" s="4"/>
     </row>
-    <row r="498" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B498" s="4"/>
     </row>
-    <row r="499" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B499" s="4"/>
     </row>
-    <row r="500" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B500" s="4"/>
     </row>
-    <row r="501" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B501" s="4"/>
     </row>
-    <row r="502" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B502" s="4"/>
     </row>
-    <row r="503" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B503" s="4"/>
     </row>
-    <row r="504" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B504" s="4"/>
     </row>
-    <row r="505" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B505" s="4"/>
     </row>
-    <row r="506" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B506" s="4"/>
     </row>
-    <row r="507" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B507" s="4"/>
     </row>
-    <row r="508" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B508" s="4"/>
     </row>
-    <row r="509" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B509" s="4"/>
     </row>
-    <row r="510" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B510" s="4"/>
     </row>
-    <row r="511" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B511" s="4"/>
     </row>
-    <row r="512" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B512" s="4"/>
     </row>
-    <row r="513" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B513" s="4"/>
     </row>
-    <row r="514" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B514" s="4"/>
     </row>
-    <row r="515" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B515" s="4"/>
     </row>
-    <row r="516" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B516" s="4"/>
     </row>
-    <row r="517" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B517" s="4"/>
     </row>
-    <row r="518" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B518" s="4"/>
     </row>
-    <row r="519" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B519" s="4"/>
     </row>
-    <row r="520" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B520" s="4"/>
     </row>
-    <row r="521" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B521" s="4"/>
     </row>
-    <row r="522" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B522" s="4"/>
     </row>
-    <row r="523" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B523" s="4"/>
     </row>
-    <row r="524" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B524" s="4"/>
     </row>
-    <row r="525" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B525" s="4"/>
     </row>
-    <row r="526" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B526" s="4"/>
     </row>
-    <row r="527" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B527" s="4"/>
     </row>
-    <row r="528" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B528" s="4"/>
     </row>
-    <row r="529" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B529" s="4"/>
     </row>
-    <row r="530" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B530" s="4"/>
     </row>
-    <row r="531" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B531" s="4"/>
     </row>
-    <row r="532" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B532" s="4"/>
     </row>
-    <row r="533" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B533" s="4"/>
     </row>
-    <row r="534" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B534" s="4"/>
     </row>
-    <row r="535" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B535" s="4"/>
     </row>
-    <row r="536" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B536" s="4"/>
     </row>
-    <row r="537" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B537" s="4"/>
     </row>
-    <row r="538" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B538" s="4"/>
     </row>
-    <row r="539" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B539" s="4"/>
     </row>
-    <row r="540" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B540" s="4"/>
     </row>
-    <row r="541" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B541" s="4"/>
     </row>
-    <row r="542" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B542" s="4"/>
     </row>
-    <row r="543" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B543" s="4"/>
     </row>
-    <row r="544" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B544" s="4"/>
     </row>
-    <row r="545" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B545" s="4"/>
     </row>
-    <row r="546" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B546" s="4"/>
     </row>
-    <row r="547" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B547" s="4"/>
     </row>
-    <row r="548" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B548" s="4"/>
     </row>
-    <row r="549" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B549" s="4"/>
     </row>
-    <row r="550" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B550" s="4"/>
     </row>
-    <row r="551" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B551" s="4"/>
     </row>
-    <row r="552" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B552" s="4"/>
     </row>
-    <row r="553" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B553" s="4"/>
     </row>
-    <row r="554" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B554" s="4"/>
     </row>
-    <row r="555" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B555" s="4"/>
     </row>
-    <row r="556" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B556" s="4"/>
     </row>
-    <row r="557" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B557" s="4"/>
     </row>
-    <row r="558" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B558" s="4"/>
     </row>
-    <row r="559" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B559" s="4"/>
     </row>
-    <row r="560" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B560" s="4"/>
     </row>
-    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B561" s="4"/>
     </row>
-    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B562" s="4"/>
     </row>
-    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B563" s="4"/>
     </row>
-    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B564" s="4"/>
     </row>
-    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B565" s="4"/>
     </row>
-    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B566" s="4"/>
     </row>
-    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B567" s="4"/>
     </row>
-    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B568" s="4"/>
     </row>
-    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B569" s="4"/>
     </row>
-    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B570" s="4"/>
     </row>
-    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B571" s="4"/>
     </row>
-    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B572" s="4"/>
     </row>
-    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B573" s="4"/>
     </row>
-    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B574" s="4"/>
     </row>
-    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B575" s="4"/>
     </row>
-    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B576" s="4"/>
     </row>
-    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B577" s="4"/>
     </row>
-    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B578" s="4"/>
     </row>
-    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B579" s="4"/>
     </row>
-    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B580" s="4"/>
     </row>
-    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B581" s="4"/>
     </row>
-    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B582" s="4"/>
     </row>
-    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B583" s="4"/>
     </row>
-    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B584" s="4"/>
     </row>
-    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B585" s="4"/>
     </row>
-    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B586" s="4"/>
     </row>
-    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B587" s="4"/>
     </row>
-    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B588" s="4"/>
     </row>
-    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="589" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B589" s="4"/>
     </row>
-    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B590" s="4"/>
     </row>
-    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B591" s="4"/>
     </row>
-    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="592" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B592" s="4"/>
     </row>
-    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B593" s="4"/>
     </row>
-    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="594" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B594" s="4"/>
     </row>
-    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="595" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B595" s="4"/>
     </row>
-    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="596" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B596" s="4"/>
     </row>
-    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B597" s="4"/>
     </row>
-    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="598" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B598" s="4"/>
     </row>
-    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="599" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B599" s="4"/>
     </row>
-    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="600" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B600" s="4"/>
     </row>
-    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="601" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B601" s="4"/>
     </row>
-    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="602" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B602" s="4"/>
     </row>
-    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B603" s="4"/>
     </row>
-    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="604" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B604" s="4"/>
     </row>
-    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B605" s="4"/>
     </row>
-    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B606" s="4"/>
     </row>
-    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="607" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B607" s="4"/>
     </row>
-    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="608" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B608" s="4"/>
     </row>
-    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="609" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B609" s="4"/>
     </row>
-    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="610" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B610" s="4"/>
     </row>
-    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="611" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B611" s="4"/>
     </row>
-    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="612" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B612" s="4"/>
     </row>
-    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="613" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B613" s="4"/>
     </row>
-    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="614" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B614" s="4"/>
     </row>
-    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B615" s="4"/>
     </row>
-    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="616" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B616" s="4"/>
     </row>
-    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="617" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B617" s="4"/>
     </row>
-    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="618" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B618" s="4"/>
     </row>
-    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="619" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B619" s="4"/>
     </row>
-    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="620" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B620" s="4"/>
     </row>
-    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="621" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B621" s="4"/>
     </row>
-    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="622" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B622" s="4"/>
     </row>
-    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="623" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B623" s="4"/>
     </row>
-    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="624" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B624" s="4"/>
     </row>
-    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="625" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B625" s="4"/>
     </row>
-    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="626" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B626" s="4"/>
     </row>
-    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="627" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B627" s="4"/>
     </row>
-    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="628" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B628" s="4"/>
     </row>
-    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="629" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B629" s="4"/>
     </row>
-    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="630" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B630" s="4"/>
     </row>
-    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="631" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B631" s="4"/>
     </row>
-    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="632" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B632" s="4"/>
     </row>
-    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="633" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B633" s="4"/>
     </row>
-    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="634" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B634" s="4"/>
     </row>
-    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="635" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B635" s="4"/>
     </row>
-    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="636" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B636" s="4"/>
     </row>
-    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="637" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B637" s="4"/>
     </row>
-    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="638" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B638" s="4"/>
     </row>
-    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="639" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B639" s="4"/>
     </row>
-    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="640" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B640" s="4"/>
     </row>
-    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="641" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B641" s="4"/>
     </row>
-    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="642" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B642" s="4"/>
     </row>
-    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="643" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B643" s="4"/>
     </row>
-    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="644" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B644" s="4"/>
     </row>
-    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="645" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B645" s="4"/>
     </row>
-    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="646" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B646" s="4"/>
     </row>
-    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="647" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B647" s="4"/>
     </row>
-    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="648" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B648" s="4"/>
     </row>
-    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="649" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B649" s="4"/>
     </row>
-    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="650" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B650" s="4"/>
     </row>
-    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="651" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B651" s="4"/>
     </row>
-    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="652" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B652" s="4"/>
     </row>
-    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="653" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B653" s="4"/>
     </row>
-    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="654" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B654" s="4"/>
     </row>
-    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="655" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B655" s="4"/>
     </row>
-    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="656" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B656" s="4"/>
     </row>
-    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="657" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B657" s="4"/>
     </row>
-    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="658" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B658" s="4"/>
     </row>
-    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="659" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B659" s="4"/>
     </row>
-    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="660" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B660" s="4"/>
     </row>
-    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="661" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B661" s="4"/>
     </row>
-    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="662" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B662" s="4"/>
     </row>
-    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="663" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B663" s="4"/>
     </row>
-    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="664" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B664" s="4"/>
     </row>
-    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="665" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B665" s="4"/>
     </row>
-    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="666" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B666" s="4"/>
     </row>
-    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="667" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B667" s="4"/>
     </row>
-    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="668" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B668" s="4"/>
     </row>
-    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="669" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B669" s="4"/>
     </row>
-    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="670" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B670" s="4"/>
     </row>
-    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="671" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B671" s="4"/>
     </row>
-    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="672" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B672" s="4"/>
     </row>
-    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="673" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B673" s="4"/>
     </row>
-    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="674" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B674" s="4"/>
     </row>
-    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="675" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B675" s="4"/>
     </row>
-    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="676" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B676" s="4"/>
     </row>
-    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="677" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B677" s="4"/>
     </row>
-    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="678" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B678" s="4"/>
     </row>
-    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="679" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B679" s="4"/>
     </row>
-    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="680" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B680" s="4"/>
     </row>
-    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="681" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B681" s="4"/>
     </row>
-    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="682" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B682" s="4"/>
     </row>
-    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="683" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B683" s="4"/>
     </row>
-    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="684" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B684" s="4"/>
     </row>
-    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="685" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B685" s="4"/>
     </row>
-    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="686" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B686" s="4"/>
     </row>
-    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="687" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B687" s="4"/>
     </row>
-    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="688" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B688" s="4"/>
     </row>
-    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="689" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B689" s="4"/>
     </row>
-    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="690" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B690" s="4"/>
     </row>
-    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="691" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B691" s="4"/>
     </row>
-    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="692" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B692" s="4"/>
     </row>
-    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="693" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B693" s="4"/>
     </row>
-    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="694" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B694" s="4"/>
     </row>
-    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="695" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B695" s="4"/>
     </row>
-    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="696" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B696" s="4"/>
     </row>
-    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="697" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B697" s="4"/>
     </row>
-    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="698" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B698" s="4"/>
     </row>
-    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="699" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B699" s="4"/>
     </row>
-    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="700" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B700" s="4"/>
     </row>
-    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="701" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B701" s="4"/>
     </row>
-    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="702" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B702" s="4"/>
     </row>
-    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="703" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B703" s="4"/>
     </row>
-    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="704" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B704" s="4"/>
     </row>
-    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="705" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B705" s="4"/>
     </row>
-    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="706" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B706" s="4"/>
     </row>
-    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="707" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B707" s="4"/>
     </row>
-    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="708" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B708" s="4"/>
     </row>
-    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="709" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B709" s="4"/>
     </row>
-    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="710" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B710" s="4"/>
     </row>
-    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="711" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B711" s="4"/>
     </row>
-    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="712" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B712" s="4"/>
     </row>
-    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="713" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B713" s="4"/>
     </row>
-    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="714" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B714" s="4"/>
     </row>
-    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="715" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B715" s="4"/>
     </row>
-    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="716" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B716" s="4"/>
     </row>
-    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="717" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B717" s="4"/>
     </row>
-    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="718" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B718" s="4"/>
     </row>
-    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="719" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B719" s="4"/>
     </row>
-    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="720" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B720" s="4"/>
     </row>
-    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="721" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B721" s="4"/>
     </row>
-    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="722" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B722" s="4"/>
     </row>
-    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="723" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B723" s="4"/>
     </row>
-    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="724" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B724" s="4"/>
     </row>
-    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="725" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B725" s="4"/>
     </row>
-    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="726" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B726" s="4"/>
     </row>
-    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="727" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B727" s="4"/>
     </row>
-    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="728" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B728" s="4"/>
     </row>
-    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="729" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B729" s="4"/>
     </row>
-    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="730" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B730" s="4"/>
     </row>
-    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="731" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B731" s="4"/>
     </row>
-    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="732" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B732" s="4"/>
     </row>
-    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="733" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B733" s="4"/>
     </row>
-    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="734" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B734" s="4"/>
     </row>
-    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="735" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B735" s="4"/>
     </row>
-    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="736" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B736" s="4"/>
     </row>
-    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="737" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B737" s="4"/>
     </row>
-    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="738" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B738" s="4"/>
     </row>
-    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="739" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B739" s="4"/>
     </row>
-    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="740" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B740" s="4"/>
     </row>
-    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="741" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B741" s="4"/>
     </row>
-    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="742" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B742" s="4"/>
     </row>
-    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="743" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B743" s="4"/>
     </row>
-    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="744" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B744" s="4"/>
     </row>
-    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="745" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B745" s="4"/>
     </row>
-    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="746" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B746" s="4"/>
     </row>
-    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="747" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B747" s="4"/>
     </row>
-    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="748" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B748" s="4"/>
     </row>
-    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="749" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B749" s="4"/>
     </row>
-    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="750" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B750" s="4"/>
     </row>
-    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="751" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B751" s="4"/>
     </row>
-    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="752" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B752" s="4"/>
     </row>
-    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="753" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B753" s="4"/>
     </row>
-    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="754" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B754" s="4"/>
     </row>
-    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="755" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B755" s="4"/>
     </row>
-    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="756" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B756" s="4"/>
     </row>
-    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="757" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B757" s="4"/>
     </row>
-    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="758" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B758" s="4"/>
     </row>
-    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="759" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B759" s="4"/>
     </row>
-    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="760" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B760" s="4"/>
     </row>
-    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="761" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B761" s="4"/>
     </row>
-    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="762" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B762" s="4"/>
     </row>
-    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="763" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B763" s="4"/>
     </row>
-    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="764" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B764" s="4"/>
     </row>
-    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="765" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B765" s="4"/>
     </row>
-    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="766" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B766" s="4"/>
     </row>
-    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="767" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B767" s="4"/>
     </row>
-    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="768" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B768" s="4"/>
     </row>
-    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="769" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B769" s="4"/>
     </row>
-    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="770" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B770" s="4"/>
     </row>
-    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="771" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B771" s="4"/>
     </row>
-    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="772" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B772" s="4"/>
     </row>
-    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="773" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B773" s="4"/>
     </row>
-    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="774" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B774" s="4"/>
     </row>
-    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="775" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B775" s="4"/>
     </row>
-    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="776" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B776" s="4"/>
     </row>
-    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="777" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B777" s="4"/>
     </row>
-    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="778" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B778" s="4"/>
     </row>
-    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="779" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B779" s="4"/>
     </row>
-    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="780" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B780" s="4"/>
     </row>
-    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="781" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B781" s="4"/>
     </row>
-    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="782" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B782" s="4"/>
     </row>
-    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="783" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B783" s="4"/>
     </row>
-    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="784" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B784" s="4"/>
     </row>
-    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="785" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B785" s="4"/>
     </row>
-    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="786" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B786" s="4"/>
     </row>
-    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="787" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B787" s="4"/>
     </row>
-    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="788" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B788" s="4"/>
     </row>
-    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="789" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B789" s="4"/>
     </row>
-    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="790" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B790" s="4"/>
     </row>
-    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="791" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B791" s="4"/>
     </row>
-    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="792" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B792" s="4"/>
     </row>
-    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="793" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B793" s="4"/>
     </row>
-    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="794" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B794" s="4"/>
     </row>
-    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="795" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B795" s="4"/>
     </row>
-    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="796" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B796" s="4"/>
     </row>
-    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="797" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B797" s="4"/>
     </row>
-    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="798" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B798" s="4"/>
     </row>
-    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="799" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B799" s="4"/>
     </row>
-    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="800" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B800" s="4"/>
     </row>
-    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="801" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B801" s="4"/>
     </row>
-    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="802" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B802" s="4"/>
     </row>
-    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="803" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B803" s="4"/>
     </row>
-    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="804" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B804" s="4"/>
     </row>
-    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="805" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B805" s="4"/>
     </row>
-    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="806" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B806" s="4"/>
     </row>
-    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="807" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B807" s="4"/>
     </row>
-    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="808" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B808" s="4"/>
     </row>
-    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="809" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B809" s="4"/>
     </row>
-    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="810" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B810" s="4"/>
     </row>
-    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="811" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B811" s="4"/>
     </row>
-    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="812" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B812" s="4"/>
     </row>
-    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="813" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B813" s="4"/>
     </row>
-    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="814" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B814" s="4"/>
     </row>
-    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="815" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B815" s="4"/>
     </row>
-    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="816" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B816" s="4"/>
     </row>
-    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="817" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B817" s="4"/>
     </row>
-    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="818" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B818" s="4"/>
     </row>
-    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="819" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B819" s="4"/>
     </row>
-    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="820" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B820" s="4"/>
     </row>
-    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="821" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B821" s="4"/>
     </row>
-    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="822" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B822" s="4"/>
     </row>
-    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="823" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B823" s="4"/>
     </row>
-    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="824" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B824" s="4"/>
     </row>
-    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="825" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B825" s="4"/>
     </row>
-    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="826" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B826" s="4"/>
     </row>
-    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="827" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B827" s="4"/>
     </row>
-    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="828" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B828" s="4"/>
     </row>
-    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="829" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B829" s="4"/>
     </row>
-    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="830" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B830" s="4"/>
     </row>
-    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="831" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B831" s="4"/>
     </row>
-    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="832" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B832" s="4"/>
     </row>
-    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="833" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B833" s="4"/>
     </row>
-    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="834" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B834" s="4"/>
     </row>
-    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="835" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B835" s="4"/>
     </row>
-    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="836" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B836" s="4"/>
     </row>
-    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="837" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B837" s="4"/>
     </row>
-    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="838" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B838" s="4"/>
     </row>
-    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="839" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B839" s="4"/>
     </row>
-    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="840" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B840" s="4"/>
     </row>
-    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="841" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B841" s="4"/>
     </row>
-    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="842" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B842" s="4"/>
     </row>
-    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="843" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B843" s="4"/>
     </row>
-    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="844" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B844" s="4"/>
     </row>
-    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="845" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B845" s="4"/>
     </row>
-    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="846" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B846" s="4"/>
     </row>
-    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="847" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B847" s="4"/>
     </row>
-    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="848" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B848" s="4"/>
     </row>
-    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="849" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B849" s="4"/>
     </row>
-    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="850" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B850" s="4"/>
     </row>
-    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="851" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B851" s="4"/>
     </row>
-    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="852" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B852" s="4"/>
     </row>
-    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="853" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B853" s="4"/>
     </row>
-    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="854" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B854" s="4"/>
     </row>
-    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="855" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B855" s="4"/>
     </row>
-    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="856" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B856" s="4"/>
     </row>
-    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="857" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B857" s="4"/>
     </row>
-    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="858" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B858" s="4"/>
     </row>
-    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="859" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B859" s="4"/>
     </row>
-    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="860" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B860" s="4"/>
     </row>
-    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="861" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B861" s="4"/>
     </row>
-    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="862" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B862" s="4"/>
     </row>
-    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="863" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B863" s="4"/>
     </row>
-    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="864" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B864" s="4"/>
     </row>
-    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="865" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B865" s="4"/>
     </row>
-    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="866" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B866" s="4"/>
     </row>
-    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="867" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B867" s="4"/>
     </row>
-    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="868" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B868" s="4"/>
     </row>
-    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="869" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B869" s="4"/>
     </row>
-    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="870" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B870" s="4"/>
     </row>
-    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="871" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B871" s="4"/>
     </row>
-    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="872" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B872" s="4"/>
     </row>
-    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="873" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B873" s="4"/>
     </row>
-    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="874" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B874" s="4"/>
     </row>
-    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="875" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B875" s="4"/>
     </row>
-    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="876" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B876" s="4"/>
     </row>
-    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="877" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B877" s="4"/>
     </row>
-    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="878" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B878" s="4"/>
     </row>
-    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="879" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B879" s="4"/>
     </row>
-    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="880" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B880" s="4"/>
     </row>
-    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="881" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B881" s="4"/>
     </row>
-    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="882" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B882" s="4"/>
     </row>
-    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="883" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B883" s="4"/>
     </row>
-    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="884" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B884" s="4"/>
     </row>
-    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="885" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B885" s="4"/>
     </row>
-    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="886" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B886" s="4"/>
     </row>
-    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="887" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B887" s="4"/>
     </row>
-    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="888" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B888" s="4"/>
     </row>
-    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="889" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B889" s="4"/>
     </row>
-    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="890" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B890" s="4"/>
     </row>
-    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="891" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B891" s="4"/>
     </row>
-    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="892" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B892" s="4"/>
     </row>
-    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="893" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B893" s="4"/>
     </row>
-    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="894" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B894" s="4"/>
     </row>
-    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="895" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B895" s="4"/>
     </row>
-    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="896" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B896" s="4"/>
     </row>
-    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="897" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B897" s="4"/>
     </row>
-    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="898" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B898" s="4"/>
     </row>
-    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="899" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B899" s="4"/>
     </row>
-    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="900" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B900" s="4"/>
     </row>
-    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="901" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B901" s="4"/>
     </row>
-    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="902" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B902" s="4"/>
     </row>
-    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="903" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B903" s="4"/>
     </row>
-    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="904" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B904" s="4"/>
     </row>
-    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="905" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B905" s="4"/>
     </row>
-    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="906" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B906" s="4"/>
     </row>
-    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="907" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B907" s="4"/>
     </row>
-    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="908" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B908" s="4"/>
     </row>
-    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="909" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B909" s="4"/>
     </row>
-    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="910" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B910" s="4"/>
     </row>
-    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="911" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B911" s="4"/>
     </row>
-    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="912" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B912" s="4"/>
     </row>
-    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="913" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B913" s="4"/>
     </row>
-    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="914" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B914" s="4"/>
     </row>
-    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="915" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B915" s="4"/>
     </row>
-    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="916" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B916" s="4"/>
     </row>
-    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="917" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B917" s="4"/>
     </row>
-    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="918" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B918" s="4"/>
     </row>
-    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="919" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B919" s="4"/>
     </row>
-    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="920" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B920" s="4"/>
     </row>
-    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="921" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B921" s="4"/>
     </row>
-    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="922" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B922" s="4"/>
     </row>
-    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="923" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B923" s="4"/>
     </row>
-    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="924" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B924" s="4"/>
     </row>
-    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="925" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B925" s="4"/>
     </row>
-    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="926" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B926" s="4"/>
     </row>
-    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="927" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B927" s="4"/>
     </row>
-    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="928" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B928" s="4"/>
     </row>
-    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="929" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B929" s="4"/>
     </row>
-    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="930" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B930" s="4"/>
     </row>
-    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="931" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B931" s="4"/>
     </row>
-    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="932" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B932" s="4"/>
     </row>
-    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="933" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B933" s="4"/>
     </row>
-    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="934" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B934" s="4"/>
     </row>
-    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="935" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B935" s="4"/>
     </row>
-    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="936" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B936" s="4"/>
     </row>
-    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="937" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B937" s="4"/>
     </row>
-    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="938" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B938" s="4"/>
     </row>
-    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="939" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B939" s="4"/>
     </row>
-    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="940" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B940" s="4"/>
     </row>
-    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="941" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B941" s="4"/>
     </row>
-    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="942" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B942" s="4"/>
     </row>
-    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="943" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B943" s="4"/>
     </row>
-    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="944" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B944" s="4"/>
     </row>
-    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="945" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B945" s="4"/>
     </row>
-    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="946" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B946" s="4"/>
     </row>
-    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="947" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B947" s="4"/>
     </row>
-    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="948" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B948" s="4"/>
     </row>
-    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="949" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B949" s="4"/>
     </row>
-    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="950" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B950" s="4"/>
     </row>
-    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="951" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B951" s="4"/>
     </row>
-    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="952" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B952" s="4"/>
     </row>
-    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="953" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B953" s="4"/>
     </row>
-    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="954" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B954" s="4"/>
     </row>
-    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="955" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B955" s="4"/>
     </row>
-    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="956" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B956" s="4"/>
     </row>
-    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="957" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B957" s="4"/>
     </row>
-    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="958" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B958" s="4"/>
     </row>
-    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="959" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B959" s="4"/>
     </row>
-    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="960" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B960" s="4"/>
     </row>
-    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="961" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B961" s="4"/>
     </row>
-    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="962" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B962" s="4"/>
     </row>
-    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="963" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B963" s="4"/>
     </row>
-    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="964" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B964" s="4"/>
     </row>
-    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="965" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B965" s="4"/>
     </row>
-    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="966" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B966" s="4"/>
     </row>
-    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="967" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B967" s="4"/>
     </row>
-    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="968" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B968" s="4"/>
     </row>
-    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="969" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B969" s="4"/>
     </row>
-    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="970" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B970" s="4"/>
     </row>
-    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="971" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B971" s="4"/>
     </row>
-    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="972" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B972" s="4"/>
     </row>
-    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="973" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B973" s="4"/>
     </row>
-    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="974" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B974" s="4"/>
     </row>
-    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="975" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B975" s="4"/>
     </row>
-    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="976" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B976" s="4"/>
     </row>
-    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="977" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B977" s="4"/>
     </row>
-    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="978" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B978" s="4"/>
     </row>
-    <row r="979" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="979" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B979" s="4"/>
     </row>
-    <row r="980" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="980" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B980" s="4"/>
     </row>
-    <row r="981" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="981" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B981" s="4"/>
     </row>
-    <row r="982" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="982" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B982" s="4"/>
     </row>
-    <row r="983" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="983" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B983" s="4"/>
     </row>
-    <row r="984" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="984" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B984" s="4"/>
     </row>
-    <row r="985" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="985" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B985" s="4"/>
     </row>
-    <row r="986" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="986" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B986" s="4"/>
     </row>
-    <row r="987" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="987" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B987" s="4"/>
     </row>
-    <row r="988" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="988" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B988" s="4"/>
     </row>
-    <row r="989" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="989" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B989" s="4"/>
     </row>
-    <row r="990" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="990" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B990" s="4"/>
     </row>
-    <row r="991" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="991" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B991" s="4"/>
     </row>
-    <row r="992" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="992" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B992" s="4"/>
     </row>
-    <row r="993" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="993" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B993" s="4"/>
     </row>
-    <row r="994" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="994" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B994" s="4"/>
     </row>
-    <row r="995" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="995" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B995" s="4"/>
     </row>
-    <row r="996" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="996" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B996" s="4"/>
     </row>
-    <row r="997" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="997" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B997" s="4"/>
     </row>
-    <row r="998" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="998" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B998" s="4"/>
     </row>
-    <row r="999" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="999" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B999" s="4"/>
     </row>
-    <row r="1000" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1000" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1000" s="4"/>
     </row>
-    <row r="1001" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1001" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1001" s="4"/>
     </row>
   </sheetData>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annastaub/Library/Mobile Documents/com~apple~CloudDocs/FHGR/23 FS/Frontend Development 2/Frontend Development 1/front-projekt/documents/Projektmanagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93191DCD-8952-E740-B399-BFEA4B18955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6188FEC-42BB-2D43-819A-2088ECFADA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22160" yWindow="500" windowWidth="29040" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="5780" windowWidth="39860" windowHeight="21500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitbudget" sheetId="4" r:id="rId1"/>
@@ -1213,9 +1213,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1224,6 +1221,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1456,8 +1456,8 @@
   <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
+      <pane ySplit="7" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1576,15 +1576,15 @@
       </c>
       <c r="C6" s="30">
         <f>SUM(C10:C70)</f>
-        <v>118.5</v>
+        <v>120</v>
       </c>
       <c r="D6" s="27">
         <f>SUM(D10:D70)</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E6" s="28">
         <f>SUM(E10:E70)</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="31" t="s">
@@ -1592,15 +1592,15 @@
       </c>
       <c r="H6" s="30">
         <f>SUM(H10:H75)</f>
-        <v>72.25</v>
+        <v>73.75</v>
       </c>
       <c r="I6" s="27">
         <f>SUM(I10:I75)</f>
-        <v>70</v>
+        <v>72.5</v>
       </c>
       <c r="J6" s="28">
         <f>SUM(J10:J75)</f>
-        <v>63.5</v>
+        <v>65</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
@@ -1612,15 +1612,15 @@
       </c>
       <c r="C7" s="30">
         <f t="shared" ref="C7:E7" si="0">C5-C6</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="31" t="s">
@@ -1628,15 +1628,15 @@
       </c>
       <c r="H7" s="30">
         <f t="shared" ref="H7:J7" si="1">H5-H6</f>
-        <v>47.75</v>
+        <v>46.25</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>47.5</v>
       </c>
       <c r="J7" s="28">
         <f t="shared" si="1"/>
-        <v>56.5</v>
+        <v>55</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
@@ -2833,7 +2833,7 @@
         <v>208</v>
       </c>
       <c r="C49" s="22">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D49" s="22">
         <v>5</v>
@@ -2947,23 +2947,27 @@
         <v>261</v>
       </c>
       <c r="C53" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22" t="s">
         <v>261</v>
       </c>
       <c r="H53" s="22">
+        <v>1</v>
+      </c>
+      <c r="I53" s="22">
         <v>0.5</v>
       </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
+      <c r="J53" s="22">
+        <v>0.5</v>
+      </c>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
     </row>
@@ -3356,7 +3360,7 @@
         <v>2.5</v>
       </c>
       <c r="I67" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J67" s="22">
         <v>1.5</v>
@@ -3385,13 +3389,13 @@
         <v>251</v>
       </c>
       <c r="H68" s="22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I68" s="22">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J68" s="22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
@@ -3410,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="22" t="s">
@@ -3420,7 +3424,7 @@
         <v>2</v>
       </c>
       <c r="I69" s="22">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J69" s="22">
         <v>0.5</v>
@@ -3448,10 +3452,14 @@
       <c r="G70" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
+      <c r="H70" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="22">
+        <v>0.5</v>
+      </c>
       <c r="J70" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
@@ -3633,141 +3641,141 @@
   <sheetData>
     <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="1"/>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="65" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="65" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="65" t="s">
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="65" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="63" t="s">
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="63" t="s">
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="63" t="s">
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="63" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="63" t="s">
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63"/>
+      <c r="BO1" s="63"/>
+      <c r="BP1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="63" t="s">
+      <c r="BQ1" s="63"/>
+      <c r="BR1" s="63"/>
+      <c r="BS1" s="63"/>
+      <c r="BT1" s="63"/>
+      <c r="BU1" s="63"/>
+      <c r="BV1" s="63"/>
+      <c r="BW1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="64"/>
-      <c r="BZ1" s="64"/>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64"/>
-      <c r="CD1" s="63" t="s">
+      <c r="BX1" s="63"/>
+      <c r="BY1" s="63"/>
+      <c r="BZ1" s="63"/>
+      <c r="CA1" s="63"/>
+      <c r="CB1" s="63"/>
+      <c r="CC1" s="63"/>
+      <c r="CD1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64"/>
-      <c r="CG1" s="64"/>
-      <c r="CH1" s="64"/>
-      <c r="CI1" s="64"/>
-      <c r="CJ1" s="64"/>
-      <c r="CK1" s="63" t="s">
+      <c r="CE1" s="63"/>
+      <c r="CF1" s="63"/>
+      <c r="CG1" s="63"/>
+      <c r="CH1" s="63"/>
+      <c r="CI1" s="63"/>
+      <c r="CJ1" s="63"/>
+      <c r="CK1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="CL1" s="64"/>
-      <c r="CM1" s="64"/>
-      <c r="CN1" s="64"/>
-      <c r="CO1" s="64"/>
-      <c r="CP1" s="64"/>
-      <c r="CQ1" s="64"/>
-      <c r="CR1" s="63" t="s">
+      <c r="CL1" s="63"/>
+      <c r="CM1" s="63"/>
+      <c r="CN1" s="63"/>
+      <c r="CO1" s="63"/>
+      <c r="CP1" s="63"/>
+      <c r="CQ1" s="63"/>
+      <c r="CR1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="CS1" s="64"/>
-      <c r="CT1" s="64"/>
-      <c r="CU1" s="64"/>
-      <c r="CV1" s="64"/>
-      <c r="CW1" s="64"/>
-      <c r="CX1" s="64"/>
-      <c r="CY1" s="63" t="s">
+      <c r="CS1" s="63"/>
+      <c r="CT1" s="63"/>
+      <c r="CU1" s="63"/>
+      <c r="CV1" s="63"/>
+      <c r="CW1" s="63"/>
+      <c r="CX1" s="63"/>
+      <c r="CY1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="CZ1" s="64"/>
-      <c r="DA1" s="64"/>
-      <c r="DB1" s="64"/>
-      <c r="DC1" s="64"/>
-      <c r="DD1" s="64"/>
-      <c r="DE1" s="64"/>
+      <c r="CZ1" s="63"/>
+      <c r="DA1" s="63"/>
+      <c r="DB1" s="63"/>
+      <c r="DC1" s="63"/>
+      <c r="DD1" s="63"/>
+      <c r="DE1" s="63"/>
       <c r="DF1" s="2"/>
       <c r="DG1" s="2"/>
       <c r="DH1" s="2"/>
@@ -5242,7 +5250,7 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="66" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -5251,21 +5259,21 @@
     </row>
     <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
-      <c r="B47" s="62"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
-      <c r="B48" s="62"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
-      <c r="B49" s="62"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5275,217 +5283,217 @@
     </row>
     <row r="50" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
-      <c r="B50" s="62"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
-      <c r="B51" s="62"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B52" s="62"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B53" s="62"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
-      <c r="B54" s="62"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
-      <c r="B55" s="62"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
-      <c r="B56" s="62"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:71" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
-      <c r="B57" s="62"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="62"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B59" s="62"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B60" s="62"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B61" s="62"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B62" s="62"/>
+      <c r="B62" s="66"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B63" s="62"/>
+      <c r="B63" s="66"/>
       <c r="C63" s="15" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:71" ht="13" x14ac:dyDescent="0.15">
-      <c r="B64" s="62"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="65" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B65" s="62"/>
+      <c r="B65" s="66"/>
       <c r="C65" s="15"/>
     </row>
     <row r="66" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B66" s="62"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B67" s="62"/>
+      <c r="B67" s="66"/>
       <c r="C67" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="68" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B68" s="62"/>
+      <c r="B68" s="66"/>
       <c r="C68" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="69" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B69" s="62"/>
+      <c r="B69" s="66"/>
       <c r="C69" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="70" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B70" s="62"/>
+      <c r="B70" s="66"/>
       <c r="C70" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="71" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B71" s="62"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="72" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B72" s="62"/>
+      <c r="B72" s="66"/>
       <c r="C72" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="73" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B73" s="62"/>
+      <c r="B73" s="66"/>
       <c r="C73" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B74" s="62"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="75" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B75" s="62"/>
+      <c r="B75" s="66"/>
       <c r="C75" s="16"/>
     </row>
     <row r="76" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B76" s="62"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="77" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B77" s="62"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="78" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B78" s="62"/>
+      <c r="B78" s="66"/>
       <c r="C78" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="79" spans="2:53" ht="14" x14ac:dyDescent="0.15">
-      <c r="B79" s="62"/>
+      <c r="B79" s="66"/>
       <c r="C79" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA79" s="6"/>
     </row>
     <row r="80" spans="2:53" ht="13" x14ac:dyDescent="0.15">
-      <c r="B80" s="62"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="16"/>
     </row>
     <row r="81" spans="2:75" ht="13" x14ac:dyDescent="0.15">
-      <c r="B81" s="62"/>
+      <c r="B81" s="66"/>
       <c r="C81" s="15" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="82" spans="2:75" ht="13" x14ac:dyDescent="0.15">
-      <c r="B82" s="62"/>
+      <c r="B82" s="66"/>
       <c r="C82" s="59" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="83" spans="2:75" ht="13" x14ac:dyDescent="0.15">
-      <c r="B83" s="62"/>
+      <c r="B83" s="66"/>
       <c r="C83" s="59" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="84" spans="2:75" ht="13" x14ac:dyDescent="0.15">
-      <c r="B84" s="62"/>
+      <c r="B84" s="66"/>
       <c r="C84" s="59" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="85" spans="2:75" ht="13" x14ac:dyDescent="0.15">
-      <c r="B85" s="62"/>
+      <c r="B85" s="66"/>
       <c r="C85" s="15" t="s">
         <v>258</v>
       </c>
@@ -8240,7 +8248,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="CD1:CJ1"/>
     <mergeCell ref="B80:B85"/>
     <mergeCell ref="B46:B79"/>
     <mergeCell ref="CK1:CQ1"/>
@@ -8257,6 +8264,7 @@
     <mergeCell ref="BI1:BO1"/>
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
+    <mergeCell ref="CD1:CJ1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -8291,194 +8299,194 @@
   <sheetData>
     <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="1"/>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="63" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="63" t="s">
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="63" t="s">
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="63" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="63" t="s">
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="63" t="s">
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="63" t="s">
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="63" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="63" t="s">
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63"/>
+      <c r="BO1" s="63"/>
+      <c r="BP1" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="63" t="s">
+      <c r="BQ1" s="63"/>
+      <c r="BR1" s="63"/>
+      <c r="BS1" s="63"/>
+      <c r="BT1" s="63"/>
+      <c r="BU1" s="63"/>
+      <c r="BV1" s="63"/>
+      <c r="BW1" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="64"/>
-      <c r="BZ1" s="64"/>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64"/>
-      <c r="CD1" s="63" t="s">
+      <c r="BX1" s="63"/>
+      <c r="BY1" s="63"/>
+      <c r="BZ1" s="63"/>
+      <c r="CA1" s="63"/>
+      <c r="CB1" s="63"/>
+      <c r="CC1" s="63"/>
+      <c r="CD1" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64"/>
-      <c r="CG1" s="64"/>
-      <c r="CH1" s="64"/>
-      <c r="CI1" s="64"/>
-      <c r="CJ1" s="64"/>
-      <c r="CK1" s="63" t="s">
+      <c r="CE1" s="63"/>
+      <c r="CF1" s="63"/>
+      <c r="CG1" s="63"/>
+      <c r="CH1" s="63"/>
+      <c r="CI1" s="63"/>
+      <c r="CJ1" s="63"/>
+      <c r="CK1" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="CL1" s="64"/>
-      <c r="CM1" s="64"/>
-      <c r="CN1" s="64"/>
-      <c r="CO1" s="64"/>
-      <c r="CP1" s="64"/>
-      <c r="CQ1" s="64"/>
-      <c r="CR1" s="63" t="s">
+      <c r="CL1" s="63"/>
+      <c r="CM1" s="63"/>
+      <c r="CN1" s="63"/>
+      <c r="CO1" s="63"/>
+      <c r="CP1" s="63"/>
+      <c r="CQ1" s="63"/>
+      <c r="CR1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="CS1" s="64"/>
-      <c r="CT1" s="64"/>
-      <c r="CU1" s="64"/>
-      <c r="CV1" s="64"/>
-      <c r="CW1" s="64"/>
-      <c r="CX1" s="64"/>
-      <c r="CY1" s="63" t="s">
+      <c r="CS1" s="63"/>
+      <c r="CT1" s="63"/>
+      <c r="CU1" s="63"/>
+      <c r="CV1" s="63"/>
+      <c r="CW1" s="63"/>
+      <c r="CX1" s="63"/>
+      <c r="CY1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="CZ1" s="64"/>
-      <c r="DA1" s="64"/>
-      <c r="DB1" s="64"/>
-      <c r="DC1" s="64"/>
-      <c r="DD1" s="64"/>
-      <c r="DE1" s="64"/>
-      <c r="DF1" s="63" t="s">
+      <c r="CZ1" s="63"/>
+      <c r="DA1" s="63"/>
+      <c r="DB1" s="63"/>
+      <c r="DC1" s="63"/>
+      <c r="DD1" s="63"/>
+      <c r="DE1" s="63"/>
+      <c r="DF1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="DG1" s="64"/>
-      <c r="DH1" s="64"/>
-      <c r="DI1" s="64"/>
-      <c r="DJ1" s="64"/>
-      <c r="DK1" s="64"/>
-      <c r="DL1" s="64"/>
-      <c r="DM1" s="63" t="s">
+      <c r="DG1" s="63"/>
+      <c r="DH1" s="63"/>
+      <c r="DI1" s="63"/>
+      <c r="DJ1" s="63"/>
+      <c r="DK1" s="63"/>
+      <c r="DL1" s="63"/>
+      <c r="DM1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="DN1" s="64"/>
-      <c r="DO1" s="64"/>
-      <c r="DP1" s="64"/>
-      <c r="DQ1" s="64"/>
-      <c r="DR1" s="64"/>
-      <c r="DS1" s="64"/>
-      <c r="DT1" s="63"/>
-      <c r="DU1" s="64"/>
-      <c r="DV1" s="64"/>
-      <c r="DW1" s="64"/>
-      <c r="DX1" s="64"/>
-      <c r="DY1" s="64"/>
-      <c r="DZ1" s="64"/>
-      <c r="EA1" s="63"/>
-      <c r="EB1" s="64"/>
-      <c r="EC1" s="64"/>
-      <c r="ED1" s="64"/>
-      <c r="EE1" s="64"/>
-      <c r="EF1" s="64"/>
-      <c r="EG1" s="64"/>
-      <c r="EH1" s="63"/>
-      <c r="EI1" s="64"/>
-      <c r="EJ1" s="64"/>
-      <c r="EK1" s="64"/>
-      <c r="EL1" s="64"/>
-      <c r="EM1" s="64"/>
-      <c r="EN1" s="64"/>
-      <c r="EO1" s="63"/>
-      <c r="EP1" s="64"/>
-      <c r="EQ1" s="64"/>
-      <c r="ER1" s="64"/>
-      <c r="ES1" s="64"/>
-      <c r="ET1" s="64"/>
-      <c r="EU1" s="64"/>
-      <c r="EV1" s="63"/>
-      <c r="EW1" s="64"/>
-      <c r="EX1" s="64"/>
-      <c r="EY1" s="64"/>
-      <c r="EZ1" s="64"/>
-      <c r="FA1" s="64"/>
-      <c r="FB1" s="64"/>
+      <c r="DN1" s="63"/>
+      <c r="DO1" s="63"/>
+      <c r="DP1" s="63"/>
+      <c r="DQ1" s="63"/>
+      <c r="DR1" s="63"/>
+      <c r="DS1" s="63"/>
+      <c r="DT1" s="62"/>
+      <c r="DU1" s="63"/>
+      <c r="DV1" s="63"/>
+      <c r="DW1" s="63"/>
+      <c r="DX1" s="63"/>
+      <c r="DY1" s="63"/>
+      <c r="DZ1" s="63"/>
+      <c r="EA1" s="62"/>
+      <c r="EB1" s="63"/>
+      <c r="EC1" s="63"/>
+      <c r="ED1" s="63"/>
+      <c r="EE1" s="63"/>
+      <c r="EF1" s="63"/>
+      <c r="EG1" s="63"/>
+      <c r="EH1" s="62"/>
+      <c r="EI1" s="63"/>
+      <c r="EJ1" s="63"/>
+      <c r="EK1" s="63"/>
+      <c r="EL1" s="63"/>
+      <c r="EM1" s="63"/>
+      <c r="EN1" s="63"/>
+      <c r="EO1" s="62"/>
+      <c r="EP1" s="63"/>
+      <c r="EQ1" s="63"/>
+      <c r="ER1" s="63"/>
+      <c r="ES1" s="63"/>
+      <c r="ET1" s="63"/>
+      <c r="EU1" s="63"/>
+      <c r="EV1" s="62"/>
+      <c r="EW1" s="63"/>
+      <c r="EX1" s="63"/>
+      <c r="EY1" s="63"/>
+      <c r="EZ1" s="63"/>
+      <c r="FA1" s="63"/>
+      <c r="FB1" s="63"/>
     </row>
     <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="1"/>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Dropbox\ISC\Sem 06\FRONT\PROJEKT\git\front-projekt\documents\Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yara\Dropbox\Studium\Semester 6\FRONT\FRONT_Projekt\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82362DB-1D15-4B25-BAA8-B0ECD7FCD5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA44FA54-DE61-4948-84CD-6A2A92D2C438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24510" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitbudget" sheetId="4" r:id="rId1"/>
@@ -1217,13 +1217,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1456,16 +1456,16 @@
   <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
+      <pane ySplit="7" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1479,7 +1479,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>102</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1513,7 +1513,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="26" t="s">
@@ -1539,7 +1539,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="29" t="s">
         <v>108</v>
@@ -1569,7 +1569,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="31" t="s">
         <v>109</v>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="H6" s="30">
         <f>SUM(H10:H75)</f>
-        <v>75.75</v>
+        <v>77.25</v>
       </c>
       <c r="I6" s="27">
         <f>SUM(I10:I75)</f>
@@ -1605,7 +1605,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="31" t="s">
         <v>111</v>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="H7" s="30">
         <f t="shared" ref="H7:J7" si="1">H5-H6</f>
-        <v>44.25</v>
+        <v>42.75</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" si="1"/>
@@ -1641,7 +1641,7 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>112</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1675,7 +1675,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>241</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>116</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>118</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>120</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>122</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>126</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>128</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>130</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>132</v>
       </c>
@@ -1995,7 +1995,7 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>134</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>136</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>180</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>182</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>184</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>138</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>186</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>188</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>184</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>140</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>191</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>192</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>193</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>194</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>195</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>238</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>142</v>
       </c>
@@ -2503,7 +2503,7 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>144</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>146</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>148</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>180</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>182</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>184</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>150</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>186</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>188</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>184</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
         <v>152</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>191</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
         <v>192</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>193</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
         <v>194</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
         <v>195</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
         <v>260</v>
       </c>
@@ -2971,7 +2971,7 @@
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
         <v>155</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>157</v>
       </c>
@@ -3023,7 +3023,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
         <v>159</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
         <v>161</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
         <v>163</v>
       </c>
@@ -3107,7 +3107,7 @@
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
         <v>165</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22" t="s">
         <v>167</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
         <v>169</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="U61" s="22"/>
       <c r="V61" s="22"/>
     </row>
-    <row r="62" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
         <v>171</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="U62" s="22"/>
       <c r="V62" s="22"/>
     </row>
-    <row r="63" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
         <v>101</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="U63" s="22"/>
       <c r="V63" s="22"/>
     </row>
-    <row r="64" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
         <v>174</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="U64" s="22"/>
       <c r="V64" s="22"/>
     </row>
-    <row r="65" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
         <v>176</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="U65" s="22"/>
       <c r="V65" s="22"/>
     </row>
-    <row r="66" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
         <v>178</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>245</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>250</v>
       </c>
       <c r="H67" s="22">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I67" s="22">
         <v>3</v>
@@ -3368,7 +3368,7 @@
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
         <v>246</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>251</v>
       </c>
       <c r="H68" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I68" s="22">
         <v>1.5</v>
@@ -3400,7 +3400,7 @@
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
         <v>247</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="22" t="s">
         <v>99</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -3478,7 +3478,7 @@
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -3492,7 +3492,7 @@
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
     </row>
-    <row r="73" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="22" t="s">
         <v>242</v>
       </c>
@@ -3508,7 +3508,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -3522,7 +3522,7 @@
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
     </row>
-    <row r="75" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="57" t="s">
         <v>243</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
       <c r="B76" s="47"/>
       <c r="C76" s="22"/>
@@ -3568,7 +3568,7 @@
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
     </row>
-    <row r="77" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="57" t="s">
         <v>244</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
     </row>
-    <row r="78" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -3596,7 +3596,7 @@
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
     </row>
-    <row r="79" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -3628,64 +3628,64 @@
       <selection pane="bottomRight" activeCell="BZ63" sqref="BZ63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" customWidth="1"/>
-    <col min="5" max="101" width="3.77734375" customWidth="1"/>
-    <col min="102" max="102" width="7.44140625" customWidth="1"/>
-    <col min="103" max="200" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="101" width="3.7109375" customWidth="1"/>
+    <col min="102" max="102" width="7.42578125" customWidth="1"/>
+    <col min="103" max="200" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="65" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="65" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="65" t="s">
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="65" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
       <c r="AN1" s="62" t="s">
         <v>5</v>
       </c>
@@ -3834,7 +3834,7 @@
       <c r="FI1" s="3"/>
       <c r="FJ1" s="4"/>
     </row>
-    <row r="2" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="E2" s="37" t="s">
         <v>15</v>
@@ -4152,7 +4152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -4175,7 +4175,7 @@
       <c r="C4" s="1"/>
       <c r="CX4" s="5"/>
     </row>
-    <row r="5" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
@@ -4204,7 +4204,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4217,7 +4217,7 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -4226,20 +4226,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="AP9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="E11" s="45"/>
     </row>
-    <row r="12" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="E12" s="45"/>
     </row>
-    <row r="13" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
@@ -4267,7 +4267,7 @@
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
     </row>
-    <row r="14" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="R14" s="36"/>
     </row>
-    <row r="15" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
@@ -4379,20 +4379,20 @@
       <c r="CV15" s="41"/>
       <c r="CW15" s="41"/>
     </row>
-    <row r="16" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -4410,7 +4410,7 @@
       <c r="CT19" s="41"/>
       <c r="CU19" s="41"/>
     </row>
-    <row r="20" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -4420,20 +4420,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
@@ -4449,7 +4449,7 @@
       <c r="AT24" s="41"/>
       <c r="AU24" s="41"/>
     </row>
-    <row r="25" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
@@ -4539,7 +4539,7 @@
       <c r="CV25" s="41"/>
       <c r="CW25" s="41"/>
     </row>
-    <row r="26" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>212</v>
@@ -4552,7 +4552,7 @@
       <c r="AS26" s="41"/>
       <c r="AT26" s="41"/>
     </row>
-    <row r="27" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>213</v>
@@ -4579,7 +4579,7 @@
       <c r="BG27" s="41"/>
       <c r="BH27" s="41"/>
     </row>
-    <row r="28" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="C28" s="1" t="s">
         <v>214</v>
@@ -4606,7 +4606,7 @@
       <c r="BG28" s="41"/>
       <c r="BH28" s="41"/>
     </row>
-    <row r="29" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
@@ -4696,7 +4696,7 @@
       <c r="CV29" s="41"/>
       <c r="CW29" s="41"/>
     </row>
-    <row r="30" spans="1:102" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:102" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="C30" s="1" t="s">
         <v>215</v>
@@ -4751,7 +4751,7 @@
       <c r="CI30" s="41"/>
       <c r="CJ30" s="41"/>
     </row>
-    <row r="31" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>216</v>
       </c>
@@ -4791,7 +4791,7 @@
       <c r="CI31" s="41"/>
       <c r="CJ31" s="41"/>
     </row>
-    <row r="32" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>217</v>
       </c>
@@ -4831,7 +4831,7 @@
       <c r="CI32" s="41"/>
       <c r="CJ32" s="41"/>
     </row>
-    <row r="33" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
@@ -4921,7 +4921,7 @@
       <c r="CV33" s="41"/>
       <c r="CW33" s="41"/>
     </row>
-    <row r="34" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
@@ -4947,7 +4947,7 @@
       <c r="BN34" s="41"/>
       <c r="BO34" s="41"/>
     </row>
-    <row r="35" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
@@ -4980,7 +4980,7 @@
       <c r="BU35" s="41"/>
       <c r="BV35" s="41"/>
     </row>
-    <row r="36" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
@@ -5022,7 +5022,7 @@
       <c r="CI36" s="41"/>
       <c r="CJ36" s="41"/>
     </row>
-    <row r="37" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>221</v>
@@ -5056,7 +5056,7 @@
       <c r="CI37" s="41"/>
       <c r="CJ37" s="41"/>
     </row>
-    <row r="38" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="C38" s="1" t="s">
         <v>222</v>
@@ -5090,7 +5090,7 @@
       <c r="CI38" s="41"/>
       <c r="CJ38" s="41"/>
     </row>
-    <row r="39" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="C39" s="1" t="s">
         <v>239</v>
@@ -5145,7 +5145,7 @@
       <c r="CI39" s="41"/>
       <c r="CJ39" s="41"/>
     </row>
-    <row r="40" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="C40" s="1" t="s">
         <v>50</v>
@@ -5182,7 +5182,7 @@
       <c r="BU40" s="41"/>
       <c r="BV40" s="41"/>
     </row>
-    <row r="41" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="33"/>
       <c r="C41" s="1" t="s">
         <v>51</v>
@@ -5222,7 +5222,7 @@
       <c r="CV41" s="41"/>
       <c r="CW41" s="41"/>
     </row>
-    <row r="42" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="33"/>
       <c r="C42" s="35" t="s">
         <v>52</v>
@@ -5231,49 +5231,49 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="33"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="33"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="48"/>
       <c r="C45" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="66" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
-      <c r="B47" s="64"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
-      <c r="B48" s="64"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
-      <c r="B49" s="64"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5281,2973 +5281,2977 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
-      <c r="B50" s="64"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
-      <c r="B51" s="64"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="64"/>
+    <row r="52" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="66"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="64"/>
+    <row r="53" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B53" s="66"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
-      <c r="B54" s="64"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
-      <c r="B55" s="64"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
-      <c r="B56" s="64"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
-      <c r="B57" s="64"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="64"/>
+    <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="66"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B59" s="64"/>
+    <row r="59" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="66"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="64"/>
+    <row r="60" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B60" s="66"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="64"/>
+    <row r="61" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="66"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B62" s="64"/>
+    <row r="62" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B62" s="66"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="64"/>
+    <row r="63" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="66"/>
       <c r="C63" s="15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B64" s="64"/>
+    <row r="64" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B64" s="66"/>
       <c r="C64" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="64"/>
+    <row r="65" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="66"/>
       <c r="C65" s="15"/>
     </row>
-    <row r="66" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="64"/>
+    <row r="66" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="66"/>
       <c r="C66" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="64"/>
+    <row r="67" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="66"/>
       <c r="C67" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="64"/>
+    <row r="68" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="66"/>
       <c r="C68" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B69" s="64"/>
+    <row r="69" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B69" s="66"/>
       <c r="C69" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="64"/>
+    <row r="70" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="66"/>
       <c r="C70" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B71" s="64"/>
+    <row r="71" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="66"/>
       <c r="C71" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B72" s="64"/>
+    <row r="72" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="66"/>
       <c r="C72" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B73" s="64"/>
+    <row r="73" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="66"/>
       <c r="C73" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B74" s="64"/>
+    <row r="74" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="66"/>
       <c r="C74" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B75" s="64"/>
+    <row r="75" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B75" s="66"/>
       <c r="C75" s="16"/>
     </row>
-    <row r="76" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="64"/>
+    <row r="76" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B76" s="66"/>
       <c r="C76" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="64"/>
+    <row r="77" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="66"/>
       <c r="C77" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B78" s="64"/>
+    <row r="78" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="66"/>
       <c r="C78" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B79" s="64"/>
+    <row r="79" spans="2:53" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B79" s="66"/>
       <c r="C79" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA79" s="6"/>
     </row>
-    <row r="80" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B80" s="64"/>
+    <row r="80" spans="2:53" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B80" s="66"/>
       <c r="C80" s="16"/>
     </row>
-    <row r="81" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B81" s="64"/>
+    <row r="81" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="66"/>
       <c r="C81" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="64"/>
+    <row r="82" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B82" s="66"/>
       <c r="C82" s="59" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="64"/>
+    <row r="83" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="66"/>
       <c r="C83" s="59" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="64"/>
+    <row r="84" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="66"/>
       <c r="C84" s="59" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B85" s="64"/>
+    <row r="85" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B85" s="66"/>
       <c r="C85" s="15" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="86" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C86" s="1"/>
       <c r="BW86" s="46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:75" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C375" s="1"/>
     </row>
-    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C376" s="1"/>
     </row>
-    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C417" s="1"/>
     </row>
-    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C422" s="1"/>
     </row>
-    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C423" s="1"/>
     </row>
-    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C424" s="1"/>
     </row>
-    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C425" s="1"/>
     </row>
-    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C426" s="1"/>
     </row>
-    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C427" s="1"/>
     </row>
-    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C428" s="1"/>
     </row>
-    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C429" s="1"/>
     </row>
-    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C430" s="1"/>
     </row>
-    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C431" s="1"/>
     </row>
-    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C432" s="1"/>
     </row>
-    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C433" s="1"/>
     </row>
-    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C434" s="1"/>
     </row>
-    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C436" s="1"/>
     </row>
-    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C437" s="1"/>
     </row>
-    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C438" s="1"/>
     </row>
-    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C439" s="1"/>
     </row>
-    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C440" s="1"/>
     </row>
-    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C441" s="1"/>
     </row>
-    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C442" s="1"/>
     </row>
-    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C443" s="1"/>
     </row>
-    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C444" s="1"/>
     </row>
-    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C446" s="1"/>
     </row>
-    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C447" s="1"/>
     </row>
-    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C448" s="1"/>
     </row>
-    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C449" s="1"/>
     </row>
-    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C450" s="1"/>
     </row>
-    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C451" s="1"/>
     </row>
-    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C452" s="1"/>
     </row>
-    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C453" s="1"/>
     </row>
-    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C454" s="1"/>
     </row>
-    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C455" s="1"/>
     </row>
-    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C456" s="1"/>
     </row>
-    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C457" s="1"/>
     </row>
-    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C458" s="1"/>
     </row>
-    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C459" s="1"/>
     </row>
-    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C460" s="1"/>
     </row>
-    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C461" s="1"/>
     </row>
-    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C462" s="1"/>
     </row>
-    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C463" s="1"/>
     </row>
-    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C464" s="1"/>
     </row>
-    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C465" s="1"/>
     </row>
-    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C466" s="1"/>
     </row>
-    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C467" s="1"/>
     </row>
-    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C468" s="1"/>
     </row>
-    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C469" s="1"/>
     </row>
-    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C470" s="1"/>
     </row>
-    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C471" s="1"/>
     </row>
-    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C472" s="1"/>
     </row>
-    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C473" s="1"/>
     </row>
-    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C474" s="1"/>
     </row>
-    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C475" s="1"/>
     </row>
-    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C476" s="1"/>
     </row>
-    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C477" s="1"/>
     </row>
-    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C478" s="1"/>
     </row>
-    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C479" s="1"/>
     </row>
-    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C480" s="1"/>
     </row>
-    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C481" s="1"/>
     </row>
-    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C482" s="1"/>
     </row>
-    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C483" s="1"/>
     </row>
-    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C484" s="1"/>
     </row>
-    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C485" s="1"/>
     </row>
-    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C486" s="1"/>
     </row>
-    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C487" s="1"/>
     </row>
-    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C488" s="1"/>
     </row>
-    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C489" s="1"/>
     </row>
-    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C490" s="1"/>
     </row>
-    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C491" s="1"/>
     </row>
-    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C492" s="1"/>
     </row>
-    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C493" s="1"/>
     </row>
-    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C494" s="1"/>
     </row>
-    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C495" s="1"/>
     </row>
-    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C496" s="1"/>
     </row>
-    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C497" s="1"/>
     </row>
-    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C498" s="1"/>
     </row>
-    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C499" s="1"/>
     </row>
-    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C500" s="1"/>
     </row>
-    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C501" s="1"/>
     </row>
-    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C502" s="1"/>
     </row>
-    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C503" s="1"/>
     </row>
-    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C505" s="1"/>
     </row>
-    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C506" s="1"/>
     </row>
-    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C507" s="1"/>
     </row>
-    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C508" s="1"/>
     </row>
-    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C509" s="1"/>
     </row>
-    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C510" s="1"/>
     </row>
-    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C511" s="1"/>
     </row>
-    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C512" s="1"/>
     </row>
-    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C513" s="1"/>
     </row>
-    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C514" s="1"/>
     </row>
-    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C515" s="1"/>
     </row>
-    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C517" s="1"/>
     </row>
-    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C518" s="1"/>
     </row>
-    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C519" s="1"/>
     </row>
-    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C520" s="1"/>
     </row>
-    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C521" s="1"/>
     </row>
-    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C522" s="1"/>
     </row>
-    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C523" s="1"/>
     </row>
-    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C524" s="1"/>
     </row>
-    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C525" s="1"/>
     </row>
-    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C526" s="1"/>
     </row>
-    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C527" s="1"/>
     </row>
-    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C528" s="1"/>
     </row>
-    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C529" s="1"/>
     </row>
-    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C530" s="1"/>
     </row>
-    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C531" s="1"/>
     </row>
-    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C532" s="1"/>
     </row>
-    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C533" s="1"/>
     </row>
-    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C534" s="1"/>
     </row>
-    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C535" s="1"/>
     </row>
-    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C536" s="1"/>
     </row>
-    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C537" s="1"/>
     </row>
-    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C538" s="1"/>
     </row>
-    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C539" s="1"/>
     </row>
-    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C540" s="1"/>
     </row>
-    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C541" s="1"/>
     </row>
-    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C542" s="1"/>
     </row>
-    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C543" s="1"/>
     </row>
-    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C544" s="1"/>
     </row>
-    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C545" s="1"/>
     </row>
-    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C546" s="1"/>
     </row>
-    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C547" s="1"/>
     </row>
-    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C548" s="1"/>
     </row>
-    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C549" s="1"/>
     </row>
-    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C550" s="1"/>
     </row>
-    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C551" s="1"/>
     </row>
-    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C552" s="1"/>
     </row>
-    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C553" s="1"/>
     </row>
-    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C554" s="1"/>
     </row>
-    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C555" s="1"/>
     </row>
-    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C556" s="1"/>
     </row>
-    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C557" s="1"/>
     </row>
-    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C558" s="1"/>
     </row>
-    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C559" s="1"/>
     </row>
-    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C560" s="1"/>
     </row>
-    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C561" s="1"/>
     </row>
-    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C562" s="1"/>
     </row>
-    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C563" s="1"/>
     </row>
-    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C564" s="1"/>
     </row>
-    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C565" s="1"/>
     </row>
-    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C566" s="1"/>
     </row>
-    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C567" s="1"/>
     </row>
-    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C568" s="1"/>
     </row>
-    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C569" s="1"/>
     </row>
-    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C570" s="1"/>
     </row>
-    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C571" s="1"/>
     </row>
-    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C572" s="1"/>
     </row>
-    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C573" s="1"/>
     </row>
-    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C574" s="1"/>
     </row>
-    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C575" s="1"/>
     </row>
-    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C576" s="1"/>
     </row>
-    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C577" s="1"/>
     </row>
-    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C578" s="1"/>
     </row>
-    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C579" s="1"/>
     </row>
-    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C580" s="1"/>
     </row>
-    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C581" s="1"/>
     </row>
-    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C582" s="1"/>
     </row>
-    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C583" s="1"/>
     </row>
-    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C584" s="1"/>
     </row>
-    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C585" s="1"/>
     </row>
-    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C586" s="1"/>
     </row>
-    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C587" s="1"/>
     </row>
-    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C588" s="1"/>
     </row>
-    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C589" s="1"/>
     </row>
-    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C590" s="1"/>
     </row>
-    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C591" s="1"/>
     </row>
-    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C592" s="1"/>
     </row>
-    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C593" s="1"/>
     </row>
-    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C594" s="1"/>
     </row>
-    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C595" s="1"/>
     </row>
-    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C596" s="1"/>
     </row>
-    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C597" s="1"/>
     </row>
-    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C598" s="1"/>
     </row>
-    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C599" s="1"/>
     </row>
-    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C600" s="1"/>
     </row>
-    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C601" s="1"/>
     </row>
-    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C602" s="1"/>
     </row>
-    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C603" s="1"/>
     </row>
-    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C604" s="1"/>
     </row>
-    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C605" s="1"/>
     </row>
-    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C606" s="1"/>
     </row>
-    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C607" s="1"/>
     </row>
-    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C608" s="1"/>
     </row>
-    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C609" s="1"/>
     </row>
-    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C610" s="1"/>
     </row>
-    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C611" s="1"/>
     </row>
-    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C612" s="1"/>
     </row>
-    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C613" s="1"/>
     </row>
-    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C614" s="1"/>
     </row>
-    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C615" s="1"/>
     </row>
-    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C616" s="1"/>
     </row>
-    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C617" s="1"/>
     </row>
-    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C618" s="1"/>
     </row>
-    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C619" s="1"/>
     </row>
-    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C620" s="1"/>
     </row>
-    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C621" s="1"/>
     </row>
-    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C622" s="1"/>
     </row>
-    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C623" s="1"/>
     </row>
-    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C624" s="1"/>
     </row>
-    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C625" s="1"/>
     </row>
-    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C626" s="1"/>
     </row>
-    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C627" s="1"/>
     </row>
-    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C628" s="1"/>
     </row>
-    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C629" s="1"/>
     </row>
-    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C630" s="1"/>
     </row>
-    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C631" s="1"/>
     </row>
-    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C632" s="1"/>
     </row>
-    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C633" s="1"/>
     </row>
-    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C634" s="1"/>
     </row>
-    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C635" s="1"/>
     </row>
-    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C636" s="1"/>
     </row>
-    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C637" s="1"/>
     </row>
-    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C638" s="1"/>
     </row>
-    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C639" s="1"/>
     </row>
-    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C640" s="1"/>
     </row>
-    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C641" s="1"/>
     </row>
-    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C642" s="1"/>
     </row>
-    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C643" s="1"/>
     </row>
-    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C644" s="1"/>
     </row>
-    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C645" s="1"/>
     </row>
-    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C646" s="1"/>
     </row>
-    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C647" s="1"/>
     </row>
-    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C648" s="1"/>
     </row>
-    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C649" s="1"/>
     </row>
-    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C650" s="1"/>
     </row>
-    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C651" s="1"/>
     </row>
-    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C652" s="1"/>
     </row>
-    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C653" s="1"/>
     </row>
-    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C654" s="1"/>
     </row>
-    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C655" s="1"/>
     </row>
-    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C656" s="1"/>
     </row>
-    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C657" s="1"/>
     </row>
-    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C658" s="1"/>
     </row>
-    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C659" s="1"/>
     </row>
-    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C660" s="1"/>
     </row>
-    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C661" s="1"/>
     </row>
-    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C662" s="1"/>
     </row>
-    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C663" s="1"/>
     </row>
-    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C664" s="1"/>
     </row>
-    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C665" s="1"/>
     </row>
-    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C666" s="1"/>
     </row>
-    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C667" s="1"/>
     </row>
-    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C668" s="1"/>
     </row>
-    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C669" s="1"/>
     </row>
-    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C670" s="1"/>
     </row>
-    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C671" s="1"/>
     </row>
-    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C672" s="1"/>
     </row>
-    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C673" s="1"/>
     </row>
-    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C674" s="1"/>
     </row>
-    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C675" s="1"/>
     </row>
-    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C676" s="1"/>
     </row>
-    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C677" s="1"/>
     </row>
-    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C678" s="1"/>
     </row>
-    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C679" s="1"/>
     </row>
-    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C680" s="1"/>
     </row>
-    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C681" s="1"/>
     </row>
-    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C682" s="1"/>
     </row>
-    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C683" s="1"/>
     </row>
-    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C684" s="1"/>
     </row>
-    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C685" s="1"/>
     </row>
-    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C686" s="1"/>
     </row>
-    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C687" s="1"/>
     </row>
-    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C688" s="1"/>
     </row>
-    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C689" s="1"/>
     </row>
-    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C690" s="1"/>
     </row>
-    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C691" s="1"/>
     </row>
-    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C692" s="1"/>
     </row>
-    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C693" s="1"/>
     </row>
-    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C694" s="1"/>
     </row>
-    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C695" s="1"/>
     </row>
-    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C696" s="1"/>
     </row>
-    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C697" s="1"/>
     </row>
-    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C698" s="1"/>
     </row>
-    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C699" s="1"/>
     </row>
-    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C700" s="1"/>
     </row>
-    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C701" s="1"/>
     </row>
-    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C702" s="1"/>
     </row>
-    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C703" s="1"/>
     </row>
-    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C704" s="1"/>
     </row>
-    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C705" s="1"/>
     </row>
-    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C706" s="1"/>
     </row>
-    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C707" s="1"/>
     </row>
-    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C708" s="1"/>
     </row>
-    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C709" s="1"/>
     </row>
-    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C710" s="1"/>
     </row>
-    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C711" s="1"/>
     </row>
-    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C712" s="1"/>
     </row>
-    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C713" s="1"/>
     </row>
-    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C714" s="1"/>
     </row>
-    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C715" s="1"/>
     </row>
-    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C716" s="1"/>
     </row>
-    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C717" s="1"/>
     </row>
-    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C718" s="1"/>
     </row>
-    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C719" s="1"/>
     </row>
-    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C720" s="1"/>
     </row>
-    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C721" s="1"/>
     </row>
-    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C722" s="1"/>
     </row>
-    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C723" s="1"/>
     </row>
-    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C724" s="1"/>
     </row>
-    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C725" s="1"/>
     </row>
-    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C726" s="1"/>
     </row>
-    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C727" s="1"/>
     </row>
-    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C728" s="1"/>
     </row>
-    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C729" s="1"/>
     </row>
-    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C730" s="1"/>
     </row>
-    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C731" s="1"/>
     </row>
-    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C732" s="1"/>
     </row>
-    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C733" s="1"/>
     </row>
-    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C734" s="1"/>
     </row>
-    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C735" s="1"/>
     </row>
-    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C736" s="1"/>
     </row>
-    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C737" s="1"/>
     </row>
-    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C738" s="1"/>
     </row>
-    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C739" s="1"/>
     </row>
-    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C740" s="1"/>
     </row>
-    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C741" s="1"/>
     </row>
-    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C742" s="1"/>
     </row>
-    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C743" s="1"/>
     </row>
-    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C744" s="1"/>
     </row>
-    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C745" s="1"/>
     </row>
-    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C746" s="1"/>
     </row>
-    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C747" s="1"/>
     </row>
-    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C748" s="1"/>
     </row>
-    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C749" s="1"/>
     </row>
-    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C750" s="1"/>
     </row>
-    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C751" s="1"/>
     </row>
-    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C752" s="1"/>
     </row>
-    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C753" s="1"/>
     </row>
-    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C754" s="1"/>
     </row>
-    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C755" s="1"/>
     </row>
-    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C756" s="1"/>
     </row>
-    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C757" s="1"/>
     </row>
-    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C758" s="1"/>
     </row>
-    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C759" s="1"/>
     </row>
-    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C760" s="1"/>
     </row>
-    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C761" s="1"/>
     </row>
-    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C762" s="1"/>
     </row>
-    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C763" s="1"/>
     </row>
-    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C764" s="1"/>
     </row>
-    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C765" s="1"/>
     </row>
-    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C766" s="1"/>
     </row>
-    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C767" s="1"/>
     </row>
-    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C768" s="1"/>
     </row>
-    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C769" s="1"/>
     </row>
-    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C770" s="1"/>
     </row>
-    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C771" s="1"/>
     </row>
-    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C772" s="1"/>
     </row>
-    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C773" s="1"/>
     </row>
-    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C774" s="1"/>
     </row>
-    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C775" s="1"/>
     </row>
-    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C776" s="1"/>
     </row>
-    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C777" s="1"/>
     </row>
-    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C778" s="1"/>
     </row>
-    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C779" s="1"/>
     </row>
-    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C780" s="1"/>
     </row>
-    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C781" s="1"/>
     </row>
-    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C782" s="1"/>
     </row>
-    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C783" s="1"/>
     </row>
-    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C784" s="1"/>
     </row>
-    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C785" s="1"/>
     </row>
-    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C786" s="1"/>
     </row>
-    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C787" s="1"/>
     </row>
-    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C788" s="1"/>
     </row>
-    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C789" s="1"/>
     </row>
-    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C790" s="1"/>
     </row>
-    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C791" s="1"/>
     </row>
-    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C792" s="1"/>
     </row>
-    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C793" s="1"/>
     </row>
-    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C794" s="1"/>
     </row>
-    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C795" s="1"/>
     </row>
-    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C796" s="1"/>
     </row>
-    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C797" s="1"/>
     </row>
-    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C798" s="1"/>
     </row>
-    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C799" s="1"/>
     </row>
-    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C800" s="1"/>
     </row>
-    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C801" s="1"/>
     </row>
-    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C802" s="1"/>
     </row>
-    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C803" s="1"/>
     </row>
-    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C804" s="1"/>
     </row>
-    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C805" s="1"/>
     </row>
-    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C806" s="1"/>
     </row>
-    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C807" s="1"/>
     </row>
-    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C808" s="1"/>
     </row>
-    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C809" s="1"/>
     </row>
-    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C810" s="1"/>
     </row>
-    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C811" s="1"/>
     </row>
-    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C812" s="1"/>
     </row>
-    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C813" s="1"/>
     </row>
-    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C814" s="1"/>
     </row>
-    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C815" s="1"/>
     </row>
-    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C816" s="1"/>
     </row>
-    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C817" s="1"/>
     </row>
-    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C818" s="1"/>
     </row>
-    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C819" s="1"/>
     </row>
-    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C820" s="1"/>
     </row>
-    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C821" s="1"/>
     </row>
-    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C822" s="1"/>
     </row>
-    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C823" s="1"/>
     </row>
-    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C824" s="1"/>
     </row>
-    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C825" s="1"/>
     </row>
-    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C826" s="1"/>
     </row>
-    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C827" s="1"/>
     </row>
-    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C828" s="1"/>
     </row>
-    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C829" s="1"/>
     </row>
-    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C830" s="1"/>
     </row>
-    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C831" s="1"/>
     </row>
-    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C832" s="1"/>
     </row>
-    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C833" s="1"/>
     </row>
-    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C834" s="1"/>
     </row>
-    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C835" s="1"/>
     </row>
-    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C836" s="1"/>
     </row>
-    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C837" s="1"/>
     </row>
-    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C838" s="1"/>
     </row>
-    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C839" s="1"/>
     </row>
-    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C840" s="1"/>
     </row>
-    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C841" s="1"/>
     </row>
-    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C842" s="1"/>
     </row>
-    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C843" s="1"/>
     </row>
-    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C844" s="1"/>
     </row>
-    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C845" s="1"/>
     </row>
-    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C846" s="1"/>
     </row>
-    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C847" s="1"/>
     </row>
-    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C848" s="1"/>
     </row>
-    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C849" s="1"/>
     </row>
-    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C850" s="1"/>
     </row>
-    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C851" s="1"/>
     </row>
-    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C852" s="1"/>
     </row>
-    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C853" s="1"/>
     </row>
-    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C854" s="1"/>
     </row>
-    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C855" s="1"/>
     </row>
-    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C856" s="1"/>
     </row>
-    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C857" s="1"/>
     </row>
-    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C858" s="1"/>
     </row>
-    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C859" s="1"/>
     </row>
-    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C860" s="1"/>
     </row>
-    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C861" s="1"/>
     </row>
-    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C862" s="1"/>
     </row>
-    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C863" s="1"/>
     </row>
-    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C864" s="1"/>
     </row>
-    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C865" s="1"/>
     </row>
-    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C866" s="1"/>
     </row>
-    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C867" s="1"/>
     </row>
-    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C868" s="1"/>
     </row>
-    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C869" s="1"/>
     </row>
-    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C870" s="1"/>
     </row>
-    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C871" s="1"/>
     </row>
-    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C872" s="1"/>
     </row>
-    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C873" s="1"/>
     </row>
-    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C874" s="1"/>
     </row>
-    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C875" s="1"/>
     </row>
-    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C876" s="1"/>
     </row>
-    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C877" s="1"/>
     </row>
-    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C878" s="1"/>
     </row>
-    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C879" s="1"/>
     </row>
-    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C880" s="1"/>
     </row>
-    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C881" s="1"/>
     </row>
-    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C882" s="1"/>
     </row>
-    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C883" s="1"/>
     </row>
-    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C884" s="1"/>
     </row>
-    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C885" s="1"/>
     </row>
-    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C886" s="1"/>
     </row>
-    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C887" s="1"/>
     </row>
-    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C888" s="1"/>
     </row>
-    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C889" s="1"/>
     </row>
-    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C890" s="1"/>
     </row>
-    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C891" s="1"/>
     </row>
-    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C892" s="1"/>
     </row>
-    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C893" s="1"/>
     </row>
-    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C894" s="1"/>
     </row>
-    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C895" s="1"/>
     </row>
-    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C896" s="1"/>
     </row>
-    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C897" s="1"/>
     </row>
-    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C898" s="1"/>
     </row>
-    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C899" s="1"/>
     </row>
-    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C900" s="1"/>
     </row>
-    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C901" s="1"/>
     </row>
-    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C902" s="1"/>
     </row>
-    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C903" s="1"/>
     </row>
-    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C904" s="1"/>
     </row>
-    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C905" s="1"/>
     </row>
-    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C906" s="1"/>
     </row>
-    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C907" s="1"/>
     </row>
-    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C908" s="1"/>
     </row>
-    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C909" s="1"/>
     </row>
-    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C910" s="1"/>
     </row>
-    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C911" s="1"/>
     </row>
-    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C912" s="1"/>
     </row>
-    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C913" s="1"/>
     </row>
-    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C914" s="1"/>
     </row>
-    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C915" s="1"/>
     </row>
-    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C916" s="1"/>
     </row>
-    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C917" s="1"/>
     </row>
-    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C918" s="1"/>
     </row>
-    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C919" s="1"/>
     </row>
-    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C920" s="1"/>
     </row>
-    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C921" s="1"/>
     </row>
-    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C922" s="1"/>
     </row>
-    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C923" s="1"/>
     </row>
-    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C924" s="1"/>
     </row>
-    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C925" s="1"/>
     </row>
-    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C926" s="1"/>
     </row>
-    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C927" s="1"/>
     </row>
-    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C928" s="1"/>
     </row>
-    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C929" s="1"/>
     </row>
-    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C930" s="1"/>
     </row>
-    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C931" s="1"/>
     </row>
-    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C932" s="1"/>
     </row>
-    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C933" s="1"/>
     </row>
-    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C934" s="1"/>
     </row>
-    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C935" s="1"/>
     </row>
-    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C936" s="1"/>
     </row>
-    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C937" s="1"/>
     </row>
-    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C938" s="1"/>
     </row>
-    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C939" s="1"/>
     </row>
-    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C940" s="1"/>
     </row>
-    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C941" s="1"/>
     </row>
-    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C942" s="1"/>
     </row>
-    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C943" s="1"/>
     </row>
-    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C944" s="1"/>
     </row>
-    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C945" s="1"/>
     </row>
-    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C946" s="1"/>
     </row>
-    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C947" s="1"/>
     </row>
-    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C948" s="1"/>
     </row>
-    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C949" s="1"/>
     </row>
-    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C950" s="1"/>
     </row>
-    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C951" s="1"/>
     </row>
-    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C952" s="1"/>
     </row>
-    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C953" s="1"/>
     </row>
-    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C954" s="1"/>
     </row>
-    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C955" s="1"/>
     </row>
-    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C956" s="1"/>
     </row>
-    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C957" s="1"/>
     </row>
-    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C958" s="1"/>
     </row>
-    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C959" s="1"/>
     </row>
-    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C960" s="1"/>
     </row>
-    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C961" s="1"/>
     </row>
-    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C962" s="1"/>
     </row>
-    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C963" s="1"/>
     </row>
-    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C964" s="1"/>
     </row>
-    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C965" s="1"/>
     </row>
-    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C966" s="1"/>
     </row>
-    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C967" s="1"/>
     </row>
-    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C968" s="1"/>
     </row>
-    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C969" s="1"/>
     </row>
-    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C970" s="1"/>
     </row>
-    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C971" s="1"/>
     </row>
-    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C972" s="1"/>
     </row>
-    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C973" s="1"/>
     </row>
-    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C974" s="1"/>
     </row>
-    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C975" s="1"/>
     </row>
-    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C976" s="1"/>
     </row>
-    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C977" s="1"/>
     </row>
-    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C978" s="1"/>
     </row>
-    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C979" s="1"/>
     </row>
-    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C980" s="1"/>
     </row>
-    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C981" s="1"/>
     </row>
-    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C982" s="1"/>
     </row>
-    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C983" s="1"/>
     </row>
-    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C984" s="1"/>
     </row>
-    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C985" s="1"/>
     </row>
-    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C986" s="1"/>
     </row>
-    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C987" s="1"/>
     </row>
-    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C988" s="1"/>
     </row>
-    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C989" s="1"/>
     </row>
-    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C990" s="1"/>
     </row>
-    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C991" s="1"/>
     </row>
-    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C992" s="1"/>
     </row>
-    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C993" s="1"/>
     </row>
-    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C994" s="1"/>
     </row>
-    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C995" s="1"/>
     </row>
-    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C996" s="1"/>
     </row>
-    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C997" s="1"/>
     </row>
-    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C998" s="1"/>
     </row>
-    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C999" s="1"/>
     </row>
-    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1000" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B46:B79"/>
+    <mergeCell ref="CK1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
     <mergeCell ref="CY1:DE1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
@@ -8261,10 +8265,6 @@
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="BW1:CC1"/>
     <mergeCell ref="CD1:CJ1"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B46:B79"/>
-    <mergeCell ref="CK1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J4 L4:CW4 CY4:EV4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -8289,15 +8289,15 @@
       <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="158" width="3.77734375" customWidth="1"/>
+    <col min="4" max="158" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
       <c r="E1" s="62" t="s">
         <v>73</v>
@@ -8488,7 +8488,7 @@
       <c r="FA1" s="63"/>
       <c r="FB1" s="63"/>
     </row>
-    <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="E2" s="5" t="s">
         <v>15</v>
@@ -8883,7 +8883,7 @@
       <c r="FA2" s="5"/>
       <c r="FB2" s="5"/>
     </row>
-    <row r="3" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
@@ -8892,12 +8892,12 @@
       <c r="K3" s="5"/>
       <c r="CX3" s="6"/>
     </row>
-    <row r="4" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>26</v>
       </c>
@@ -9013,7 +9013,7 @@
       <c r="DG5" s="39"/>
       <c r="DH5" s="39"/>
     </row>
-    <row r="6" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
@@ -9137,24 +9137,24 @@
       <c r="DG7" s="39"/>
       <c r="DH7" s="39"/>
     </row>
-    <row r="8" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
@@ -9267,22 +9267,22 @@
       <c r="DG11" s="39"/>
       <c r="DH11" s="39"/>
     </row>
-    <row r="12" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
@@ -9395,32 +9395,32 @@
       <c r="DG15" s="39"/>
       <c r="DH15" s="39"/>
     </row>
-    <row r="16" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>262</v>
       </c>
@@ -9519,7 +9519,7 @@
       <c r="DG21" s="39"/>
       <c r="DH21" s="39"/>
     </row>
-    <row r="22" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
@@ -9632,7 +9632,7 @@
       <c r="DG22" s="39"/>
       <c r="DH22" s="39"/>
     </row>
-    <row r="23" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="34" t="s">
         <v>60</v>
       </c>
@@ -9641,10 +9641,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>61</v>
       </c>
@@ -9743,7 +9743,7 @@
       <c r="DG25" s="39"/>
       <c r="DH25" s="39"/>
     </row>
-    <row r="26" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>62</v>
       </c>
@@ -9772,7 +9772,7 @@
       <c r="DG26" s="39"/>
       <c r="DH26" s="39"/>
     </row>
-    <row r="27" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>63</v>
       </c>
@@ -9801,7 +9801,7 @@
       <c r="DG27" s="39"/>
       <c r="DH27" s="39"/>
     </row>
-    <row r="28" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>64</v>
       </c>
@@ -9900,7 +9900,7 @@
       <c r="DG28" s="39"/>
       <c r="DH28" s="39"/>
     </row>
-    <row r="29" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="5" t="s">
         <v>65</v>
       </c>
@@ -9929,7 +9929,7 @@
       <c r="DG29" s="39"/>
       <c r="DH29" s="39"/>
     </row>
-    <row r="30" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>66</v>
       </c>
@@ -10028,21 +10028,21 @@
       <c r="DG30" s="39"/>
       <c r="DH30" s="39"/>
     </row>
-    <row r="31" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>67</v>
       </c>
       <c r="DG31" s="39"/>
       <c r="DH31" s="39"/>
     </row>
-    <row r="32" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
       <c r="DG32" s="39"/>
       <c r="DH32" s="39"/>
     </row>
-    <row r="33" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="34" t="s">
         <v>100</v>
       </c>
@@ -10051,10 +10051,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="34" t="s">
         <v>69</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>70</v>
       </c>
@@ -10091,7 +10091,7 @@
       <c r="DG36" s="39"/>
       <c r="DH36" s="39"/>
     </row>
-    <row r="37" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
@@ -10106,7 +10106,7 @@
       <c r="DG37" s="39"/>
       <c r="DH37" s="39"/>
     </row>
-    <row r="38" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>72</v>
       </c>
@@ -10121,12 +10121,12 @@
       <c r="DK38" s="39"/>
       <c r="DL38" s="39"/>
     </row>
-    <row r="40" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="60" t="s">
         <v>255</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="CI41" s="39"/>
       <c r="CJ41" s="39"/>
     </row>
-    <row r="42" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="60" t="s">
         <v>256</v>
       </c>
@@ -10206,7 +10206,7 @@
       <c r="CI42" s="39"/>
       <c r="CJ42" s="39"/>
     </row>
-    <row r="43" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="60" t="s">
         <v>257</v>
       </c>
@@ -10246,7 +10246,7 @@
       <c r="CI43" s="39"/>
       <c r="CJ43" s="39"/>
     </row>
-    <row r="44" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="61" t="s">
         <v>259</v>
       </c>
@@ -10291,13 +10291,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="EH1:EN1"/>
     <mergeCell ref="EO1:EU1"/>
     <mergeCell ref="EV1:FB1"/>
@@ -10313,6 +10306,13 @@
     <mergeCell ref="DM1:DS1"/>
     <mergeCell ref="DT1:DZ1"/>
     <mergeCell ref="EA1:EG1"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10329,24 +10329,24 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
         <v>90</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>53</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>95</v>
       </c>
@@ -10426,7 +10426,7 @@
       </c>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>97</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>98</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>248</v>
       </c>
@@ -10468,2962 +10468,2962 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
     </row>
-    <row r="33" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="4"/>
     </row>
-    <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="4"/>
     </row>
-    <row r="125" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="4"/>
     </row>
-    <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B126" s="4"/>
     </row>
-    <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="4"/>
     </row>
-    <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="4"/>
     </row>
-    <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B130" s="4"/>
     </row>
-    <row r="131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="4"/>
     </row>
-    <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B132" s="4"/>
     </row>
-    <row r="133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B133" s="4"/>
     </row>
-    <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B134" s="4"/>
     </row>
-    <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B135" s="4"/>
     </row>
-    <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B136" s="4"/>
     </row>
-    <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B137" s="4"/>
     </row>
-    <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="4"/>
     </row>
-    <row r="139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="4"/>
     </row>
-    <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="4"/>
     </row>
-    <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="4"/>
     </row>
-    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B142" s="4"/>
     </row>
-    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B143" s="4"/>
     </row>
-    <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="4"/>
     </row>
-    <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B145" s="4"/>
     </row>
-    <row r="146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="4"/>
     </row>
-    <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="4"/>
     </row>
-    <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="4"/>
     </row>
-    <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="4"/>
     </row>
-    <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B162" s="4"/>
     </row>
-    <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="4"/>
     </row>
-    <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="4"/>
     </row>
-    <row r="166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="4"/>
     </row>
-    <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B168" s="4"/>
     </row>
-    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B169" s="4"/>
     </row>
-    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="4"/>
     </row>
-    <row r="171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="4"/>
     </row>
-    <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B177" s="4"/>
     </row>
-    <row r="178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="4"/>
     </row>
-    <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B179" s="4"/>
     </row>
-    <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B180" s="4"/>
     </row>
-    <row r="181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="4"/>
     </row>
-    <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="4"/>
     </row>
-    <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="4"/>
     </row>
-    <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B184" s="4"/>
     </row>
-    <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="4"/>
     </row>
-    <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="4"/>
     </row>
-    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="4"/>
     </row>
-    <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="4"/>
     </row>
-    <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="4"/>
     </row>
-    <row r="192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="4"/>
     </row>
-    <row r="193" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="4"/>
     </row>
-    <row r="194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="4"/>
     </row>
-    <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B195" s="4"/>
     </row>
-    <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="4"/>
     </row>
-    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="4"/>
     </row>
-    <row r="200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B200" s="4"/>
     </row>
-    <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B201" s="4"/>
     </row>
-    <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="4"/>
     </row>
-    <row r="203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B205" s="4"/>
     </row>
-    <row r="206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B206" s="4"/>
     </row>
-    <row r="207" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B207" s="4"/>
     </row>
-    <row r="208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="4"/>
     </row>
-    <row r="209" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="4"/>
     </row>
-    <row r="210" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="4"/>
     </row>
-    <row r="211" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B211" s="4"/>
     </row>
-    <row r="212" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B212" s="4"/>
     </row>
-    <row r="213" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B213" s="4"/>
     </row>
-    <row r="214" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B214" s="4"/>
     </row>
-    <row r="215" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B215" s="4"/>
     </row>
-    <row r="216" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B216" s="4"/>
     </row>
-    <row r="217" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B217" s="4"/>
     </row>
-    <row r="218" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B218" s="4"/>
     </row>
-    <row r="219" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B219" s="4"/>
     </row>
-    <row r="220" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B221" s="4"/>
     </row>
-    <row r="222" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B222" s="4"/>
     </row>
-    <row r="223" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B223" s="4"/>
     </row>
-    <row r="224" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B224" s="4"/>
     </row>
-    <row r="225" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B225" s="4"/>
     </row>
-    <row r="226" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B226" s="4"/>
     </row>
-    <row r="227" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B227" s="4"/>
     </row>
-    <row r="228" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B228" s="4"/>
     </row>
-    <row r="229" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B229" s="4"/>
     </row>
-    <row r="230" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B230" s="4"/>
     </row>
-    <row r="231" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B231" s="4"/>
     </row>
-    <row r="232" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B232" s="4"/>
     </row>
-    <row r="233" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B233" s="4"/>
     </row>
-    <row r="234" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B234" s="4"/>
     </row>
-    <row r="235" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B235" s="4"/>
     </row>
-    <row r="236" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B238" s="4"/>
     </row>
-    <row r="239" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B239" s="4"/>
     </row>
-    <row r="240" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="4"/>
     </row>
-    <row r="241" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="4"/>
     </row>
-    <row r="242" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B242" s="4"/>
     </row>
-    <row r="243" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B243" s="4"/>
     </row>
-    <row r="244" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B244" s="4"/>
     </row>
-    <row r="245" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B245" s="4"/>
     </row>
-    <row r="246" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B246" s="4"/>
     </row>
-    <row r="247" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B247" s="4"/>
     </row>
-    <row r="248" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B248" s="4"/>
     </row>
-    <row r="249" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B249" s="4"/>
     </row>
-    <row r="250" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B250" s="4"/>
     </row>
-    <row r="251" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B251" s="4"/>
     </row>
-    <row r="252" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B252" s="4"/>
     </row>
-    <row r="253" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B254" s="4"/>
     </row>
-    <row r="255" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="4"/>
     </row>
-    <row r="256" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="4"/>
     </row>
-    <row r="257" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="4"/>
     </row>
-    <row r="258" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="4"/>
     </row>
-    <row r="259" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="4"/>
     </row>
-    <row r="260" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="4"/>
     </row>
-    <row r="261" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="4"/>
     </row>
-    <row r="262" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="4"/>
     </row>
-    <row r="263" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="4"/>
     </row>
-    <row r="264" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="4"/>
     </row>
-    <row r="265" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="4"/>
     </row>
-    <row r="266" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="4"/>
     </row>
-    <row r="267" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="4"/>
     </row>
-    <row r="268" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="4"/>
     </row>
-    <row r="269" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="4"/>
     </row>
-    <row r="272" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="4"/>
     </row>
-    <row r="273" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="4"/>
     </row>
-    <row r="274" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="4"/>
     </row>
-    <row r="275" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="4"/>
     </row>
-    <row r="276" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="4"/>
     </row>
-    <row r="277" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="4"/>
     </row>
-    <row r="278" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="4"/>
     </row>
-    <row r="279" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="4"/>
     </row>
-    <row r="280" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="4"/>
     </row>
-    <row r="281" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="4"/>
     </row>
-    <row r="282" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="4"/>
     </row>
-    <row r="283" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="4"/>
     </row>
-    <row r="284" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="4"/>
     </row>
-    <row r="285" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="4"/>
     </row>
-    <row r="286" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="4"/>
     </row>
-    <row r="287" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="4"/>
     </row>
-    <row r="288" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="4"/>
     </row>
-    <row r="289" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="4"/>
     </row>
-    <row r="290" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="4"/>
     </row>
-    <row r="291" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="4"/>
     </row>
-    <row r="292" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="4"/>
     </row>
-    <row r="293" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="4"/>
     </row>
-    <row r="294" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="4"/>
     </row>
-    <row r="295" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="4"/>
     </row>
-    <row r="296" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="4"/>
     </row>
-    <row r="297" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="4"/>
     </row>
-    <row r="298" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="4"/>
     </row>
-    <row r="299" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="4"/>
     </row>
-    <row r="300" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="4"/>
     </row>
-    <row r="301" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="4"/>
     </row>
-    <row r="302" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="4"/>
     </row>
-    <row r="304" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="4"/>
     </row>
-    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="4"/>
     </row>
-    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="4"/>
     </row>
-    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="4"/>
     </row>
-    <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="4"/>
     </row>
-    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="4"/>
     </row>
-    <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="4"/>
     </row>
-    <row r="311" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="4"/>
     </row>
-    <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="4"/>
     </row>
-    <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="4"/>
     </row>
-    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="4"/>
     </row>
-    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="4"/>
     </row>
-    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="4"/>
     </row>
-    <row r="317" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="4"/>
     </row>
-    <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="4"/>
     </row>
-    <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="4"/>
     </row>
-    <row r="320" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="4"/>
     </row>
-    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="4"/>
     </row>
-    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="4"/>
     </row>
-    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="4"/>
     </row>
-    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="4"/>
     </row>
-    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="4"/>
     </row>
-    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="4"/>
     </row>
-    <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="4"/>
     </row>
-    <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="4"/>
     </row>
-    <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="4"/>
     </row>
-    <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="4"/>
     </row>
-    <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="4"/>
     </row>
-    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="4"/>
     </row>
-    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="4"/>
     </row>
-    <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="4"/>
     </row>
-    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="4"/>
     </row>
-    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="4"/>
     </row>
-    <row r="337" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="4"/>
     </row>
-    <row r="338" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="4"/>
     </row>
-    <row r="339" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="4"/>
     </row>
-    <row r="340" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="4"/>
     </row>
-    <row r="341" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="4"/>
     </row>
-    <row r="342" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="4"/>
     </row>
-    <row r="343" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="4"/>
     </row>
-    <row r="344" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="4"/>
     </row>
-    <row r="345" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="4"/>
     </row>
-    <row r="346" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="4"/>
     </row>
-    <row r="347" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="4"/>
     </row>
-    <row r="348" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="4"/>
     </row>
-    <row r="349" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="4"/>
     </row>
-    <row r="350" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="4"/>
     </row>
-    <row r="351" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="4"/>
     </row>
-    <row r="352" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="4"/>
     </row>
-    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="4"/>
     </row>
-    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="4"/>
     </row>
-    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="4"/>
     </row>
-    <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="4"/>
     </row>
-    <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="4"/>
     </row>
-    <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="4"/>
     </row>
-    <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="4"/>
     </row>
-    <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="4"/>
     </row>
-    <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="4"/>
     </row>
-    <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="4"/>
     </row>
-    <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="4"/>
     </row>
-    <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="4"/>
     </row>
-    <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="4"/>
     </row>
-    <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="4"/>
     </row>
-    <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="4"/>
     </row>
-    <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="4"/>
     </row>
-    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="4"/>
     </row>
-    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="4"/>
     </row>
-    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="4"/>
     </row>
-    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="4"/>
     </row>
-    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="4"/>
     </row>
-    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="4"/>
     </row>
-    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="4"/>
     </row>
-    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="4"/>
     </row>
-    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="4"/>
     </row>
-    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="4"/>
     </row>
-    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="4"/>
     </row>
-    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="4"/>
     </row>
-    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="4"/>
     </row>
-    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="4"/>
     </row>
-    <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="4"/>
     </row>
-    <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="4"/>
     </row>
-    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="4"/>
     </row>
-    <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="4"/>
     </row>
-    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="4"/>
     </row>
-    <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="4"/>
     </row>
-    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="4"/>
     </row>
-    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="4"/>
     </row>
-    <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="4"/>
     </row>
-    <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="4"/>
     </row>
-    <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="4"/>
     </row>
-    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="4"/>
     </row>
-    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="4"/>
     </row>
-    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="4"/>
     </row>
-    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="4"/>
     </row>
-    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="4"/>
     </row>
-    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="4"/>
     </row>
-    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="4"/>
     </row>
-    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="4"/>
     </row>
-    <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="4"/>
     </row>
-    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="4"/>
     </row>
-    <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="4"/>
     </row>
-    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="4"/>
     </row>
-    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="4"/>
     </row>
-    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="4"/>
     </row>
-    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="4"/>
     </row>
-    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="4"/>
     </row>
-    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="4"/>
     </row>
-    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="4"/>
     </row>
-    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="4"/>
     </row>
-    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="4"/>
     </row>
-    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="4"/>
     </row>
-    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="4"/>
     </row>
-    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="4"/>
     </row>
-    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="4"/>
     </row>
-    <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="4"/>
     </row>
-    <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="4"/>
     </row>
-    <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="4"/>
     </row>
-    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="4"/>
     </row>
-    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="4"/>
     </row>
-    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="4"/>
     </row>
-    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="4"/>
     </row>
-    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="4"/>
     </row>
-    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="4"/>
     </row>
-    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="4"/>
     </row>
-    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="4"/>
     </row>
-    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="4"/>
     </row>
-    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="4"/>
     </row>
-    <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="4"/>
     </row>
-    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="4"/>
     </row>
-    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="4"/>
     </row>
-    <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="4"/>
     </row>
-    <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="4"/>
     </row>
-    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="4"/>
     </row>
-    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="4"/>
     </row>
-    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="4"/>
     </row>
-    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="4"/>
     </row>
-    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="4"/>
     </row>
-    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="4"/>
     </row>
-    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="4"/>
     </row>
-    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="4"/>
     </row>
-    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="4"/>
     </row>
-    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="4"/>
     </row>
-    <row r="450" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="4"/>
     </row>
-    <row r="451" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="4"/>
     </row>
-    <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="4"/>
     </row>
-    <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="4"/>
     </row>
-    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="4"/>
     </row>
-    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="4"/>
     </row>
-    <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="4"/>
     </row>
-    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="4"/>
     </row>
-    <row r="458" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="4"/>
     </row>
-    <row r="459" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="4"/>
     </row>
-    <row r="460" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="4"/>
     </row>
-    <row r="461" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="4"/>
     </row>
-    <row r="462" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="4"/>
     </row>
-    <row r="463" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="4"/>
     </row>
-    <row r="464" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="4"/>
     </row>
-    <row r="465" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="4"/>
     </row>
-    <row r="466" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="4"/>
     </row>
-    <row r="467" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="4"/>
     </row>
-    <row r="468" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="4"/>
     </row>
-    <row r="469" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="4"/>
     </row>
-    <row r="470" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="4"/>
     </row>
-    <row r="471" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="4"/>
     </row>
-    <row r="472" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="4"/>
     </row>
-    <row r="473" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="4"/>
     </row>
-    <row r="474" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="4"/>
     </row>
-    <row r="475" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="4"/>
     </row>
-    <row r="476" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="4"/>
     </row>
-    <row r="477" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="4"/>
     </row>
-    <row r="478" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="4"/>
     </row>
-    <row r="479" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="4"/>
     </row>
-    <row r="480" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="4"/>
     </row>
-    <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="4"/>
     </row>
-    <row r="482" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="4"/>
     </row>
-    <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="4"/>
     </row>
-    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="4"/>
     </row>
-    <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="4"/>
     </row>
-    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="4"/>
     </row>
-    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="4"/>
     </row>
-    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="4"/>
     </row>
-    <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="4"/>
     </row>
-    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="4"/>
     </row>
-    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="4"/>
     </row>
-    <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="4"/>
     </row>
-    <row r="493" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="4"/>
     </row>
-    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="4"/>
     </row>
-    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="4"/>
     </row>
-    <row r="496" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="4"/>
     </row>
-    <row r="497" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="4"/>
     </row>
-    <row r="498" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="4"/>
     </row>
-    <row r="499" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="4"/>
     </row>
-    <row r="500" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="4"/>
     </row>
-    <row r="501" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="4"/>
     </row>
-    <row r="502" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="4"/>
     </row>
-    <row r="503" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="4"/>
     </row>
-    <row r="504" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="4"/>
     </row>
-    <row r="505" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="4"/>
     </row>
-    <row r="506" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="4"/>
     </row>
-    <row r="507" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="4"/>
     </row>
-    <row r="508" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="4"/>
     </row>
-    <row r="509" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="4"/>
     </row>
-    <row r="510" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="4"/>
     </row>
-    <row r="511" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="4"/>
     </row>
-    <row r="512" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="4"/>
     </row>
-    <row r="513" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="4"/>
     </row>
-    <row r="514" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="4"/>
     </row>
-    <row r="515" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="4"/>
     </row>
-    <row r="516" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="4"/>
     </row>
-    <row r="517" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="4"/>
     </row>
-    <row r="518" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="4"/>
     </row>
-    <row r="519" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="4"/>
     </row>
-    <row r="520" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="4"/>
     </row>
-    <row r="521" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="4"/>
     </row>
-    <row r="522" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="4"/>
     </row>
-    <row r="523" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="4"/>
     </row>
-    <row r="524" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="4"/>
     </row>
-    <row r="525" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="4"/>
     </row>
-    <row r="526" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="4"/>
     </row>
-    <row r="527" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="4"/>
     </row>
-    <row r="528" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="4"/>
     </row>
-    <row r="529" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="4"/>
     </row>
-    <row r="530" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="4"/>
     </row>
-    <row r="531" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="4"/>
     </row>
-    <row r="532" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="4"/>
     </row>
-    <row r="533" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="4"/>
     </row>
-    <row r="534" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="4"/>
     </row>
-    <row r="535" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="4"/>
     </row>
-    <row r="536" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="4"/>
     </row>
-    <row r="537" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="4"/>
     </row>
-    <row r="538" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="4"/>
     </row>
-    <row r="539" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="4"/>
     </row>
-    <row r="540" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="4"/>
     </row>
-    <row r="541" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="4"/>
     </row>
-    <row r="542" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="4"/>
     </row>
-    <row r="543" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="4"/>
     </row>
-    <row r="544" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="4"/>
     </row>
-    <row r="545" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="4"/>
     </row>
-    <row r="546" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="4"/>
     </row>
-    <row r="547" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="4"/>
     </row>
-    <row r="548" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="4"/>
     </row>
-    <row r="549" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="4"/>
     </row>
-    <row r="550" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="4"/>
     </row>
-    <row r="551" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="4"/>
     </row>
-    <row r="552" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="4"/>
     </row>
-    <row r="553" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="4"/>
     </row>
-    <row r="554" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="4"/>
     </row>
-    <row r="555" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="4"/>
     </row>
-    <row r="556" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="4"/>
     </row>
-    <row r="557" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="4"/>
     </row>
-    <row r="558" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="4"/>
     </row>
-    <row r="559" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="4"/>
     </row>
-    <row r="560" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="4"/>
     </row>
-    <row r="561" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="4"/>
     </row>
-    <row r="562" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="4"/>
     </row>
-    <row r="563" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="4"/>
     </row>
-    <row r="564" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="4"/>
     </row>
-    <row r="565" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="4"/>
     </row>
-    <row r="566" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="4"/>
     </row>
-    <row r="567" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="4"/>
     </row>
-    <row r="568" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="4"/>
     </row>
-    <row r="569" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="4"/>
     </row>
-    <row r="570" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="4"/>
     </row>
-    <row r="571" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="4"/>
     </row>
-    <row r="572" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="4"/>
     </row>
-    <row r="573" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="4"/>
     </row>
-    <row r="574" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="4"/>
     </row>
-    <row r="575" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="4"/>
     </row>
-    <row r="576" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="4"/>
     </row>
-    <row r="577" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="4"/>
     </row>
-    <row r="578" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="4"/>
     </row>
-    <row r="579" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="4"/>
     </row>
-    <row r="580" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="4"/>
     </row>
-    <row r="581" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="4"/>
     </row>
-    <row r="582" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="4"/>
     </row>
-    <row r="583" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="4"/>
     </row>
-    <row r="584" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="4"/>
     </row>
-    <row r="585" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="4"/>
     </row>
-    <row r="586" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="4"/>
     </row>
-    <row r="587" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="4"/>
     </row>
-    <row r="588" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="4"/>
     </row>
-    <row r="589" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="4"/>
     </row>
-    <row r="590" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="4"/>
     </row>
-    <row r="591" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="4"/>
     </row>
-    <row r="592" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="4"/>
     </row>
-    <row r="593" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="4"/>
     </row>
-    <row r="594" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="4"/>
     </row>
-    <row r="595" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="4"/>
     </row>
-    <row r="596" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="4"/>
     </row>
-    <row r="597" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="4"/>
     </row>
-    <row r="598" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="4"/>
     </row>
-    <row r="599" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="4"/>
     </row>
-    <row r="600" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="4"/>
     </row>
-    <row r="601" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="4"/>
     </row>
-    <row r="602" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="4"/>
     </row>
-    <row r="603" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="4"/>
     </row>
-    <row r="604" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="4"/>
     </row>
-    <row r="605" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="4"/>
     </row>
-    <row r="606" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="4"/>
     </row>
-    <row r="607" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="4"/>
     </row>
-    <row r="608" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="4"/>
     </row>
-    <row r="609" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="4"/>
     </row>
-    <row r="610" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="4"/>
     </row>
-    <row r="611" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="4"/>
     </row>
-    <row r="612" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="4"/>
     </row>
-    <row r="613" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="4"/>
     </row>
-    <row r="614" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="4"/>
     </row>
-    <row r="615" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="4"/>
     </row>
-    <row r="616" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="4"/>
     </row>
-    <row r="617" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="4"/>
     </row>
-    <row r="618" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="4"/>
     </row>
-    <row r="619" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="4"/>
     </row>
-    <row r="620" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="4"/>
     </row>
-    <row r="621" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="4"/>
     </row>
-    <row r="622" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="4"/>
     </row>
-    <row r="623" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="4"/>
     </row>
-    <row r="624" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="4"/>
     </row>
-    <row r="625" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="4"/>
     </row>
-    <row r="626" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="4"/>
     </row>
-    <row r="627" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="4"/>
     </row>
-    <row r="628" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="4"/>
     </row>
-    <row r="629" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="4"/>
     </row>
-    <row r="630" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="4"/>
     </row>
-    <row r="631" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="4"/>
     </row>
-    <row r="632" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="4"/>
     </row>
-    <row r="633" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="4"/>
     </row>
-    <row r="634" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="4"/>
     </row>
-    <row r="635" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="4"/>
     </row>
-    <row r="636" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="4"/>
     </row>
-    <row r="637" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="4"/>
     </row>
-    <row r="638" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="4"/>
     </row>
-    <row r="639" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="4"/>
     </row>
-    <row r="640" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="4"/>
     </row>
-    <row r="641" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="4"/>
     </row>
-    <row r="642" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="4"/>
     </row>
-    <row r="643" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="4"/>
     </row>
-    <row r="644" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="4"/>
     </row>
-    <row r="645" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="4"/>
     </row>
-    <row r="646" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="4"/>
     </row>
-    <row r="647" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="4"/>
     </row>
-    <row r="648" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="4"/>
     </row>
-    <row r="649" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="4"/>
     </row>
-    <row r="650" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="4"/>
     </row>
-    <row r="651" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="4"/>
     </row>
-    <row r="652" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="4"/>
     </row>
-    <row r="653" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="4"/>
     </row>
-    <row r="654" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="4"/>
     </row>
-    <row r="655" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="4"/>
     </row>
-    <row r="656" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="4"/>
     </row>
-    <row r="657" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="4"/>
     </row>
-    <row r="658" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="4"/>
     </row>
-    <row r="659" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="4"/>
     </row>
-    <row r="660" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="4"/>
     </row>
-    <row r="661" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="4"/>
     </row>
-    <row r="662" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="4"/>
     </row>
-    <row r="663" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="4"/>
     </row>
-    <row r="664" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="4"/>
     </row>
-    <row r="665" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="4"/>
     </row>
-    <row r="666" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="4"/>
     </row>
-    <row r="667" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="4"/>
     </row>
-    <row r="668" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="4"/>
     </row>
-    <row r="669" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="4"/>
     </row>
-    <row r="670" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="4"/>
     </row>
-    <row r="671" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="4"/>
     </row>
-    <row r="672" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="4"/>
     </row>
-    <row r="673" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="4"/>
     </row>
-    <row r="674" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="4"/>
     </row>
-    <row r="675" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="4"/>
     </row>
-    <row r="676" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="4"/>
     </row>
-    <row r="677" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="4"/>
     </row>
-    <row r="678" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="4"/>
     </row>
-    <row r="679" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="4"/>
     </row>
-    <row r="680" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="4"/>
     </row>
-    <row r="681" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="4"/>
     </row>
-    <row r="682" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="4"/>
     </row>
-    <row r="683" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="4"/>
     </row>
-    <row r="684" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="4"/>
     </row>
-    <row r="685" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="4"/>
     </row>
-    <row r="686" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="4"/>
     </row>
-    <row r="687" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="4"/>
     </row>
-    <row r="688" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="4"/>
     </row>
-    <row r="689" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="4"/>
     </row>
-    <row r="690" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="4"/>
     </row>
-    <row r="691" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="4"/>
     </row>
-    <row r="692" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="4"/>
     </row>
-    <row r="693" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="4"/>
     </row>
-    <row r="694" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="4"/>
     </row>
-    <row r="695" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="4"/>
     </row>
-    <row r="696" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="4"/>
     </row>
-    <row r="697" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="4"/>
     </row>
-    <row r="698" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="4"/>
     </row>
-    <row r="699" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="4"/>
     </row>
-    <row r="700" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="4"/>
     </row>
-    <row r="701" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="4"/>
     </row>
-    <row r="702" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="4"/>
     </row>
-    <row r="703" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="4"/>
     </row>
-    <row r="704" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="4"/>
     </row>
-    <row r="705" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="4"/>
     </row>
-    <row r="706" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="4"/>
     </row>
-    <row r="707" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="4"/>
     </row>
-    <row r="708" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="4"/>
     </row>
-    <row r="709" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="4"/>
     </row>
-    <row r="710" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="4"/>
     </row>
-    <row r="711" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="4"/>
     </row>
-    <row r="712" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="4"/>
     </row>
-    <row r="713" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="4"/>
     </row>
-    <row r="714" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="4"/>
     </row>
-    <row r="715" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="4"/>
     </row>
-    <row r="716" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="4"/>
     </row>
-    <row r="717" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="4"/>
     </row>
-    <row r="718" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="4"/>
     </row>
-    <row r="719" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="4"/>
     </row>
-    <row r="720" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="4"/>
     </row>
-    <row r="721" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="4"/>
     </row>
-    <row r="722" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="4"/>
     </row>
-    <row r="723" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="4"/>
     </row>
-    <row r="724" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="4"/>
     </row>
-    <row r="725" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="4"/>
     </row>
-    <row r="726" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="4"/>
     </row>
-    <row r="727" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="4"/>
     </row>
-    <row r="728" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="4"/>
     </row>
-    <row r="729" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="4"/>
     </row>
-    <row r="730" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="4"/>
     </row>
-    <row r="731" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="4"/>
     </row>
-    <row r="732" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="4"/>
     </row>
-    <row r="733" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="4"/>
     </row>
-    <row r="734" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="4"/>
     </row>
-    <row r="735" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="4"/>
     </row>
-    <row r="736" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="4"/>
     </row>
-    <row r="737" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="4"/>
     </row>
-    <row r="738" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="4"/>
     </row>
-    <row r="739" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="4"/>
     </row>
-    <row r="740" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="4"/>
     </row>
-    <row r="741" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="4"/>
     </row>
-    <row r="742" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="4"/>
     </row>
-    <row r="743" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="4"/>
     </row>
-    <row r="744" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="4"/>
     </row>
-    <row r="745" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="4"/>
     </row>
-    <row r="746" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="4"/>
     </row>
-    <row r="747" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="4"/>
     </row>
-    <row r="748" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="4"/>
     </row>
-    <row r="749" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="4"/>
     </row>
-    <row r="750" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="4"/>
     </row>
-    <row r="751" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="4"/>
     </row>
-    <row r="752" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="4"/>
     </row>
-    <row r="753" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="4"/>
     </row>
-    <row r="754" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="4"/>
     </row>
-    <row r="755" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="4"/>
     </row>
-    <row r="756" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="4"/>
     </row>
-    <row r="757" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="4"/>
     </row>
-    <row r="758" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="4"/>
     </row>
-    <row r="759" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="4"/>
     </row>
-    <row r="760" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="4"/>
     </row>
-    <row r="761" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="4"/>
     </row>
-    <row r="762" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="4"/>
     </row>
-    <row r="763" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="4"/>
     </row>
-    <row r="764" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="4"/>
     </row>
-    <row r="765" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="4"/>
     </row>
-    <row r="766" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="4"/>
     </row>
-    <row r="767" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="4"/>
     </row>
-    <row r="768" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="4"/>
     </row>
-    <row r="769" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="4"/>
     </row>
-    <row r="770" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="4"/>
     </row>
-    <row r="771" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="4"/>
     </row>
-    <row r="772" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="4"/>
     </row>
-    <row r="773" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="4"/>
     </row>
-    <row r="774" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="4"/>
     </row>
-    <row r="775" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="4"/>
     </row>
-    <row r="776" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="4"/>
     </row>
-    <row r="777" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="4"/>
     </row>
-    <row r="778" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="4"/>
     </row>
-    <row r="779" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="4"/>
     </row>
-    <row r="780" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="4"/>
     </row>
-    <row r="781" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="4"/>
     </row>
-    <row r="782" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="4"/>
     </row>
-    <row r="783" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="4"/>
     </row>
-    <row r="784" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="4"/>
     </row>
-    <row r="785" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="4"/>
     </row>
-    <row r="786" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="4"/>
     </row>
-    <row r="787" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="4"/>
     </row>
-    <row r="788" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="4"/>
     </row>
-    <row r="789" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="4"/>
     </row>
-    <row r="790" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="4"/>
     </row>
-    <row r="791" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="4"/>
     </row>
-    <row r="792" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="4"/>
     </row>
-    <row r="793" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="4"/>
     </row>
-    <row r="794" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="4"/>
     </row>
-    <row r="795" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="4"/>
     </row>
-    <row r="796" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="4"/>
     </row>
-    <row r="797" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="4"/>
     </row>
-    <row r="798" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="4"/>
     </row>
-    <row r="799" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="4"/>
     </row>
-    <row r="800" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="4"/>
     </row>
-    <row r="801" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="4"/>
     </row>
-    <row r="802" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="4"/>
     </row>
-    <row r="803" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="4"/>
     </row>
-    <row r="804" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="4"/>
     </row>
-    <row r="805" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="4"/>
     </row>
-    <row r="806" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="4"/>
     </row>
-    <row r="807" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="4"/>
     </row>
-    <row r="808" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="4"/>
     </row>
-    <row r="809" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="4"/>
     </row>
-    <row r="810" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="4"/>
     </row>
-    <row r="811" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="4"/>
     </row>
-    <row r="812" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="4"/>
     </row>
-    <row r="813" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="4"/>
     </row>
-    <row r="814" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="4"/>
     </row>
-    <row r="815" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="4"/>
     </row>
-    <row r="816" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="4"/>
     </row>
-    <row r="817" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="4"/>
     </row>
-    <row r="818" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="4"/>
     </row>
-    <row r="819" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="4"/>
     </row>
-    <row r="820" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="4"/>
     </row>
-    <row r="821" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="4"/>
     </row>
-    <row r="822" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="4"/>
     </row>
-    <row r="823" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="4"/>
     </row>
-    <row r="824" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="4"/>
     </row>
-    <row r="825" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="4"/>
     </row>
-    <row r="826" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="4"/>
     </row>
-    <row r="827" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="4"/>
     </row>
-    <row r="828" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="4"/>
     </row>
-    <row r="829" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="4"/>
     </row>
-    <row r="830" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="4"/>
     </row>
-    <row r="831" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="4"/>
     </row>
-    <row r="832" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="4"/>
     </row>
-    <row r="833" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="4"/>
     </row>
-    <row r="834" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="4"/>
     </row>
-    <row r="835" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="4"/>
     </row>
-    <row r="836" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="4"/>
     </row>
-    <row r="837" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="4"/>
     </row>
-    <row r="838" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="4"/>
     </row>
-    <row r="839" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="4"/>
     </row>
-    <row r="840" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="4"/>
     </row>
-    <row r="841" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="4"/>
     </row>
-    <row r="842" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="4"/>
     </row>
-    <row r="843" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="4"/>
     </row>
-    <row r="844" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="4"/>
     </row>
-    <row r="845" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="4"/>
     </row>
-    <row r="846" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="4"/>
     </row>
-    <row r="847" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="4"/>
     </row>
-    <row r="848" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="4"/>
     </row>
-    <row r="849" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="4"/>
     </row>
-    <row r="850" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="4"/>
     </row>
-    <row r="851" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="4"/>
     </row>
-    <row r="852" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="4"/>
     </row>
-    <row r="853" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="4"/>
     </row>
-    <row r="854" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="4"/>
     </row>
-    <row r="855" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="4"/>
     </row>
-    <row r="856" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="4"/>
     </row>
-    <row r="857" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="4"/>
     </row>
-    <row r="858" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="4"/>
     </row>
-    <row r="859" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="4"/>
     </row>
-    <row r="860" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="4"/>
     </row>
-    <row r="861" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="4"/>
     </row>
-    <row r="862" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="4"/>
     </row>
-    <row r="863" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="4"/>
     </row>
-    <row r="864" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="4"/>
     </row>
-    <row r="865" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="4"/>
     </row>
-    <row r="866" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="4"/>
     </row>
-    <row r="867" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="4"/>
     </row>
-    <row r="868" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="4"/>
     </row>
-    <row r="869" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="4"/>
     </row>
-    <row r="870" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="4"/>
     </row>
-    <row r="871" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="4"/>
     </row>
-    <row r="872" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="4"/>
     </row>
-    <row r="873" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="4"/>
     </row>
-    <row r="874" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="4"/>
     </row>
-    <row r="875" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="4"/>
     </row>
-    <row r="876" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="4"/>
     </row>
-    <row r="877" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="4"/>
     </row>
-    <row r="878" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="4"/>
     </row>
-    <row r="879" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="4"/>
     </row>
-    <row r="880" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="4"/>
     </row>
-    <row r="881" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="4"/>
     </row>
-    <row r="882" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="4"/>
     </row>
-    <row r="883" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="4"/>
     </row>
-    <row r="884" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="4"/>
     </row>
-    <row r="885" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="4"/>
     </row>
-    <row r="886" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="4"/>
     </row>
-    <row r="887" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="4"/>
     </row>
-    <row r="888" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="4"/>
     </row>
-    <row r="889" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="4"/>
     </row>
-    <row r="890" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="4"/>
     </row>
-    <row r="891" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="4"/>
     </row>
-    <row r="892" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="4"/>
     </row>
-    <row r="893" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="4"/>
     </row>
-    <row r="894" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="4"/>
     </row>
-    <row r="895" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="4"/>
     </row>
-    <row r="896" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="4"/>
     </row>
-    <row r="897" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="4"/>
     </row>
-    <row r="898" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="4"/>
     </row>
-    <row r="899" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="4"/>
     </row>
-    <row r="900" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="4"/>
     </row>
-    <row r="901" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="4"/>
     </row>
-    <row r="902" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="4"/>
     </row>
-    <row r="903" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="4"/>
     </row>
-    <row r="904" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="4"/>
     </row>
-    <row r="905" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="4"/>
     </row>
-    <row r="906" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="4"/>
     </row>
-    <row r="907" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="4"/>
     </row>
-    <row r="908" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="4"/>
     </row>
-    <row r="909" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="4"/>
     </row>
-    <row r="910" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="4"/>
     </row>
-    <row r="911" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="4"/>
     </row>
-    <row r="912" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="4"/>
     </row>
-    <row r="913" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="4"/>
     </row>
-    <row r="914" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="4"/>
     </row>
-    <row r="915" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="4"/>
     </row>
-    <row r="916" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="4"/>
     </row>
-    <row r="917" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="4"/>
     </row>
-    <row r="918" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="4"/>
     </row>
-    <row r="919" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="4"/>
     </row>
-    <row r="920" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="4"/>
     </row>
-    <row r="921" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="4"/>
     </row>
-    <row r="922" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="4"/>
     </row>
-    <row r="923" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="4"/>
     </row>
-    <row r="924" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="4"/>
     </row>
-    <row r="925" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="4"/>
     </row>
-    <row r="926" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="4"/>
     </row>
-    <row r="927" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="4"/>
     </row>
-    <row r="928" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="4"/>
     </row>
-    <row r="929" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="4"/>
     </row>
-    <row r="930" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="4"/>
     </row>
-    <row r="931" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="4"/>
     </row>
-    <row r="932" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="4"/>
     </row>
-    <row r="933" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="4"/>
     </row>
-    <row r="934" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="4"/>
     </row>
-    <row r="935" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="4"/>
     </row>
-    <row r="936" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="4"/>
     </row>
-    <row r="937" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="4"/>
     </row>
-    <row r="938" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="4"/>
     </row>
-    <row r="939" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="4"/>
     </row>
-    <row r="940" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="4"/>
     </row>
-    <row r="941" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="4"/>
     </row>
-    <row r="942" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="4"/>
     </row>
-    <row r="943" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="4"/>
     </row>
-    <row r="944" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="4"/>
     </row>
-    <row r="945" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="4"/>
     </row>
-    <row r="946" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="4"/>
     </row>
-    <row r="947" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="4"/>
     </row>
-    <row r="948" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="4"/>
     </row>
-    <row r="949" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="4"/>
     </row>
-    <row r="950" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="4"/>
     </row>
-    <row r="951" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="4"/>
     </row>
-    <row r="952" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="4"/>
     </row>
-    <row r="953" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="4"/>
     </row>
-    <row r="954" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="4"/>
     </row>
-    <row r="955" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="4"/>
     </row>
-    <row r="956" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="4"/>
     </row>
-    <row r="957" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="4"/>
     </row>
-    <row r="958" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="4"/>
     </row>
-    <row r="959" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="4"/>
     </row>
-    <row r="960" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="4"/>
     </row>
-    <row r="961" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="4"/>
     </row>
-    <row r="962" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="4"/>
     </row>
-    <row r="963" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="4"/>
     </row>
-    <row r="964" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="4"/>
     </row>
-    <row r="965" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="4"/>
     </row>
-    <row r="966" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="4"/>
     </row>
-    <row r="967" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="4"/>
     </row>
-    <row r="968" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="4"/>
     </row>
-    <row r="969" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="4"/>
     </row>
-    <row r="970" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="4"/>
     </row>
-    <row r="971" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="4"/>
     </row>
-    <row r="972" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="4"/>
     </row>
-    <row r="973" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="4"/>
     </row>
-    <row r="974" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="4"/>
     </row>
-    <row r="975" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="4"/>
     </row>
-    <row r="976" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="4"/>
     </row>
-    <row r="977" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="4"/>
     </row>
-    <row r="978" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="4"/>
     </row>
-    <row r="979" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B979" s="4"/>
     </row>
-    <row r="980" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B980" s="4"/>
     </row>
-    <row r="981" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B981" s="4"/>
     </row>
-    <row r="982" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B982" s="4"/>
     </row>
-    <row r="983" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B983" s="4"/>
     </row>
-    <row r="984" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B984" s="4"/>
     </row>
-    <row r="985" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B985" s="4"/>
     </row>
-    <row r="986" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B986" s="4"/>
     </row>
-    <row r="987" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B987" s="4"/>
     </row>
-    <row r="988" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B988" s="4"/>
     </row>
-    <row r="989" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B989" s="4"/>
     </row>
-    <row r="990" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B990" s="4"/>
     </row>
-    <row r="991" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B991" s="4"/>
     </row>
-    <row r="992" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B992" s="4"/>
     </row>
-    <row r="993" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B993" s="4"/>
     </row>
-    <row r="994" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B994" s="4"/>
     </row>
-    <row r="995" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B995" s="4"/>
     </row>
-    <row r="996" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B996" s="4"/>
     </row>
-    <row r="997" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B997" s="4"/>
     </row>
-    <row r="998" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B998" s="4"/>
     </row>
-    <row r="999" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B999" s="4"/>
     </row>
-    <row r="1000" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1000" s="4"/>
     </row>
-    <row r="1001" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1001" s="4"/>
     </row>
   </sheetData>

--- a/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
+++ b/documents/Projektmanagement/Zeitbudget, -plan und Meilensteine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besitzer\Dropbox\Studium\Semester 6\FRONT\FRONT_Projekt\front-projekt\documents\Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Dropbox\ISC\Sem 06\FRONT\PROJEKT\git\front-projekt\documents\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2924DF5A-4062-4BFF-B0A8-D2AE72CE2F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AC1129-B81B-4510-B19B-2ED646D844B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitbudget" sheetId="4" r:id="rId1"/>
@@ -1217,13 +1217,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1457,15 +1457,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
+      <selection pane="bottomLeft" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1479,7 +1479,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>102</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1513,7 +1513,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="26" t="s">
@@ -1539,7 +1539,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="29" t="s">
         <v>108</v>
@@ -1569,7 +1569,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="31" t="s">
         <v>109</v>
@@ -1600,12 +1600,12 @@
       </c>
       <c r="J6" s="28">
         <f>SUM(J10:J75)</f>
-        <v>67.5</v>
+        <v>68</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="31" t="s">
         <v>111</v>
@@ -1636,12 +1636,12 @@
       </c>
       <c r="J7" s="28">
         <f t="shared" si="1"/>
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>112</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1675,7 +1675,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>241</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>116</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>118</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>120</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>122</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>126</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>128</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>130</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>132</v>
       </c>
@@ -1995,7 +1995,7 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>134</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>136</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>180</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>182</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>184</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>138</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>186</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>188</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>184</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>140</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>191</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>192</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>193</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>194</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>195</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>238</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>142</v>
       </c>
@@ -2503,7 +2503,7 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>144</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>146</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>148</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>180</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>182</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>184</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>150</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>186</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>188</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>184</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>152</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>191</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>192</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>193</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>194</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>195</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>260</v>
       </c>
@@ -2971,7 +2971,7 @@
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>155</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>157</v>
       </c>
@@ -3023,7 +3023,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>159</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>161</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>163</v>
       </c>
@@ -3107,7 +3107,7 @@
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>165</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>167</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>169</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="U61" s="22"/>
       <c r="V61" s="22"/>
     </row>
-    <row r="62" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>171</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="U62" s="22"/>
       <c r="V62" s="22"/>
     </row>
-    <row r="63" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>101</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="U63" s="22"/>
       <c r="V63" s="22"/>
     </row>
-    <row r="64" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>174</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="U64" s="22"/>
       <c r="V64" s="22"/>
     </row>
-    <row r="65" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>176</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="U65" s="22"/>
       <c r="V65" s="22"/>
     </row>
-    <row r="66" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>178</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>245</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>246</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>247</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>99</v>
       </c>
@@ -3459,12 +3459,12 @@
         <v>0.5</v>
       </c>
       <c r="J70" s="22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -3478,7 +3478,7 @@
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -3492,7 +3492,7 @@
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
     </row>
-    <row r="73" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>242</v>
       </c>
@@ -3508,7 +3508,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -3522,7 +3522,7 @@
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
     </row>
-    <row r="75" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="57" t="s">
         <v>243</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="47"/>
       <c r="C76" s="22"/>
@@ -3568,7 +3568,7 @@
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
     </row>
-    <row r="77" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="57" t="s">
         <v>244</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
     </row>
-    <row r="78" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -3596,7 +3596,7 @@
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
     </row>
-    <row r="79" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -3628,64 +3628,64 @@
       <selection pane="bottomRight" activeCell="BZ63" sqref="BZ63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" customWidth="1"/>
-    <col min="2" max="2" width="4.1328125" customWidth="1"/>
-    <col min="3" max="3" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" customWidth="1"/>
     <col min="5" max="101" width="3.6640625" customWidth="1"/>
-    <col min="102" max="102" width="7.46484375" customWidth="1"/>
+    <col min="102" max="102" width="7.44140625" customWidth="1"/>
     <col min="103" max="200" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="65" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="65" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="65" t="s">
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="65" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
       <c r="AN1" s="62" t="s">
         <v>5</v>
       </c>
@@ -3834,7 +3834,7 @@
       <c r="FI1" s="3"/>
       <c r="FJ1" s="4"/>
     </row>
-    <row r="2" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="E2" s="37" t="s">
         <v>15</v>
@@ -4152,7 +4152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -4175,7 +4175,7 @@
       <c r="C4" s="1"/>
       <c r="CX4" s="5"/>
     </row>
-    <row r="5" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
@@ -4204,7 +4204,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4217,7 +4217,7 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -4226,20 +4226,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="AP9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="E11" s="45"/>
     </row>
-    <row r="12" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="E12" s="45"/>
     </row>
-    <row r="13" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
@@ -4267,7 +4267,7 @@
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
     </row>
-    <row r="14" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="R14" s="36"/>
     </row>
-    <row r="15" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
@@ -4379,20 +4379,20 @@
       <c r="CV15" s="41"/>
       <c r="CW15" s="41"/>
     </row>
-    <row r="16" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -4410,7 +4410,7 @@
       <c r="CT19" s="41"/>
       <c r="CU19" s="41"/>
     </row>
-    <row r="20" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -4420,20 +4420,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
@@ -4449,7 +4449,7 @@
       <c r="AT24" s="41"/>
       <c r="AU24" s="41"/>
     </row>
-    <row r="25" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
@@ -4539,7 +4539,7 @@
       <c r="CV25" s="41"/>
       <c r="CW25" s="41"/>
     </row>
-    <row r="26" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>212</v>
@@ -4552,7 +4552,7 @@
       <c r="AS26" s="41"/>
       <c r="AT26" s="41"/>
     </row>
-    <row r="27" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>213</v>
@@ -4579,7 +4579,7 @@
       <c r="BG27" s="41"/>
       <c r="BH27" s="41"/>
     </row>
-    <row r="28" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="C28" s="1" t="s">
         <v>214</v>
@@ -4606,7 +4606,7 @@
       <c r="BG28" s="41"/>
       <c r="BH28" s="41"/>
     </row>
-    <row r="29" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
@@ -4696,7 +4696,7 @@
       <c r="CV29" s="41"/>
       <c r="CW29" s="41"/>
     </row>
-    <row r="30" spans="1:102" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:102" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="C30" s="1" t="s">
         <v>215</v>
@@ -4751,7 +4751,7 @@
       <c r="CI30" s="41"/>
       <c r="CJ30" s="41"/>
     </row>
-    <row r="31" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>216</v>
       </c>
@@ -4791,7 +4791,7 @@
       <c r="CI31" s="41"/>
       <c r="CJ31" s="41"/>
     </row>
-    <row r="32" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>217</v>
       </c>
@@ -4831,7 +4831,7 @@
       <c r="CI32" s="41"/>
       <c r="CJ32" s="41"/>
     </row>
-    <row r="33" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
@@ -4921,7 +4921,7 @@
       <c r="CV33" s="41"/>
       <c r="CW33" s="41"/>
     </row>
-    <row r="34" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
@@ -4947,7 +4947,7 @@
       <c r="BN34" s="41"/>
       <c r="BO34" s="41"/>
     </row>
-    <row r="35" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
@@ -4980,7 +4980,7 @@
       <c r="BU35" s="41"/>
       <c r="BV35" s="41"/>
     </row>
-    <row r="36" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
@@ -5022,7 +5022,7 @@
       <c r="CI36" s="41"/>
       <c r="CJ36" s="41"/>
     </row>
-    <row r="37" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>221</v>
@@ -5056,7 +5056,7 @@
       <c r="CI37" s="41"/>
       <c r="CJ37" s="41"/>
     </row>
-    <row r="38" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="C38" s="1" t="s">
         <v>222</v>
@@ -5090,7 +5090,7 @@
       <c r="CI38" s="41"/>
       <c r="CJ38" s="41"/>
     </row>
-    <row r="39" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="C39" s="1" t="s">
         <v>239</v>
@@ -5145,7 +5145,7 @@
       <c r="CI39" s="41"/>
       <c r="CJ39" s="41"/>
     </row>
-    <row r="40" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="C40" s="1" t="s">
         <v>50</v>
@@ -5182,7 +5182,7 @@
       <c r="BU40" s="41"/>
       <c r="BV40" s="41"/>
     </row>
-    <row r="41" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="33"/>
       <c r="C41" s="1" t="s">
         <v>51</v>
@@ -5222,7 +5222,7 @@
       <c r="CV41" s="41"/>
       <c r="CW41" s="41"/>
     </row>
-    <row r="42" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33"/>
       <c r="C42" s="35" t="s">
         <v>52</v>
@@ -5231,49 +5231,49 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="33"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="33"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="48"/>
       <c r="C45" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="66" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="64"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="64"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="64"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="15" t="s">
         <v>224</v>
       </c>
@@ -5281,2973 +5281,2977 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="64"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="64"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B52" s="64"/>
+    <row r="52" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B52" s="66"/>
       <c r="C52" s="15" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B53" s="64"/>
+    <row r="53" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B53" s="66"/>
       <c r="C53" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="64"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="64"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="64"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:71" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="64"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="15" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="64"/>
+    <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="66"/>
       <c r="C58" s="15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B59" s="64"/>
+    <row r="59" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B59" s="66"/>
       <c r="C59" s="15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B60" s="64"/>
+    <row r="60" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B60" s="66"/>
       <c r="C60" s="15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B61" s="64"/>
+    <row r="61" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B61" s="66"/>
       <c r="C61" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B62" s="64"/>
+    <row r="62" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B62" s="66"/>
       <c r="C62" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B63" s="64"/>
+    <row r="63" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B63" s="66"/>
       <c r="C63" s="15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:71" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B64" s="64"/>
+    <row r="64" spans="1:71" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B64" s="66"/>
       <c r="C64" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B65" s="64"/>
+    <row r="65" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B65" s="66"/>
       <c r="C65" s="15"/>
     </row>
-    <row r="66" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B66" s="64"/>
+    <row r="66" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B66" s="66"/>
       <c r="C66" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B67" s="64"/>
+    <row r="67" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B67" s="66"/>
       <c r="C67" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B68" s="64"/>
+    <row r="68" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B68" s="66"/>
       <c r="C68" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B69" s="64"/>
+    <row r="69" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B69" s="66"/>
       <c r="C69" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B70" s="64"/>
+    <row r="70" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B70" s="66"/>
       <c r="C70" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B71" s="64"/>
+    <row r="71" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B71" s="66"/>
       <c r="C71" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B72" s="64"/>
+    <row r="72" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B72" s="66"/>
       <c r="C72" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B73" s="64"/>
+    <row r="73" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B73" s="66"/>
       <c r="C73" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B74" s="64"/>
+    <row r="74" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B74" s="66"/>
       <c r="C74" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B75" s="64"/>
+    <row r="75" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B75" s="66"/>
       <c r="C75" s="16"/>
     </row>
-    <row r="76" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B76" s="64"/>
+    <row r="76" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B76" s="66"/>
       <c r="C76" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B77" s="64"/>
+    <row r="77" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B77" s="66"/>
       <c r="C77" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B78" s="64"/>
+    <row r="78" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B78" s="66"/>
       <c r="C78" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="2:53" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B79" s="64"/>
+    <row r="79" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B79" s="66"/>
       <c r="C79" s="15" t="s">
         <v>72</v>
       </c>
       <c r="BA79" s="6"/>
     </row>
-    <row r="80" spans="2:53" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B80" s="64"/>
+    <row r="80" spans="2:53" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B80" s="66"/>
       <c r="C80" s="16"/>
     </row>
-    <row r="81" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B81" s="64"/>
+    <row r="81" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B81" s="66"/>
       <c r="C81" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B82" s="64"/>
+    <row r="82" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B82" s="66"/>
       <c r="C82" s="59" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B83" s="64"/>
+    <row r="83" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B83" s="66"/>
       <c r="C83" s="59" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B84" s="64"/>
+    <row r="84" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B84" s="66"/>
       <c r="C84" s="59" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B85" s="64"/>
+    <row r="85" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B85" s="66"/>
       <c r="C85" s="15" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="86" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="BW86" s="46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:75" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C375" s="1"/>
     </row>
-    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C376" s="1"/>
     </row>
-    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="3:3" ht="12.75